--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
   <si>
     <t>代码</t>
   </si>
@@ -106,31 +106,31 @@
     <t>600733</t>
   </si>
   <si>
+    <t>600036</t>
+  </si>
+  <si>
+    <t>002475</t>
+  </si>
+  <si>
     <t>002600</t>
+  </si>
+  <si>
+    <t>601919</t>
   </si>
   <si>
     <t>601138</t>
   </si>
   <si>
-    <t>601899</t>
+    <t>601318</t>
   </si>
   <si>
-    <t>002475</t>
+    <t>000338</t>
+  </si>
+  <si>
+    <t>601398</t>
   </si>
   <si>
     <t>002130</t>
-  </si>
-  <si>
-    <t>002241</t>
-  </si>
-  <si>
-    <t>601919</t>
-  </si>
-  <si>
-    <t>600900</t>
-  </si>
-  <si>
-    <t>000977</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>中国石油</t>
+  </si>
+  <si>
+    <t>潍柴动力</t>
+  </si>
+  <si>
+    <t>工商银行</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC240"/>
+  <dimension ref="A1:AC250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21146,8 +21152,8 @@
       </c>
     </row>
     <row r="231" spans="1:29">
-      <c r="A231" t="s">
-        <v>29</v>
+      <c r="A231">
+        <v>600733</v>
       </c>
       <c r="B231" t="s">
         <v>80</v>
@@ -21235,8 +21241,8 @@
       </c>
     </row>
     <row r="232" spans="1:29">
-      <c r="A232" t="s">
-        <v>30</v>
+      <c r="A232">
+        <v>2600</v>
       </c>
       <c r="B232" t="s">
         <v>93</v>
@@ -21324,8 +21330,8 @@
       </c>
     </row>
     <row r="233" spans="1:29">
-      <c r="A233" t="s">
-        <v>31</v>
+      <c r="A233">
+        <v>601138</v>
       </c>
       <c r="B233" t="s">
         <v>42</v>
@@ -21413,8 +21419,8 @@
       </c>
     </row>
     <row r="234" spans="1:29">
-      <c r="A234" t="s">
-        <v>32</v>
+      <c r="A234">
+        <v>601899</v>
       </c>
       <c r="B234" t="s">
         <v>58</v>
@@ -21502,8 +21508,8 @@
       </c>
     </row>
     <row r="235" spans="1:29">
-      <c r="A235" t="s">
-        <v>33</v>
+      <c r="A235">
+        <v>2475</v>
       </c>
       <c r="B235" t="s">
         <v>55</v>
@@ -21591,8 +21597,8 @@
       </c>
     </row>
     <row r="236" spans="1:29">
-      <c r="A236" t="s">
-        <v>34</v>
+      <c r="A236">
+        <v>2130</v>
       </c>
       <c r="B236" t="s">
         <v>91</v>
@@ -21680,8 +21686,8 @@
       </c>
     </row>
     <row r="237" spans="1:29">
-      <c r="A237" t="s">
-        <v>35</v>
+      <c r="A237">
+        <v>2241</v>
       </c>
       <c r="B237" t="s">
         <v>95</v>
@@ -21769,8 +21775,8 @@
       </c>
     </row>
     <row r="238" spans="1:29">
-      <c r="A238" t="s">
-        <v>36</v>
+      <c r="A238">
+        <v>601919</v>
       </c>
       <c r="B238" t="s">
         <v>56</v>
@@ -21858,8 +21864,8 @@
       </c>
     </row>
     <row r="239" spans="1:29">
-      <c r="A239" t="s">
-        <v>37</v>
+      <c r="A239">
+        <v>600900</v>
       </c>
       <c r="B239" t="s">
         <v>88</v>
@@ -21947,8 +21953,8 @@
       </c>
     </row>
     <row r="240" spans="1:29">
-      <c r="A240" t="s">
-        <v>38</v>
+      <c r="A240">
+        <v>977</v>
       </c>
       <c r="B240" t="s">
         <v>40</v>
@@ -22033,6 +22039,896 @@
       </c>
       <c r="AC240">
         <v>0.2950643776824019</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29">
+      <c r="A241" t="s">
+        <v>29</v>
+      </c>
+      <c r="B241" t="s">
+        <v>80</v>
+      </c>
+      <c r="C241">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D241">
+        <v>0.23</v>
+      </c>
+      <c r="E241">
+        <v>0.02</v>
+      </c>
+      <c r="F241">
+        <v>4008079</v>
+      </c>
+      <c r="G241">
+        <v>3551468594</v>
+      </c>
+      <c r="H241">
+        <v>3.95</v>
+      </c>
+      <c r="I241">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="J241">
+        <v>8.68</v>
+      </c>
+      <c r="K241">
+        <v>8.81</v>
+      </c>
+      <c r="L241">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="M241">
+        <v>1.16</v>
+      </c>
+      <c r="N241">
+        <v>8.27</v>
+      </c>
+      <c r="O241">
+        <v>-12.18</v>
+      </c>
+      <c r="P241">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="Q241">
+        <v>49492708141</v>
+      </c>
+      <c r="R241">
+        <v>43049512959</v>
+      </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+      <c r="T241">
+        <v>0</v>
+      </c>
+      <c r="U241">
+        <v>8.56</v>
+      </c>
+      <c r="V241">
+        <v>44.86</v>
+      </c>
+      <c r="W241" s="2">
+        <v>45475</v>
+      </c>
+      <c r="X241">
+        <v>8.67</v>
+      </c>
+      <c r="Y241">
+        <v>-2.36</v>
+      </c>
+      <c r="Z241">
+        <v>8.93</v>
+      </c>
+      <c r="AA241">
+        <v>8.6</v>
+      </c>
+      <c r="AB241">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="AC241">
+        <v>0.563063063063051</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
+      <c r="A242" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242" t="s">
+        <v>60</v>
+      </c>
+      <c r="C242">
+        <v>35.08</v>
+      </c>
+      <c r="D242">
+        <v>2.1</v>
+      </c>
+      <c r="E242">
+        <v>0.72</v>
+      </c>
+      <c r="F242">
+        <v>868771</v>
+      </c>
+      <c r="G242">
+        <v>3041833255</v>
+      </c>
+      <c r="H242">
+        <v>2.59</v>
+      </c>
+      <c r="I242">
+        <v>35.25</v>
+      </c>
+      <c r="J242">
+        <v>34.36</v>
+      </c>
+      <c r="K242">
+        <v>34.38</v>
+      </c>
+      <c r="L242">
+        <v>34.36</v>
+      </c>
+      <c r="M242">
+        <v>1.64</v>
+      </c>
+      <c r="N242">
+        <v>0.42</v>
+      </c>
+      <c r="O242">
+        <v>5.81</v>
+      </c>
+      <c r="P242">
+        <v>0.91</v>
+      </c>
+      <c r="Q242">
+        <v>884712183683</v>
+      </c>
+      <c r="R242">
+        <v>723663370569</v>
+      </c>
+      <c r="S242">
+        <v>-0.03</v>
+      </c>
+      <c r="T242">
+        <v>0.06</v>
+      </c>
+      <c r="U242">
+        <v>7.48</v>
+      </c>
+      <c r="V242">
+        <v>26.1</v>
+      </c>
+      <c r="W242" s="2">
+        <v>45475</v>
+      </c>
+      <c r="X242">
+        <v>34.46</v>
+      </c>
+      <c r="Y242">
+        <v>-1.77</v>
+      </c>
+      <c r="Z242">
+        <v>35.09</v>
+      </c>
+      <c r="AA242">
+        <v>34.31</v>
+      </c>
+      <c r="AB242">
+        <v>35.01</v>
+      </c>
+      <c r="AC242">
+        <v>0.02850627137971812</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" t="s">
+        <v>31</v>
+      </c>
+      <c r="B243" t="s">
+        <v>55</v>
+      </c>
+      <c r="C243">
+        <v>39.09</v>
+      </c>
+      <c r="D243">
+        <v>0.46</v>
+      </c>
+      <c r="E243">
+        <v>0.18</v>
+      </c>
+      <c r="F243">
+        <v>690653</v>
+      </c>
+      <c r="G243">
+        <v>2716509616.57</v>
+      </c>
+      <c r="H243">
+        <v>2.67</v>
+      </c>
+      <c r="I243">
+        <v>39.86</v>
+      </c>
+      <c r="J243">
+        <v>38.82</v>
+      </c>
+      <c r="K243">
+        <v>39.49</v>
+      </c>
+      <c r="L243">
+        <v>38.91</v>
+      </c>
+      <c r="M243">
+        <v>0.77</v>
+      </c>
+      <c r="N243">
+        <v>0.96</v>
+      </c>
+      <c r="O243">
+        <v>28.48</v>
+      </c>
+      <c r="P243">
+        <v>4.82</v>
+      </c>
+      <c r="Q243">
+        <v>281484212311</v>
+      </c>
+      <c r="R243">
+        <v>280875603293</v>
+      </c>
+      <c r="S243">
+        <v>-0.08</v>
+      </c>
+      <c r="T243">
+        <v>-0.03</v>
+      </c>
+      <c r="U243">
+        <v>31.75</v>
+      </c>
+      <c r="V243">
+        <v>13.47</v>
+      </c>
+      <c r="W243" s="2">
+        <v>45475</v>
+      </c>
+      <c r="X243">
+        <v>38.89</v>
+      </c>
+      <c r="Y243">
+        <v>-0.51</v>
+      </c>
+      <c r="Z243">
+        <v>39.78</v>
+      </c>
+      <c r="AA243">
+        <v>38.62</v>
+      </c>
+      <c r="AB243">
+        <v>39.09</v>
+      </c>
+      <c r="AC243">
+        <v>1.765157329240209</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" t="s">
+        <v>32</v>
+      </c>
+      <c r="B244" t="s">
+        <v>93</v>
+      </c>
+      <c r="C244">
+        <v>6.64</v>
+      </c>
+      <c r="D244">
+        <v>-2.5</v>
+      </c>
+      <c r="E244">
+        <v>-0.17</v>
+      </c>
+      <c r="F244">
+        <v>3927214</v>
+      </c>
+      <c r="G244">
+        <v>2645685144.42</v>
+      </c>
+      <c r="H244">
+        <v>5.58</v>
+      </c>
+      <c r="I244">
+        <v>6.94</v>
+      </c>
+      <c r="J244">
+        <v>6.56</v>
+      </c>
+      <c r="K244">
+        <v>6.83</v>
+      </c>
+      <c r="L244">
+        <v>6.81</v>
+      </c>
+      <c r="M244">
+        <v>0.93</v>
+      </c>
+      <c r="N244">
+        <v>5.7</v>
+      </c>
+      <c r="O244">
+        <v>25.24</v>
+      </c>
+      <c r="P244">
+        <v>2.52</v>
+      </c>
+      <c r="Q244">
+        <v>46534300718</v>
+      </c>
+      <c r="R244">
+        <v>45773088947</v>
+      </c>
+      <c r="S244">
+        <v>0.15</v>
+      </c>
+      <c r="T244">
+        <v>0.76</v>
+      </c>
+      <c r="U244">
+        <v>18.78</v>
+      </c>
+      <c r="V244">
+        <v>-1.34</v>
+      </c>
+      <c r="W244" s="2">
+        <v>45475</v>
+      </c>
+      <c r="X244">
+        <v>6.46</v>
+      </c>
+      <c r="Y244">
+        <v>-2.71</v>
+      </c>
+      <c r="Z244">
+        <v>6.77</v>
+      </c>
+      <c r="AA244">
+        <v>6.41</v>
+      </c>
+      <c r="AB244">
+        <v>6.6</v>
+      </c>
+      <c r="AC244">
+        <v>1.957831325301203</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" t="s">
+        <v>33</v>
+      </c>
+      <c r="B245" t="s">
+        <v>56</v>
+      </c>
+      <c r="C245">
+        <v>16.05</v>
+      </c>
+      <c r="D245">
+        <v>1.45</v>
+      </c>
+      <c r="E245">
+        <v>0.23</v>
+      </c>
+      <c r="F245">
+        <v>1552918</v>
+      </c>
+      <c r="G245">
+        <v>2486843127</v>
+      </c>
+      <c r="H245">
+        <v>2.91</v>
+      </c>
+      <c r="I245">
+        <v>16.23</v>
+      </c>
+      <c r="J245">
+        <v>15.77</v>
+      </c>
+      <c r="K245">
+        <v>15.9</v>
+      </c>
+      <c r="L245">
+        <v>15.82</v>
+      </c>
+      <c r="M245">
+        <v>1.13</v>
+      </c>
+      <c r="N245">
+        <v>1.22</v>
+      </c>
+      <c r="O245">
+        <v>9.48</v>
+      </c>
+      <c r="P245">
+        <v>1.26</v>
+      </c>
+      <c r="Q245">
+        <v>256166720751</v>
+      </c>
+      <c r="R245">
+        <v>204810251751</v>
+      </c>
+      <c r="S245">
+        <v>-0.06</v>
+      </c>
+      <c r="T245">
+        <v>0.12</v>
+      </c>
+      <c r="U245">
+        <v>57.97</v>
+      </c>
+      <c r="V245">
+        <v>71.66</v>
+      </c>
+      <c r="W245" s="2">
+        <v>45475</v>
+      </c>
+      <c r="X245">
+        <v>15.47</v>
+      </c>
+      <c r="Y245">
+        <v>-3.61</v>
+      </c>
+      <c r="Z245">
+        <v>16.19</v>
+      </c>
+      <c r="AA245">
+        <v>15.44</v>
+      </c>
+      <c r="AB245">
+        <v>16.15</v>
+      </c>
+      <c r="AC245">
+        <v>0.8722741433021841</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" t="s">
+        <v>34</v>
+      </c>
+      <c r="B246" t="s">
+        <v>42</v>
+      </c>
+      <c r="C246">
+        <v>27.36</v>
+      </c>
+      <c r="D246">
+        <v>-2.29</v>
+      </c>
+      <c r="E246">
+        <v>-0.64</v>
+      </c>
+      <c r="F246">
+        <v>901733</v>
+      </c>
+      <c r="G246">
+        <v>2475200110</v>
+      </c>
+      <c r="H246">
+        <v>2.18</v>
+      </c>
+      <c r="I246">
+        <v>27.87</v>
+      </c>
+      <c r="J246">
+        <v>27.26</v>
+      </c>
+      <c r="K246">
+        <v>27.75</v>
+      </c>
+      <c r="L246">
+        <v>28</v>
+      </c>
+      <c r="M246">
+        <v>0.79</v>
+      </c>
+      <c r="N246">
+        <v>0.45</v>
+      </c>
+      <c r="O246">
+        <v>32.47</v>
+      </c>
+      <c r="P246">
+        <v>3.74</v>
+      </c>
+      <c r="Q246">
+        <v>543479785642</v>
+      </c>
+      <c r="R246">
+        <v>543329518941</v>
+      </c>
+      <c r="S246">
+        <v>0.04</v>
+      </c>
+      <c r="T246">
+        <v>0.15</v>
+      </c>
+      <c r="U246">
+        <v>17.37</v>
+      </c>
+      <c r="V246">
+        <v>80.95</v>
+      </c>
+      <c r="W246" s="2">
+        <v>45475</v>
+      </c>
+      <c r="X246">
+        <v>27.38</v>
+      </c>
+      <c r="Y246">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z246">
+        <v>27.54</v>
+      </c>
+      <c r="AA246">
+        <v>26.81</v>
+      </c>
+      <c r="AB246">
+        <v>27.15</v>
+      </c>
+      <c r="AC246">
+        <v>0.6578947368421043</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" t="s">
+        <v>35</v>
+      </c>
+      <c r="B247" t="s">
+        <v>62</v>
+      </c>
+      <c r="C247">
+        <v>42.17</v>
+      </c>
+      <c r="D247">
+        <v>1.32</v>
+      </c>
+      <c r="E247">
+        <v>0.55</v>
+      </c>
+      <c r="F247">
+        <v>568857</v>
+      </c>
+      <c r="G247">
+        <v>2404908551</v>
+      </c>
+      <c r="H247">
+        <v>3.24</v>
+      </c>
+      <c r="I247">
+        <v>42.75</v>
+      </c>
+      <c r="J247">
+        <v>41.4</v>
+      </c>
+      <c r="K247">
+        <v>41.41</v>
+      </c>
+      <c r="L247">
+        <v>41.62</v>
+      </c>
+      <c r="M247">
+        <v>1.51</v>
+      </c>
+      <c r="N247">
+        <v>0.53</v>
+      </c>
+      <c r="O247">
+        <v>5.23</v>
+      </c>
+      <c r="P247">
+        <v>0.85</v>
+      </c>
+      <c r="Q247">
+        <v>767925593377</v>
+      </c>
+      <c r="R247">
+        <v>453861274998</v>
+      </c>
+      <c r="S247">
+        <v>-0.02</v>
+      </c>
+      <c r="T247">
+        <v>-0.05</v>
+      </c>
+      <c r="U247">
+        <v>2.23</v>
+      </c>
+      <c r="V247">
+        <v>4.64</v>
+      </c>
+      <c r="W247" s="2">
+        <v>45475</v>
+      </c>
+      <c r="X247">
+        <v>42.27</v>
+      </c>
+      <c r="Y247">
+        <v>0.24</v>
+      </c>
+      <c r="Z247">
+        <v>42.43</v>
+      </c>
+      <c r="AA247">
+        <v>41.91</v>
+      </c>
+      <c r="AB247">
+        <v>42.18</v>
+      </c>
+      <c r="AC247">
+        <v>0.6165520512212426</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" t="s">
+        <v>36</v>
+      </c>
+      <c r="B248" t="s">
+        <v>98</v>
+      </c>
+      <c r="C248">
+        <v>14.7</v>
+      </c>
+      <c r="D248">
+        <v>-6.43</v>
+      </c>
+      <c r="E248">
+        <v>-1.01</v>
+      </c>
+      <c r="F248">
+        <v>1615805</v>
+      </c>
+      <c r="G248">
+        <v>2388235245.21</v>
+      </c>
+      <c r="H248">
+        <v>7.83</v>
+      </c>
+      <c r="I248">
+        <v>15.67</v>
+      </c>
+      <c r="J248">
+        <v>14.44</v>
+      </c>
+      <c r="K248">
+        <v>15.62</v>
+      </c>
+      <c r="L248">
+        <v>15.71</v>
+      </c>
+      <c r="M248">
+        <v>2.01</v>
+      </c>
+      <c r="N248">
+        <v>3.25</v>
+      </c>
+      <c r="O248">
+        <v>12.34</v>
+      </c>
+      <c r="P248">
+        <v>1.59</v>
+      </c>
+      <c r="Q248">
+        <v>128280385269</v>
+      </c>
+      <c r="R248">
+        <v>73082993134</v>
+      </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="U248">
+        <v>-12.91</v>
+      </c>
+      <c r="V248">
+        <v>10.03</v>
+      </c>
+      <c r="W248" s="2">
+        <v>45475</v>
+      </c>
+      <c r="X248">
+        <v>14.22</v>
+      </c>
+      <c r="Y248">
+        <v>-3.27</v>
+      </c>
+      <c r="Z248">
+        <v>14.72</v>
+      </c>
+      <c r="AA248">
+        <v>14.15</v>
+      </c>
+      <c r="AB248">
+        <v>14.6</v>
+      </c>
+      <c r="AC248">
+        <v>0.1360544217687167</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" t="s">
+        <v>37</v>
+      </c>
+      <c r="B249" t="s">
+        <v>99</v>
+      </c>
+      <c r="C249">
+        <v>5.97</v>
+      </c>
+      <c r="D249">
+        <v>2.58</v>
+      </c>
+      <c r="E249">
+        <v>0.15</v>
+      </c>
+      <c r="F249">
+        <v>3770405</v>
+      </c>
+      <c r="G249">
+        <v>2234061030</v>
+      </c>
+      <c r="H249">
+        <v>2.92</v>
+      </c>
+      <c r="I249">
+        <v>5.98</v>
+      </c>
+      <c r="J249">
+        <v>5.81</v>
+      </c>
+      <c r="K249">
+        <v>5.82</v>
+      </c>
+      <c r="L249">
+        <v>5.82</v>
+      </c>
+      <c r="M249">
+        <v>1.3</v>
+      </c>
+      <c r="N249">
+        <v>0.14</v>
+      </c>
+      <c r="O249">
+        <v>6.07</v>
+      </c>
+      <c r="P249">
+        <v>0.61</v>
+      </c>
+      <c r="Q249">
+        <v>2127745354821</v>
+      </c>
+      <c r="R249">
+        <v>1609584908858</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>0.17</v>
+      </c>
+      <c r="U249">
+        <v>12.85</v>
+      </c>
+      <c r="V249">
+        <v>24.9</v>
+      </c>
+      <c r="W249" s="2">
+        <v>45475</v>
+      </c>
+      <c r="X249">
+        <v>5.89</v>
+      </c>
+      <c r="Y249">
+        <v>-1.34</v>
+      </c>
+      <c r="Z249">
+        <v>5.98</v>
+      </c>
+      <c r="AA249">
+        <v>5.85</v>
+      </c>
+      <c r="AB249">
+        <v>5.96</v>
+      </c>
+      <c r="AC249">
+        <v>0.1675041876047014</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" t="s">
+        <v>38</v>
+      </c>
+      <c r="B250" t="s">
+        <v>91</v>
+      </c>
+      <c r="C250">
+        <v>14.8</v>
+      </c>
+      <c r="D250">
+        <v>-1.2</v>
+      </c>
+      <c r="E250">
+        <v>-0.18</v>
+      </c>
+      <c r="F250">
+        <v>1281431</v>
+      </c>
+      <c r="G250">
+        <v>1920222553.32</v>
+      </c>
+      <c r="H250">
+        <v>4.47</v>
+      </c>
+      <c r="I250">
+        <v>15.35</v>
+      </c>
+      <c r="J250">
+        <v>14.68</v>
+      </c>
+      <c r="K250">
+        <v>15.08</v>
+      </c>
+      <c r="L250">
+        <v>14.98</v>
+      </c>
+      <c r="M250">
+        <v>1.23</v>
+      </c>
+      <c r="N250">
+        <v>10.26</v>
+      </c>
+      <c r="O250">
+        <v>25.29</v>
+      </c>
+      <c r="P250">
+        <v>3.84</v>
+      </c>
+      <c r="Q250">
+        <v>18646498718</v>
+      </c>
+      <c r="R250">
+        <v>18487407109</v>
+      </c>
+      <c r="S250">
+        <v>0.2</v>
+      </c>
+      <c r="T250">
+        <v>0.2</v>
+      </c>
+      <c r="U250">
+        <v>34.3</v>
+      </c>
+      <c r="V250">
+        <v>100.54</v>
+      </c>
+      <c r="W250" s="2">
+        <v>45475</v>
+      </c>
+      <c r="X250">
+        <v>14.17</v>
+      </c>
+      <c r="Y250">
+        <v>-4.26</v>
+      </c>
+      <c r="Z250">
+        <v>14.72</v>
+      </c>
+      <c r="AA250">
+        <v>14</v>
+      </c>
+      <c r="AB250">
+        <v>14.68</v>
+      </c>
+      <c r="AC250">
+        <v>-0.540540540540541</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="101">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
+    <t>600036</t>
+  </si>
+  <si>
+    <t>601919</t>
+  </si>
+  <si>
+    <t>002600</t>
+  </si>
+  <si>
     <t>600733</t>
   </si>
   <si>
-    <t>600036</t>
+    <t>600584</t>
+  </si>
+  <si>
+    <t>600276</t>
+  </si>
+  <si>
+    <t>600900</t>
   </si>
   <si>
     <t>002475</t>
   </si>
   <si>
-    <t>002600</t>
-  </si>
-  <si>
-    <t>601919</t>
+    <t>600418</t>
   </si>
   <si>
     <t>601138</t>
-  </si>
-  <si>
-    <t>601318</t>
-  </si>
-  <si>
-    <t>000338</t>
-  </si>
-  <si>
-    <t>601398</t>
-  </si>
-  <si>
-    <t>002130</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>工商银行</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
   </si>
 </sst>
 </file>
@@ -675,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC250"/>
+  <dimension ref="A1:AC260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22042,8 +22045,8 @@
       </c>
     </row>
     <row r="241" spans="1:29">
-      <c r="A241" t="s">
-        <v>29</v>
+      <c r="A241">
+        <v>600733</v>
       </c>
       <c r="B241" t="s">
         <v>80</v>
@@ -22131,8 +22134,8 @@
       </c>
     </row>
     <row r="242" spans="1:29">
-      <c r="A242" t="s">
-        <v>30</v>
+      <c r="A242">
+        <v>600036</v>
       </c>
       <c r="B242" t="s">
         <v>60</v>
@@ -22220,8 +22223,8 @@
       </c>
     </row>
     <row r="243" spans="1:29">
-      <c r="A243" t="s">
-        <v>31</v>
+      <c r="A243">
+        <v>2475</v>
       </c>
       <c r="B243" t="s">
         <v>55</v>
@@ -22309,8 +22312,8 @@
       </c>
     </row>
     <row r="244" spans="1:29">
-      <c r="A244" t="s">
-        <v>32</v>
+      <c r="A244">
+        <v>2600</v>
       </c>
       <c r="B244" t="s">
         <v>93</v>
@@ -22398,8 +22401,8 @@
       </c>
     </row>
     <row r="245" spans="1:29">
-      <c r="A245" t="s">
-        <v>33</v>
+      <c r="A245">
+        <v>601919</v>
       </c>
       <c r="B245" t="s">
         <v>56</v>
@@ -22487,8 +22490,8 @@
       </c>
     </row>
     <row r="246" spans="1:29">
-      <c r="A246" t="s">
-        <v>34</v>
+      <c r="A246">
+        <v>601138</v>
       </c>
       <c r="B246" t="s">
         <v>42</v>
@@ -22576,8 +22579,8 @@
       </c>
     </row>
     <row r="247" spans="1:29">
-      <c r="A247" t="s">
-        <v>35</v>
+      <c r="A247">
+        <v>601318</v>
       </c>
       <c r="B247" t="s">
         <v>62</v>
@@ -22665,8 +22668,8 @@
       </c>
     </row>
     <row r="248" spans="1:29">
-      <c r="A248" t="s">
-        <v>36</v>
+      <c r="A248">
+        <v>338</v>
       </c>
       <c r="B248" t="s">
         <v>98</v>
@@ -22754,8 +22757,8 @@
       </c>
     </row>
     <row r="249" spans="1:29">
-      <c r="A249" t="s">
-        <v>37</v>
+      <c r="A249">
+        <v>601398</v>
       </c>
       <c r="B249" t="s">
         <v>99</v>
@@ -22843,8 +22846,8 @@
       </c>
     </row>
     <row r="250" spans="1:29">
-      <c r="A250" t="s">
-        <v>38</v>
+      <c r="A250">
+        <v>2130</v>
       </c>
       <c r="B250" t="s">
         <v>91</v>
@@ -22929,6 +22932,896 @@
       </c>
       <c r="AC250">
         <v>-0.540540540540541</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" t="s">
+        <v>29</v>
+      </c>
+      <c r="B251" t="s">
+        <v>60</v>
+      </c>
+      <c r="C251">
+        <v>34.46</v>
+      </c>
+      <c r="D251">
+        <v>-1.77</v>
+      </c>
+      <c r="E251">
+        <v>-0.62</v>
+      </c>
+      <c r="F251">
+        <v>691373</v>
+      </c>
+      <c r="G251">
+        <v>2388331234</v>
+      </c>
+      <c r="H251">
+        <v>2.22</v>
+      </c>
+      <c r="I251">
+        <v>35.09</v>
+      </c>
+      <c r="J251">
+        <v>34.31</v>
+      </c>
+      <c r="K251">
+        <v>35.01</v>
+      </c>
+      <c r="L251">
+        <v>35.08</v>
+      </c>
+      <c r="M251">
+        <v>1.2</v>
+      </c>
+      <c r="N251">
+        <v>0.34</v>
+      </c>
+      <c r="O251">
+        <v>5.71</v>
+      </c>
+      <c r="P251">
+        <v>0.9</v>
+      </c>
+      <c r="Q251">
+        <v>869075879410</v>
+      </c>
+      <c r="R251">
+        <v>710873425023</v>
+      </c>
+      <c r="S251">
+        <v>-0.03</v>
+      </c>
+      <c r="T251">
+        <v>-0.03</v>
+      </c>
+      <c r="U251">
+        <v>5.87</v>
+      </c>
+      <c r="V251">
+        <v>23.87</v>
+      </c>
+      <c r="W251" s="2">
+        <v>45476</v>
+      </c>
+      <c r="X251">
+        <v>34.71</v>
+      </c>
+      <c r="Y251">
+        <v>0.73</v>
+      </c>
+      <c r="Z251">
+        <v>35.04</v>
+      </c>
+      <c r="AA251">
+        <v>34.48</v>
+      </c>
+      <c r="AB251">
+        <v>34.54</v>
+      </c>
+      <c r="AC251">
+        <v>1.683110853163083</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" t="s">
+        <v>30</v>
+      </c>
+      <c r="B252" t="s">
+        <v>56</v>
+      </c>
+      <c r="C252">
+        <v>15.47</v>
+      </c>
+      <c r="D252">
+        <v>-3.61</v>
+      </c>
+      <c r="E252">
+        <v>-0.58</v>
+      </c>
+      <c r="F252">
+        <v>1496881</v>
+      </c>
+      <c r="G252">
+        <v>2341557266</v>
+      </c>
+      <c r="H252">
+        <v>4.67</v>
+      </c>
+      <c r="I252">
+        <v>16.19</v>
+      </c>
+      <c r="J252">
+        <v>15.44</v>
+      </c>
+      <c r="K252">
+        <v>16.15</v>
+      </c>
+      <c r="L252">
+        <v>16.05</v>
+      </c>
+      <c r="M252">
+        <v>1.04</v>
+      </c>
+      <c r="N252">
+        <v>1.17</v>
+      </c>
+      <c r="O252">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="P252">
+        <v>1.22</v>
+      </c>
+      <c r="Q252">
+        <v>246910574279</v>
+      </c>
+      <c r="R252">
+        <v>197409977679</v>
+      </c>
+      <c r="S252">
+        <v>-0.13</v>
+      </c>
+      <c r="T252">
+        <v>-0.32</v>
+      </c>
+      <c r="U252">
+        <v>49.61</v>
+      </c>
+      <c r="V252">
+        <v>65.45</v>
+      </c>
+      <c r="W252" s="2">
+        <v>45476</v>
+      </c>
+      <c r="X252">
+        <v>15.53</v>
+      </c>
+      <c r="Y252">
+        <v>0.39</v>
+      </c>
+      <c r="Z252">
+        <v>15.72</v>
+      </c>
+      <c r="AA252">
+        <v>15.44</v>
+      </c>
+      <c r="AB252">
+        <v>15.45</v>
+      </c>
+      <c r="AC252">
+        <v>1.616031027795733</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" t="s">
+        <v>31</v>
+      </c>
+      <c r="B253" t="s">
+        <v>93</v>
+      </c>
+      <c r="C253">
+        <v>6.46</v>
+      </c>
+      <c r="D253">
+        <v>-2.71</v>
+      </c>
+      <c r="E253">
+        <v>-0.18</v>
+      </c>
+      <c r="F253">
+        <v>3512973</v>
+      </c>
+      <c r="G253">
+        <v>2291886011.23</v>
+      </c>
+      <c r="H253">
+        <v>5.42</v>
+      </c>
+      <c r="I253">
+        <v>6.77</v>
+      </c>
+      <c r="J253">
+        <v>6.41</v>
+      </c>
+      <c r="K253">
+        <v>6.6</v>
+      </c>
+      <c r="L253">
+        <v>6.64</v>
+      </c>
+      <c r="M253">
+        <v>0.76</v>
+      </c>
+      <c r="N253">
+        <v>5.1</v>
+      </c>
+      <c r="O253">
+        <v>24.55</v>
+      </c>
+      <c r="P253">
+        <v>2.45</v>
+      </c>
+      <c r="Q253">
+        <v>45272828711</v>
+      </c>
+      <c r="R253">
+        <v>44532252198</v>
+      </c>
+      <c r="S253">
+        <v>0.47</v>
+      </c>
+      <c r="T253">
+        <v>0.47</v>
+      </c>
+      <c r="U253">
+        <v>17.45</v>
+      </c>
+      <c r="V253">
+        <v>-4.01</v>
+      </c>
+      <c r="W253" s="2">
+        <v>45476</v>
+      </c>
+      <c r="X253">
+        <v>6.42</v>
+      </c>
+      <c r="Y253">
+        <v>-0.62</v>
+      </c>
+      <c r="Z253">
+        <v>6.58</v>
+      </c>
+      <c r="AA253">
+        <v>6.33</v>
+      </c>
+      <c r="AB253">
+        <v>6.41</v>
+      </c>
+      <c r="AC253">
+        <v>1.857585139318887</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29">
+      <c r="A254" t="s">
+        <v>32</v>
+      </c>
+      <c r="B254" t="s">
+        <v>80</v>
+      </c>
+      <c r="C254">
+        <v>8.67</v>
+      </c>
+      <c r="D254">
+        <v>-2.36</v>
+      </c>
+      <c r="E254">
+        <v>-0.21</v>
+      </c>
+      <c r="F254">
+        <v>2570943</v>
+      </c>
+      <c r="G254">
+        <v>2246394183</v>
+      </c>
+      <c r="H254">
+        <v>3.72</v>
+      </c>
+      <c r="I254">
+        <v>8.93</v>
+      </c>
+      <c r="J254">
+        <v>8.6</v>
+      </c>
+      <c r="K254">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="L254">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="M254">
+        <v>0.75</v>
+      </c>
+      <c r="N254">
+        <v>5.3</v>
+      </c>
+      <c r="O254">
+        <v>-11.89</v>
+      </c>
+      <c r="P254">
+        <v>9.17</v>
+      </c>
+      <c r="Q254">
+        <v>48322272475</v>
+      </c>
+      <c r="R254">
+        <v>42031450152</v>
+      </c>
+      <c r="S254">
+        <v>-0.12</v>
+      </c>
+      <c r="T254">
+        <v>-0.12</v>
+      </c>
+      <c r="U254">
+        <v>11.3</v>
+      </c>
+      <c r="V254">
+        <v>41.44</v>
+      </c>
+      <c r="W254" s="2">
+        <v>45476</v>
+      </c>
+      <c r="X254">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y254">
+        <v>-4.27</v>
+      </c>
+      <c r="Z254">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="AA254">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AB254">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="AC254">
+        <v>2.306805074971157</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" t="s">
+        <v>33</v>
+      </c>
+      <c r="B255" t="s">
+        <v>83</v>
+      </c>
+      <c r="C255">
+        <v>32.38</v>
+      </c>
+      <c r="D255">
+        <v>5.44</v>
+      </c>
+      <c r="E255">
+        <v>1.67</v>
+      </c>
+      <c r="F255">
+        <v>690877</v>
+      </c>
+      <c r="G255">
+        <v>2202172414</v>
+      </c>
+      <c r="H255">
+        <v>7.52</v>
+      </c>
+      <c r="I255">
+        <v>32.82</v>
+      </c>
+      <c r="J255">
+        <v>30.51</v>
+      </c>
+      <c r="K255">
+        <v>30.77</v>
+      </c>
+      <c r="L255">
+        <v>30.71</v>
+      </c>
+      <c r="M255">
+        <v>1.52</v>
+      </c>
+      <c r="N255">
+        <v>3.86</v>
+      </c>
+      <c r="O255">
+        <v>107.12</v>
+      </c>
+      <c r="P255">
+        <v>2.22</v>
+      </c>
+      <c r="Q255">
+        <v>57941243777</v>
+      </c>
+      <c r="R255">
+        <v>57941243777</v>
+      </c>
+      <c r="S255">
+        <v>-0.09</v>
+      </c>
+      <c r="T255">
+        <v>-0.03</v>
+      </c>
+      <c r="U255">
+        <v>19.93</v>
+      </c>
+      <c r="V255">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="W255" s="2">
+        <v>45476</v>
+      </c>
+      <c r="X255">
+        <v>31.85</v>
+      </c>
+      <c r="Y255">
+        <v>-1.64</v>
+      </c>
+      <c r="Z255">
+        <v>32.55</v>
+      </c>
+      <c r="AA255">
+        <v>31.7</v>
+      </c>
+      <c r="AB255">
+        <v>32.11</v>
+      </c>
+      <c r="AC255">
+        <v>0.5250154416306195</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29">
+      <c r="A256" t="s">
+        <v>34</v>
+      </c>
+      <c r="B256" t="s">
+        <v>100</v>
+      </c>
+      <c r="C256">
+        <v>38.67</v>
+      </c>
+      <c r="D256">
+        <v>3.2</v>
+      </c>
+      <c r="E256">
+        <v>1.2</v>
+      </c>
+      <c r="F256">
+        <v>552759</v>
+      </c>
+      <c r="G256">
+        <v>2137708980</v>
+      </c>
+      <c r="H256">
+        <v>6.06</v>
+      </c>
+      <c r="I256">
+        <v>39.6</v>
+      </c>
+      <c r="J256">
+        <v>37.33</v>
+      </c>
+      <c r="K256">
+        <v>37.6</v>
+      </c>
+      <c r="L256">
+        <v>37.47</v>
+      </c>
+      <c r="M256">
+        <v>2.04</v>
+      </c>
+      <c r="N256">
+        <v>0.87</v>
+      </c>
+      <c r="O256">
+        <v>45.05</v>
+      </c>
+      <c r="P256">
+        <v>5.89</v>
+      </c>
+      <c r="Q256">
+        <v>246676017936</v>
+      </c>
+      <c r="R256">
+        <v>246676017936</v>
+      </c>
+      <c r="S256">
+        <v>-0.26</v>
+      </c>
+      <c r="T256">
+        <v>-0.36</v>
+      </c>
+      <c r="U256">
+        <v>-14.94</v>
+      </c>
+      <c r="V256">
+        <v>-14.5</v>
+      </c>
+      <c r="W256" s="2">
+        <v>45476</v>
+      </c>
+      <c r="X256">
+        <v>38.45</v>
+      </c>
+      <c r="Y256">
+        <v>-0.57</v>
+      </c>
+      <c r="Z256">
+        <v>39.45</v>
+      </c>
+      <c r="AA256">
+        <v>38.33</v>
+      </c>
+      <c r="AB256">
+        <v>38.67</v>
+      </c>
+      <c r="AC256">
+        <v>2.017067494181539</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29">
+      <c r="A257" t="s">
+        <v>35</v>
+      </c>
+      <c r="B257" t="s">
+        <v>88</v>
+      </c>
+      <c r="C257">
+        <v>29.3</v>
+      </c>
+      <c r="D257">
+        <v>-0.61</v>
+      </c>
+      <c r="E257">
+        <v>-0.18</v>
+      </c>
+      <c r="F257">
+        <v>732520</v>
+      </c>
+      <c r="G257">
+        <v>2136621632</v>
+      </c>
+      <c r="H257">
+        <v>1.76</v>
+      </c>
+      <c r="I257">
+        <v>29.52</v>
+      </c>
+      <c r="J257">
+        <v>29</v>
+      </c>
+      <c r="K257">
+        <v>29.41</v>
+      </c>
+      <c r="L257">
+        <v>29.48</v>
+      </c>
+      <c r="M257">
+        <v>1.14</v>
+      </c>
+      <c r="N257">
+        <v>0.31</v>
+      </c>
+      <c r="O257">
+        <v>45.18</v>
+      </c>
+      <c r="P257">
+        <v>3.49</v>
+      </c>
+      <c r="Q257">
+        <v>716918779079</v>
+      </c>
+      <c r="R257">
+        <v>703412615538</v>
+      </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+      <c r="T257">
+        <v>0</v>
+      </c>
+      <c r="U257">
+        <v>18.91</v>
+      </c>
+      <c r="V257">
+        <v>25.54</v>
+      </c>
+      <c r="W257" s="2">
+        <v>45476</v>
+      </c>
+      <c r="X257">
+        <v>29.39</v>
+      </c>
+      <c r="Y257">
+        <v>0.31</v>
+      </c>
+      <c r="Z257">
+        <v>29.55</v>
+      </c>
+      <c r="AA257">
+        <v>29.2</v>
+      </c>
+      <c r="AB257">
+        <v>29.22</v>
+      </c>
+      <c r="AC257">
+        <v>0.8532423208191127</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29">
+      <c r="A258" t="s">
+        <v>36</v>
+      </c>
+      <c r="B258" t="s">
+        <v>55</v>
+      </c>
+      <c r="C258">
+        <v>38.89</v>
+      </c>
+      <c r="D258">
+        <v>-0.51</v>
+      </c>
+      <c r="E258">
+        <v>-0.2</v>
+      </c>
+      <c r="F258">
+        <v>526073</v>
+      </c>
+      <c r="G258">
+        <v>2051170079.95</v>
+      </c>
+      <c r="H258">
+        <v>2.97</v>
+      </c>
+      <c r="I258">
+        <v>39.78</v>
+      </c>
+      <c r="J258">
+        <v>38.62</v>
+      </c>
+      <c r="K258">
+        <v>39.09</v>
+      </c>
+      <c r="L258">
+        <v>39.09</v>
+      </c>
+      <c r="M258">
+        <v>0.61</v>
+      </c>
+      <c r="N258">
+        <v>0.73</v>
+      </c>
+      <c r="O258">
+        <v>28.33</v>
+      </c>
+      <c r="P258">
+        <v>4.79</v>
+      </c>
+      <c r="Q258">
+        <v>280044027035</v>
+      </c>
+      <c r="R258">
+        <v>279438531902</v>
+      </c>
+      <c r="S258">
+        <v>-0.13</v>
+      </c>
+      <c r="T258">
+        <v>-0.18</v>
+      </c>
+      <c r="U258">
+        <v>35.79</v>
+      </c>
+      <c r="V258">
+        <v>12.89</v>
+      </c>
+      <c r="W258" s="2">
+        <v>45476</v>
+      </c>
+      <c r="X258">
+        <v>38.86</v>
+      </c>
+      <c r="Y258">
+        <v>-0.08</v>
+      </c>
+      <c r="Z258">
+        <v>39.56</v>
+      </c>
+      <c r="AA258">
+        <v>38.68</v>
+      </c>
+      <c r="AB258">
+        <v>38.88</v>
+      </c>
+      <c r="AC258">
+        <v>1.722807919773725</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29">
+      <c r="A259" t="s">
+        <v>37</v>
+      </c>
+      <c r="B259" t="s">
+        <v>74</v>
+      </c>
+      <c r="C259">
+        <v>16.77</v>
+      </c>
+      <c r="D259">
+        <v>1.7</v>
+      </c>
+      <c r="E259">
+        <v>0.28</v>
+      </c>
+      <c r="F259">
+        <v>1207761</v>
+      </c>
+      <c r="G259">
+        <v>2034679617</v>
+      </c>
+      <c r="H259">
+        <v>4.79</v>
+      </c>
+      <c r="I259">
+        <v>17.18</v>
+      </c>
+      <c r="J259">
+        <v>16.39</v>
+      </c>
+      <c r="K259">
+        <v>16.47</v>
+      </c>
+      <c r="L259">
+        <v>16.49</v>
+      </c>
+      <c r="M259">
+        <v>1.62</v>
+      </c>
+      <c r="N259">
+        <v>5.53</v>
+      </c>
+      <c r="O259">
+        <v>86.8</v>
+      </c>
+      <c r="P259">
+        <v>2.74</v>
+      </c>
+      <c r="Q259">
+        <v>36625844195</v>
+      </c>
+      <c r="R259">
+        <v>36625844195</v>
+      </c>
+      <c r="S259">
+        <v>0</v>
+      </c>
+      <c r="T259">
+        <v>-0.06</v>
+      </c>
+      <c r="U259">
+        <v>0.18</v>
+      </c>
+      <c r="V259">
+        <v>3.84</v>
+      </c>
+      <c r="W259" s="2">
+        <v>45476</v>
+      </c>
+      <c r="X259">
+        <v>16.74</v>
+      </c>
+      <c r="Y259">
+        <v>-0.18</v>
+      </c>
+      <c r="Z259">
+        <v>17.39</v>
+      </c>
+      <c r="AA259">
+        <v>16.7</v>
+      </c>
+      <c r="AB259">
+        <v>16.77</v>
+      </c>
+      <c r="AC259">
+        <v>3.697078115682773</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29">
+      <c r="A260" t="s">
+        <v>38</v>
+      </c>
+      <c r="B260" t="s">
+        <v>42</v>
+      </c>
+      <c r="C260">
+        <v>27.38</v>
+      </c>
+      <c r="D260">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E260">
+        <v>0.02</v>
+      </c>
+      <c r="F260">
+        <v>740225</v>
+      </c>
+      <c r="G260">
+        <v>2014567864</v>
+      </c>
+      <c r="H260">
+        <v>2.67</v>
+      </c>
+      <c r="I260">
+        <v>27.54</v>
+      </c>
+      <c r="J260">
+        <v>26.81</v>
+      </c>
+      <c r="K260">
+        <v>27.15</v>
+      </c>
+      <c r="L260">
+        <v>27.36</v>
+      </c>
+      <c r="M260">
+        <v>0.7</v>
+      </c>
+      <c r="N260">
+        <v>0.37</v>
+      </c>
+      <c r="O260">
+        <v>32.5</v>
+      </c>
+      <c r="P260">
+        <v>3.74</v>
+      </c>
+      <c r="Q260">
+        <v>543973344261</v>
+      </c>
+      <c r="R260">
+        <v>543822967715</v>
+      </c>
+      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>0.04</v>
+      </c>
+      <c r="U260">
+        <v>19.56</v>
+      </c>
+      <c r="V260">
+        <v>81.08</v>
+      </c>
+      <c r="W260" s="2">
+        <v>45476</v>
+      </c>
+      <c r="X260">
+        <v>27.27</v>
+      </c>
+      <c r="Y260">
+        <v>-0.4</v>
+      </c>
+      <c r="Z260">
+        <v>27.85</v>
+      </c>
+      <c r="AA260">
+        <v>27.16</v>
+      </c>
+      <c r="AB260">
+        <v>27.75</v>
+      </c>
+      <c r="AC260">
+        <v>1.716581446311185</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="102">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
+    <t>601899</t>
+  </si>
+  <si>
+    <t>600733</t>
+  </si>
+  <si>
+    <t>002050</t>
+  </si>
+  <si>
     <t>600036</t>
   </si>
   <si>
-    <t>601919</t>
+    <t>002384</t>
+  </si>
+  <si>
+    <t>601138</t>
+  </si>
+  <si>
+    <t>002475</t>
+  </si>
+  <si>
+    <t>600900</t>
   </si>
   <si>
     <t>002600</t>
   </si>
   <si>
-    <t>600733</t>
-  </si>
-  <si>
-    <t>600584</t>
-  </si>
-  <si>
-    <t>600276</t>
-  </si>
-  <si>
-    <t>600900</t>
-  </si>
-  <si>
-    <t>002475</t>
-  </si>
-  <si>
     <t>600418</t>
-  </si>
-  <si>
-    <t>601138</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>三花智控</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC260"/>
+  <dimension ref="A1:AC270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22935,8 +22938,8 @@
       </c>
     </row>
     <row r="251" spans="1:29">
-      <c r="A251" t="s">
-        <v>29</v>
+      <c r="A251">
+        <v>600036</v>
       </c>
       <c r="B251" t="s">
         <v>60</v>
@@ -23024,8 +23027,8 @@
       </c>
     </row>
     <row r="252" spans="1:29">
-      <c r="A252" t="s">
-        <v>30</v>
+      <c r="A252">
+        <v>601919</v>
       </c>
       <c r="B252" t="s">
         <v>56</v>
@@ -23113,8 +23116,8 @@
       </c>
     </row>
     <row r="253" spans="1:29">
-      <c r="A253" t="s">
-        <v>31</v>
+      <c r="A253">
+        <v>2600</v>
       </c>
       <c r="B253" t="s">
         <v>93</v>
@@ -23202,8 +23205,8 @@
       </c>
     </row>
     <row r="254" spans="1:29">
-      <c r="A254" t="s">
-        <v>32</v>
+      <c r="A254">
+        <v>600733</v>
       </c>
       <c r="B254" t="s">
         <v>80</v>
@@ -23291,8 +23294,8 @@
       </c>
     </row>
     <row r="255" spans="1:29">
-      <c r="A255" t="s">
-        <v>33</v>
+      <c r="A255">
+        <v>600584</v>
       </c>
       <c r="B255" t="s">
         <v>83</v>
@@ -23380,8 +23383,8 @@
       </c>
     </row>
     <row r="256" spans="1:29">
-      <c r="A256" t="s">
-        <v>34</v>
+      <c r="A256">
+        <v>600276</v>
       </c>
       <c r="B256" t="s">
         <v>100</v>
@@ -23469,8 +23472,8 @@
       </c>
     </row>
     <row r="257" spans="1:29">
-      <c r="A257" t="s">
-        <v>35</v>
+      <c r="A257">
+        <v>600900</v>
       </c>
       <c r="B257" t="s">
         <v>88</v>
@@ -23558,8 +23561,8 @@
       </c>
     </row>
     <row r="258" spans="1:29">
-      <c r="A258" t="s">
-        <v>36</v>
+      <c r="A258">
+        <v>2475</v>
       </c>
       <c r="B258" t="s">
         <v>55</v>
@@ -23647,8 +23650,8 @@
       </c>
     </row>
     <row r="259" spans="1:29">
-      <c r="A259" t="s">
-        <v>37</v>
+      <c r="A259">
+        <v>600418</v>
       </c>
       <c r="B259" t="s">
         <v>74</v>
@@ -23736,8 +23739,8 @@
       </c>
     </row>
     <row r="260" spans="1:29">
-      <c r="A260" t="s">
-        <v>38</v>
+      <c r="A260">
+        <v>601138</v>
       </c>
       <c r="B260" t="s">
         <v>42</v>
@@ -23822,6 +23825,896 @@
       </c>
       <c r="AC260">
         <v>1.716581446311185</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29">
+      <c r="A261" t="s">
+        <v>29</v>
+      </c>
+      <c r="B261" t="s">
+        <v>58</v>
+      </c>
+      <c r="C261">
+        <v>18.17</v>
+      </c>
+      <c r="D261">
+        <v>1.57</v>
+      </c>
+      <c r="E261">
+        <v>0.28</v>
+      </c>
+      <c r="F261">
+        <v>1762921</v>
+      </c>
+      <c r="G261">
+        <v>3241891072</v>
+      </c>
+      <c r="H261">
+        <v>2.35</v>
+      </c>
+      <c r="I261">
+        <v>18.59</v>
+      </c>
+      <c r="J261">
+        <v>18.17</v>
+      </c>
+      <c r="K261">
+        <v>18.23</v>
+      </c>
+      <c r="L261">
+        <v>17.89</v>
+      </c>
+      <c r="M261">
+        <v>1.52</v>
+      </c>
+      <c r="N261">
+        <v>0.86</v>
+      </c>
+      <c r="O261">
+        <v>19.28</v>
+      </c>
+      <c r="P261">
+        <v>4.14</v>
+      </c>
+      <c r="Q261">
+        <v>482920242040</v>
+      </c>
+      <c r="R261">
+        <v>373507844464</v>
+      </c>
+      <c r="S261">
+        <v>-0.11</v>
+      </c>
+      <c r="T261">
+        <v>-0.22</v>
+      </c>
+      <c r="U261">
+        <v>4.97</v>
+      </c>
+      <c r="V261">
+        <v>48.21</v>
+      </c>
+      <c r="W261" s="2">
+        <v>45477</v>
+      </c>
+      <c r="X261">
+        <v>18.64</v>
+      </c>
+      <c r="Y261">
+        <v>2.59</v>
+      </c>
+      <c r="Z261">
+        <v>18.66</v>
+      </c>
+      <c r="AA261">
+        <v>18.11</v>
+      </c>
+      <c r="AB261">
+        <v>18.17</v>
+      </c>
+      <c r="AC261">
+        <v>2.696752889378087</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29">
+      <c r="A262" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" t="s">
+        <v>80</v>
+      </c>
+      <c r="C262">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D262">
+        <v>-4.27</v>
+      </c>
+      <c r="E262">
+        <v>-0.37</v>
+      </c>
+      <c r="F262">
+        <v>3334342</v>
+      </c>
+      <c r="G262">
+        <v>2841544639</v>
+      </c>
+      <c r="H262">
+        <v>6.81</v>
+      </c>
+      <c r="I262">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J262">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="K262">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="L262">
+        <v>8.67</v>
+      </c>
+      <c r="M262">
+        <v>0.97</v>
+      </c>
+      <c r="N262">
+        <v>6.88</v>
+      </c>
+      <c r="O262">
+        <v>-11.38</v>
+      </c>
+      <c r="P262">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="Q262">
+        <v>46260076303</v>
+      </c>
+      <c r="R262">
+        <v>40237720446</v>
+      </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>-0.36</v>
+      </c>
+      <c r="U262">
+        <v>12.47</v>
+      </c>
+      <c r="V262">
+        <v>35.4</v>
+      </c>
+      <c r="W262" s="2">
+        <v>45477</v>
+      </c>
+      <c r="X262">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="Y262">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="Z262">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="AA262">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AB262">
+        <v>8.25</v>
+      </c>
+      <c r="AC262">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29">
+      <c r="A263" t="s">
+        <v>31</v>
+      </c>
+      <c r="B263" t="s">
+        <v>101</v>
+      </c>
+      <c r="C263">
+        <v>20.18</v>
+      </c>
+      <c r="D263">
+        <v>5.54</v>
+      </c>
+      <c r="E263">
+        <v>1.06</v>
+      </c>
+      <c r="F263">
+        <v>1340674</v>
+      </c>
+      <c r="G263">
+        <v>2703897380.03</v>
+      </c>
+      <c r="H263">
+        <v>6.59</v>
+      </c>
+      <c r="I263">
+        <v>20.73</v>
+      </c>
+      <c r="J263">
+        <v>19.47</v>
+      </c>
+      <c r="K263">
+        <v>19.55</v>
+      </c>
+      <c r="L263">
+        <v>19.12</v>
+      </c>
+      <c r="M263">
+        <v>1.89</v>
+      </c>
+      <c r="N263">
+        <v>3.65</v>
+      </c>
+      <c r="O263">
+        <v>29.07</v>
+      </c>
+      <c r="P263">
+        <v>4.35</v>
+      </c>
+      <c r="Q263">
+        <v>75324181496</v>
+      </c>
+      <c r="R263">
+        <v>74072042726</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>0.05</v>
+      </c>
+      <c r="U263">
+        <v>-8.52</v>
+      </c>
+      <c r="V263">
+        <v>-30.77</v>
+      </c>
+      <c r="W263" s="2">
+        <v>45477</v>
+      </c>
+      <c r="X263">
+        <v>19.18</v>
+      </c>
+      <c r="Y263">
+        <v>-4.96</v>
+      </c>
+      <c r="Z263">
+        <v>19.8</v>
+      </c>
+      <c r="AA263">
+        <v>18.88</v>
+      </c>
+      <c r="AB263">
+        <v>19.55</v>
+      </c>
+      <c r="AC263">
+        <v>-1.883052527254703</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29">
+      <c r="A264" t="s">
+        <v>32</v>
+      </c>
+      <c r="B264" t="s">
+        <v>60</v>
+      </c>
+      <c r="C264">
+        <v>34.71</v>
+      </c>
+      <c r="D264">
+        <v>0.73</v>
+      </c>
+      <c r="E264">
+        <v>0.25</v>
+      </c>
+      <c r="F264">
+        <v>696919</v>
+      </c>
+      <c r="G264">
+        <v>2424281266</v>
+      </c>
+      <c r="H264">
+        <v>1.63</v>
+      </c>
+      <c r="I264">
+        <v>35.04</v>
+      </c>
+      <c r="J264">
+        <v>34.48</v>
+      </c>
+      <c r="K264">
+        <v>34.54</v>
+      </c>
+      <c r="L264">
+        <v>34.46</v>
+      </c>
+      <c r="M264">
+        <v>1.12</v>
+      </c>
+      <c r="N264">
+        <v>0.34</v>
+      </c>
+      <c r="O264">
+        <v>5.75</v>
+      </c>
+      <c r="P264">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q264">
+        <v>875380840811</v>
+      </c>
+      <c r="R264">
+        <v>716030661131</v>
+      </c>
+      <c r="S264">
+        <v>-0.12</v>
+      </c>
+      <c r="T264">
+        <v>-0.12</v>
+      </c>
+      <c r="U264">
+        <v>7.69</v>
+      </c>
+      <c r="V264">
+        <v>24.77</v>
+      </c>
+      <c r="W264" s="2">
+        <v>45477</v>
+      </c>
+      <c r="X264">
+        <v>33.88</v>
+      </c>
+      <c r="Y264">
+        <v>-2.39</v>
+      </c>
+      <c r="Z264">
+        <v>34.83</v>
+      </c>
+      <c r="AA264">
+        <v>33.66</v>
+      </c>
+      <c r="AB264">
+        <v>34.71</v>
+      </c>
+      <c r="AC264">
+        <v>0.3457216940362934</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29">
+      <c r="A265" t="s">
+        <v>33</v>
+      </c>
+      <c r="B265" t="s">
+        <v>84</v>
+      </c>
+      <c r="C265">
+        <v>21.65</v>
+      </c>
+      <c r="D265">
+        <v>4.29</v>
+      </c>
+      <c r="E265">
+        <v>0.89</v>
+      </c>
+      <c r="F265">
+        <v>1085215</v>
+      </c>
+      <c r="G265">
+        <v>2356656991.84</v>
+      </c>
+      <c r="H265">
+        <v>7.95</v>
+      </c>
+      <c r="I265">
+        <v>22.34</v>
+      </c>
+      <c r="J265">
+        <v>20.69</v>
+      </c>
+      <c r="K265">
+        <v>20.74</v>
+      </c>
+      <c r="L265">
+        <v>20.76</v>
+      </c>
+      <c r="M265">
+        <v>0.97</v>
+      </c>
+      <c r="N265">
+        <v>7.81</v>
+      </c>
+      <c r="O265">
+        <v>31.98</v>
+      </c>
+      <c r="P265">
+        <v>2.06</v>
+      </c>
+      <c r="Q265">
+        <v>37018627630</v>
+      </c>
+      <c r="R265">
+        <v>30099461111</v>
+      </c>
+      <c r="S265">
+        <v>-0.37</v>
+      </c>
+      <c r="T265">
+        <v>-0.23</v>
+      </c>
+      <c r="U265">
+        <v>47.88</v>
+      </c>
+      <c r="V265">
+        <v>20.75</v>
+      </c>
+      <c r="W265" s="2">
+        <v>45477</v>
+      </c>
+      <c r="X265">
+        <v>21.11</v>
+      </c>
+      <c r="Y265">
+        <v>-2.49</v>
+      </c>
+      <c r="Z265">
+        <v>21.57</v>
+      </c>
+      <c r="AA265">
+        <v>20.45</v>
+      </c>
+      <c r="AB265">
+        <v>21.5</v>
+      </c>
+      <c r="AC265">
+        <v>-0.3695150115473362</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29">
+      <c r="A266" t="s">
+        <v>34</v>
+      </c>
+      <c r="B266" t="s">
+        <v>42</v>
+      </c>
+      <c r="C266">
+        <v>27.27</v>
+      </c>
+      <c r="D266">
+        <v>-0.4</v>
+      </c>
+      <c r="E266">
+        <v>-0.11</v>
+      </c>
+      <c r="F266">
+        <v>790687</v>
+      </c>
+      <c r="G266">
+        <v>2171606461</v>
+      </c>
+      <c r="H266">
+        <v>2.52</v>
+      </c>
+      <c r="I266">
+        <v>27.85</v>
+      </c>
+      <c r="J266">
+        <v>27.16</v>
+      </c>
+      <c r="K266">
+        <v>27.75</v>
+      </c>
+      <c r="L266">
+        <v>27.38</v>
+      </c>
+      <c r="M266">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N266">
+        <v>0.4</v>
+      </c>
+      <c r="O266">
+        <v>32.37</v>
+      </c>
+      <c r="P266">
+        <v>3.72</v>
+      </c>
+      <c r="Q266">
+        <v>541787914463</v>
+      </c>
+      <c r="R266">
+        <v>541638142060</v>
+      </c>
+      <c r="S266">
+        <v>0</v>
+      </c>
+      <c r="T266">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="U266">
+        <v>24.41</v>
+      </c>
+      <c r="V266">
+        <v>80.36</v>
+      </c>
+      <c r="W266" s="2">
+        <v>45477</v>
+      </c>
+      <c r="X266">
+        <v>27.08</v>
+      </c>
+      <c r="Y266">
+        <v>-0.7</v>
+      </c>
+      <c r="Z266">
+        <v>27.22</v>
+      </c>
+      <c r="AA266">
+        <v>26.36</v>
+      </c>
+      <c r="AB266">
+        <v>27</v>
+      </c>
+      <c r="AC266">
+        <v>-0.183351668500186</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29">
+      <c r="A267" t="s">
+        <v>35</v>
+      </c>
+      <c r="B267" t="s">
+        <v>55</v>
+      </c>
+      <c r="C267">
+        <v>38.86</v>
+      </c>
+      <c r="D267">
+        <v>-0.08</v>
+      </c>
+      <c r="E267">
+        <v>-0.03</v>
+      </c>
+      <c r="F267">
+        <v>547281</v>
+      </c>
+      <c r="G267">
+        <v>2141164149.92</v>
+      </c>
+      <c r="H267">
+        <v>2.26</v>
+      </c>
+      <c r="I267">
+        <v>39.56</v>
+      </c>
+      <c r="J267">
+        <v>38.68</v>
+      </c>
+      <c r="K267">
+        <v>38.88</v>
+      </c>
+      <c r="L267">
+        <v>38.89</v>
+      </c>
+      <c r="M267">
+        <v>0.67</v>
+      </c>
+      <c r="N267">
+        <v>0.76</v>
+      </c>
+      <c r="O267">
+        <v>28.31</v>
+      </c>
+      <c r="P267">
+        <v>4.79</v>
+      </c>
+      <c r="Q267">
+        <v>279827999243</v>
+      </c>
+      <c r="R267">
+        <v>279222971194</v>
+      </c>
+      <c r="S267">
+        <v>-0.1</v>
+      </c>
+      <c r="T267">
+        <v>-0.1</v>
+      </c>
+      <c r="U267">
+        <v>35.12</v>
+      </c>
+      <c r="V267">
+        <v>12.8</v>
+      </c>
+      <c r="W267" s="2">
+        <v>45477</v>
+      </c>
+      <c r="X267">
+        <v>38.73</v>
+      </c>
+      <c r="Y267">
+        <v>-0.33</v>
+      </c>
+      <c r="Z267">
+        <v>39.06</v>
+      </c>
+      <c r="AA267">
+        <v>37.89</v>
+      </c>
+      <c r="AB267">
+        <v>39</v>
+      </c>
+      <c r="AC267">
+        <v>0.5146680391147783</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29">
+      <c r="A268" t="s">
+        <v>36</v>
+      </c>
+      <c r="B268" t="s">
+        <v>88</v>
+      </c>
+      <c r="C268">
+        <v>29.39</v>
+      </c>
+      <c r="D268">
+        <v>0.31</v>
+      </c>
+      <c r="E268">
+        <v>0.09</v>
+      </c>
+      <c r="F268">
+        <v>661930</v>
+      </c>
+      <c r="G268">
+        <v>1945477857</v>
+      </c>
+      <c r="H268">
+        <v>1.19</v>
+      </c>
+      <c r="I268">
+        <v>29.55</v>
+      </c>
+      <c r="J268">
+        <v>29.2</v>
+      </c>
+      <c r="K268">
+        <v>29.22</v>
+      </c>
+      <c r="L268">
+        <v>29.3</v>
+      </c>
+      <c r="M268">
+        <v>0.97</v>
+      </c>
+      <c r="N268">
+        <v>0.28</v>
+      </c>
+      <c r="O268">
+        <v>45.32</v>
+      </c>
+      <c r="P268">
+        <v>3.5</v>
+      </c>
+      <c r="Q268">
+        <v>719120918673</v>
+      </c>
+      <c r="R268">
+        <v>705573268623</v>
+      </c>
+      <c r="S268">
+        <v>-0.1</v>
+      </c>
+      <c r="T268">
+        <v>-0.31</v>
+      </c>
+      <c r="U268">
+        <v>20.25</v>
+      </c>
+      <c r="V268">
+        <v>25.92</v>
+      </c>
+      <c r="W268" s="2">
+        <v>45477</v>
+      </c>
+      <c r="X268">
+        <v>29.32</v>
+      </c>
+      <c r="Y268">
+        <v>-0.24</v>
+      </c>
+      <c r="Z268">
+        <v>29.57</v>
+      </c>
+      <c r="AA268">
+        <v>28.85</v>
+      </c>
+      <c r="AB268">
+        <v>29.57</v>
+      </c>
+      <c r="AC268">
+        <v>0.6124532153793797</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29">
+      <c r="A269" t="s">
+        <v>37</v>
+      </c>
+      <c r="B269" t="s">
+        <v>93</v>
+      </c>
+      <c r="C269">
+        <v>6.42</v>
+      </c>
+      <c r="D269">
+        <v>-0.62</v>
+      </c>
+      <c r="E269">
+        <v>-0.04</v>
+      </c>
+      <c r="F269">
+        <v>2814089</v>
+      </c>
+      <c r="G269">
+        <v>1815945017.83</v>
+      </c>
+      <c r="H269">
+        <v>3.87</v>
+      </c>
+      <c r="I269">
+        <v>6.58</v>
+      </c>
+      <c r="J269">
+        <v>6.33</v>
+      </c>
+      <c r="K269">
+        <v>6.41</v>
+      </c>
+      <c r="L269">
+        <v>6.46</v>
+      </c>
+      <c r="M269">
+        <v>0.6</v>
+      </c>
+      <c r="N269">
+        <v>4.08</v>
+      </c>
+      <c r="O269">
+        <v>24.4</v>
+      </c>
+      <c r="P269">
+        <v>2.43</v>
+      </c>
+      <c r="Q269">
+        <v>44992501598</v>
+      </c>
+      <c r="R269">
+        <v>44256510699</v>
+      </c>
+      <c r="S269">
+        <v>0</v>
+      </c>
+      <c r="T269">
+        <v>0.47</v>
+      </c>
+      <c r="U269">
+        <v>18.89</v>
+      </c>
+      <c r="V269">
+        <v>-4.61</v>
+      </c>
+      <c r="W269" s="2">
+        <v>45477</v>
+      </c>
+      <c r="X269">
+        <v>6.58</v>
+      </c>
+      <c r="Y269">
+        <v>2.49</v>
+      </c>
+      <c r="Z269">
+        <v>6.68</v>
+      </c>
+      <c r="AA269">
+        <v>6.27</v>
+      </c>
+      <c r="AB269">
+        <v>6.44</v>
+      </c>
+      <c r="AC269">
+        <v>4.049844236760122</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29">
+      <c r="A270" t="s">
+        <v>38</v>
+      </c>
+      <c r="B270" t="s">
+        <v>74</v>
+      </c>
+      <c r="C270">
+        <v>16.74</v>
+      </c>
+      <c r="D270">
+        <v>-0.18</v>
+      </c>
+      <c r="E270">
+        <v>-0.03</v>
+      </c>
+      <c r="F270">
+        <v>1021787</v>
+      </c>
+      <c r="G270">
+        <v>1739381648</v>
+      </c>
+      <c r="H270">
+        <v>4.11</v>
+      </c>
+      <c r="I270">
+        <v>17.39</v>
+      </c>
+      <c r="J270">
+        <v>16.7</v>
+      </c>
+      <c r="K270">
+        <v>16.77</v>
+      </c>
+      <c r="L270">
+        <v>16.77</v>
+      </c>
+      <c r="M270">
+        <v>1.19</v>
+      </c>
+      <c r="N270">
+        <v>4.68</v>
+      </c>
+      <c r="O270">
+        <v>86.64</v>
+      </c>
+      <c r="P270">
+        <v>2.73</v>
+      </c>
+      <c r="Q270">
+        <v>36560323901</v>
+      </c>
+      <c r="R270">
+        <v>36560323901</v>
+      </c>
+      <c r="S270">
+        <v>0</v>
+      </c>
+      <c r="T270">
+        <v>-0.12</v>
+      </c>
+      <c r="U270">
+        <v>3.4</v>
+      </c>
+      <c r="V270">
+        <v>3.65</v>
+      </c>
+      <c r="W270" s="2">
+        <v>45477</v>
+      </c>
+      <c r="X270">
+        <v>17.27</v>
+      </c>
+      <c r="Y270">
+        <v>3.17</v>
+      </c>
+      <c r="Z270">
+        <v>17.66</v>
+      </c>
+      <c r="AA270">
+        <v>16.31</v>
+      </c>
+      <c r="AB270">
+        <v>16.82</v>
+      </c>
+      <c r="AC270">
+        <v>5.495818399044216</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="102">
   <si>
     <t>代码</t>
   </si>
@@ -103,31 +103,31 @@
     <t>high_rate</t>
   </si>
   <si>
-    <t>601899</t>
-  </si>
-  <si>
     <t>600733</t>
   </si>
   <si>
-    <t>002050</t>
+    <t>601899</t>
   </si>
   <si>
     <t>600036</t>
   </si>
   <si>
-    <t>002384</t>
+    <t>000977</t>
+  </si>
+  <si>
+    <t>600900</t>
+  </si>
+  <si>
+    <t>002475</t>
   </si>
   <si>
     <t>601138</t>
   </si>
   <si>
-    <t>002475</t>
+    <t>601398</t>
   </si>
   <si>
-    <t>600900</t>
-  </si>
-  <si>
-    <t>002600</t>
+    <t>601318</t>
   </si>
   <si>
     <t>600418</t>
@@ -681,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC270"/>
+  <dimension ref="A1:AC280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23828,8 +23828,8 @@
       </c>
     </row>
     <row r="261" spans="1:29">
-      <c r="A261" t="s">
-        <v>29</v>
+      <c r="A261">
+        <v>601899</v>
       </c>
       <c r="B261" t="s">
         <v>58</v>
@@ -23917,8 +23917,8 @@
       </c>
     </row>
     <row r="262" spans="1:29">
-      <c r="A262" t="s">
-        <v>30</v>
+      <c r="A262">
+        <v>600733</v>
       </c>
       <c r="B262" t="s">
         <v>80</v>
@@ -24006,8 +24006,8 @@
       </c>
     </row>
     <row r="263" spans="1:29">
-      <c r="A263" t="s">
-        <v>31</v>
+      <c r="A263">
+        <v>2050</v>
       </c>
       <c r="B263" t="s">
         <v>101</v>
@@ -24095,8 +24095,8 @@
       </c>
     </row>
     <row r="264" spans="1:29">
-      <c r="A264" t="s">
-        <v>32</v>
+      <c r="A264">
+        <v>600036</v>
       </c>
       <c r="B264" t="s">
         <v>60</v>
@@ -24184,8 +24184,8 @@
       </c>
     </row>
     <row r="265" spans="1:29">
-      <c r="A265" t="s">
-        <v>33</v>
+      <c r="A265">
+        <v>2384</v>
       </c>
       <c r="B265" t="s">
         <v>84</v>
@@ -24273,8 +24273,8 @@
       </c>
     </row>
     <row r="266" spans="1:29">
-      <c r="A266" t="s">
-        <v>34</v>
+      <c r="A266">
+        <v>601138</v>
       </c>
       <c r="B266" t="s">
         <v>42</v>
@@ -24362,8 +24362,8 @@
       </c>
     </row>
     <row r="267" spans="1:29">
-      <c r="A267" t="s">
-        <v>35</v>
+      <c r="A267">
+        <v>2475</v>
       </c>
       <c r="B267" t="s">
         <v>55</v>
@@ -24451,8 +24451,8 @@
       </c>
     </row>
     <row r="268" spans="1:29">
-      <c r="A268" t="s">
-        <v>36</v>
+      <c r="A268">
+        <v>600900</v>
       </c>
       <c r="B268" t="s">
         <v>88</v>
@@ -24540,8 +24540,8 @@
       </c>
     </row>
     <row r="269" spans="1:29">
-      <c r="A269" t="s">
-        <v>37</v>
+      <c r="A269">
+        <v>2600</v>
       </c>
       <c r="B269" t="s">
         <v>93</v>
@@ -24629,8 +24629,8 @@
       </c>
     </row>
     <row r="270" spans="1:29">
-      <c r="A270" t="s">
-        <v>38</v>
+      <c r="A270">
+        <v>600418</v>
       </c>
       <c r="B270" t="s">
         <v>74</v>
@@ -24715,6 +24715,896 @@
       </c>
       <c r="AC270">
         <v>5.495818399044216</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29">
+      <c r="A271" t="s">
+        <v>29</v>
+      </c>
+      <c r="B271" t="s">
+        <v>80</v>
+      </c>
+      <c r="C271">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="D271">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E271">
+        <v>0.82</v>
+      </c>
+      <c r="F271">
+        <v>4972622</v>
+      </c>
+      <c r="G271">
+        <v>4340535252</v>
+      </c>
+      <c r="H271">
+        <v>12.17</v>
+      </c>
+      <c r="I271">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="J271">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="K271">
+        <v>8.25</v>
+      </c>
+      <c r="L271">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M271">
+        <v>1.35</v>
+      </c>
+      <c r="N271">
+        <v>10.26</v>
+      </c>
+      <c r="O271">
+        <v>-12.51</v>
+      </c>
+      <c r="P271">
+        <v>9.65</v>
+      </c>
+      <c r="Q271">
+        <v>50830348901</v>
+      </c>
+      <c r="R271">
+        <v>44213013309</v>
+      </c>
+      <c r="S271">
+        <v>0.11</v>
+      </c>
+      <c r="T271">
+        <v>0.11</v>
+      </c>
+      <c r="U271">
+        <v>25.79</v>
+      </c>
+      <c r="V271">
+        <v>48.78</v>
+      </c>
+      <c r="W271" s="2">
+        <v>45478</v>
+      </c>
+      <c r="X271">
+        <v>9.6</v>
+      </c>
+      <c r="Y271">
+        <v>5.26</v>
+      </c>
+      <c r="Z271">
+        <v>9.73</v>
+      </c>
+      <c r="AA271">
+        <v>9.01</v>
+      </c>
+      <c r="AB271">
+        <v>9.09</v>
+      </c>
+      <c r="AC271">
+        <v>6.688596491228084</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29">
+      <c r="A272" t="s">
+        <v>30</v>
+      </c>
+      <c r="B272" t="s">
+        <v>58</v>
+      </c>
+      <c r="C272">
+        <v>18.64</v>
+      </c>
+      <c r="D272">
+        <v>2.59</v>
+      </c>
+      <c r="E272">
+        <v>0.47</v>
+      </c>
+      <c r="F272">
+        <v>1887476</v>
+      </c>
+      <c r="G272">
+        <v>3484687196</v>
+      </c>
+      <c r="H272">
+        <v>3.03</v>
+      </c>
+      <c r="I272">
+        <v>18.66</v>
+      </c>
+      <c r="J272">
+        <v>18.11</v>
+      </c>
+      <c r="K272">
+        <v>18.17</v>
+      </c>
+      <c r="L272">
+        <v>18.17</v>
+      </c>
+      <c r="M272">
+        <v>1.44</v>
+      </c>
+      <c r="N272">
+        <v>0.92</v>
+      </c>
+      <c r="O272">
+        <v>19.78</v>
+      </c>
+      <c r="P272">
+        <v>4.25</v>
+      </c>
+      <c r="Q272">
+        <v>495411849842</v>
+      </c>
+      <c r="R272">
+        <v>383169302191</v>
+      </c>
+      <c r="S272">
+        <v>0</v>
+      </c>
+      <c r="T272">
+        <v>-0.05</v>
+      </c>
+      <c r="U272">
+        <v>9.01</v>
+      </c>
+      <c r="V272">
+        <v>52.04</v>
+      </c>
+      <c r="W272" s="2">
+        <v>45478</v>
+      </c>
+      <c r="X272">
+        <v>18.45</v>
+      </c>
+      <c r="Y272">
+        <v>-1.02</v>
+      </c>
+      <c r="Z272">
+        <v>18.88</v>
+      </c>
+      <c r="AA272">
+        <v>18.44</v>
+      </c>
+      <c r="AB272">
+        <v>18.69</v>
+      </c>
+      <c r="AC272">
+        <v>1.287553648068661</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29">
+      <c r="A273" t="s">
+        <v>31</v>
+      </c>
+      <c r="B273" t="s">
+        <v>60</v>
+      </c>
+      <c r="C273">
+        <v>33.88</v>
+      </c>
+      <c r="D273">
+        <v>-2.39</v>
+      </c>
+      <c r="E273">
+        <v>-0.83</v>
+      </c>
+      <c r="F273">
+        <v>967783</v>
+      </c>
+      <c r="G273">
+        <v>3295568199</v>
+      </c>
+      <c r="H273">
+        <v>3.37</v>
+      </c>
+      <c r="I273">
+        <v>34.83</v>
+      </c>
+      <c r="J273">
+        <v>33.66</v>
+      </c>
+      <c r="K273">
+        <v>34.71</v>
+      </c>
+      <c r="L273">
+        <v>34.71</v>
+      </c>
+      <c r="M273">
+        <v>1.49</v>
+      </c>
+      <c r="N273">
+        <v>0.47</v>
+      </c>
+      <c r="O273">
+        <v>5.61</v>
+      </c>
+      <c r="P273">
+        <v>0.92</v>
+      </c>
+      <c r="Q273">
+        <v>854448368962</v>
+      </c>
+      <c r="R273">
+        <v>698908637255</v>
+      </c>
+      <c r="S273">
+        <v>-0.06</v>
+      </c>
+      <c r="T273">
+        <v>-0.15</v>
+      </c>
+      <c r="U273">
+        <v>4.57</v>
+      </c>
+      <c r="V273">
+        <v>21.78</v>
+      </c>
+      <c r="W273" s="2">
+        <v>45478</v>
+      </c>
+      <c r="X273">
+        <v>33.99</v>
+      </c>
+      <c r="Y273">
+        <v>0.32</v>
+      </c>
+      <c r="Z273">
+        <v>34.23</v>
+      </c>
+      <c r="AA273">
+        <v>33.71</v>
+      </c>
+      <c r="AB273">
+        <v>33.85</v>
+      </c>
+      <c r="AC273">
+        <v>1.033057851239653</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29">
+      <c r="A274" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274" t="s">
+        <v>40</v>
+      </c>
+      <c r="C274">
+        <v>37.33</v>
+      </c>
+      <c r="D274">
+        <v>2.87</v>
+      </c>
+      <c r="E274">
+        <v>1.04</v>
+      </c>
+      <c r="F274">
+        <v>832840</v>
+      </c>
+      <c r="G274">
+        <v>3134691874.19</v>
+      </c>
+      <c r="H274">
+        <v>3.69</v>
+      </c>
+      <c r="I274">
+        <v>38.36</v>
+      </c>
+      <c r="J274">
+        <v>37.02</v>
+      </c>
+      <c r="K274">
+        <v>37.98</v>
+      </c>
+      <c r="L274">
+        <v>36.29</v>
+      </c>
+      <c r="M274">
+        <v>1.88</v>
+      </c>
+      <c r="N274">
+        <v>5.66</v>
+      </c>
+      <c r="O274">
+        <v>44.83</v>
+      </c>
+      <c r="P274">
+        <v>3.04</v>
+      </c>
+      <c r="Q274">
+        <v>54954804104</v>
+      </c>
+      <c r="R274">
+        <v>54884199113</v>
+      </c>
+      <c r="S274">
+        <v>-0.03</v>
+      </c>
+      <c r="T274">
+        <v>-0.03</v>
+      </c>
+      <c r="U274">
+        <v>-5.9</v>
+      </c>
+      <c r="V274">
+        <v>12.88</v>
+      </c>
+      <c r="W274" s="2">
+        <v>45478</v>
+      </c>
+      <c r="X274">
+        <v>36.94</v>
+      </c>
+      <c r="Y274">
+        <v>-1.04</v>
+      </c>
+      <c r="Z274">
+        <v>37.69</v>
+      </c>
+      <c r="AA274">
+        <v>36.6</v>
+      </c>
+      <c r="AB274">
+        <v>37</v>
+      </c>
+      <c r="AC274">
+        <v>0.9643718189124014</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29">
+      <c r="A275" t="s">
+        <v>33</v>
+      </c>
+      <c r="B275" t="s">
+        <v>88</v>
+      </c>
+      <c r="C275">
+        <v>29.32</v>
+      </c>
+      <c r="D275">
+        <v>-0.24</v>
+      </c>
+      <c r="E275">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F275">
+        <v>1007631</v>
+      </c>
+      <c r="G275">
+        <v>2934921575</v>
+      </c>
+      <c r="H275">
+        <v>2.45</v>
+      </c>
+      <c r="I275">
+        <v>29.57</v>
+      </c>
+      <c r="J275">
+        <v>28.85</v>
+      </c>
+      <c r="K275">
+        <v>29.57</v>
+      </c>
+      <c r="L275">
+        <v>29.39</v>
+      </c>
+      <c r="M275">
+        <v>1.47</v>
+      </c>
+      <c r="N275">
+        <v>0.42</v>
+      </c>
+      <c r="O275">
+        <v>45.21</v>
+      </c>
+      <c r="P275">
+        <v>3.49</v>
+      </c>
+      <c r="Q275">
+        <v>717408143433</v>
+      </c>
+      <c r="R275">
+        <v>703892760668</v>
+      </c>
+      <c r="S275">
+        <v>-0.24</v>
+      </c>
+      <c r="T275">
+        <v>-0.14</v>
+      </c>
+      <c r="U275">
+        <v>15.62</v>
+      </c>
+      <c r="V275">
+        <v>25.62</v>
+      </c>
+      <c r="W275" s="2">
+        <v>45478</v>
+      </c>
+      <c r="X275">
+        <v>29.92</v>
+      </c>
+      <c r="Y275">
+        <v>2.05</v>
+      </c>
+      <c r="Z275">
+        <v>30.05</v>
+      </c>
+      <c r="AA275">
+        <v>29.2</v>
+      </c>
+      <c r="AB275">
+        <v>29.22</v>
+      </c>
+      <c r="AC275">
+        <v>2.489768076398364</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29">
+      <c r="A276" t="s">
+        <v>34</v>
+      </c>
+      <c r="B276" t="s">
+        <v>55</v>
+      </c>
+      <c r="C276">
+        <v>38.73</v>
+      </c>
+      <c r="D276">
+        <v>-0.33</v>
+      </c>
+      <c r="E276">
+        <v>-0.13</v>
+      </c>
+      <c r="F276">
+        <v>673566</v>
+      </c>
+      <c r="G276">
+        <v>2583811836</v>
+      </c>
+      <c r="H276">
+        <v>3.01</v>
+      </c>
+      <c r="I276">
+        <v>39.06</v>
+      </c>
+      <c r="J276">
+        <v>37.89</v>
+      </c>
+      <c r="K276">
+        <v>39</v>
+      </c>
+      <c r="L276">
+        <v>38.86</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O276">
+        <v>28.23</v>
+      </c>
+      <c r="P276">
+        <v>4.96</v>
+      </c>
+      <c r="Q276">
+        <v>278984414892</v>
+      </c>
+      <c r="R276">
+        <v>278381410868</v>
+      </c>
+      <c r="S276">
+        <v>0.16</v>
+      </c>
+      <c r="T276">
+        <v>0.1</v>
+      </c>
+      <c r="U276">
+        <v>38.12</v>
+      </c>
+      <c r="V276">
+        <v>12.42</v>
+      </c>
+      <c r="W276" s="2">
+        <v>45478</v>
+      </c>
+      <c r="X276">
+        <v>39.37</v>
+      </c>
+      <c r="Y276">
+        <v>1.65</v>
+      </c>
+      <c r="Z276">
+        <v>39.66</v>
+      </c>
+      <c r="AA276">
+        <v>38.5</v>
+      </c>
+      <c r="AB276">
+        <v>38.75</v>
+      </c>
+      <c r="AC276">
+        <v>2.401239349341595</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29">
+      <c r="A277" t="s">
+        <v>35</v>
+      </c>
+      <c r="B277" t="s">
+        <v>42</v>
+      </c>
+      <c r="C277">
+        <v>27.08</v>
+      </c>
+      <c r="D277">
+        <v>-0.7</v>
+      </c>
+      <c r="E277">
+        <v>-0.19</v>
+      </c>
+      <c r="F277">
+        <v>881540</v>
+      </c>
+      <c r="G277">
+        <v>2359759723</v>
+      </c>
+      <c r="H277">
+        <v>3.15</v>
+      </c>
+      <c r="I277">
+        <v>27.22</v>
+      </c>
+      <c r="J277">
+        <v>26.36</v>
+      </c>
+      <c r="K277">
+        <v>27</v>
+      </c>
+      <c r="L277">
+        <v>27.27</v>
+      </c>
+      <c r="M277">
+        <v>0.96</v>
+      </c>
+      <c r="N277">
+        <v>0.44</v>
+      </c>
+      <c r="O277">
+        <v>32.14</v>
+      </c>
+      <c r="P277">
+        <v>3.7</v>
+      </c>
+      <c r="Q277">
+        <v>538013081175</v>
+      </c>
+      <c r="R277">
+        <v>537864352291</v>
+      </c>
+      <c r="S277">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T277">
+        <v>0.04</v>
+      </c>
+      <c r="U277">
+        <v>23.09</v>
+      </c>
+      <c r="V277">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="W277" s="2">
+        <v>45478</v>
+      </c>
+      <c r="X277">
+        <v>26.96</v>
+      </c>
+      <c r="Y277">
+        <v>-0.44</v>
+      </c>
+      <c r="Z277">
+        <v>27.43</v>
+      </c>
+      <c r="AA277">
+        <v>26.81</v>
+      </c>
+      <c r="AB277">
+        <v>26.87</v>
+      </c>
+      <c r="AC277">
+        <v>1.29246676514033</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29">
+      <c r="A278" t="s">
+        <v>36</v>
+      </c>
+      <c r="B278" t="s">
+        <v>99</v>
+      </c>
+      <c r="C278">
+        <v>5.83</v>
+      </c>
+      <c r="D278">
+        <v>-2.18</v>
+      </c>
+      <c r="E278">
+        <v>-0.13</v>
+      </c>
+      <c r="F278">
+        <v>3993120</v>
+      </c>
+      <c r="G278">
+        <v>2341435825</v>
+      </c>
+      <c r="H278">
+        <v>3.19</v>
+      </c>
+      <c r="I278">
+        <v>6</v>
+      </c>
+      <c r="J278">
+        <v>5.81</v>
+      </c>
+      <c r="K278">
+        <v>5.96</v>
+      </c>
+      <c r="L278">
+        <v>5.96</v>
+      </c>
+      <c r="M278">
+        <v>1.33</v>
+      </c>
+      <c r="N278">
+        <v>0.15</v>
+      </c>
+      <c r="O278">
+        <v>5.93</v>
+      </c>
+      <c r="P278">
+        <v>0.59</v>
+      </c>
+      <c r="Q278">
+        <v>2077848478829</v>
+      </c>
+      <c r="R278">
+        <v>1571839199102</v>
+      </c>
+      <c r="S278">
+        <v>-0.17</v>
+      </c>
+      <c r="T278">
+        <v>-0.17</v>
+      </c>
+      <c r="U278">
+        <v>7.96</v>
+      </c>
+      <c r="V278">
+        <v>21.97</v>
+      </c>
+      <c r="W278" s="2">
+        <v>45478</v>
+      </c>
+      <c r="X278">
+        <v>5.89</v>
+      </c>
+      <c r="Y278">
+        <v>1.03</v>
+      </c>
+      <c r="Z278">
+        <v>5.94</v>
+      </c>
+      <c r="AA278">
+        <v>5.81</v>
+      </c>
+      <c r="AB278">
+        <v>5.82</v>
+      </c>
+      <c r="AC278">
+        <v>1.886792452830194</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29">
+      <c r="A279" t="s">
+        <v>37</v>
+      </c>
+      <c r="B279" t="s">
+        <v>62</v>
+      </c>
+      <c r="C279">
+        <v>41.12</v>
+      </c>
+      <c r="D279">
+        <v>-2.05</v>
+      </c>
+      <c r="E279">
+        <v>-0.86</v>
+      </c>
+      <c r="F279">
+        <v>526718</v>
+      </c>
+      <c r="G279">
+        <v>2180477666</v>
+      </c>
+      <c r="H279">
+        <v>3.05</v>
+      </c>
+      <c r="I279">
+        <v>42.26</v>
+      </c>
+      <c r="J279">
+        <v>40.98</v>
+      </c>
+      <c r="K279">
+        <v>41.95</v>
+      </c>
+      <c r="L279">
+        <v>41.98</v>
+      </c>
+      <c r="M279">
+        <v>1.28</v>
+      </c>
+      <c r="N279">
+        <v>0.49</v>
+      </c>
+      <c r="O279">
+        <v>5.1</v>
+      </c>
+      <c r="P279">
+        <v>0.83</v>
+      </c>
+      <c r="Q279">
+        <v>748804847040</v>
+      </c>
+      <c r="R279">
+        <v>442560484418</v>
+      </c>
+      <c r="S279">
+        <v>-0.15</v>
+      </c>
+      <c r="T279">
+        <v>-0.05</v>
+      </c>
+      <c r="U279">
+        <v>2.24</v>
+      </c>
+      <c r="V279">
+        <v>2.03</v>
+      </c>
+      <c r="W279" s="2">
+        <v>45478</v>
+      </c>
+      <c r="X279">
+        <v>40.84</v>
+      </c>
+      <c r="Y279">
+        <v>-0.68</v>
+      </c>
+      <c r="Z279">
+        <v>41.36</v>
+      </c>
+      <c r="AA279">
+        <v>40.68</v>
+      </c>
+      <c r="AB279">
+        <v>40.9</v>
+      </c>
+      <c r="AC279">
+        <v>0.5836575875486429</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29">
+      <c r="A280" t="s">
+        <v>38</v>
+      </c>
+      <c r="B280" t="s">
+        <v>74</v>
+      </c>
+      <c r="C280">
+        <v>17.27</v>
+      </c>
+      <c r="D280">
+        <v>3.17</v>
+      </c>
+      <c r="E280">
+        <v>0.53</v>
+      </c>
+      <c r="F280">
+        <v>1233825</v>
+      </c>
+      <c r="G280">
+        <v>2098847977</v>
+      </c>
+      <c r="H280">
+        <v>8.06</v>
+      </c>
+      <c r="I280">
+        <v>17.66</v>
+      </c>
+      <c r="J280">
+        <v>16.31</v>
+      </c>
+      <c r="K280">
+        <v>16.82</v>
+      </c>
+      <c r="L280">
+        <v>16.74</v>
+      </c>
+      <c r="M280">
+        <v>1.28</v>
+      </c>
+      <c r="N280">
+        <v>5.65</v>
+      </c>
+      <c r="O280">
+        <v>89.38</v>
+      </c>
+      <c r="P280">
+        <v>2.82</v>
+      </c>
+      <c r="Q280">
+        <v>37717849091</v>
+      </c>
+      <c r="R280">
+        <v>37717849091</v>
+      </c>
+      <c r="S280">
+        <v>-0.06</v>
+      </c>
+      <c r="T280">
+        <v>0</v>
+      </c>
+      <c r="U280">
+        <v>3.54</v>
+      </c>
+      <c r="V280">
+        <v>6.93</v>
+      </c>
+      <c r="W280" s="2">
+        <v>45478</v>
+      </c>
+      <c r="X280">
+        <v>17.65</v>
+      </c>
+      <c r="Y280">
+        <v>2.2</v>
+      </c>
+      <c r="Z280">
+        <v>18.06</v>
+      </c>
+      <c r="AA280">
+        <v>17.11</v>
+      </c>
+      <c r="AB280">
+        <v>17.11</v>
+      </c>
+      <c r="AC280">
+        <v>4.574406485234506</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="102">
   <si>
     <t>代码</t>
   </si>
@@ -106,31 +106,31 @@
     <t>600733</t>
   </si>
   <si>
-    <t>601899</t>
+    <t>601919</t>
   </si>
   <si>
-    <t>600036</t>
+    <t>002600</t>
   </si>
   <si>
-    <t>000977</t>
+    <t>002475</t>
   </si>
   <si>
     <t>600900</t>
   </si>
   <si>
-    <t>002475</t>
-  </si>
-  <si>
-    <t>601138</t>
-  </si>
-  <si>
-    <t>601398</t>
-  </si>
-  <si>
-    <t>601318</t>
+    <t>601899</t>
   </si>
   <si>
     <t>600418</t>
+  </si>
+  <si>
+    <t>600276</t>
+  </si>
+  <si>
+    <t>002384</t>
+  </si>
+  <si>
+    <t>000977</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -681,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC280"/>
+  <dimension ref="A1:AC290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24718,8 +24718,8 @@
       </c>
     </row>
     <row r="271" spans="1:29">
-      <c r="A271" t="s">
-        <v>29</v>
+      <c r="A271">
+        <v>600733</v>
       </c>
       <c r="B271" t="s">
         <v>80</v>
@@ -24807,8 +24807,8 @@
       </c>
     </row>
     <row r="272" spans="1:29">
-      <c r="A272" t="s">
-        <v>30</v>
+      <c r="A272">
+        <v>601899</v>
       </c>
       <c r="B272" t="s">
         <v>58</v>
@@ -24896,8 +24896,8 @@
       </c>
     </row>
     <row r="273" spans="1:29">
-      <c r="A273" t="s">
-        <v>31</v>
+      <c r="A273">
+        <v>600036</v>
       </c>
       <c r="B273" t="s">
         <v>60</v>
@@ -24985,8 +24985,8 @@
       </c>
     </row>
     <row r="274" spans="1:29">
-      <c r="A274" t="s">
-        <v>32</v>
+      <c r="A274">
+        <v>977</v>
       </c>
       <c r="B274" t="s">
         <v>40</v>
@@ -25074,8 +25074,8 @@
       </c>
     </row>
     <row r="275" spans="1:29">
-      <c r="A275" t="s">
-        <v>33</v>
+      <c r="A275">
+        <v>600900</v>
       </c>
       <c r="B275" t="s">
         <v>88</v>
@@ -25163,8 +25163,8 @@
       </c>
     </row>
     <row r="276" spans="1:29">
-      <c r="A276" t="s">
-        <v>34</v>
+      <c r="A276">
+        <v>2475</v>
       </c>
       <c r="B276" t="s">
         <v>55</v>
@@ -25252,8 +25252,8 @@
       </c>
     </row>
     <row r="277" spans="1:29">
-      <c r="A277" t="s">
-        <v>35</v>
+      <c r="A277">
+        <v>601138</v>
       </c>
       <c r="B277" t="s">
         <v>42</v>
@@ -25341,8 +25341,8 @@
       </c>
     </row>
     <row r="278" spans="1:29">
-      <c r="A278" t="s">
-        <v>36</v>
+      <c r="A278">
+        <v>601398</v>
       </c>
       <c r="B278" t="s">
         <v>99</v>
@@ -25430,8 +25430,8 @@
       </c>
     </row>
     <row r="279" spans="1:29">
-      <c r="A279" t="s">
-        <v>37</v>
+      <c r="A279">
+        <v>601318</v>
       </c>
       <c r="B279" t="s">
         <v>62</v>
@@ -25519,8 +25519,8 @@
       </c>
     </row>
     <row r="280" spans="1:29">
-      <c r="A280" t="s">
-        <v>38</v>
+      <c r="A280">
+        <v>600418</v>
       </c>
       <c r="B280" t="s">
         <v>74</v>
@@ -25605,6 +25605,896 @@
       </c>
       <c r="AC280">
         <v>4.574406485234506</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29">
+      <c r="A281" t="s">
+        <v>29</v>
+      </c>
+      <c r="B281" t="s">
+        <v>80</v>
+      </c>
+      <c r="C281">
+        <v>9.6</v>
+      </c>
+      <c r="D281">
+        <v>5.26</v>
+      </c>
+      <c r="E281">
+        <v>0.48</v>
+      </c>
+      <c r="F281">
+        <v>5662807</v>
+      </c>
+      <c r="G281">
+        <v>5370462384</v>
+      </c>
+      <c r="H281">
+        <v>7.89</v>
+      </c>
+      <c r="I281">
+        <v>9.73</v>
+      </c>
+      <c r="J281">
+        <v>9.01</v>
+      </c>
+      <c r="K281">
+        <v>9.09</v>
+      </c>
+      <c r="L281">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="M281">
+        <v>1.42</v>
+      </c>
+      <c r="N281">
+        <v>11.68</v>
+      </c>
+      <c r="O281">
+        <v>-13.17</v>
+      </c>
+      <c r="P281">
+        <v>10.16</v>
+      </c>
+      <c r="Q281">
+        <v>53505630422</v>
+      </c>
+      <c r="R281">
+        <v>46540014010</v>
+      </c>
+      <c r="S281">
+        <v>0</v>
+      </c>
+      <c r="T281">
+        <v>-0.31</v>
+      </c>
+      <c r="U281">
+        <v>36.56</v>
+      </c>
+      <c r="V281">
+        <v>56.61</v>
+      </c>
+      <c r="W281" s="2">
+        <v>45481</v>
+      </c>
+      <c r="X281">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Y281">
+        <v>0.31</v>
+      </c>
+      <c r="Z281">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AA281">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="AB281">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AC281">
+        <v>1.874999999999997</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29">
+      <c r="A282" t="s">
+        <v>30</v>
+      </c>
+      <c r="B282" t="s">
+        <v>56</v>
+      </c>
+      <c r="C282">
+        <v>14.4</v>
+      </c>
+      <c r="D282">
+        <v>-6.07</v>
+      </c>
+      <c r="E282">
+        <v>-0.93</v>
+      </c>
+      <c r="F282">
+        <v>2628874</v>
+      </c>
+      <c r="G282">
+        <v>3768960114</v>
+      </c>
+      <c r="H282">
+        <v>4.17</v>
+      </c>
+      <c r="I282">
+        <v>14.64</v>
+      </c>
+      <c r="J282">
+        <v>14</v>
+      </c>
+      <c r="K282">
+        <v>14.5</v>
+      </c>
+      <c r="L282">
+        <v>15.33</v>
+      </c>
+      <c r="M282">
+        <v>2</v>
+      </c>
+      <c r="N282">
+        <v>2.06</v>
+      </c>
+      <c r="O282">
+        <v>8.51</v>
+      </c>
+      <c r="P282">
+        <v>1.13</v>
+      </c>
+      <c r="Q282">
+        <v>229832725896</v>
+      </c>
+      <c r="R282">
+        <v>183755893896</v>
+      </c>
+      <c r="S282">
+        <v>0</v>
+      </c>
+      <c r="T282">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="U282">
+        <v>39.81</v>
+      </c>
+      <c r="V282">
+        <v>54.01</v>
+      </c>
+      <c r="W282" s="2">
+        <v>45481</v>
+      </c>
+      <c r="X282">
+        <v>14.52</v>
+      </c>
+      <c r="Y282">
+        <v>0.83</v>
+      </c>
+      <c r="Z282">
+        <v>14.64</v>
+      </c>
+      <c r="AA282">
+        <v>14.16</v>
+      </c>
+      <c r="AB282">
+        <v>14.29</v>
+      </c>
+      <c r="AC282">
+        <v>1.666666666666668</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29">
+      <c r="A283" t="s">
+        <v>31</v>
+      </c>
+      <c r="B283" t="s">
+        <v>93</v>
+      </c>
+      <c r="C283">
+        <v>7.2</v>
+      </c>
+      <c r="D283">
+        <v>9.42</v>
+      </c>
+      <c r="E283">
+        <v>0.62</v>
+      </c>
+      <c r="F283">
+        <v>5177772</v>
+      </c>
+      <c r="G283">
+        <v>3625534786.16</v>
+      </c>
+      <c r="H283">
+        <v>9.42</v>
+      </c>
+      <c r="I283">
+        <v>7.24</v>
+      </c>
+      <c r="J283">
+        <v>6.62</v>
+      </c>
+      <c r="K283">
+        <v>6.68</v>
+      </c>
+      <c r="L283">
+        <v>6.58</v>
+      </c>
+      <c r="M283">
+        <v>1.42</v>
+      </c>
+      <c r="N283">
+        <v>7.51</v>
+      </c>
+      <c r="O283">
+        <v>27.36</v>
+      </c>
+      <c r="P283">
+        <v>2.73</v>
+      </c>
+      <c r="Q283">
+        <v>50458880297</v>
+      </c>
+      <c r="R283">
+        <v>49633469942</v>
+      </c>
+      <c r="S283">
+        <v>0.14</v>
+      </c>
+      <c r="T283">
+        <v>0.28</v>
+      </c>
+      <c r="U283">
+        <v>35.34</v>
+      </c>
+      <c r="V283">
+        <v>6.98</v>
+      </c>
+      <c r="W283" s="2">
+        <v>45481</v>
+      </c>
+      <c r="X283">
+        <v>7.55</v>
+      </c>
+      <c r="Y283">
+        <v>4.86</v>
+      </c>
+      <c r="Z283">
+        <v>7.8</v>
+      </c>
+      <c r="AA283">
+        <v>6.96</v>
+      </c>
+      <c r="AB283">
+        <v>7.03</v>
+      </c>
+      <c r="AC283">
+        <v>8.333333333333329</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29">
+      <c r="A284" t="s">
+        <v>32</v>
+      </c>
+      <c r="B284" t="s">
+        <v>55</v>
+      </c>
+      <c r="C284">
+        <v>39.37</v>
+      </c>
+      <c r="D284">
+        <v>1.65</v>
+      </c>
+      <c r="E284">
+        <v>0.64</v>
+      </c>
+      <c r="F284">
+        <v>782297</v>
+      </c>
+      <c r="G284">
+        <v>3064039455.5</v>
+      </c>
+      <c r="H284">
+        <v>3</v>
+      </c>
+      <c r="I284">
+        <v>39.66</v>
+      </c>
+      <c r="J284">
+        <v>38.5</v>
+      </c>
+      <c r="K284">
+        <v>38.75</v>
+      </c>
+      <c r="L284">
+        <v>38.73</v>
+      </c>
+      <c r="M284">
+        <v>1.26</v>
+      </c>
+      <c r="N284">
+        <v>1.09</v>
+      </c>
+      <c r="O284">
+        <v>28.69</v>
+      </c>
+      <c r="P284">
+        <v>5.04</v>
+      </c>
+      <c r="Q284">
+        <v>283594536904</v>
+      </c>
+      <c r="R284">
+        <v>282981568445</v>
+      </c>
+      <c r="S284">
+        <v>0</v>
+      </c>
+      <c r="T284">
+        <v>0</v>
+      </c>
+      <c r="U284">
+        <v>38.38</v>
+      </c>
+      <c r="V284">
+        <v>14.28</v>
+      </c>
+      <c r="W284" s="2">
+        <v>45481</v>
+      </c>
+      <c r="X284">
+        <v>41.39</v>
+      </c>
+      <c r="Y284">
+        <v>5.13</v>
+      </c>
+      <c r="Z284">
+        <v>41.61</v>
+      </c>
+      <c r="AA284">
+        <v>39.06</v>
+      </c>
+      <c r="AB284">
+        <v>39.37</v>
+      </c>
+      <c r="AC284">
+        <v>5.689611379222764</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29">
+      <c r="A285" t="s">
+        <v>33</v>
+      </c>
+      <c r="B285" t="s">
+        <v>88</v>
+      </c>
+      <c r="C285">
+        <v>29.92</v>
+      </c>
+      <c r="D285">
+        <v>2.05</v>
+      </c>
+      <c r="E285">
+        <v>0.6</v>
+      </c>
+      <c r="F285">
+        <v>1008971</v>
+      </c>
+      <c r="G285">
+        <v>3002371354</v>
+      </c>
+      <c r="H285">
+        <v>2.9</v>
+      </c>
+      <c r="I285">
+        <v>30.05</v>
+      </c>
+      <c r="J285">
+        <v>29.2</v>
+      </c>
+      <c r="K285">
+        <v>29.22</v>
+      </c>
+      <c r="L285">
+        <v>29.32</v>
+      </c>
+      <c r="M285">
+        <v>1.36</v>
+      </c>
+      <c r="N285">
+        <v>0.42</v>
+      </c>
+      <c r="O285">
+        <v>46.14</v>
+      </c>
+      <c r="P285">
+        <v>3.56</v>
+      </c>
+      <c r="Q285">
+        <v>732089074063</v>
+      </c>
+      <c r="R285">
+        <v>718297114570</v>
+      </c>
+      <c r="S285">
+        <v>-0.17</v>
+      </c>
+      <c r="T285">
+        <v>-0.13</v>
+      </c>
+      <c r="U285">
+        <v>18.97</v>
+      </c>
+      <c r="V285">
+        <v>28.19</v>
+      </c>
+      <c r="W285" s="2">
+        <v>45481</v>
+      </c>
+      <c r="X285">
+        <v>30.31</v>
+      </c>
+      <c r="Y285">
+        <v>1.3</v>
+      </c>
+      <c r="Z285">
+        <v>30.33</v>
+      </c>
+      <c r="AA285">
+        <v>29.81</v>
+      </c>
+      <c r="AB285">
+        <v>29.91</v>
+      </c>
+      <c r="AC285">
+        <v>1.370320855614962</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29">
+      <c r="A286" t="s">
+        <v>34</v>
+      </c>
+      <c r="B286" t="s">
+        <v>58</v>
+      </c>
+      <c r="C286">
+        <v>18.45</v>
+      </c>
+      <c r="D286">
+        <v>-1.02</v>
+      </c>
+      <c r="E286">
+        <v>-0.19</v>
+      </c>
+      <c r="F286">
+        <v>1491977</v>
+      </c>
+      <c r="G286">
+        <v>2778400677</v>
+      </c>
+      <c r="H286">
+        <v>2.36</v>
+      </c>
+      <c r="I286">
+        <v>18.88</v>
+      </c>
+      <c r="J286">
+        <v>18.44</v>
+      </c>
+      <c r="K286">
+        <v>18.69</v>
+      </c>
+      <c r="L286">
+        <v>18.64</v>
+      </c>
+      <c r="M286">
+        <v>1.05</v>
+      </c>
+      <c r="N286">
+        <v>0.73</v>
+      </c>
+      <c r="O286">
+        <v>19.58</v>
+      </c>
+      <c r="P286">
+        <v>4.2</v>
+      </c>
+      <c r="Q286">
+        <v>490362050943</v>
+      </c>
+      <c r="R286">
+        <v>379263606514</v>
+      </c>
+      <c r="S286">
+        <v>-0.16</v>
+      </c>
+      <c r="T286">
+        <v>-0.16</v>
+      </c>
+      <c r="U286">
+        <v>9.76</v>
+      </c>
+      <c r="V286">
+        <v>50.49</v>
+      </c>
+      <c r="W286" s="2">
+        <v>45481</v>
+      </c>
+      <c r="X286">
+        <v>18.82</v>
+      </c>
+      <c r="Y286">
+        <v>2.01</v>
+      </c>
+      <c r="Z286">
+        <v>18.86</v>
+      </c>
+      <c r="AA286">
+        <v>18.55</v>
+      </c>
+      <c r="AB286">
+        <v>18.6</v>
+      </c>
+      <c r="AC286">
+        <v>2.222222222222223</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29">
+      <c r="A287" t="s">
+        <v>35</v>
+      </c>
+      <c r="B287" t="s">
+        <v>74</v>
+      </c>
+      <c r="C287">
+        <v>17.65</v>
+      </c>
+      <c r="D287">
+        <v>2.2</v>
+      </c>
+      <c r="E287">
+        <v>0.38</v>
+      </c>
+      <c r="F287">
+        <v>1322135</v>
+      </c>
+      <c r="G287">
+        <v>2341533545</v>
+      </c>
+      <c r="H287">
+        <v>5.5</v>
+      </c>
+      <c r="I287">
+        <v>18.06</v>
+      </c>
+      <c r="J287">
+        <v>17.11</v>
+      </c>
+      <c r="K287">
+        <v>17.11</v>
+      </c>
+      <c r="L287">
+        <v>17.27</v>
+      </c>
+      <c r="M287">
+        <v>1.27</v>
+      </c>
+      <c r="N287">
+        <v>6.05</v>
+      </c>
+      <c r="O287">
+        <v>91.34999999999999</v>
+      </c>
+      <c r="P287">
+        <v>2.88</v>
+      </c>
+      <c r="Q287">
+        <v>38547772811</v>
+      </c>
+      <c r="R287">
+        <v>38547772811</v>
+      </c>
+      <c r="S287">
+        <v>0</v>
+      </c>
+      <c r="T287">
+        <v>0.06</v>
+      </c>
+      <c r="U287">
+        <v>7.16</v>
+      </c>
+      <c r="V287">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="W287" s="2">
+        <v>45481</v>
+      </c>
+      <c r="X287">
+        <v>18.03</v>
+      </c>
+      <c r="Y287">
+        <v>2.15</v>
+      </c>
+      <c r="Z287">
+        <v>18.05</v>
+      </c>
+      <c r="AA287">
+        <v>17.3</v>
+      </c>
+      <c r="AB287">
+        <v>17.75</v>
+      </c>
+      <c r="AC287">
+        <v>2.266288951841372</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29">
+      <c r="A288" t="s">
+        <v>36</v>
+      </c>
+      <c r="B288" t="s">
+        <v>100</v>
+      </c>
+      <c r="C288">
+        <v>39.21</v>
+      </c>
+      <c r="D288">
+        <v>-2.05</v>
+      </c>
+      <c r="E288">
+        <v>-0.82</v>
+      </c>
+      <c r="F288">
+        <v>499868</v>
+      </c>
+      <c r="G288">
+        <v>1964892357</v>
+      </c>
+      <c r="H288">
+        <v>4.15</v>
+      </c>
+      <c r="I288">
+        <v>40.1</v>
+      </c>
+      <c r="J288">
+        <v>38.44</v>
+      </c>
+      <c r="K288">
+        <v>39.2</v>
+      </c>
+      <c r="L288">
+        <v>40.03</v>
+      </c>
+      <c r="M288">
+        <v>1.33</v>
+      </c>
+      <c r="N288">
+        <v>0.78</v>
+      </c>
+      <c r="O288">
+        <v>45.68</v>
+      </c>
+      <c r="P288">
+        <v>6.16</v>
+      </c>
+      <c r="Q288">
+        <v>250120679164</v>
+      </c>
+      <c r="R288">
+        <v>250120679164</v>
+      </c>
+      <c r="S288">
+        <v>-0.41</v>
+      </c>
+      <c r="T288">
+        <v>-0.23</v>
+      </c>
+      <c r="U288">
+        <v>-13.9</v>
+      </c>
+      <c r="V288">
+        <v>-13.31</v>
+      </c>
+      <c r="W288" s="2">
+        <v>45481</v>
+      </c>
+      <c r="X288">
+        <v>38.99</v>
+      </c>
+      <c r="Y288">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="Z288">
+        <v>39.48</v>
+      </c>
+      <c r="AA288">
+        <v>38.01</v>
+      </c>
+      <c r="AB288">
+        <v>39.12</v>
+      </c>
+      <c r="AC288">
+        <v>0.6885998469778016</v>
+      </c>
+    </row>
+    <row r="289" spans="1:29">
+      <c r="A289" t="s">
+        <v>37</v>
+      </c>
+      <c r="B289" t="s">
+        <v>84</v>
+      </c>
+      <c r="C289">
+        <v>21.7</v>
+      </c>
+      <c r="D289">
+        <v>2.79</v>
+      </c>
+      <c r="E289">
+        <v>0.59</v>
+      </c>
+      <c r="F289">
+        <v>895150</v>
+      </c>
+      <c r="G289">
+        <v>1937927908.32</v>
+      </c>
+      <c r="H289">
+        <v>5.12</v>
+      </c>
+      <c r="I289">
+        <v>22.07</v>
+      </c>
+      <c r="J289">
+        <v>20.99</v>
+      </c>
+      <c r="K289">
+        <v>21</v>
+      </c>
+      <c r="L289">
+        <v>21.11</v>
+      </c>
+      <c r="M289">
+        <v>0.99</v>
+      </c>
+      <c r="N289">
+        <v>6.44</v>
+      </c>
+      <c r="O289">
+        <v>32.06</v>
+      </c>
+      <c r="P289">
+        <v>2.07</v>
+      </c>
+      <c r="Q289">
+        <v>37104120996</v>
+      </c>
+      <c r="R289">
+        <v>30168974878</v>
+      </c>
+      <c r="S289">
+        <v>-0.18</v>
+      </c>
+      <c r="T289">
+        <v>-0.09</v>
+      </c>
+      <c r="U289">
+        <v>52.49</v>
+      </c>
+      <c r="V289">
+        <v>21.03</v>
+      </c>
+      <c r="W289" s="2">
+        <v>45481</v>
+      </c>
+      <c r="X289">
+        <v>23.87</v>
+      </c>
+      <c r="Y289">
+        <v>10</v>
+      </c>
+      <c r="Z289">
+        <v>23.87</v>
+      </c>
+      <c r="AA289">
+        <v>21.47</v>
+      </c>
+      <c r="AB289">
+        <v>21.91</v>
+      </c>
+      <c r="AC289">
+        <v>10.00000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:29">
+      <c r="A290" t="s">
+        <v>38</v>
+      </c>
+      <c r="B290" t="s">
+        <v>40</v>
+      </c>
+      <c r="C290">
+        <v>36.94</v>
+      </c>
+      <c r="D290">
+        <v>-1.04</v>
+      </c>
+      <c r="E290">
+        <v>-0.39</v>
+      </c>
+      <c r="F290">
+        <v>521312</v>
+      </c>
+      <c r="G290">
+        <v>1933218508.34</v>
+      </c>
+      <c r="H290">
+        <v>2.92</v>
+      </c>
+      <c r="I290">
+        <v>37.69</v>
+      </c>
+      <c r="J290">
+        <v>36.6</v>
+      </c>
+      <c r="K290">
+        <v>37</v>
+      </c>
+      <c r="L290">
+        <v>37.33</v>
+      </c>
+      <c r="M290">
+        <v>1.01</v>
+      </c>
+      <c r="N290">
+        <v>3.55</v>
+      </c>
+      <c r="O290">
+        <v>44.36</v>
+      </c>
+      <c r="P290">
+        <v>3.01</v>
+      </c>
+      <c r="Q290">
+        <v>54380671407</v>
+      </c>
+      <c r="R290">
+        <v>54310804051</v>
+      </c>
+      <c r="S290">
+        <v>0.05</v>
+      </c>
+      <c r="T290">
+        <v>0.11</v>
+      </c>
+      <c r="U290">
+        <v>-3.65</v>
+      </c>
+      <c r="V290">
+        <v>11.7</v>
+      </c>
+      <c r="W290" s="2">
+        <v>45481</v>
+      </c>
+      <c r="X290">
+        <v>39.1</v>
+      </c>
+      <c r="Y290">
+        <v>5.85</v>
+      </c>
+      <c r="Z290">
+        <v>39.33</v>
+      </c>
+      <c r="AA290">
+        <v>36.3</v>
+      </c>
+      <c r="AB290">
+        <v>37.1</v>
+      </c>
+      <c r="AC290">
+        <v>6.469951272333516</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="102">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
+    <t>000063</t>
+  </si>
+  <si>
+    <t>002475</t>
+  </si>
+  <si>
+    <t>000977</t>
+  </si>
+  <si>
     <t>600733</t>
   </si>
   <si>
-    <t>601919</t>
+    <t>601138</t>
   </si>
   <si>
     <t>002600</t>
   </si>
   <si>
-    <t>002475</t>
+    <t>002156</t>
+  </si>
+  <si>
+    <t>601899</t>
   </si>
   <si>
     <t>600900</t>
   </si>
   <si>
-    <t>601899</t>
-  </si>
-  <si>
-    <t>600418</t>
-  </si>
-  <si>
-    <t>600276</t>
-  </si>
-  <si>
-    <t>002384</t>
-  </si>
-  <si>
-    <t>000977</t>
+    <t>002241</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -681,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC290"/>
+  <dimension ref="A1:AC300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25608,8 +25608,8 @@
       </c>
     </row>
     <row r="281" spans="1:29">
-      <c r="A281" t="s">
-        <v>29</v>
+      <c r="A281">
+        <v>600733</v>
       </c>
       <c r="B281" t="s">
         <v>80</v>
@@ -25697,8 +25697,8 @@
       </c>
     </row>
     <row r="282" spans="1:29">
-      <c r="A282" t="s">
-        <v>30</v>
+      <c r="A282">
+        <v>601919</v>
       </c>
       <c r="B282" t="s">
         <v>56</v>
@@ -25786,8 +25786,8 @@
       </c>
     </row>
     <row r="283" spans="1:29">
-      <c r="A283" t="s">
-        <v>31</v>
+      <c r="A283">
+        <v>2600</v>
       </c>
       <c r="B283" t="s">
         <v>93</v>
@@ -25875,8 +25875,8 @@
       </c>
     </row>
     <row r="284" spans="1:29">
-      <c r="A284" t="s">
-        <v>32</v>
+      <c r="A284">
+        <v>2475</v>
       </c>
       <c r="B284" t="s">
         <v>55</v>
@@ -25964,8 +25964,8 @@
       </c>
     </row>
     <row r="285" spans="1:29">
-      <c r="A285" t="s">
-        <v>33</v>
+      <c r="A285">
+        <v>600900</v>
       </c>
       <c r="B285" t="s">
         <v>88</v>
@@ -26053,8 +26053,8 @@
       </c>
     </row>
     <row r="286" spans="1:29">
-      <c r="A286" t="s">
-        <v>34</v>
+      <c r="A286">
+        <v>601899</v>
       </c>
       <c r="B286" t="s">
         <v>58</v>
@@ -26142,8 +26142,8 @@
       </c>
     </row>
     <row r="287" spans="1:29">
-      <c r="A287" t="s">
-        <v>35</v>
+      <c r="A287">
+        <v>600418</v>
       </c>
       <c r="B287" t="s">
         <v>74</v>
@@ -26231,8 +26231,8 @@
       </c>
     </row>
     <row r="288" spans="1:29">
-      <c r="A288" t="s">
-        <v>36</v>
+      <c r="A288">
+        <v>600276</v>
       </c>
       <c r="B288" t="s">
         <v>100</v>
@@ -26320,8 +26320,8 @@
       </c>
     </row>
     <row r="289" spans="1:29">
-      <c r="A289" t="s">
-        <v>37</v>
+      <c r="A289">
+        <v>2384</v>
       </c>
       <c r="B289" t="s">
         <v>84</v>
@@ -26409,8 +26409,8 @@
       </c>
     </row>
     <row r="290" spans="1:29">
-      <c r="A290" t="s">
-        <v>38</v>
+      <c r="A290">
+        <v>977</v>
       </c>
       <c r="B290" t="s">
         <v>40</v>
@@ -26495,6 +26495,896 @@
       </c>
       <c r="AC290">
         <v>6.469951272333516</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29">
+      <c r="A291" t="s">
+        <v>29</v>
+      </c>
+      <c r="B291" t="s">
+        <v>54</v>
+      </c>
+      <c r="C291">
+        <v>28.87</v>
+      </c>
+      <c r="D291">
+        <v>6.14</v>
+      </c>
+      <c r="E291">
+        <v>1.67</v>
+      </c>
+      <c r="F291">
+        <v>1940748</v>
+      </c>
+      <c r="G291">
+        <v>5515876459.24</v>
+      </c>
+      <c r="H291">
+        <v>6.54</v>
+      </c>
+      <c r="I291">
+        <v>28.89</v>
+      </c>
+      <c r="J291">
+        <v>27.11</v>
+      </c>
+      <c r="K291">
+        <v>27.16</v>
+      </c>
+      <c r="L291">
+        <v>27.2</v>
+      </c>
+      <c r="M291">
+        <v>3.43</v>
+      </c>
+      <c r="N291">
+        <v>4.82</v>
+      </c>
+      <c r="O291">
+        <v>12.6</v>
+      </c>
+      <c r="P291">
+        <v>2.03</v>
+      </c>
+      <c r="Q291">
+        <v>138092472306</v>
+      </c>
+      <c r="R291">
+        <v>116260089774</v>
+      </c>
+      <c r="S291">
+        <v>0.03</v>
+      </c>
+      <c r="T291">
+        <v>0.03</v>
+      </c>
+      <c r="U291">
+        <v>8.98</v>
+      </c>
+      <c r="V291">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="W291" s="2">
+        <v>45482</v>
+      </c>
+      <c r="X291">
+        <v>28.85</v>
+      </c>
+      <c r="Y291">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Z291">
+        <v>29.15</v>
+      </c>
+      <c r="AA291">
+        <v>28.66</v>
+      </c>
+      <c r="AB291">
+        <v>28.8</v>
+      </c>
+      <c r="AC291">
+        <v>0.9698649116730086</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29">
+      <c r="A292" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" t="s">
+        <v>55</v>
+      </c>
+      <c r="C292">
+        <v>41.39</v>
+      </c>
+      <c r="D292">
+        <v>5.13</v>
+      </c>
+      <c r="E292">
+        <v>2.02</v>
+      </c>
+      <c r="F292">
+        <v>1142994</v>
+      </c>
+      <c r="G292">
+        <v>4665735421.42</v>
+      </c>
+      <c r="H292">
+        <v>6.48</v>
+      </c>
+      <c r="I292">
+        <v>41.61</v>
+      </c>
+      <c r="J292">
+        <v>39.06</v>
+      </c>
+      <c r="K292">
+        <v>39.37</v>
+      </c>
+      <c r="L292">
+        <v>39.37</v>
+      </c>
+      <c r="M292">
+        <v>1.77</v>
+      </c>
+      <c r="N292">
+        <v>1.59</v>
+      </c>
+      <c r="O292">
+        <v>30.16</v>
+      </c>
+      <c r="P292">
+        <v>5.3</v>
+      </c>
+      <c r="Q292">
+        <v>298145234505</v>
+      </c>
+      <c r="R292">
+        <v>297500815797</v>
+      </c>
+      <c r="S292">
+        <v>0</v>
+      </c>
+      <c r="T292">
+        <v>0.1</v>
+      </c>
+      <c r="U292">
+        <v>49.48</v>
+      </c>
+      <c r="V292">
+        <v>20.15</v>
+      </c>
+      <c r="W292" s="2">
+        <v>45482</v>
+      </c>
+      <c r="X292">
+        <v>41.08</v>
+      </c>
+      <c r="Y292">
+        <v>-0.75</v>
+      </c>
+      <c r="Z292">
+        <v>41.73</v>
+      </c>
+      <c r="AA292">
+        <v>40.82</v>
+      </c>
+      <c r="AB292">
+        <v>41.39</v>
+      </c>
+      <c r="AC292">
+        <v>0.8214544575984448</v>
+      </c>
+    </row>
+    <row r="293" spans="1:29">
+      <c r="A293" t="s">
+        <v>31</v>
+      </c>
+      <c r="B293" t="s">
+        <v>40</v>
+      </c>
+      <c r="C293">
+        <v>39.1</v>
+      </c>
+      <c r="D293">
+        <v>5.85</v>
+      </c>
+      <c r="E293">
+        <v>2.16</v>
+      </c>
+      <c r="F293">
+        <v>1193428</v>
+      </c>
+      <c r="G293">
+        <v>4576417721.04</v>
+      </c>
+      <c r="H293">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I293">
+        <v>39.33</v>
+      </c>
+      <c r="J293">
+        <v>36.3</v>
+      </c>
+      <c r="K293">
+        <v>37.1</v>
+      </c>
+      <c r="L293">
+        <v>36.94</v>
+      </c>
+      <c r="M293">
+        <v>2.33</v>
+      </c>
+      <c r="N293">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="O293">
+        <v>46.96</v>
+      </c>
+      <c r="P293">
+        <v>3.18</v>
+      </c>
+      <c r="Q293">
+        <v>57560483270</v>
+      </c>
+      <c r="R293">
+        <v>57486530547</v>
+      </c>
+      <c r="S293">
+        <v>-0.03</v>
+      </c>
+      <c r="T293">
+        <v>0</v>
+      </c>
+      <c r="U293">
+        <v>5.76</v>
+      </c>
+      <c r="V293">
+        <v>18.23</v>
+      </c>
+      <c r="W293" s="2">
+        <v>45482</v>
+      </c>
+      <c r="X293">
+        <v>39.2</v>
+      </c>
+      <c r="Y293">
+        <v>0.26</v>
+      </c>
+      <c r="Z293">
+        <v>39.7</v>
+      </c>
+      <c r="AA293">
+        <v>38.5</v>
+      </c>
+      <c r="AB293">
+        <v>38.79</v>
+      </c>
+      <c r="AC293">
+        <v>1.534526854219952</v>
+      </c>
+    </row>
+    <row r="294" spans="1:29">
+      <c r="A294" t="s">
+        <v>32</v>
+      </c>
+      <c r="B294" t="s">
+        <v>80</v>
+      </c>
+      <c r="C294">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D294">
+        <v>0.31</v>
+      </c>
+      <c r="E294">
+        <v>0.03</v>
+      </c>
+      <c r="F294">
+        <v>4757981</v>
+      </c>
+      <c r="G294">
+        <v>4535023322</v>
+      </c>
+      <c r="H294">
+        <v>4.38</v>
+      </c>
+      <c r="I294">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="J294">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="K294">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L294">
+        <v>9.6</v>
+      </c>
+      <c r="M294">
+        <v>1.16</v>
+      </c>
+      <c r="N294">
+        <v>9.81</v>
+      </c>
+      <c r="O294">
+        <v>-13.21</v>
+      </c>
+      <c r="P294">
+        <v>10.19</v>
+      </c>
+      <c r="Q294">
+        <v>53672835517</v>
+      </c>
+      <c r="R294">
+        <v>46685451553</v>
+      </c>
+      <c r="S294">
+        <v>0</v>
+      </c>
+      <c r="T294">
+        <v>0</v>
+      </c>
+      <c r="U294">
+        <v>42.04</v>
+      </c>
+      <c r="V294">
+        <v>57.1</v>
+      </c>
+      <c r="W294" s="2">
+        <v>45482</v>
+      </c>
+      <c r="X294">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="Y294">
+        <v>-1.66</v>
+      </c>
+      <c r="Z294">
+        <v>9.73</v>
+      </c>
+      <c r="AA294">
+        <v>9.27</v>
+      </c>
+      <c r="AB294">
+        <v>9.42</v>
+      </c>
+      <c r="AC294">
+        <v>1.038421599169259</v>
+      </c>
+    </row>
+    <row r="295" spans="1:29">
+      <c r="A295" t="s">
+        <v>33</v>
+      </c>
+      <c r="B295" t="s">
+        <v>42</v>
+      </c>
+      <c r="C295">
+        <v>29</v>
+      </c>
+      <c r="D295">
+        <v>7.57</v>
+      </c>
+      <c r="E295">
+        <v>2.04</v>
+      </c>
+      <c r="F295">
+        <v>1595198</v>
+      </c>
+      <c r="G295">
+        <v>4499603103</v>
+      </c>
+      <c r="H295">
+        <v>9.01</v>
+      </c>
+      <c r="I295">
+        <v>29.18</v>
+      </c>
+      <c r="J295">
+        <v>26.75</v>
+      </c>
+      <c r="K295">
+        <v>27.1</v>
+      </c>
+      <c r="L295">
+        <v>26.96</v>
+      </c>
+      <c r="M295">
+        <v>2.02</v>
+      </c>
+      <c r="N295">
+        <v>0.8</v>
+      </c>
+      <c r="O295">
+        <v>34.42</v>
+      </c>
+      <c r="P295">
+        <v>3.96</v>
+      </c>
+      <c r="Q295">
+        <v>576158764922</v>
+      </c>
+      <c r="R295">
+        <v>575999491006</v>
+      </c>
+      <c r="S295">
+        <v>0.03</v>
+      </c>
+      <c r="T295">
+        <v>0.03</v>
+      </c>
+      <c r="U295">
+        <v>37.44</v>
+      </c>
+      <c r="V295">
+        <v>91.8</v>
+      </c>
+      <c r="W295" s="2">
+        <v>45482</v>
+      </c>
+      <c r="X295">
+        <v>28.95</v>
+      </c>
+      <c r="Y295">
+        <v>-0.17</v>
+      </c>
+      <c r="Z295">
+        <v>29.18</v>
+      </c>
+      <c r="AA295">
+        <v>28.42</v>
+      </c>
+      <c r="AB295">
+        <v>29</v>
+      </c>
+      <c r="AC295">
+        <v>0.6206896551724128</v>
+      </c>
+    </row>
+    <row r="296" spans="1:29">
+      <c r="A296" t="s">
+        <v>34</v>
+      </c>
+      <c r="B296" t="s">
+        <v>93</v>
+      </c>
+      <c r="C296">
+        <v>7.55</v>
+      </c>
+      <c r="D296">
+        <v>4.86</v>
+      </c>
+      <c r="E296">
+        <v>0.35</v>
+      </c>
+      <c r="F296">
+        <v>4759584</v>
+      </c>
+      <c r="G296">
+        <v>3498092302.88</v>
+      </c>
+      <c r="H296">
+        <v>11.67</v>
+      </c>
+      <c r="I296">
+        <v>7.8</v>
+      </c>
+      <c r="J296">
+        <v>6.96</v>
+      </c>
+      <c r="K296">
+        <v>7.03</v>
+      </c>
+      <c r="L296">
+        <v>7.2</v>
+      </c>
+      <c r="M296">
+        <v>1.28</v>
+      </c>
+      <c r="N296">
+        <v>6.9</v>
+      </c>
+      <c r="O296">
+        <v>28.69</v>
+      </c>
+      <c r="P296">
+        <v>2.86</v>
+      </c>
+      <c r="Q296">
+        <v>52911742533</v>
+      </c>
+      <c r="R296">
+        <v>52046208065</v>
+      </c>
+      <c r="S296">
+        <v>0.13</v>
+      </c>
+      <c r="T296">
+        <v>-0.13</v>
+      </c>
+      <c r="U296">
+        <v>46.6</v>
+      </c>
+      <c r="V296">
+        <v>12.18</v>
+      </c>
+      <c r="W296" s="2">
+        <v>45482</v>
+      </c>
+      <c r="X296">
+        <v>7.47</v>
+      </c>
+      <c r="Y296">
+        <v>-1.06</v>
+      </c>
+      <c r="Z296">
+        <v>7.6</v>
+      </c>
+      <c r="AA296">
+        <v>7.31</v>
+      </c>
+      <c r="AB296">
+        <v>7.44</v>
+      </c>
+      <c r="AC296">
+        <v>0.6622516556291367</v>
+      </c>
+    </row>
+    <row r="297" spans="1:29">
+      <c r="A297" t="s">
+        <v>35</v>
+      </c>
+      <c r="B297" t="s">
+        <v>78</v>
+      </c>
+      <c r="C297">
+        <v>22.81</v>
+      </c>
+      <c r="D297">
+        <v>9.19</v>
+      </c>
+      <c r="E297">
+        <v>1.92</v>
+      </c>
+      <c r="F297">
+        <v>1496881</v>
+      </c>
+      <c r="G297">
+        <v>3311759898.18</v>
+      </c>
+      <c r="H297">
+        <v>9.77</v>
+      </c>
+      <c r="I297">
+        <v>22.94</v>
+      </c>
+      <c r="J297">
+        <v>20.9</v>
+      </c>
+      <c r="K297">
+        <v>21.03</v>
+      </c>
+      <c r="L297">
+        <v>20.89</v>
+      </c>
+      <c r="M297">
+        <v>2.16</v>
+      </c>
+      <c r="N297">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="O297">
+        <v>87.87</v>
+      </c>
+      <c r="P297">
+        <v>2.47</v>
+      </c>
+      <c r="Q297">
+        <v>34616385563</v>
+      </c>
+      <c r="R297">
+        <v>34612595909</v>
+      </c>
+      <c r="S297">
+        <v>-0.04</v>
+      </c>
+      <c r="T297">
+        <v>-0.04</v>
+      </c>
+      <c r="U297">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="V297">
+        <v>-1.3</v>
+      </c>
+      <c r="W297" s="2">
+        <v>45482</v>
+      </c>
+      <c r="X297">
+        <v>22.95</v>
+      </c>
+      <c r="Y297">
+        <v>0.61</v>
+      </c>
+      <c r="Z297">
+        <v>23.19</v>
+      </c>
+      <c r="AA297">
+        <v>22.68</v>
+      </c>
+      <c r="AB297">
+        <v>22.71</v>
+      </c>
+      <c r="AC297">
+        <v>1.665935992985544</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29">
+      <c r="A298" t="s">
+        <v>36</v>
+      </c>
+      <c r="B298" t="s">
+        <v>58</v>
+      </c>
+      <c r="C298">
+        <v>18.82</v>
+      </c>
+      <c r="D298">
+        <v>2.01</v>
+      </c>
+      <c r="E298">
+        <v>0.37</v>
+      </c>
+      <c r="F298">
+        <v>1649307</v>
+      </c>
+      <c r="G298">
+        <v>3089185866</v>
+      </c>
+      <c r="H298">
+        <v>1.68</v>
+      </c>
+      <c r="I298">
+        <v>18.86</v>
+      </c>
+      <c r="J298">
+        <v>18.55</v>
+      </c>
+      <c r="K298">
+        <v>18.6</v>
+      </c>
+      <c r="L298">
+        <v>18.45</v>
+      </c>
+      <c r="M298">
+        <v>1.16</v>
+      </c>
+      <c r="N298">
+        <v>0.8</v>
+      </c>
+      <c r="O298">
+        <v>19.97</v>
+      </c>
+      <c r="P298">
+        <v>4.29</v>
+      </c>
+      <c r="Q298">
+        <v>500195869851</v>
+      </c>
+      <c r="R298">
+        <v>386869434938</v>
+      </c>
+      <c r="S298">
+        <v>0.05</v>
+      </c>
+      <c r="T298">
+        <v>0</v>
+      </c>
+      <c r="U298">
+        <v>5.79</v>
+      </c>
+      <c r="V298">
+        <v>53.51</v>
+      </c>
+      <c r="W298" s="2">
+        <v>45482</v>
+      </c>
+      <c r="X298">
+        <v>18.38</v>
+      </c>
+      <c r="Y298">
+        <v>-2.34</v>
+      </c>
+      <c r="Z298">
+        <v>18.98</v>
+      </c>
+      <c r="AA298">
+        <v>18.28</v>
+      </c>
+      <c r="AB298">
+        <v>18.73</v>
+      </c>
+      <c r="AC298">
+        <v>0.8501594048884173</v>
+      </c>
+    </row>
+    <row r="299" spans="1:29">
+      <c r="A299" t="s">
+        <v>37</v>
+      </c>
+      <c r="B299" t="s">
+        <v>88</v>
+      </c>
+      <c r="C299">
+        <v>30.31</v>
+      </c>
+      <c r="D299">
+        <v>1.3</v>
+      </c>
+      <c r="E299">
+        <v>0.39</v>
+      </c>
+      <c r="F299">
+        <v>857246</v>
+      </c>
+      <c r="G299">
+        <v>2582804863</v>
+      </c>
+      <c r="H299">
+        <v>1.74</v>
+      </c>
+      <c r="I299">
+        <v>30.33</v>
+      </c>
+      <c r="J299">
+        <v>29.81</v>
+      </c>
+      <c r="K299">
+        <v>29.91</v>
+      </c>
+      <c r="L299">
+        <v>29.92</v>
+      </c>
+      <c r="M299">
+        <v>1.07</v>
+      </c>
+      <c r="N299">
+        <v>0.36</v>
+      </c>
+      <c r="O299">
+        <v>46.74</v>
+      </c>
+      <c r="P299">
+        <v>3.61</v>
+      </c>
+      <c r="Q299">
+        <v>741631678972</v>
+      </c>
+      <c r="R299">
+        <v>727659944606</v>
+      </c>
+      <c r="S299">
+        <v>0</v>
+      </c>
+      <c r="T299">
+        <v>0.03</v>
+      </c>
+      <c r="U299">
+        <v>18.26</v>
+      </c>
+      <c r="V299">
+        <v>29.86</v>
+      </c>
+      <c r="W299" s="2">
+        <v>45482</v>
+      </c>
+      <c r="X299">
+        <v>30.1</v>
+      </c>
+      <c r="Y299">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="Z299">
+        <v>30.42</v>
+      </c>
+      <c r="AA299">
+        <v>29.87</v>
+      </c>
+      <c r="AB299">
+        <v>30.28</v>
+      </c>
+      <c r="AC299">
+        <v>0.3629165291982943</v>
+      </c>
+    </row>
+    <row r="300" spans="1:29">
+      <c r="A300" t="s">
+        <v>38</v>
+      </c>
+      <c r="B300" t="s">
+        <v>95</v>
+      </c>
+      <c r="C300">
+        <v>20.68</v>
+      </c>
+      <c r="D300">
+        <v>4.92</v>
+      </c>
+      <c r="E300">
+        <v>0.97</v>
+      </c>
+      <c r="F300">
+        <v>1255072</v>
+      </c>
+      <c r="G300">
+        <v>2572939777.47</v>
+      </c>
+      <c r="H300">
+        <v>5.68</v>
+      </c>
+      <c r="I300">
+        <v>20.8</v>
+      </c>
+      <c r="J300">
+        <v>19.68</v>
+      </c>
+      <c r="K300">
+        <v>19.9</v>
+      </c>
+      <c r="L300">
+        <v>19.71</v>
+      </c>
+      <c r="M300">
+        <v>1.99</v>
+      </c>
+      <c r="N300">
+        <v>4.17</v>
+      </c>
+      <c r="O300">
+        <v>46.55</v>
+      </c>
+      <c r="P300">
+        <v>2.33</v>
+      </c>
+      <c r="Q300">
+        <v>70666343301</v>
+      </c>
+      <c r="R300">
+        <v>62246257398</v>
+      </c>
+      <c r="S300">
+        <v>0</v>
+      </c>
+      <c r="T300">
+        <v>0.1</v>
+      </c>
+      <c r="U300">
+        <v>32.99</v>
+      </c>
+      <c r="V300">
+        <v>-1.1</v>
+      </c>
+      <c r="W300" s="2">
+        <v>45482</v>
+      </c>
+      <c r="X300">
+        <v>21.45</v>
+      </c>
+      <c r="Y300">
+        <v>3.72</v>
+      </c>
+      <c r="Z300">
+        <v>21.67</v>
+      </c>
+      <c r="AA300">
+        <v>20.58</v>
+      </c>
+      <c r="AB300">
+        <v>20.68</v>
+      </c>
+      <c r="AC300">
+        <v>4.787234042553202</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
+    <t>600418</t>
+  </si>
+  <si>
+    <t>600733</t>
+  </si>
+  <si>
+    <t>002384</t>
+  </si>
+  <si>
     <t>000063</t>
+  </si>
+  <si>
+    <t>000977</t>
   </si>
   <si>
     <t>002475</t>
   </si>
   <si>
-    <t>000977</t>
-  </si>
-  <si>
-    <t>600733</t>
-  </si>
-  <si>
     <t>601138</t>
   </si>
   <si>
-    <t>002600</t>
+    <t>000625</t>
   </si>
   <si>
-    <t>002156</t>
+    <t>601012</t>
   </si>
   <si>
-    <t>601899</t>
-  </si>
-  <si>
-    <t>600900</t>
-  </si>
-  <si>
-    <t>002241</t>
+    <t>002130</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -681,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC300"/>
+  <dimension ref="A1:AC310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26498,8 +26498,8 @@
       </c>
     </row>
     <row r="291" spans="1:29">
-      <c r="A291" t="s">
-        <v>29</v>
+      <c r="A291">
+        <v>63</v>
       </c>
       <c r="B291" t="s">
         <v>54</v>
@@ -26587,8 +26587,8 @@
       </c>
     </row>
     <row r="292" spans="1:29">
-      <c r="A292" t="s">
-        <v>30</v>
+      <c r="A292">
+        <v>2475</v>
       </c>
       <c r="B292" t="s">
         <v>55</v>
@@ -26676,8 +26676,8 @@
       </c>
     </row>
     <row r="293" spans="1:29">
-      <c r="A293" t="s">
-        <v>31</v>
+      <c r="A293">
+        <v>977</v>
       </c>
       <c r="B293" t="s">
         <v>40</v>
@@ -26765,8 +26765,8 @@
       </c>
     </row>
     <row r="294" spans="1:29">
-      <c r="A294" t="s">
-        <v>32</v>
+      <c r="A294">
+        <v>600733</v>
       </c>
       <c r="B294" t="s">
         <v>80</v>
@@ -26854,8 +26854,8 @@
       </c>
     </row>
     <row r="295" spans="1:29">
-      <c r="A295" t="s">
-        <v>33</v>
+      <c r="A295">
+        <v>601138</v>
       </c>
       <c r="B295" t="s">
         <v>42</v>
@@ -26943,8 +26943,8 @@
       </c>
     </row>
     <row r="296" spans="1:29">
-      <c r="A296" t="s">
-        <v>34</v>
+      <c r="A296">
+        <v>2600</v>
       </c>
       <c r="B296" t="s">
         <v>93</v>
@@ -27032,8 +27032,8 @@
       </c>
     </row>
     <row r="297" spans="1:29">
-      <c r="A297" t="s">
-        <v>35</v>
+      <c r="A297">
+        <v>2156</v>
       </c>
       <c r="B297" t="s">
         <v>78</v>
@@ -27121,8 +27121,8 @@
       </c>
     </row>
     <row r="298" spans="1:29">
-      <c r="A298" t="s">
-        <v>36</v>
+      <c r="A298">
+        <v>601899</v>
       </c>
       <c r="B298" t="s">
         <v>58</v>
@@ -27210,8 +27210,8 @@
       </c>
     </row>
     <row r="299" spans="1:29">
-      <c r="A299" t="s">
-        <v>37</v>
+      <c r="A299">
+        <v>600900</v>
       </c>
       <c r="B299" t="s">
         <v>88</v>
@@ -27299,8 +27299,8 @@
       </c>
     </row>
     <row r="300" spans="1:29">
-      <c r="A300" t="s">
-        <v>38</v>
+      <c r="A300">
+        <v>2241</v>
       </c>
       <c r="B300" t="s">
         <v>95</v>
@@ -27385,6 +27385,896 @@
       </c>
       <c r="AC300">
         <v>4.787234042553202</v>
+      </c>
+    </row>
+    <row r="301" spans="1:29">
+      <c r="A301" t="s">
+        <v>29</v>
+      </c>
+      <c r="B301" t="s">
+        <v>74</v>
+      </c>
+      <c r="C301">
+        <v>19.15</v>
+      </c>
+      <c r="D301">
+        <v>6.21</v>
+      </c>
+      <c r="E301">
+        <v>1.12</v>
+      </c>
+      <c r="F301">
+        <v>2187389</v>
+      </c>
+      <c r="G301">
+        <v>4176188132</v>
+      </c>
+      <c r="H301">
+        <v>9.76</v>
+      </c>
+      <c r="I301">
+        <v>19.66</v>
+      </c>
+      <c r="J301">
+        <v>17.9</v>
+      </c>
+      <c r="K301">
+        <v>18.01</v>
+      </c>
+      <c r="L301">
+        <v>18.03</v>
+      </c>
+      <c r="M301">
+        <v>1.81</v>
+      </c>
+      <c r="N301">
+        <v>10.02</v>
+      </c>
+      <c r="O301">
+        <v>99.11</v>
+      </c>
+      <c r="P301">
+        <v>3.13</v>
+      </c>
+      <c r="Q301">
+        <v>41823787498</v>
+      </c>
+      <c r="R301">
+        <v>41823787498</v>
+      </c>
+      <c r="S301">
+        <v>-0.21</v>
+      </c>
+      <c r="T301">
+        <v>-0.1</v>
+      </c>
+      <c r="U301">
+        <v>16.48</v>
+      </c>
+      <c r="V301">
+        <v>18.58</v>
+      </c>
+      <c r="W301" s="2">
+        <v>45483</v>
+      </c>
+      <c r="X301">
+        <v>19.08</v>
+      </c>
+      <c r="Y301">
+        <v>-0.37</v>
+      </c>
+      <c r="Z301">
+        <v>19.54</v>
+      </c>
+      <c r="AA301">
+        <v>18.82</v>
+      </c>
+      <c r="AB301">
+        <v>19.19</v>
+      </c>
+      <c r="AC301">
+        <v>2.036553524804181</v>
+      </c>
+    </row>
+    <row r="302" spans="1:29">
+      <c r="A302" t="s">
+        <v>30</v>
+      </c>
+      <c r="B302" t="s">
+        <v>80</v>
+      </c>
+      <c r="C302">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D302">
+        <v>-1.66</v>
+      </c>
+      <c r="E302">
+        <v>-0.16</v>
+      </c>
+      <c r="F302">
+        <v>4270180</v>
+      </c>
+      <c r="G302">
+        <v>4054115625</v>
+      </c>
+      <c r="H302">
+        <v>4.78</v>
+      </c>
+      <c r="I302">
+        <v>9.73</v>
+      </c>
+      <c r="J302">
+        <v>9.27</v>
+      </c>
+      <c r="K302">
+        <v>9.42</v>
+      </c>
+      <c r="L302">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="M302">
+        <v>1</v>
+      </c>
+      <c r="N302">
+        <v>8.81</v>
+      </c>
+      <c r="O302">
+        <v>-12.99</v>
+      </c>
+      <c r="P302">
+        <v>10.02</v>
+      </c>
+      <c r="Q302">
+        <v>52781075010</v>
+      </c>
+      <c r="R302">
+        <v>45909784653</v>
+      </c>
+      <c r="S302">
+        <v>0.21</v>
+      </c>
+      <c r="T302">
+        <v>0.21</v>
+      </c>
+      <c r="U302">
+        <v>36.85</v>
+      </c>
+      <c r="V302">
+        <v>54.49</v>
+      </c>
+      <c r="W302" s="2">
+        <v>45483</v>
+      </c>
+      <c r="X302">
+        <v>9.41</v>
+      </c>
+      <c r="Y302">
+        <v>-0.63</v>
+      </c>
+      <c r="Z302">
+        <v>9.99</v>
+      </c>
+      <c r="AA302">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="AB302">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AC302">
+        <v>5.491024287222804</v>
+      </c>
+    </row>
+    <row r="303" spans="1:29">
+      <c r="A303" t="s">
+        <v>31</v>
+      </c>
+      <c r="B303" t="s">
+        <v>84</v>
+      </c>
+      <c r="C303">
+        <v>26.04</v>
+      </c>
+      <c r="D303">
+        <v>9.09</v>
+      </c>
+      <c r="E303">
+        <v>2.17</v>
+      </c>
+      <c r="F303">
+        <v>1479174</v>
+      </c>
+      <c r="G303">
+        <v>3707995315.3</v>
+      </c>
+      <c r="H303">
+        <v>8.17</v>
+      </c>
+      <c r="I303">
+        <v>26.16</v>
+      </c>
+      <c r="J303">
+        <v>24.21</v>
+      </c>
+      <c r="K303">
+        <v>24.56</v>
+      </c>
+      <c r="L303">
+        <v>23.87</v>
+      </c>
+      <c r="M303">
+        <v>1.5</v>
+      </c>
+      <c r="N303">
+        <v>10.64</v>
+      </c>
+      <c r="O303">
+        <v>38.47</v>
+      </c>
+      <c r="P303">
+        <v>2.48</v>
+      </c>
+      <c r="Q303">
+        <v>44524945195</v>
+      </c>
+      <c r="R303">
+        <v>36202769854</v>
+      </c>
+      <c r="S303">
+        <v>0.35</v>
+      </c>
+      <c r="T303">
+        <v>0.31</v>
+      </c>
+      <c r="U303">
+        <v>94.47</v>
+      </c>
+      <c r="V303">
+        <v>45.23</v>
+      </c>
+      <c r="W303" s="2">
+        <v>45483</v>
+      </c>
+      <c r="X303">
+        <v>25.98</v>
+      </c>
+      <c r="Y303">
+        <v>-0.23</v>
+      </c>
+      <c r="Z303">
+        <v>26.9</v>
+      </c>
+      <c r="AA303">
+        <v>25.11</v>
+      </c>
+      <c r="AB303">
+        <v>25.94</v>
+      </c>
+      <c r="AC303">
+        <v>3.302611367127494</v>
+      </c>
+    </row>
+    <row r="304" spans="1:29">
+      <c r="A304" t="s">
+        <v>32</v>
+      </c>
+      <c r="B304" t="s">
+        <v>54</v>
+      </c>
+      <c r="C304">
+        <v>28.85</v>
+      </c>
+      <c r="D304">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E304">
+        <v>-0.02</v>
+      </c>
+      <c r="F304">
+        <v>1169915</v>
+      </c>
+      <c r="G304">
+        <v>3381645848.74</v>
+      </c>
+      <c r="H304">
+        <v>1.7</v>
+      </c>
+      <c r="I304">
+        <v>29.15</v>
+      </c>
+      <c r="J304">
+        <v>28.66</v>
+      </c>
+      <c r="K304">
+        <v>28.8</v>
+      </c>
+      <c r="L304">
+        <v>28.87</v>
+      </c>
+      <c r="M304">
+        <v>1.4</v>
+      </c>
+      <c r="N304">
+        <v>2.91</v>
+      </c>
+      <c r="O304">
+        <v>12.59</v>
+      </c>
+      <c r="P304">
+        <v>2.03</v>
+      </c>
+      <c r="Q304">
+        <v>137996807275</v>
+      </c>
+      <c r="R304">
+        <v>116179549359</v>
+      </c>
+      <c r="S304">
+        <v>0.03</v>
+      </c>
+      <c r="T304">
+        <v>0.14</v>
+      </c>
+      <c r="U304">
+        <v>7.81</v>
+      </c>
+      <c r="V304">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="W304" s="2">
+        <v>45483</v>
+      </c>
+      <c r="X304">
+        <v>29.12</v>
+      </c>
+      <c r="Y304">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Z304">
+        <v>29.61</v>
+      </c>
+      <c r="AA304">
+        <v>28.82</v>
+      </c>
+      <c r="AB304">
+        <v>29.18</v>
+      </c>
+      <c r="AC304">
+        <v>2.634315424610045</v>
+      </c>
+    </row>
+    <row r="305" spans="1:29">
+      <c r="A305" t="s">
+        <v>33</v>
+      </c>
+      <c r="B305" t="s">
+        <v>40</v>
+      </c>
+      <c r="C305">
+        <v>39.2</v>
+      </c>
+      <c r="D305">
+        <v>0.26</v>
+      </c>
+      <c r="E305">
+        <v>0.1</v>
+      </c>
+      <c r="F305">
+        <v>812071</v>
+      </c>
+      <c r="G305">
+        <v>3169598410.6</v>
+      </c>
+      <c r="H305">
+        <v>3.07</v>
+      </c>
+      <c r="I305">
+        <v>39.7</v>
+      </c>
+      <c r="J305">
+        <v>38.5</v>
+      </c>
+      <c r="K305">
+        <v>38.79</v>
+      </c>
+      <c r="L305">
+        <v>39.1</v>
+      </c>
+      <c r="M305">
+        <v>1.2</v>
+      </c>
+      <c r="N305">
+        <v>5.52</v>
+      </c>
+      <c r="O305">
+        <v>47.08</v>
+      </c>
+      <c r="P305">
+        <v>3.19</v>
+      </c>
+      <c r="Q305">
+        <v>57707696782</v>
+      </c>
+      <c r="R305">
+        <v>57633554922</v>
+      </c>
+      <c r="S305">
+        <v>-0.13</v>
+      </c>
+      <c r="T305">
+        <v>-0.23</v>
+      </c>
+      <c r="U305">
+        <v>4.09</v>
+      </c>
+      <c r="V305">
+        <v>18.54</v>
+      </c>
+      <c r="W305" s="2">
+        <v>45483</v>
+      </c>
+      <c r="X305">
+        <v>38.95</v>
+      </c>
+      <c r="Y305">
+        <v>-0.64</v>
+      </c>
+      <c r="Z305">
+        <v>39.99</v>
+      </c>
+      <c r="AA305">
+        <v>38.26</v>
+      </c>
+      <c r="AB305">
+        <v>39.95</v>
+      </c>
+      <c r="AC305">
+        <v>2.015306122448977</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29">
+      <c r="A306" t="s">
+        <v>34</v>
+      </c>
+      <c r="B306" t="s">
+        <v>55</v>
+      </c>
+      <c r="C306">
+        <v>41.08</v>
+      </c>
+      <c r="D306">
+        <v>-0.75</v>
+      </c>
+      <c r="E306">
+        <v>-0.31</v>
+      </c>
+      <c r="F306">
+        <v>748753</v>
+      </c>
+      <c r="G306">
+        <v>3085524885.51</v>
+      </c>
+      <c r="H306">
+        <v>2.2</v>
+      </c>
+      <c r="I306">
+        <v>41.73</v>
+      </c>
+      <c r="J306">
+        <v>40.82</v>
+      </c>
+      <c r="K306">
+        <v>41.39</v>
+      </c>
+      <c r="L306">
+        <v>41.39</v>
+      </c>
+      <c r="M306">
+        <v>1.02</v>
+      </c>
+      <c r="N306">
+        <v>1.04</v>
+      </c>
+      <c r="O306">
+        <v>29.94</v>
+      </c>
+      <c r="P306">
+        <v>5.26</v>
+      </c>
+      <c r="Q306">
+        <v>295912206656</v>
+      </c>
+      <c r="R306">
+        <v>295272614471</v>
+      </c>
+      <c r="S306">
+        <v>0.05</v>
+      </c>
+      <c r="T306">
+        <v>-0.17</v>
+      </c>
+      <c r="U306">
+        <v>48.68</v>
+      </c>
+      <c r="V306">
+        <v>19.25</v>
+      </c>
+      <c r="W306" s="2">
+        <v>45483</v>
+      </c>
+      <c r="X306">
+        <v>41.78</v>
+      </c>
+      <c r="Y306">
+        <v>2.45</v>
+      </c>
+      <c r="Z306">
+        <v>42.94</v>
+      </c>
+      <c r="AA306">
+        <v>40.59</v>
+      </c>
+      <c r="AB306">
+        <v>41.05</v>
+      </c>
+      <c r="AC306">
+        <v>4.527750730282374</v>
+      </c>
+    </row>
+    <row r="307" spans="1:29">
+      <c r="A307" t="s">
+        <v>35</v>
+      </c>
+      <c r="B307" t="s">
+        <v>42</v>
+      </c>
+      <c r="C307">
+        <v>28.95</v>
+      </c>
+      <c r="D307">
+        <v>-0.17</v>
+      </c>
+      <c r="E307">
+        <v>-0.05</v>
+      </c>
+      <c r="F307">
+        <v>1025420</v>
+      </c>
+      <c r="G307">
+        <v>2958129613</v>
+      </c>
+      <c r="H307">
+        <v>2.62</v>
+      </c>
+      <c r="I307">
+        <v>29.18</v>
+      </c>
+      <c r="J307">
+        <v>28.42</v>
+      </c>
+      <c r="K307">
+        <v>29</v>
+      </c>
+      <c r="L307">
+        <v>29</v>
+      </c>
+      <c r="M307">
+        <v>1.1</v>
+      </c>
+      <c r="N307">
+        <v>0.52</v>
+      </c>
+      <c r="O307">
+        <v>34.36</v>
+      </c>
+      <c r="P307">
+        <v>3.95</v>
+      </c>
+      <c r="Q307">
+        <v>575165387741</v>
+      </c>
+      <c r="R307">
+        <v>575006388435</v>
+      </c>
+      <c r="S307">
+        <v>0.14</v>
+      </c>
+      <c r="T307">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U307">
+        <v>36.24</v>
+      </c>
+      <c r="V307">
+        <v>91.47</v>
+      </c>
+      <c r="W307" s="2">
+        <v>45483</v>
+      </c>
+      <c r="X307">
+        <v>28.76</v>
+      </c>
+      <c r="Y307">
+        <v>-0.66</v>
+      </c>
+      <c r="Z307">
+        <v>29.47</v>
+      </c>
+      <c r="AA307">
+        <v>27.87</v>
+      </c>
+      <c r="AB307">
+        <v>29.45</v>
+      </c>
+      <c r="AC307">
+        <v>1.796200345423142</v>
+      </c>
+    </row>
+    <row r="308" spans="1:29">
+      <c r="A308" t="s">
+        <v>36</v>
+      </c>
+      <c r="B308" t="s">
+        <v>39</v>
+      </c>
+      <c r="C308">
+        <v>14.16</v>
+      </c>
+      <c r="D308">
+        <v>2.16</v>
+      </c>
+      <c r="E308">
+        <v>0.3</v>
+      </c>
+      <c r="F308">
+        <v>2082418</v>
+      </c>
+      <c r="G308">
+        <v>2953819420.56</v>
+      </c>
+      <c r="H308">
+        <v>4.83</v>
+      </c>
+      <c r="I308">
+        <v>14.41</v>
+      </c>
+      <c r="J308">
+        <v>13.74</v>
+      </c>
+      <c r="K308">
+        <v>13.8</v>
+      </c>
+      <c r="L308">
+        <v>13.86</v>
+      </c>
+      <c r="M308">
+        <v>1.91</v>
+      </c>
+      <c r="N308">
+        <v>2.54</v>
+      </c>
+      <c r="O308">
+        <v>30.32</v>
+      </c>
+      <c r="P308">
+        <v>2.01</v>
+      </c>
+      <c r="Q308">
+        <v>140428812707</v>
+      </c>
+      <c r="R308">
+        <v>116310306269</v>
+      </c>
+      <c r="S308">
+        <v>0</v>
+      </c>
+      <c r="T308">
+        <v>0</v>
+      </c>
+      <c r="U308">
+        <v>-21.68</v>
+      </c>
+      <c r="V308">
+        <v>-14.13</v>
+      </c>
+      <c r="W308" s="2">
+        <v>45483</v>
+      </c>
+      <c r="X308">
+        <v>15.18</v>
+      </c>
+      <c r="Y308">
+        <v>7.2</v>
+      </c>
+      <c r="Z308">
+        <v>15.36</v>
+      </c>
+      <c r="AA308">
+        <v>14.66</v>
+      </c>
+      <c r="AB308">
+        <v>14.7</v>
+      </c>
+      <c r="AC308">
+        <v>8.474576271186436</v>
+      </c>
+    </row>
+    <row r="309" spans="1:29">
+      <c r="A309" t="s">
+        <v>37</v>
+      </c>
+      <c r="B309" t="s">
+        <v>57</v>
+      </c>
+      <c r="C309">
+        <v>13.56</v>
+      </c>
+      <c r="D309">
+        <v>3.04</v>
+      </c>
+      <c r="E309">
+        <v>0.4</v>
+      </c>
+      <c r="F309">
+        <v>2164120</v>
+      </c>
+      <c r="G309">
+        <v>2942658170</v>
+      </c>
+      <c r="H309">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I309">
+        <v>14</v>
+      </c>
+      <c r="J309">
+        <v>12.81</v>
+      </c>
+      <c r="K309">
+        <v>12.89</v>
+      </c>
+      <c r="L309">
+        <v>13.16</v>
+      </c>
+      <c r="M309">
+        <v>2.19</v>
+      </c>
+      <c r="N309">
+        <v>2.86</v>
+      </c>
+      <c r="O309">
+        <v>-10.93</v>
+      </c>
+      <c r="P309">
+        <v>1.55</v>
+      </c>
+      <c r="Q309">
+        <v>102758287054</v>
+      </c>
+      <c r="R309">
+        <v>102758184730</v>
+      </c>
+      <c r="S309">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="T309">
+        <v>-0.22</v>
+      </c>
+      <c r="U309">
+        <v>-28.71</v>
+      </c>
+      <c r="V309">
+        <v>-40.79</v>
+      </c>
+      <c r="W309" s="2">
+        <v>45483</v>
+      </c>
+      <c r="X309">
+        <v>14.22</v>
+      </c>
+      <c r="Y309">
+        <v>4.87</v>
+      </c>
+      <c r="Z309">
+        <v>14.61</v>
+      </c>
+      <c r="AA309">
+        <v>13.71</v>
+      </c>
+      <c r="AB309">
+        <v>13.8</v>
+      </c>
+      <c r="AC309">
+        <v>7.743362831858398</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29">
+      <c r="A310" t="s">
+        <v>38</v>
+      </c>
+      <c r="B310" t="s">
+        <v>91</v>
+      </c>
+      <c r="C310">
+        <v>16.26</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>1748299</v>
+      </c>
+      <c r="G310">
+        <v>2877436789.03</v>
+      </c>
+      <c r="H310">
+        <v>4.74</v>
+      </c>
+      <c r="I310">
+        <v>16.85</v>
+      </c>
+      <c r="J310">
+        <v>16.08</v>
+      </c>
+      <c r="K310">
+        <v>16.22</v>
+      </c>
+      <c r="L310">
+        <v>16.26</v>
+      </c>
+      <c r="M310">
+        <v>1.61</v>
+      </c>
+      <c r="N310">
+        <v>14</v>
+      </c>
+      <c r="O310">
+        <v>27.79</v>
+      </c>
+      <c r="P310">
+        <v>4.22</v>
+      </c>
+      <c r="Q310">
+        <v>20485950618</v>
+      </c>
+      <c r="R310">
+        <v>20311164838</v>
+      </c>
+      <c r="S310">
+        <v>0.12</v>
+      </c>
+      <c r="T310">
+        <v>0.43</v>
+      </c>
+      <c r="U310">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="V310">
+        <v>120.33</v>
+      </c>
+      <c r="W310" s="2">
+        <v>45483</v>
+      </c>
+      <c r="X310">
+        <v>16.02</v>
+      </c>
+      <c r="Y310">
+        <v>-1.48</v>
+      </c>
+      <c r="Z310">
+        <v>16.66</v>
+      </c>
+      <c r="AA310">
+        <v>15.67</v>
+      </c>
+      <c r="AB310">
+        <v>16.58</v>
+      </c>
+      <c r="AC310">
+        <v>2.460024600245994</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="102">
   <si>
     <t>代码</t>
   </si>
@@ -103,10 +103,16 @@
     <t>high_rate</t>
   </si>
   <si>
-    <t>600418</t>
+    <t>000625</t>
+  </si>
+  <si>
+    <t>000977</t>
   </si>
   <si>
     <t>600733</t>
+  </si>
+  <si>
+    <t>002475</t>
   </si>
   <si>
     <t>002384</t>
@@ -115,22 +121,16 @@
     <t>000063</t>
   </si>
   <si>
-    <t>000977</t>
-  </si>
-  <si>
-    <t>002475</t>
-  </si>
-  <si>
     <t>601138</t>
-  </si>
-  <si>
-    <t>000625</t>
   </si>
   <si>
     <t>601012</t>
   </si>
   <si>
-    <t>002130</t>
+    <t>601899</t>
+  </si>
+  <si>
+    <t>002241</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -681,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC310"/>
+  <dimension ref="A1:AC320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27388,8 +27388,8 @@
       </c>
     </row>
     <row r="301" spans="1:29">
-      <c r="A301" t="s">
-        <v>29</v>
+      <c r="A301">
+        <v>600418</v>
       </c>
       <c r="B301" t="s">
         <v>74</v>
@@ -27477,8 +27477,8 @@
       </c>
     </row>
     <row r="302" spans="1:29">
-      <c r="A302" t="s">
-        <v>30</v>
+      <c r="A302">
+        <v>600733</v>
       </c>
       <c r="B302" t="s">
         <v>80</v>
@@ -27566,8 +27566,8 @@
       </c>
     </row>
     <row r="303" spans="1:29">
-      <c r="A303" t="s">
-        <v>31</v>
+      <c r="A303">
+        <v>2384</v>
       </c>
       <c r="B303" t="s">
         <v>84</v>
@@ -27655,8 +27655,8 @@
       </c>
     </row>
     <row r="304" spans="1:29">
-      <c r="A304" t="s">
-        <v>32</v>
+      <c r="A304">
+        <v>63</v>
       </c>
       <c r="B304" t="s">
         <v>54</v>
@@ -27744,8 +27744,8 @@
       </c>
     </row>
     <row r="305" spans="1:29">
-      <c r="A305" t="s">
-        <v>33</v>
+      <c r="A305">
+        <v>977</v>
       </c>
       <c r="B305" t="s">
         <v>40</v>
@@ -27833,8 +27833,8 @@
       </c>
     </row>
     <row r="306" spans="1:29">
-      <c r="A306" t="s">
-        <v>34</v>
+      <c r="A306">
+        <v>2475</v>
       </c>
       <c r="B306" t="s">
         <v>55</v>
@@ -27922,8 +27922,8 @@
       </c>
     </row>
     <row r="307" spans="1:29">
-      <c r="A307" t="s">
-        <v>35</v>
+      <c r="A307">
+        <v>601138</v>
       </c>
       <c r="B307" t="s">
         <v>42</v>
@@ -28011,8 +28011,8 @@
       </c>
     </row>
     <row r="308" spans="1:29">
-      <c r="A308" t="s">
-        <v>36</v>
+      <c r="A308">
+        <v>625</v>
       </c>
       <c r="B308" t="s">
         <v>39</v>
@@ -28100,8 +28100,8 @@
       </c>
     </row>
     <row r="309" spans="1:29">
-      <c r="A309" t="s">
-        <v>37</v>
+      <c r="A309">
+        <v>601012</v>
       </c>
       <c r="B309" t="s">
         <v>57</v>
@@ -28189,8 +28189,8 @@
       </c>
     </row>
     <row r="310" spans="1:29">
-      <c r="A310" t="s">
-        <v>38</v>
+      <c r="A310">
+        <v>2130</v>
       </c>
       <c r="B310" t="s">
         <v>91</v>
@@ -28275,6 +28275,896 @@
       </c>
       <c r="AC310">
         <v>2.460024600245994</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29">
+      <c r="A311" t="s">
+        <v>29</v>
+      </c>
+      <c r="B311" t="s">
+        <v>39</v>
+      </c>
+      <c r="C311">
+        <v>15.18</v>
+      </c>
+      <c r="D311">
+        <v>7.2</v>
+      </c>
+      <c r="E311">
+        <v>1.02</v>
+      </c>
+      <c r="F311">
+        <v>4378766</v>
+      </c>
+      <c r="G311">
+        <v>6601559510.27</v>
+      </c>
+      <c r="H311">
+        <v>4.94</v>
+      </c>
+      <c r="I311">
+        <v>15.36</v>
+      </c>
+      <c r="J311">
+        <v>14.66</v>
+      </c>
+      <c r="K311">
+        <v>14.7</v>
+      </c>
+      <c r="L311">
+        <v>14.16</v>
+      </c>
+      <c r="M311">
+        <v>3.52</v>
+      </c>
+      <c r="N311">
+        <v>5.33</v>
+      </c>
+      <c r="O311">
+        <v>32.5</v>
+      </c>
+      <c r="P311">
+        <v>2.16</v>
+      </c>
+      <c r="Q311">
+        <v>150544447521</v>
+      </c>
+      <c r="R311">
+        <v>124688591042</v>
+      </c>
+      <c r="S311">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T311">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U311">
+        <v>-13.8</v>
+      </c>
+      <c r="V311">
+        <v>-7.94</v>
+      </c>
+      <c r="W311" s="2">
+        <v>45484</v>
+      </c>
+      <c r="X311">
+        <v>15.15</v>
+      </c>
+      <c r="Y311">
+        <v>-0.2</v>
+      </c>
+      <c r="Z311">
+        <v>15.29</v>
+      </c>
+      <c r="AA311">
+        <v>14.83</v>
+      </c>
+      <c r="AB311">
+        <v>15.08</v>
+      </c>
+      <c r="AC311">
+        <v>0.7246376811594166</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29">
+      <c r="A312" t="s">
+        <v>30</v>
+      </c>
+      <c r="B312" t="s">
+        <v>40</v>
+      </c>
+      <c r="C312">
+        <v>38.95</v>
+      </c>
+      <c r="D312">
+        <v>-0.64</v>
+      </c>
+      <c r="E312">
+        <v>-0.25</v>
+      </c>
+      <c r="F312">
+        <v>1210919</v>
+      </c>
+      <c r="G312">
+        <v>4710186557.15</v>
+      </c>
+      <c r="H312">
+        <v>4.41</v>
+      </c>
+      <c r="I312">
+        <v>39.99</v>
+      </c>
+      <c r="J312">
+        <v>38.26</v>
+      </c>
+      <c r="K312">
+        <v>39.95</v>
+      </c>
+      <c r="L312">
+        <v>39.2</v>
+      </c>
+      <c r="M312">
+        <v>1.61</v>
+      </c>
+      <c r="N312">
+        <v>8.24</v>
+      </c>
+      <c r="O312">
+        <v>46.78</v>
+      </c>
+      <c r="P312">
+        <v>3.17</v>
+      </c>
+      <c r="Q312">
+        <v>57339663002</v>
+      </c>
+      <c r="R312">
+        <v>57265993985</v>
+      </c>
+      <c r="S312">
+        <v>-0.03</v>
+      </c>
+      <c r="T312">
+        <v>-0.05</v>
+      </c>
+      <c r="U312">
+        <v>3.26</v>
+      </c>
+      <c r="V312">
+        <v>17.78</v>
+      </c>
+      <c r="W312" s="2">
+        <v>45484</v>
+      </c>
+      <c r="X312">
+        <v>37.68</v>
+      </c>
+      <c r="Y312">
+        <v>-3.26</v>
+      </c>
+      <c r="Z312">
+        <v>38.44</v>
+      </c>
+      <c r="AA312">
+        <v>37.66</v>
+      </c>
+      <c r="AB312">
+        <v>38.4</v>
+      </c>
+      <c r="AC312">
+        <v>-1.309370988446739</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29">
+      <c r="A313" t="s">
+        <v>31</v>
+      </c>
+      <c r="B313" t="s">
+        <v>80</v>
+      </c>
+      <c r="C313">
+        <v>9.41</v>
+      </c>
+      <c r="D313">
+        <v>-0.63</v>
+      </c>
+      <c r="E313">
+        <v>-0.06</v>
+      </c>
+      <c r="F313">
+        <v>4775505</v>
+      </c>
+      <c r="G313">
+        <v>4614442893</v>
+      </c>
+      <c r="H313">
+        <v>6.44</v>
+      </c>
+      <c r="I313">
+        <v>9.99</v>
+      </c>
+      <c r="J313">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="K313">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="L313">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="M313">
+        <v>1.04</v>
+      </c>
+      <c r="N313">
+        <v>9.85</v>
+      </c>
+      <c r="O313">
+        <v>-12.91</v>
+      </c>
+      <c r="P313">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="Q313">
+        <v>52446664820</v>
+      </c>
+      <c r="R313">
+        <v>45618909566</v>
+      </c>
+      <c r="S313">
+        <v>0</v>
+      </c>
+      <c r="T313">
+        <v>-0.32</v>
+      </c>
+      <c r="U313">
+        <v>34.43</v>
+      </c>
+      <c r="V313">
+        <v>53.51</v>
+      </c>
+      <c r="W313" s="2">
+        <v>45484</v>
+      </c>
+      <c r="X313">
+        <v>10.18</v>
+      </c>
+      <c r="Y313">
+        <v>8.18</v>
+      </c>
+      <c r="Z313">
+        <v>10.24</v>
+      </c>
+      <c r="AA313">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AB313">
+        <v>9.35</v>
+      </c>
+      <c r="AC313">
+        <v>8.820403825717323</v>
+      </c>
+    </row>
+    <row r="314" spans="1:29">
+      <c r="A314" t="s">
+        <v>32</v>
+      </c>
+      <c r="B314" t="s">
+        <v>55</v>
+      </c>
+      <c r="C314">
+        <v>41.78</v>
+      </c>
+      <c r="D314">
+        <v>2.45</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>1052494</v>
+      </c>
+      <c r="G314">
+        <v>4391554900.46</v>
+      </c>
+      <c r="H314">
+        <v>5.76</v>
+      </c>
+      <c r="I314">
+        <v>42.94</v>
+      </c>
+      <c r="J314">
+        <v>40.59</v>
+      </c>
+      <c r="K314">
+        <v>41.05</v>
+      </c>
+      <c r="L314">
+        <v>40.78</v>
+      </c>
+      <c r="M314">
+        <v>1.35</v>
+      </c>
+      <c r="N314">
+        <v>1.46</v>
+      </c>
+      <c r="O314">
+        <v>30.45</v>
+      </c>
+      <c r="P314">
+        <v>5.35</v>
+      </c>
+      <c r="Q314">
+        <v>300954527606</v>
+      </c>
+      <c r="R314">
+        <v>300304036821</v>
+      </c>
+      <c r="S314">
+        <v>-0.02</v>
+      </c>
+      <c r="T314">
+        <v>-0.02</v>
+      </c>
+      <c r="U314">
+        <v>51.82</v>
+      </c>
+      <c r="V314">
+        <v>22.34</v>
+      </c>
+      <c r="W314" s="2">
+        <v>45484</v>
+      </c>
+      <c r="X314">
+        <v>40.92</v>
+      </c>
+      <c r="Y314">
+        <v>-2.06</v>
+      </c>
+      <c r="Z314">
+        <v>41.29</v>
+      </c>
+      <c r="AA314">
+        <v>40.19</v>
+      </c>
+      <c r="AB314">
+        <v>40.4</v>
+      </c>
+      <c r="AC314">
+        <v>-1.17280995691719</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29">
+      <c r="A315" t="s">
+        <v>33</v>
+      </c>
+      <c r="B315" t="s">
+        <v>84</v>
+      </c>
+      <c r="C315">
+        <v>25.98</v>
+      </c>
+      <c r="D315">
+        <v>-0.23</v>
+      </c>
+      <c r="E315">
+        <v>-0.06</v>
+      </c>
+      <c r="F315">
+        <v>1471329</v>
+      </c>
+      <c r="G315">
+        <v>3817373232.62</v>
+      </c>
+      <c r="H315">
+        <v>6.87</v>
+      </c>
+      <c r="I315">
+        <v>26.9</v>
+      </c>
+      <c r="J315">
+        <v>25.11</v>
+      </c>
+      <c r="K315">
+        <v>25.94</v>
+      </c>
+      <c r="L315">
+        <v>26.04</v>
+      </c>
+      <c r="M315">
+        <v>1.35</v>
+      </c>
+      <c r="N315">
+        <v>10.58</v>
+      </c>
+      <c r="O315">
+        <v>38.38</v>
+      </c>
+      <c r="P315">
+        <v>2.47</v>
+      </c>
+      <c r="Q315">
+        <v>44422353155</v>
+      </c>
+      <c r="R315">
+        <v>36119353333</v>
+      </c>
+      <c r="S315">
+        <v>0</v>
+      </c>
+      <c r="T315">
+        <v>-0.04</v>
+      </c>
+      <c r="U315">
+        <v>92.44</v>
+      </c>
+      <c r="V315">
+        <v>44.9</v>
+      </c>
+      <c r="W315" s="2">
+        <v>45484</v>
+      </c>
+      <c r="X315">
+        <v>25.6</v>
+      </c>
+      <c r="Y315">
+        <v>-1.46</v>
+      </c>
+      <c r="Z315">
+        <v>25.9</v>
+      </c>
+      <c r="AA315">
+        <v>24.89</v>
+      </c>
+      <c r="AB315">
+        <v>25.47</v>
+      </c>
+      <c r="AC315">
+        <v>-0.3079291762894605</v>
+      </c>
+    </row>
+    <row r="316" spans="1:29">
+      <c r="A316" t="s">
+        <v>34</v>
+      </c>
+      <c r="B316" t="s">
+        <v>54</v>
+      </c>
+      <c r="C316">
+        <v>29.12</v>
+      </c>
+      <c r="D316">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E316">
+        <v>0.27</v>
+      </c>
+      <c r="F316">
+        <v>1306868</v>
+      </c>
+      <c r="G316">
+        <v>3814025781</v>
+      </c>
+      <c r="H316">
+        <v>2.74</v>
+      </c>
+      <c r="I316">
+        <v>29.61</v>
+      </c>
+      <c r="J316">
+        <v>28.82</v>
+      </c>
+      <c r="K316">
+        <v>29.18</v>
+      </c>
+      <c r="L316">
+        <v>28.85</v>
+      </c>
+      <c r="M316">
+        <v>1.35</v>
+      </c>
+      <c r="N316">
+        <v>3.25</v>
+      </c>
+      <c r="O316">
+        <v>12.7</v>
+      </c>
+      <c r="P316">
+        <v>2.04</v>
+      </c>
+      <c r="Q316">
+        <v>139288285194</v>
+      </c>
+      <c r="R316">
+        <v>117266844968</v>
+      </c>
+      <c r="S316">
+        <v>0.03</v>
+      </c>
+      <c r="T316">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U316">
+        <v>8.01</v>
+      </c>
+      <c r="V316">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="W316" s="2">
+        <v>45484</v>
+      </c>
+      <c r="X316">
+        <v>28.62</v>
+      </c>
+      <c r="Y316">
+        <v>-1.72</v>
+      </c>
+      <c r="Z316">
+        <v>28.91</v>
+      </c>
+      <c r="AA316">
+        <v>28.42</v>
+      </c>
+      <c r="AB316">
+        <v>28.8</v>
+      </c>
+      <c r="AC316">
+        <v>-0.721153846153849</v>
+      </c>
+    </row>
+    <row r="317" spans="1:29">
+      <c r="A317" t="s">
+        <v>35</v>
+      </c>
+      <c r="B317" t="s">
+        <v>42</v>
+      </c>
+      <c r="C317">
+        <v>28.76</v>
+      </c>
+      <c r="D317">
+        <v>-0.66</v>
+      </c>
+      <c r="E317">
+        <v>-0.19</v>
+      </c>
+      <c r="F317">
+        <v>1284074</v>
+      </c>
+      <c r="G317">
+        <v>3681298002</v>
+      </c>
+      <c r="H317">
+        <v>5.53</v>
+      </c>
+      <c r="I317">
+        <v>29.47</v>
+      </c>
+      <c r="J317">
+        <v>27.87</v>
+      </c>
+      <c r="K317">
+        <v>29.45</v>
+      </c>
+      <c r="L317">
+        <v>28.95</v>
+      </c>
+      <c r="M317">
+        <v>1.3</v>
+      </c>
+      <c r="N317">
+        <v>0.65</v>
+      </c>
+      <c r="O317">
+        <v>34.13</v>
+      </c>
+      <c r="P317">
+        <v>3.93</v>
+      </c>
+      <c r="Q317">
+        <v>571390554454</v>
+      </c>
+      <c r="R317">
+        <v>571232598667</v>
+      </c>
+      <c r="S317">
+        <v>0</v>
+      </c>
+      <c r="T317">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="U317">
+        <v>29.2</v>
+      </c>
+      <c r="V317">
+        <v>90.20999999999999</v>
+      </c>
+      <c r="W317" s="2">
+        <v>45484</v>
+      </c>
+      <c r="X317">
+        <v>27.26</v>
+      </c>
+      <c r="Y317">
+        <v>-5.22</v>
+      </c>
+      <c r="Z317">
+        <v>27.68</v>
+      </c>
+      <c r="AA317">
+        <v>27.2</v>
+      </c>
+      <c r="AB317">
+        <v>27.65</v>
+      </c>
+      <c r="AC317">
+        <v>-3.755215577190549</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29">
+      <c r="A318" t="s">
+        <v>36</v>
+      </c>
+      <c r="B318" t="s">
+        <v>57</v>
+      </c>
+      <c r="C318">
+        <v>14.22</v>
+      </c>
+      <c r="D318">
+        <v>4.87</v>
+      </c>
+      <c r="E318">
+        <v>0.66</v>
+      </c>
+      <c r="F318">
+        <v>2246284</v>
+      </c>
+      <c r="G318">
+        <v>3193918854</v>
+      </c>
+      <c r="H318">
+        <v>6.64</v>
+      </c>
+      <c r="I318">
+        <v>14.61</v>
+      </c>
+      <c r="J318">
+        <v>13.71</v>
+      </c>
+      <c r="K318">
+        <v>13.8</v>
+      </c>
+      <c r="L318">
+        <v>13.56</v>
+      </c>
+      <c r="M318">
+        <v>1.79</v>
+      </c>
+      <c r="N318">
+        <v>2.96</v>
+      </c>
+      <c r="O318">
+        <v>-11.46</v>
+      </c>
+      <c r="P318">
+        <v>1.63</v>
+      </c>
+      <c r="Q318">
+        <v>107759796601</v>
+      </c>
+      <c r="R318">
+        <v>107759689297</v>
+      </c>
+      <c r="S318">
+        <v>-0.14</v>
+      </c>
+      <c r="T318">
+        <v>0</v>
+      </c>
+      <c r="U318">
+        <v>-23.38</v>
+      </c>
+      <c r="V318">
+        <v>-37.9</v>
+      </c>
+      <c r="W318" s="2">
+        <v>45484</v>
+      </c>
+      <c r="X318">
+        <v>14.18</v>
+      </c>
+      <c r="Y318">
+        <v>-0.28</v>
+      </c>
+      <c r="Z318">
+        <v>14.4</v>
+      </c>
+      <c r="AA318">
+        <v>14.07</v>
+      </c>
+      <c r="AB318">
+        <v>14.11</v>
+      </c>
+      <c r="AC318">
+        <v>1.265822784810124</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29">
+      <c r="A319" t="s">
+        <v>37</v>
+      </c>
+      <c r="B319" t="s">
+        <v>58</v>
+      </c>
+      <c r="C319">
+        <v>18.87</v>
+      </c>
+      <c r="D319">
+        <v>2.67</v>
+      </c>
+      <c r="E319">
+        <v>0.49</v>
+      </c>
+      <c r="F319">
+        <v>1558078</v>
+      </c>
+      <c r="G319">
+        <v>2925447887</v>
+      </c>
+      <c r="H319">
+        <v>3.59</v>
+      </c>
+      <c r="I319">
+        <v>18.96</v>
+      </c>
+      <c r="J319">
+        <v>18.3</v>
+      </c>
+      <c r="K319">
+        <v>18.5</v>
+      </c>
+      <c r="L319">
+        <v>18.38</v>
+      </c>
+      <c r="M319">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N319">
+        <v>0.76</v>
+      </c>
+      <c r="O319">
+        <v>20.03</v>
+      </c>
+      <c r="P319">
+        <v>4.3</v>
+      </c>
+      <c r="Q319">
+        <v>501524764298</v>
+      </c>
+      <c r="R319">
+        <v>387897249589</v>
+      </c>
+      <c r="S319">
+        <v>-0.05</v>
+      </c>
+      <c r="T319">
+        <v>-0.32</v>
+      </c>
+      <c r="U319">
+        <v>3.74</v>
+      </c>
+      <c r="V319">
+        <v>53.92</v>
+      </c>
+      <c r="W319" s="2">
+        <v>45484</v>
+      </c>
+      <c r="X319">
+        <v>18.48</v>
+      </c>
+      <c r="Y319">
+        <v>-2.07</v>
+      </c>
+      <c r="Z319">
+        <v>19</v>
+      </c>
+      <c r="AA319">
+        <v>18.36</v>
+      </c>
+      <c r="AB319">
+        <v>18.97</v>
+      </c>
+      <c r="AC319">
+        <v>0.6889242183359777</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29">
+      <c r="A320" t="s">
+        <v>38</v>
+      </c>
+      <c r="B320" t="s">
+        <v>95</v>
+      </c>
+      <c r="C320">
+        <v>21.95</v>
+      </c>
+      <c r="D320">
+        <v>2.33</v>
+      </c>
+      <c r="E320">
+        <v>0.5</v>
+      </c>
+      <c r="F320">
+        <v>1328336</v>
+      </c>
+      <c r="G320">
+        <v>2888220141.78</v>
+      </c>
+      <c r="H320">
+        <v>4.38</v>
+      </c>
+      <c r="I320">
+        <v>22.22</v>
+      </c>
+      <c r="J320">
+        <v>21.28</v>
+      </c>
+      <c r="K320">
+        <v>21.6</v>
+      </c>
+      <c r="L320">
+        <v>21.45</v>
+      </c>
+      <c r="M320">
+        <v>1.51</v>
+      </c>
+      <c r="N320">
+        <v>4.41</v>
+      </c>
+      <c r="O320">
+        <v>49.41</v>
+      </c>
+      <c r="P320">
+        <v>2.47</v>
+      </c>
+      <c r="Q320">
+        <v>75006104229</v>
+      </c>
+      <c r="R320">
+        <v>66068924076</v>
+      </c>
+      <c r="S320">
+        <v>0.05</v>
+      </c>
+      <c r="T320">
+        <v>0.05</v>
+      </c>
+      <c r="U320">
+        <v>44.98</v>
+      </c>
+      <c r="V320">
+        <v>4.97</v>
+      </c>
+      <c r="W320" s="2">
+        <v>45484</v>
+      </c>
+      <c r="X320">
+        <v>21.69</v>
+      </c>
+      <c r="Y320">
+        <v>-1.18</v>
+      </c>
+      <c r="Z320">
+        <v>21.78</v>
+      </c>
+      <c r="AA320">
+        <v>21.16</v>
+      </c>
+      <c r="AB320">
+        <v>21.32</v>
+      </c>
+      <c r="AC320">
+        <v>-0.7744874715261876</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="104">
   <si>
     <t>代码</t>
   </si>
@@ -103,13 +103,25 @@
     <t>high_rate</t>
   </si>
   <si>
+    <t>600733</t>
+  </si>
+  <si>
     <t>000625</t>
   </si>
   <si>
-    <t>000977</t>
+    <t>601138</t>
   </si>
   <si>
-    <t>600733</t>
+    <t>600036</t>
+  </si>
+  <si>
+    <t>601919</t>
+  </si>
+  <si>
+    <t>002273</t>
+  </si>
+  <si>
+    <t>000977</t>
   </si>
   <si>
     <t>002475</t>
@@ -118,19 +130,7 @@
     <t>002384</t>
   </si>
   <si>
-    <t>000063</t>
-  </si>
-  <si>
-    <t>601138</t>
-  </si>
-  <si>
-    <t>601012</t>
-  </si>
-  <si>
-    <t>601899</t>
-  </si>
-  <si>
-    <t>002241</t>
+    <t>601600</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>三花智控</t>
+  </si>
+  <si>
+    <t>水晶光电</t>
+  </si>
+  <si>
+    <t>中国铝业</t>
   </si>
 </sst>
 </file>
@@ -681,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC320"/>
+  <dimension ref="A1:AC330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28278,8 +28284,8 @@
       </c>
     </row>
     <row r="311" spans="1:29">
-      <c r="A311" t="s">
-        <v>29</v>
+      <c r="A311">
+        <v>625</v>
       </c>
       <c r="B311" t="s">
         <v>39</v>
@@ -28367,8 +28373,8 @@
       </c>
     </row>
     <row r="312" spans="1:29">
-      <c r="A312" t="s">
-        <v>30</v>
+      <c r="A312">
+        <v>977</v>
       </c>
       <c r="B312" t="s">
         <v>40</v>
@@ -28456,8 +28462,8 @@
       </c>
     </row>
     <row r="313" spans="1:29">
-      <c r="A313" t="s">
-        <v>31</v>
+      <c r="A313">
+        <v>600733</v>
       </c>
       <c r="B313" t="s">
         <v>80</v>
@@ -28545,8 +28551,8 @@
       </c>
     </row>
     <row r="314" spans="1:29">
-      <c r="A314" t="s">
-        <v>32</v>
+      <c r="A314">
+        <v>2475</v>
       </c>
       <c r="B314" t="s">
         <v>55</v>
@@ -28634,8 +28640,8 @@
       </c>
     </row>
     <row r="315" spans="1:29">
-      <c r="A315" t="s">
-        <v>33</v>
+      <c r="A315">
+        <v>2384</v>
       </c>
       <c r="B315" t="s">
         <v>84</v>
@@ -28723,8 +28729,8 @@
       </c>
     </row>
     <row r="316" spans="1:29">
-      <c r="A316" t="s">
-        <v>34</v>
+      <c r="A316">
+        <v>63</v>
       </c>
       <c r="B316" t="s">
         <v>54</v>
@@ -28812,8 +28818,8 @@
       </c>
     </row>
     <row r="317" spans="1:29">
-      <c r="A317" t="s">
-        <v>35</v>
+      <c r="A317">
+        <v>601138</v>
       </c>
       <c r="B317" t="s">
         <v>42</v>
@@ -28901,8 +28907,8 @@
       </c>
     </row>
     <row r="318" spans="1:29">
-      <c r="A318" t="s">
-        <v>36</v>
+      <c r="A318">
+        <v>601012</v>
       </c>
       <c r="B318" t="s">
         <v>57</v>
@@ -28990,8 +28996,8 @@
       </c>
     </row>
     <row r="319" spans="1:29">
-      <c r="A319" t="s">
-        <v>37</v>
+      <c r="A319">
+        <v>601899</v>
       </c>
       <c r="B319" t="s">
         <v>58</v>
@@ -29079,8 +29085,8 @@
       </c>
     </row>
     <row r="320" spans="1:29">
-      <c r="A320" t="s">
-        <v>38</v>
+      <c r="A320">
+        <v>2241</v>
       </c>
       <c r="B320" t="s">
         <v>95</v>
@@ -29165,6 +29171,896 @@
       </c>
       <c r="AC320">
         <v>-0.7744874715261876</v>
+      </c>
+    </row>
+    <row r="321" spans="1:29">
+      <c r="A321" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" t="s">
+        <v>80</v>
+      </c>
+      <c r="C321">
+        <v>10.18</v>
+      </c>
+      <c r="D321">
+        <v>8.18</v>
+      </c>
+      <c r="E321">
+        <v>0.77</v>
+      </c>
+      <c r="F321">
+        <v>6284505</v>
+      </c>
+      <c r="G321">
+        <v>6177040245</v>
+      </c>
+      <c r="H321">
+        <v>10.2</v>
+      </c>
+      <c r="I321">
+        <v>10.24</v>
+      </c>
+      <c r="J321">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K321">
+        <v>9.35</v>
+      </c>
+      <c r="L321">
+        <v>9.41</v>
+      </c>
+      <c r="M321">
+        <v>1.29</v>
+      </c>
+      <c r="N321">
+        <v>12.96</v>
+      </c>
+      <c r="O321">
+        <v>-13.96</v>
+      </c>
+      <c r="P321">
+        <v>10.77</v>
+      </c>
+      <c r="Q321">
+        <v>56738262260</v>
+      </c>
+      <c r="R321">
+        <v>49351806523</v>
+      </c>
+      <c r="S321">
+        <v>0</v>
+      </c>
+      <c r="T321">
+        <v>-0.29</v>
+      </c>
+      <c r="U321">
+        <v>51.94</v>
+      </c>
+      <c r="V321">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="W321" s="2">
+        <v>45485</v>
+      </c>
+      <c r="X321">
+        <v>10</v>
+      </c>
+      <c r="Y321">
+        <v>-1.77</v>
+      </c>
+      <c r="Z321">
+        <v>10.33</v>
+      </c>
+      <c r="AA321">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB321">
+        <v>10.17</v>
+      </c>
+      <c r="AC321">
+        <v>1.473477406679768</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29">
+      <c r="A322" t="s">
+        <v>30</v>
+      </c>
+      <c r="B322" t="s">
+        <v>39</v>
+      </c>
+      <c r="C322">
+        <v>15.15</v>
+      </c>
+      <c r="D322">
+        <v>-0.2</v>
+      </c>
+      <c r="E322">
+        <v>-0.03</v>
+      </c>
+      <c r="F322">
+        <v>2509644</v>
+      </c>
+      <c r="G322">
+        <v>3778537108.52</v>
+      </c>
+      <c r="H322">
+        <v>3.03</v>
+      </c>
+      <c r="I322">
+        <v>15.29</v>
+      </c>
+      <c r="J322">
+        <v>14.83</v>
+      </c>
+      <c r="K322">
+        <v>15.08</v>
+      </c>
+      <c r="L322">
+        <v>15.18</v>
+      </c>
+      <c r="M322">
+        <v>1.33</v>
+      </c>
+      <c r="N322">
+        <v>3.06</v>
+      </c>
+      <c r="O322">
+        <v>32.44</v>
+      </c>
+      <c r="P322">
+        <v>2.15</v>
+      </c>
+      <c r="Q322">
+        <v>150246928850</v>
+      </c>
+      <c r="R322">
+        <v>124442170902</v>
+      </c>
+      <c r="S322">
+        <v>0</v>
+      </c>
+      <c r="T322">
+        <v>0</v>
+      </c>
+      <c r="U322">
+        <v>-13.68</v>
+      </c>
+      <c r="V322">
+        <v>-8.130000000000001</v>
+      </c>
+      <c r="W322" s="2">
+        <v>45485</v>
+      </c>
+      <c r="X322">
+        <v>15.34</v>
+      </c>
+      <c r="Y322">
+        <v>1.25</v>
+      </c>
+      <c r="Z322">
+        <v>15.83</v>
+      </c>
+      <c r="AA322">
+        <v>15.21</v>
+      </c>
+      <c r="AB322">
+        <v>15.5</v>
+      </c>
+      <c r="AC322">
+        <v>4.488448844884487</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29">
+      <c r="A323" t="s">
+        <v>31</v>
+      </c>
+      <c r="B323" t="s">
+        <v>42</v>
+      </c>
+      <c r="C323">
+        <v>27.26</v>
+      </c>
+      <c r="D323">
+        <v>-5.22</v>
+      </c>
+      <c r="E323">
+        <v>-1.5</v>
+      </c>
+      <c r="F323">
+        <v>1292642</v>
+      </c>
+      <c r="G323">
+        <v>3537581677</v>
+      </c>
+      <c r="H323">
+        <v>1.67</v>
+      </c>
+      <c r="I323">
+        <v>27.68</v>
+      </c>
+      <c r="J323">
+        <v>27.2</v>
+      </c>
+      <c r="K323">
+        <v>27.65</v>
+      </c>
+      <c r="L323">
+        <v>28.76</v>
+      </c>
+      <c r="M323">
+        <v>1.19</v>
+      </c>
+      <c r="N323">
+        <v>0.65</v>
+      </c>
+      <c r="O323">
+        <v>32.35</v>
+      </c>
+      <c r="P323">
+        <v>3.72</v>
+      </c>
+      <c r="Q323">
+        <v>541589239027</v>
+      </c>
+      <c r="R323">
+        <v>541439521546</v>
+      </c>
+      <c r="S323">
+        <v>-0.04</v>
+      </c>
+      <c r="T323">
+        <v>-0.04</v>
+      </c>
+      <c r="U323">
+        <v>22.57</v>
+      </c>
+      <c r="V323">
+        <v>80.29000000000001</v>
+      </c>
+      <c r="W323" s="2">
+        <v>45485</v>
+      </c>
+      <c r="X323">
+        <v>26.96</v>
+      </c>
+      <c r="Y323">
+        <v>-1.1</v>
+      </c>
+      <c r="Z323">
+        <v>27.32</v>
+      </c>
+      <c r="AA323">
+        <v>26.67</v>
+      </c>
+      <c r="AB323">
+        <v>27.15</v>
+      </c>
+      <c r="AC323">
+        <v>0.2201027146001421</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29">
+      <c r="A324" t="s">
+        <v>32</v>
+      </c>
+      <c r="B324" t="s">
+        <v>60</v>
+      </c>
+      <c r="C324">
+        <v>34</v>
+      </c>
+      <c r="D324">
+        <v>3.34</v>
+      </c>
+      <c r="E324">
+        <v>1.1</v>
+      </c>
+      <c r="F324">
+        <v>944904</v>
+      </c>
+      <c r="G324">
+        <v>3199683547</v>
+      </c>
+      <c r="H324">
+        <v>3.25</v>
+      </c>
+      <c r="I324">
+        <v>34.08</v>
+      </c>
+      <c r="J324">
+        <v>33.01</v>
+      </c>
+      <c r="K324">
+        <v>33.01</v>
+      </c>
+      <c r="L324">
+        <v>32.9</v>
+      </c>
+      <c r="M324">
+        <v>1.31</v>
+      </c>
+      <c r="N324">
+        <v>0.46</v>
+      </c>
+      <c r="O324">
+        <v>5.63</v>
+      </c>
+      <c r="P324">
+        <v>0.92</v>
+      </c>
+      <c r="Q324">
+        <v>857474750434</v>
+      </c>
+      <c r="R324">
+        <v>701384110586</v>
+      </c>
+      <c r="S324">
+        <v>0.15</v>
+      </c>
+      <c r="T324">
+        <v>0.09</v>
+      </c>
+      <c r="U324">
+        <v>10.17</v>
+      </c>
+      <c r="V324">
+        <v>31.53</v>
+      </c>
+      <c r="W324" s="2">
+        <v>45485</v>
+      </c>
+      <c r="X324">
+        <v>33.78</v>
+      </c>
+      <c r="Y324">
+        <v>-0.65</v>
+      </c>
+      <c r="Z324">
+        <v>34.05</v>
+      </c>
+      <c r="AA324">
+        <v>33.72</v>
+      </c>
+      <c r="AB324">
+        <v>34</v>
+      </c>
+      <c r="AC324">
+        <v>0.1470588235294034</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29">
+      <c r="A325" t="s">
+        <v>33</v>
+      </c>
+      <c r="B325" t="s">
+        <v>56</v>
+      </c>
+      <c r="C325">
+        <v>13.54</v>
+      </c>
+      <c r="D325">
+        <v>-4.65</v>
+      </c>
+      <c r="E325">
+        <v>-0.66</v>
+      </c>
+      <c r="F325">
+        <v>2348133</v>
+      </c>
+      <c r="G325">
+        <v>3193771318</v>
+      </c>
+      <c r="H325">
+        <v>4.37</v>
+      </c>
+      <c r="I325">
+        <v>13.92</v>
+      </c>
+      <c r="J325">
+        <v>13.3</v>
+      </c>
+      <c r="K325">
+        <v>13.9</v>
+      </c>
+      <c r="L325">
+        <v>14.2</v>
+      </c>
+      <c r="M325">
+        <v>1.53</v>
+      </c>
+      <c r="N325">
+        <v>1.84</v>
+      </c>
+      <c r="O325">
+        <v>8</v>
+      </c>
+      <c r="P325">
+        <v>1.07</v>
+      </c>
+      <c r="Q325">
+        <v>216106604766</v>
+      </c>
+      <c r="R325">
+        <v>172781583566</v>
+      </c>
+      <c r="S325">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T325">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U325">
+        <v>27.98</v>
+      </c>
+      <c r="V325">
+        <v>44.81</v>
+      </c>
+      <c r="W325" s="2">
+        <v>45485</v>
+      </c>
+      <c r="X325">
+        <v>13.48</v>
+      </c>
+      <c r="Y325">
+        <v>-0.44</v>
+      </c>
+      <c r="Z325">
+        <v>13.79</v>
+      </c>
+      <c r="AA325">
+        <v>13.36</v>
+      </c>
+      <c r="AB325">
+        <v>13.43</v>
+      </c>
+      <c r="AC325">
+        <v>1.846381093057607</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29">
+      <c r="A326" t="s">
+        <v>34</v>
+      </c>
+      <c r="B326" t="s">
+        <v>102</v>
+      </c>
+      <c r="C326">
+        <v>19.53</v>
+      </c>
+      <c r="D326">
+        <v>-5.19</v>
+      </c>
+      <c r="E326">
+        <v>-1.07</v>
+      </c>
+      <c r="F326">
+        <v>1616157</v>
+      </c>
+      <c r="G326">
+        <v>3156305270.28</v>
+      </c>
+      <c r="H326">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="I326">
+        <v>20.58</v>
+      </c>
+      <c r="J326">
+        <v>18.7</v>
+      </c>
+      <c r="K326">
+        <v>20.54</v>
+      </c>
+      <c r="L326">
+        <v>20.6</v>
+      </c>
+      <c r="M326">
+        <v>3.09</v>
+      </c>
+      <c r="N326">
+        <v>11.9</v>
+      </c>
+      <c r="O326">
+        <v>38.02</v>
+      </c>
+      <c r="P326">
+        <v>3.24</v>
+      </c>
+      <c r="Q326">
+        <v>27159047276</v>
+      </c>
+      <c r="R326">
+        <v>26520049288</v>
+      </c>
+      <c r="S326">
+        <v>0.05</v>
+      </c>
+      <c r="T326">
+        <v>-0.26</v>
+      </c>
+      <c r="U326">
+        <v>42.97</v>
+      </c>
+      <c r="V326">
+        <v>47.51</v>
+      </c>
+      <c r="W326" s="2">
+        <v>45485</v>
+      </c>
+      <c r="X326">
+        <v>20.12</v>
+      </c>
+      <c r="Y326">
+        <v>3.02</v>
+      </c>
+      <c r="Z326">
+        <v>20.85</v>
+      </c>
+      <c r="AA326">
+        <v>19.04</v>
+      </c>
+      <c r="AB326">
+        <v>19.49</v>
+      </c>
+      <c r="AC326">
+        <v>6.75883256528418</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29">
+      <c r="A327" t="s">
+        <v>35</v>
+      </c>
+      <c r="B327" t="s">
+        <v>40</v>
+      </c>
+      <c r="C327">
+        <v>37.68</v>
+      </c>
+      <c r="D327">
+        <v>-3.26</v>
+      </c>
+      <c r="E327">
+        <v>-1.27</v>
+      </c>
+      <c r="F327">
+        <v>742022</v>
+      </c>
+      <c r="G327">
+        <v>2815079968.89</v>
+      </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327">
+        <v>38.44</v>
+      </c>
+      <c r="J327">
+        <v>37.66</v>
+      </c>
+      <c r="K327">
+        <v>38.4</v>
+      </c>
+      <c r="L327">
+        <v>38.95</v>
+      </c>
+      <c r="M327">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N327">
+        <v>5.05</v>
+      </c>
+      <c r="O327">
+        <v>45.25</v>
+      </c>
+      <c r="P327">
+        <v>3.07</v>
+      </c>
+      <c r="Q327">
+        <v>55470051397</v>
+      </c>
+      <c r="R327">
+        <v>55398784425</v>
+      </c>
+      <c r="S327">
+        <v>-0.05</v>
+      </c>
+      <c r="T327">
+        <v>-0.11</v>
+      </c>
+      <c r="U327">
+        <v>0.16</v>
+      </c>
+      <c r="V327">
+        <v>13.94</v>
+      </c>
+      <c r="W327" s="2">
+        <v>45485</v>
+      </c>
+      <c r="X327">
+        <v>37.9</v>
+      </c>
+      <c r="Y327">
+        <v>0.58</v>
+      </c>
+      <c r="Z327">
+        <v>38.16</v>
+      </c>
+      <c r="AA327">
+        <v>37.6</v>
+      </c>
+      <c r="AB327">
+        <v>37.8</v>
+      </c>
+      <c r="AC327">
+        <v>1.273885350318463</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29">
+      <c r="A328" t="s">
+        <v>36</v>
+      </c>
+      <c r="B328" t="s">
+        <v>55</v>
+      </c>
+      <c r="C328">
+        <v>40.92</v>
+      </c>
+      <c r="D328">
+        <v>-2.06</v>
+      </c>
+      <c r="E328">
+        <v>-0.86</v>
+      </c>
+      <c r="F328">
+        <v>680893</v>
+      </c>
+      <c r="G328">
+        <v>2772799717.95</v>
+      </c>
+      <c r="H328">
+        <v>2.63</v>
+      </c>
+      <c r="I328">
+        <v>41.29</v>
+      </c>
+      <c r="J328">
+        <v>40.19</v>
+      </c>
+      <c r="K328">
+        <v>40.4</v>
+      </c>
+      <c r="L328">
+        <v>41.78</v>
+      </c>
+      <c r="M328">
+        <v>0.77</v>
+      </c>
+      <c r="N328">
+        <v>0.95</v>
+      </c>
+      <c r="O328">
+        <v>29.82</v>
+      </c>
+      <c r="P328">
+        <v>5.24</v>
+      </c>
+      <c r="Q328">
+        <v>294759676152</v>
+      </c>
+      <c r="R328">
+        <v>294122575077</v>
+      </c>
+      <c r="S328">
+        <v>-0.12</v>
+      </c>
+      <c r="T328">
+        <v>-0.02</v>
+      </c>
+      <c r="U328">
+        <v>48.8</v>
+      </c>
+      <c r="V328">
+        <v>19.82</v>
+      </c>
+      <c r="W328" s="2">
+        <v>45485</v>
+      </c>
+      <c r="X328">
+        <v>40.99</v>
+      </c>
+      <c r="Y328">
+        <v>0.17</v>
+      </c>
+      <c r="Z328">
+        <v>41.38</v>
+      </c>
+      <c r="AA328">
+        <v>40.35</v>
+      </c>
+      <c r="AB328">
+        <v>41.06</v>
+      </c>
+      <c r="AC328">
+        <v>1.124144672531771</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" t="s">
+        <v>37</v>
+      </c>
+      <c r="B329" t="s">
+        <v>84</v>
+      </c>
+      <c r="C329">
+        <v>25.6</v>
+      </c>
+      <c r="D329">
+        <v>-1.46</v>
+      </c>
+      <c r="E329">
+        <v>-0.38</v>
+      </c>
+      <c r="F329">
+        <v>1080931</v>
+      </c>
+      <c r="G329">
+        <v>2746287232.95</v>
+      </c>
+      <c r="H329">
+        <v>3.89</v>
+      </c>
+      <c r="I329">
+        <v>25.9</v>
+      </c>
+      <c r="J329">
+        <v>24.89</v>
+      </c>
+      <c r="K329">
+        <v>25.47</v>
+      </c>
+      <c r="L329">
+        <v>25.98</v>
+      </c>
+      <c r="M329">
+        <v>0.92</v>
+      </c>
+      <c r="N329">
+        <v>7.77</v>
+      </c>
+      <c r="O329">
+        <v>37.82</v>
+      </c>
+      <c r="P329">
+        <v>2.44</v>
+      </c>
+      <c r="Q329">
+        <v>43772603571</v>
+      </c>
+      <c r="R329">
+        <v>35591048704</v>
+      </c>
+      <c r="S329">
+        <v>0</v>
+      </c>
+      <c r="T329">
+        <v>-0.04</v>
+      </c>
+      <c r="U329">
+        <v>90.05</v>
+      </c>
+      <c r="V329">
+        <v>42.78</v>
+      </c>
+      <c r="W329" s="2">
+        <v>45485</v>
+      </c>
+      <c r="X329">
+        <v>26.36</v>
+      </c>
+      <c r="Y329">
+        <v>2.97</v>
+      </c>
+      <c r="Z329">
+        <v>26.41</v>
+      </c>
+      <c r="AA329">
+        <v>24.81</v>
+      </c>
+      <c r="AB329">
+        <v>25.75</v>
+      </c>
+      <c r="AC329">
+        <v>3.164062499999995</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" t="s">
+        <v>38</v>
+      </c>
+      <c r="B330" t="s">
+        <v>103</v>
+      </c>
+      <c r="C330">
+        <v>7.92</v>
+      </c>
+      <c r="D330">
+        <v>1.54</v>
+      </c>
+      <c r="E330">
+        <v>0.12</v>
+      </c>
+      <c r="F330">
+        <v>3324008</v>
+      </c>
+      <c r="G330">
+        <v>2688574049</v>
+      </c>
+      <c r="H330">
+        <v>5.51</v>
+      </c>
+      <c r="I330">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J330">
+        <v>7.87</v>
+      </c>
+      <c r="K330">
+        <v>8.1</v>
+      </c>
+      <c r="L330">
+        <v>7.8</v>
+      </c>
+      <c r="M330">
+        <v>2.06</v>
+      </c>
+      <c r="N330">
+        <v>2.53</v>
+      </c>
+      <c r="O330">
+        <v>15.23</v>
+      </c>
+      <c r="P330">
+        <v>2.23</v>
+      </c>
+      <c r="Q330">
+        <v>135894379326</v>
+      </c>
+      <c r="R330">
+        <v>103934949949</v>
+      </c>
+      <c r="S330">
+        <v>0</v>
+      </c>
+      <c r="T330">
+        <v>0</v>
+      </c>
+      <c r="U330">
+        <v>4.49</v>
+      </c>
+      <c r="V330">
+        <v>40.43</v>
+      </c>
+      <c r="W330" s="2">
+        <v>45485</v>
+      </c>
+      <c r="X330">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="Y330">
+        <v>1.64</v>
+      </c>
+      <c r="Z330">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA330">
+        <v>7.79</v>
+      </c>
+      <c r="AB330">
+        <v>7.9</v>
+      </c>
+      <c r="AC330">
+        <v>3.535353535353527</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="105">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
+    <t>000625</t>
+  </si>
+  <si>
     <t>600733</t>
   </si>
   <si>
-    <t>000625</t>
+    <t>002241</t>
   </si>
   <si>
-    <t>601138</t>
+    <t>601398</t>
   </si>
   <si>
-    <t>600036</t>
-  </si>
-  <si>
-    <t>601919</t>
-  </si>
-  <si>
-    <t>002273</t>
-  </si>
-  <si>
-    <t>000977</t>
-  </si>
-  <si>
-    <t>002475</t>
+    <t>600711</t>
   </si>
   <si>
     <t>002384</t>
   </si>
   <si>
-    <t>601600</t>
+    <t>600418</t>
+  </si>
+  <si>
+    <t>601899</t>
+  </si>
+  <si>
+    <t>600900</t>
+  </si>
+  <si>
+    <t>601138</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>中国铝业</t>
+  </si>
+  <si>
+    <t>盛屯矿业</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC330"/>
+  <dimension ref="A1:AC340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29174,8 +29177,8 @@
       </c>
     </row>
     <row r="321" spans="1:29">
-      <c r="A321" t="s">
-        <v>29</v>
+      <c r="A321">
+        <v>600733</v>
       </c>
       <c r="B321" t="s">
         <v>80</v>
@@ -29263,8 +29266,8 @@
       </c>
     </row>
     <row r="322" spans="1:29">
-      <c r="A322" t="s">
-        <v>30</v>
+      <c r="A322">
+        <v>625</v>
       </c>
       <c r="B322" t="s">
         <v>39</v>
@@ -29352,8 +29355,8 @@
       </c>
     </row>
     <row r="323" spans="1:29">
-      <c r="A323" t="s">
-        <v>31</v>
+      <c r="A323">
+        <v>601138</v>
       </c>
       <c r="B323" t="s">
         <v>42</v>
@@ -29441,8 +29444,8 @@
       </c>
     </row>
     <row r="324" spans="1:29">
-      <c r="A324" t="s">
-        <v>32</v>
+      <c r="A324">
+        <v>600036</v>
       </c>
       <c r="B324" t="s">
         <v>60</v>
@@ -29530,8 +29533,8 @@
       </c>
     </row>
     <row r="325" spans="1:29">
-      <c r="A325" t="s">
-        <v>33</v>
+      <c r="A325">
+        <v>601919</v>
       </c>
       <c r="B325" t="s">
         <v>56</v>
@@ -29619,8 +29622,8 @@
       </c>
     </row>
     <row r="326" spans="1:29">
-      <c r="A326" t="s">
-        <v>34</v>
+      <c r="A326">
+        <v>2273</v>
       </c>
       <c r="B326" t="s">
         <v>102</v>
@@ -29708,8 +29711,8 @@
       </c>
     </row>
     <row r="327" spans="1:29">
-      <c r="A327" t="s">
-        <v>35</v>
+      <c r="A327">
+        <v>977</v>
       </c>
       <c r="B327" t="s">
         <v>40</v>
@@ -29797,8 +29800,8 @@
       </c>
     </row>
     <row r="328" spans="1:29">
-      <c r="A328" t="s">
-        <v>36</v>
+      <c r="A328">
+        <v>2475</v>
       </c>
       <c r="B328" t="s">
         <v>55</v>
@@ -29886,8 +29889,8 @@
       </c>
     </row>
     <row r="329" spans="1:29">
-      <c r="A329" t="s">
-        <v>37</v>
+      <c r="A329">
+        <v>2384</v>
       </c>
       <c r="B329" t="s">
         <v>84</v>
@@ -29975,8 +29978,8 @@
       </c>
     </row>
     <row r="330" spans="1:29">
-      <c r="A330" t="s">
-        <v>38</v>
+      <c r="A330">
+        <v>601600</v>
       </c>
       <c r="B330" t="s">
         <v>103</v>
@@ -30061,6 +30064,896 @@
       </c>
       <c r="AC330">
         <v>3.535353535353527</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331" t="s">
+        <v>39</v>
+      </c>
+      <c r="C331">
+        <v>15.34</v>
+      </c>
+      <c r="D331">
+        <v>1.25</v>
+      </c>
+      <c r="E331">
+        <v>0.19</v>
+      </c>
+      <c r="F331">
+        <v>3023082</v>
+      </c>
+      <c r="G331">
+        <v>4683799752.75</v>
+      </c>
+      <c r="H331">
+        <v>4.09</v>
+      </c>
+      <c r="I331">
+        <v>15.83</v>
+      </c>
+      <c r="J331">
+        <v>15.21</v>
+      </c>
+      <c r="K331">
+        <v>15.5</v>
+      </c>
+      <c r="L331">
+        <v>15.15</v>
+      </c>
+      <c r="M331">
+        <v>1.37</v>
+      </c>
+      <c r="N331">
+        <v>3.68</v>
+      </c>
+      <c r="O331">
+        <v>32.84</v>
+      </c>
+      <c r="P331">
+        <v>2.18</v>
+      </c>
+      <c r="Q331">
+        <v>152131213766</v>
+      </c>
+      <c r="R331">
+        <v>126002831791</v>
+      </c>
+      <c r="S331">
+        <v>0</v>
+      </c>
+      <c r="T331">
+        <v>0</v>
+      </c>
+      <c r="U331">
+        <v>-5.19</v>
+      </c>
+      <c r="V331">
+        <v>-6.97</v>
+      </c>
+      <c r="W331" s="2">
+        <v>45488</v>
+      </c>
+      <c r="X331">
+        <v>15.96</v>
+      </c>
+      <c r="Y331">
+        <v>4.04</v>
+      </c>
+      <c r="Z331">
+        <v>16.13</v>
+      </c>
+      <c r="AA331">
+        <v>15.18</v>
+      </c>
+      <c r="AB331">
+        <v>15.2</v>
+      </c>
+      <c r="AC331">
+        <v>5.149934810951755</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29">
+      <c r="A332" t="s">
+        <v>30</v>
+      </c>
+      <c r="B332" t="s">
+        <v>80</v>
+      </c>
+      <c r="C332">
+        <v>10</v>
+      </c>
+      <c r="D332">
+        <v>-1.77</v>
+      </c>
+      <c r="E332">
+        <v>-0.18</v>
+      </c>
+      <c r="F332">
+        <v>4467613</v>
+      </c>
+      <c r="G332">
+        <v>4514035696</v>
+      </c>
+      <c r="H332">
+        <v>3.73</v>
+      </c>
+      <c r="I332">
+        <v>10.33</v>
+      </c>
+      <c r="J332">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="K332">
+        <v>10.17</v>
+      </c>
+      <c r="L332">
+        <v>10.18</v>
+      </c>
+      <c r="M332">
+        <v>0.87</v>
+      </c>
+      <c r="N332">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="O332">
+        <v>-13.72</v>
+      </c>
+      <c r="P332">
+        <v>10.58</v>
+      </c>
+      <c r="Q332">
+        <v>55735031690</v>
+      </c>
+      <c r="R332">
+        <v>48479181260</v>
+      </c>
+      <c r="S332">
+        <v>-0.1</v>
+      </c>
+      <c r="T332">
+        <v>0</v>
+      </c>
+      <c r="U332">
+        <v>62.07</v>
+      </c>
+      <c r="V332">
+        <v>63.13</v>
+      </c>
+      <c r="W332" s="2">
+        <v>45488</v>
+      </c>
+      <c r="X332">
+        <v>10.39</v>
+      </c>
+      <c r="Y332">
+        <v>3.9</v>
+      </c>
+      <c r="Z332">
+        <v>10.61</v>
+      </c>
+      <c r="AA332">
+        <v>9.83</v>
+      </c>
+      <c r="AB332">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="AC332">
+        <v>6.099999999999994</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" t="s">
+        <v>31</v>
+      </c>
+      <c r="B333" t="s">
+        <v>95</v>
+      </c>
+      <c r="C333">
+        <v>22.16</v>
+      </c>
+      <c r="D333">
+        <v>2.17</v>
+      </c>
+      <c r="E333">
+        <v>0.47</v>
+      </c>
+      <c r="F333">
+        <v>1579515</v>
+      </c>
+      <c r="G333">
+        <v>3507131167.73</v>
+      </c>
+      <c r="H333">
+        <v>5.35</v>
+      </c>
+      <c r="I333">
+        <v>22.78</v>
+      </c>
+      <c r="J333">
+        <v>21.62</v>
+      </c>
+      <c r="K333">
+        <v>22.33</v>
+      </c>
+      <c r="L333">
+        <v>21.69</v>
+      </c>
+      <c r="M333">
+        <v>1.45</v>
+      </c>
+      <c r="N333">
+        <v>5.25</v>
+      </c>
+      <c r="O333">
+        <v>49.88</v>
+      </c>
+      <c r="P333">
+        <v>2.49</v>
+      </c>
+      <c r="Q333">
+        <v>75723702492</v>
+      </c>
+      <c r="R333">
+        <v>66701018566</v>
+      </c>
+      <c r="S333">
+        <v>0</v>
+      </c>
+      <c r="T333">
+        <v>-0.05</v>
+      </c>
+      <c r="U333">
+        <v>50.85</v>
+      </c>
+      <c r="V333">
+        <v>5.98</v>
+      </c>
+      <c r="W333" s="2">
+        <v>45488</v>
+      </c>
+      <c r="X333">
+        <v>23.56</v>
+      </c>
+      <c r="Y333">
+        <v>6.32</v>
+      </c>
+      <c r="Z333">
+        <v>24</v>
+      </c>
+      <c r="AA333">
+        <v>22.1</v>
+      </c>
+      <c r="AB333">
+        <v>22.1</v>
+      </c>
+      <c r="AC333">
+        <v>8.303249097472923</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29">
+      <c r="A334" t="s">
+        <v>32</v>
+      </c>
+      <c r="B334" t="s">
+        <v>99</v>
+      </c>
+      <c r="C334">
+        <v>6.2</v>
+      </c>
+      <c r="D334">
+        <v>1.97</v>
+      </c>
+      <c r="E334">
+        <v>0.12</v>
+      </c>
+      <c r="F334">
+        <v>4289583</v>
+      </c>
+      <c r="G334">
+        <v>2640918177</v>
+      </c>
+      <c r="H334">
+        <v>2.96</v>
+      </c>
+      <c r="I334">
+        <v>6.24</v>
+      </c>
+      <c r="J334">
+        <v>6.06</v>
+      </c>
+      <c r="K334">
+        <v>6.09</v>
+      </c>
+      <c r="L334">
+        <v>6.08</v>
+      </c>
+      <c r="M334">
+        <v>1.3</v>
+      </c>
+      <c r="N334">
+        <v>0.16</v>
+      </c>
+      <c r="O334">
+        <v>6.3</v>
+      </c>
+      <c r="P334">
+        <v>0.65</v>
+      </c>
+      <c r="Q334">
+        <v>2209718793952</v>
+      </c>
+      <c r="R334">
+        <v>1671595717742</v>
+      </c>
+      <c r="S334">
+        <v>-0.32</v>
+      </c>
+      <c r="T334">
+        <v>-0.16</v>
+      </c>
+      <c r="U334">
+        <v>13.35</v>
+      </c>
+      <c r="V334">
+        <v>29.71</v>
+      </c>
+      <c r="W334" s="2">
+        <v>45488</v>
+      </c>
+      <c r="X334">
+        <v>5.89</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>5.97</v>
+      </c>
+      <c r="AA334">
+        <v>5.83</v>
+      </c>
+      <c r="AB334">
+        <v>5.92</v>
+      </c>
+      <c r="AC334">
+        <v>-3.709677419354845</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29">
+      <c r="A335" t="s">
+        <v>33</v>
+      </c>
+      <c r="B335" t="s">
+        <v>104</v>
+      </c>
+      <c r="C335">
+        <v>5.73</v>
+      </c>
+      <c r="D335">
+        <v>7.3</v>
+      </c>
+      <c r="E335">
+        <v>0.39</v>
+      </c>
+      <c r="F335">
+        <v>4530912</v>
+      </c>
+      <c r="G335">
+        <v>2572440015</v>
+      </c>
+      <c r="H335">
+        <v>9.74</v>
+      </c>
+      <c r="I335">
+        <v>5.87</v>
+      </c>
+      <c r="J335">
+        <v>5.35</v>
+      </c>
+      <c r="K335">
+        <v>5.45</v>
+      </c>
+      <c r="L335">
+        <v>5.34</v>
+      </c>
+      <c r="M335">
+        <v>2.23</v>
+      </c>
+      <c r="N335">
+        <v>14.51</v>
+      </c>
+      <c r="O335">
+        <v>15.5</v>
+      </c>
+      <c r="P335">
+        <v>1.29</v>
+      </c>
+      <c r="Q335">
+        <v>17892894974</v>
+      </c>
+      <c r="R335">
+        <v>17892894974</v>
+      </c>
+      <c r="S335">
+        <v>0</v>
+      </c>
+      <c r="T335">
+        <v>0</v>
+      </c>
+      <c r="U335">
+        <v>31.72</v>
+      </c>
+      <c r="V335">
+        <v>32.95</v>
+      </c>
+      <c r="W335" s="2">
+        <v>45488</v>
+      </c>
+      <c r="X335">
+        <v>5.72</v>
+      </c>
+      <c r="Y335">
+        <v>-0.17</v>
+      </c>
+      <c r="Z335">
+        <v>5.82</v>
+      </c>
+      <c r="AA335">
+        <v>5.63</v>
+      </c>
+      <c r="AB335">
+        <v>5.7</v>
+      </c>
+      <c r="AC335">
+        <v>1.570680628272249</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29">
+      <c r="A336" t="s">
+        <v>34</v>
+      </c>
+      <c r="B336" t="s">
+        <v>84</v>
+      </c>
+      <c r="C336">
+        <v>26.36</v>
+      </c>
+      <c r="D336">
+        <v>2.97</v>
+      </c>
+      <c r="E336">
+        <v>0.76</v>
+      </c>
+      <c r="F336">
+        <v>962547</v>
+      </c>
+      <c r="G336">
+        <v>2492084220.72</v>
+      </c>
+      <c r="H336">
+        <v>6.25</v>
+      </c>
+      <c r="I336">
+        <v>26.41</v>
+      </c>
+      <c r="J336">
+        <v>24.81</v>
+      </c>
+      <c r="K336">
+        <v>25.75</v>
+      </c>
+      <c r="L336">
+        <v>25.6</v>
+      </c>
+      <c r="M336">
+        <v>0.8</v>
+      </c>
+      <c r="N336">
+        <v>6.92</v>
+      </c>
+      <c r="O336">
+        <v>38.94</v>
+      </c>
+      <c r="P336">
+        <v>2.51</v>
+      </c>
+      <c r="Q336">
+        <v>45072102740</v>
+      </c>
+      <c r="R336">
+        <v>36647657962</v>
+      </c>
+      <c r="S336">
+        <v>-0.15</v>
+      </c>
+      <c r="T336">
+        <v>0.04</v>
+      </c>
+      <c r="U336">
+        <v>103.24</v>
+      </c>
+      <c r="V336">
+        <v>47.02</v>
+      </c>
+      <c r="W336" s="2">
+        <v>45488</v>
+      </c>
+      <c r="X336">
+        <v>28.82</v>
+      </c>
+      <c r="Y336">
+        <v>9.33</v>
+      </c>
+      <c r="Z336">
+        <v>28.98</v>
+      </c>
+      <c r="AA336">
+        <v>26.2</v>
+      </c>
+      <c r="AB336">
+        <v>26.24</v>
+      </c>
+      <c r="AC336">
+        <v>9.939301972685891</v>
+      </c>
+    </row>
+    <row r="337" spans="1:29">
+      <c r="A337" t="s">
+        <v>35</v>
+      </c>
+      <c r="B337" t="s">
+        <v>74</v>
+      </c>
+      <c r="C337">
+        <v>19.15</v>
+      </c>
+      <c r="D337">
+        <v>0.31</v>
+      </c>
+      <c r="E337">
+        <v>0.06</v>
+      </c>
+      <c r="F337">
+        <v>1270564</v>
+      </c>
+      <c r="G337">
+        <v>2445855656</v>
+      </c>
+      <c r="H337">
+        <v>4.03</v>
+      </c>
+      <c r="I337">
+        <v>19.65</v>
+      </c>
+      <c r="J337">
+        <v>18.88</v>
+      </c>
+      <c r="K337">
+        <v>19.16</v>
+      </c>
+      <c r="L337">
+        <v>19.09</v>
+      </c>
+      <c r="M337">
+        <v>0.85</v>
+      </c>
+      <c r="N337">
+        <v>5.82</v>
+      </c>
+      <c r="O337">
+        <v>99.11</v>
+      </c>
+      <c r="P337">
+        <v>3.14</v>
+      </c>
+      <c r="Q337">
+        <v>41823787498</v>
+      </c>
+      <c r="R337">
+        <v>41823787498</v>
+      </c>
+      <c r="S337">
+        <v>0.47</v>
+      </c>
+      <c r="T337">
+        <v>0.58</v>
+      </c>
+      <c r="U337">
+        <v>29.04</v>
+      </c>
+      <c r="V337">
+        <v>18.58</v>
+      </c>
+      <c r="W337" s="2">
+        <v>45488</v>
+      </c>
+      <c r="X337">
+        <v>20.36</v>
+      </c>
+      <c r="Y337">
+        <v>6.32</v>
+      </c>
+      <c r="Z337">
+        <v>20.66</v>
+      </c>
+      <c r="AA337">
+        <v>19.02</v>
+      </c>
+      <c r="AB337">
+        <v>19.2</v>
+      </c>
+      <c r="AC337">
+        <v>7.885117493472594</v>
+      </c>
+    </row>
+    <row r="338" spans="1:29">
+      <c r="A338" t="s">
+        <v>36</v>
+      </c>
+      <c r="B338" t="s">
+        <v>58</v>
+      </c>
+      <c r="C338">
+        <v>18.82</v>
+      </c>
+      <c r="D338">
+        <v>1.84</v>
+      </c>
+      <c r="E338">
+        <v>0.34</v>
+      </c>
+      <c r="F338">
+        <v>1269890</v>
+      </c>
+      <c r="G338">
+        <v>2392322767</v>
+      </c>
+      <c r="H338">
+        <v>2.81</v>
+      </c>
+      <c r="I338">
+        <v>18.95</v>
+      </c>
+      <c r="J338">
+        <v>18.43</v>
+      </c>
+      <c r="K338">
+        <v>18.5</v>
+      </c>
+      <c r="L338">
+        <v>18.48</v>
+      </c>
+      <c r="M338">
+        <v>0.84</v>
+      </c>
+      <c r="N338">
+        <v>0.62</v>
+      </c>
+      <c r="O338">
+        <v>19.97</v>
+      </c>
+      <c r="P338">
+        <v>4.29</v>
+      </c>
+      <c r="Q338">
+        <v>500195869851</v>
+      </c>
+      <c r="R338">
+        <v>386869434938</v>
+      </c>
+      <c r="S338">
+        <v>-0.11</v>
+      </c>
+      <c r="T338">
+        <v>-0.05</v>
+      </c>
+      <c r="U338">
+        <v>6.09</v>
+      </c>
+      <c r="V338">
+        <v>53.51</v>
+      </c>
+      <c r="W338" s="2">
+        <v>45488</v>
+      </c>
+      <c r="X338">
+        <v>19.21</v>
+      </c>
+      <c r="Y338">
+        <v>2.07</v>
+      </c>
+      <c r="Z338">
+        <v>19.24</v>
+      </c>
+      <c r="AA338">
+        <v>18.78</v>
+      </c>
+      <c r="AB338">
+        <v>18.78</v>
+      </c>
+      <c r="AC338">
+        <v>2.231668437832083</v>
+      </c>
+    </row>
+    <row r="339" spans="1:29">
+      <c r="A339" t="s">
+        <v>37</v>
+      </c>
+      <c r="B339" t="s">
+        <v>88</v>
+      </c>
+      <c r="C339">
+        <v>30.43</v>
+      </c>
+      <c r="D339">
+        <v>1.84</v>
+      </c>
+      <c r="E339">
+        <v>0.55</v>
+      </c>
+      <c r="F339">
+        <v>787955</v>
+      </c>
+      <c r="G339">
+        <v>2382355824</v>
+      </c>
+      <c r="H339">
+        <v>2.81</v>
+      </c>
+      <c r="I339">
+        <v>30.5</v>
+      </c>
+      <c r="J339">
+        <v>29.66</v>
+      </c>
+      <c r="K339">
+        <v>29.79</v>
+      </c>
+      <c r="L339">
+        <v>29.88</v>
+      </c>
+      <c r="M339">
+        <v>0.97</v>
+      </c>
+      <c r="N339">
+        <v>0.33</v>
+      </c>
+      <c r="O339">
+        <v>46.92</v>
+      </c>
+      <c r="P339">
+        <v>4.01</v>
+      </c>
+      <c r="Q339">
+        <v>744567865098</v>
+      </c>
+      <c r="R339">
+        <v>730540815386</v>
+      </c>
+      <c r="S339">
+        <v>-0.1</v>
+      </c>
+      <c r="T339">
+        <v>-0.16</v>
+      </c>
+      <c r="U339">
+        <v>17.35</v>
+      </c>
+      <c r="V339">
+        <v>30.38</v>
+      </c>
+      <c r="W339" s="2">
+        <v>45488</v>
+      </c>
+      <c r="X339">
+        <v>30.8</v>
+      </c>
+      <c r="Y339">
+        <v>1.22</v>
+      </c>
+      <c r="Z339">
+        <v>30.87</v>
+      </c>
+      <c r="AA339">
+        <v>30.25</v>
+      </c>
+      <c r="AB339">
+        <v>30.5</v>
+      </c>
+      <c r="AC339">
+        <v>1.445941505093662</v>
+      </c>
+    </row>
+    <row r="340" spans="1:29">
+      <c r="A340" t="s">
+        <v>38</v>
+      </c>
+      <c r="B340" t="s">
+        <v>42</v>
+      </c>
+      <c r="C340">
+        <v>26.96</v>
+      </c>
+      <c r="D340">
+        <v>-1.1</v>
+      </c>
+      <c r="E340">
+        <v>-0.3</v>
+      </c>
+      <c r="F340">
+        <v>847118</v>
+      </c>
+      <c r="G340">
+        <v>2283405842</v>
+      </c>
+      <c r="H340">
+        <v>2.38</v>
+      </c>
+      <c r="I340">
+        <v>27.32</v>
+      </c>
+      <c r="J340">
+        <v>26.67</v>
+      </c>
+      <c r="K340">
+        <v>27.15</v>
+      </c>
+      <c r="L340">
+        <v>27.26</v>
+      </c>
+      <c r="M340">
+        <v>0.73</v>
+      </c>
+      <c r="N340">
+        <v>0.43</v>
+      </c>
+      <c r="O340">
+        <v>32</v>
+      </c>
+      <c r="P340">
+        <v>3.68</v>
+      </c>
+      <c r="Q340">
+        <v>535628975941</v>
+      </c>
+      <c r="R340">
+        <v>535480906121</v>
+      </c>
+      <c r="S340">
+        <v>0</v>
+      </c>
+      <c r="T340">
+        <v>0.15</v>
+      </c>
+      <c r="U340">
+        <v>23.61</v>
+      </c>
+      <c r="V340">
+        <v>78.31</v>
+      </c>
+      <c r="W340" s="2">
+        <v>45488</v>
+      </c>
+      <c r="X340">
+        <v>27.46</v>
+      </c>
+      <c r="Y340">
+        <v>1.85</v>
+      </c>
+      <c r="Z340">
+        <v>27.6</v>
+      </c>
+      <c r="AA340">
+        <v>26.36</v>
+      </c>
+      <c r="AB340">
+        <v>26.96</v>
+      </c>
+      <c r="AC340">
+        <v>2.373887240356085</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="106">
   <si>
     <t>代码</t>
   </si>
@@ -109,28 +109,28 @@
     <t>600733</t>
   </si>
   <si>
+    <t>002475</t>
+  </si>
+  <si>
+    <t>601318</t>
+  </si>
+  <si>
+    <t>000977</t>
+  </si>
+  <si>
     <t>002241</t>
   </si>
   <si>
-    <t>601398</t>
+    <t>600418</t>
   </si>
   <si>
-    <t>600711</t>
+    <t>601138</t>
   </si>
   <si>
     <t>002384</t>
   </si>
   <si>
-    <t>600418</t>
-  </si>
-  <si>
-    <t>601899</t>
-  </si>
-  <si>
-    <t>600900</t>
-  </si>
-  <si>
-    <t>601138</t>
+    <t>601398</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>盛屯矿业</t>
+  </si>
+  <si>
+    <t>XD工商银</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC340"/>
+  <dimension ref="A1:AC350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30067,8 +30070,8 @@
       </c>
     </row>
     <row r="331" spans="1:29">
-      <c r="A331" t="s">
-        <v>29</v>
+      <c r="A331">
+        <v>625</v>
       </c>
       <c r="B331" t="s">
         <v>39</v>
@@ -30156,8 +30159,8 @@
       </c>
     </row>
     <row r="332" spans="1:29">
-      <c r="A332" t="s">
-        <v>30</v>
+      <c r="A332">
+        <v>600733</v>
       </c>
       <c r="B332" t="s">
         <v>80</v>
@@ -30245,8 +30248,8 @@
       </c>
     </row>
     <row r="333" spans="1:29">
-      <c r="A333" t="s">
-        <v>31</v>
+      <c r="A333">
+        <v>2241</v>
       </c>
       <c r="B333" t="s">
         <v>95</v>
@@ -30334,8 +30337,8 @@
       </c>
     </row>
     <row r="334" spans="1:29">
-      <c r="A334" t="s">
-        <v>32</v>
+      <c r="A334">
+        <v>601398</v>
       </c>
       <c r="B334" t="s">
         <v>99</v>
@@ -30423,8 +30426,8 @@
       </c>
     </row>
     <row r="335" spans="1:29">
-      <c r="A335" t="s">
-        <v>33</v>
+      <c r="A335">
+        <v>600711</v>
       </c>
       <c r="B335" t="s">
         <v>104</v>
@@ -30512,8 +30515,8 @@
       </c>
     </row>
     <row r="336" spans="1:29">
-      <c r="A336" t="s">
-        <v>34</v>
+      <c r="A336">
+        <v>2384</v>
       </c>
       <c r="B336" t="s">
         <v>84</v>
@@ -30601,8 +30604,8 @@
       </c>
     </row>
     <row r="337" spans="1:29">
-      <c r="A337" t="s">
-        <v>35</v>
+      <c r="A337">
+        <v>600418</v>
       </c>
       <c r="B337" t="s">
         <v>74</v>
@@ -30690,8 +30693,8 @@
       </c>
     </row>
     <row r="338" spans="1:29">
-      <c r="A338" t="s">
-        <v>36</v>
+      <c r="A338">
+        <v>601899</v>
       </c>
       <c r="B338" t="s">
         <v>58</v>
@@ -30779,8 +30782,8 @@
       </c>
     </row>
     <row r="339" spans="1:29">
-      <c r="A339" t="s">
-        <v>37</v>
+      <c r="A339">
+        <v>600900</v>
       </c>
       <c r="B339" t="s">
         <v>88</v>
@@ -30868,8 +30871,8 @@
       </c>
     </row>
     <row r="340" spans="1:29">
-      <c r="A340" t="s">
-        <v>38</v>
+      <c r="A340">
+        <v>601138</v>
       </c>
       <c r="B340" t="s">
         <v>42</v>
@@ -30954,6 +30957,896 @@
       </c>
       <c r="AC340">
         <v>2.373887240356085</v>
+      </c>
+    </row>
+    <row r="341" spans="1:29">
+      <c r="A341" t="s">
+        <v>29</v>
+      </c>
+      <c r="B341" t="s">
+        <v>39</v>
+      </c>
+      <c r="C341">
+        <v>15.96</v>
+      </c>
+      <c r="D341">
+        <v>4.04</v>
+      </c>
+      <c r="E341">
+        <v>0.62</v>
+      </c>
+      <c r="F341">
+        <v>3476628</v>
+      </c>
+      <c r="G341">
+        <v>5479240224.31</v>
+      </c>
+      <c r="H341">
+        <v>6.19</v>
+      </c>
+      <c r="I341">
+        <v>16.13</v>
+      </c>
+      <c r="J341">
+        <v>15.18</v>
+      </c>
+      <c r="K341">
+        <v>15.2</v>
+      </c>
+      <c r="L341">
+        <v>15.34</v>
+      </c>
+      <c r="M341">
+        <v>1.32</v>
+      </c>
+      <c r="N341">
+        <v>4.23</v>
+      </c>
+      <c r="O341">
+        <v>34.17</v>
+      </c>
+      <c r="P341">
+        <v>2.27</v>
+      </c>
+      <c r="Q341">
+        <v>158279932967</v>
+      </c>
+      <c r="R341">
+        <v>131095514693</v>
+      </c>
+      <c r="S341">
+        <v>0</v>
+      </c>
+      <c r="T341">
+        <v>0</v>
+      </c>
+      <c r="U341">
+        <v>-4.94</v>
+      </c>
+      <c r="V341">
+        <v>-3.21</v>
+      </c>
+      <c r="W341" s="2">
+        <v>45489</v>
+      </c>
+      <c r="X341">
+        <v>15.7</v>
+      </c>
+      <c r="Y341">
+        <v>-1.63</v>
+      </c>
+      <c r="Z341">
+        <v>16.03</v>
+      </c>
+      <c r="AA341">
+        <v>15.66</v>
+      </c>
+      <c r="AB341">
+        <v>15.81</v>
+      </c>
+      <c r="AC341">
+        <v>0.438596491228072</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29">
+      <c r="A342" t="s">
+        <v>30</v>
+      </c>
+      <c r="B342" t="s">
+        <v>80</v>
+      </c>
+      <c r="C342">
+        <v>10.39</v>
+      </c>
+      <c r="D342">
+        <v>3.9</v>
+      </c>
+      <c r="E342">
+        <v>0.39</v>
+      </c>
+      <c r="F342">
+        <v>4672474</v>
+      </c>
+      <c r="G342">
+        <v>4791784427</v>
+      </c>
+      <c r="H342">
+        <v>7.8</v>
+      </c>
+      <c r="I342">
+        <v>10.61</v>
+      </c>
+      <c r="J342">
+        <v>9.83</v>
+      </c>
+      <c r="K342">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="L342">
+        <v>10</v>
+      </c>
+      <c r="M342">
+        <v>0.95</v>
+      </c>
+      <c r="N342">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="O342">
+        <v>-14.25</v>
+      </c>
+      <c r="P342">
+        <v>10.99</v>
+      </c>
+      <c r="Q342">
+        <v>57908697926</v>
+      </c>
+      <c r="R342">
+        <v>50369869329</v>
+      </c>
+      <c r="S342">
+        <v>0.1</v>
+      </c>
+      <c r="T342">
+        <v>0.19</v>
+      </c>
+      <c r="U342">
+        <v>58.87</v>
+      </c>
+      <c r="V342">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="W342" s="2">
+        <v>45489</v>
+      </c>
+      <c r="X342">
+        <v>10.43</v>
+      </c>
+      <c r="Y342">
+        <v>0.38</v>
+      </c>
+      <c r="Z342">
+        <v>10.57</v>
+      </c>
+      <c r="AA342">
+        <v>10.19</v>
+      </c>
+      <c r="AB342">
+        <v>10.27</v>
+      </c>
+      <c r="AC342">
+        <v>1.732435033686234</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29">
+      <c r="A343" t="s">
+        <v>31</v>
+      </c>
+      <c r="B343" t="s">
+        <v>55</v>
+      </c>
+      <c r="C343">
+        <v>43.17</v>
+      </c>
+      <c r="D343">
+        <v>5.32</v>
+      </c>
+      <c r="E343">
+        <v>2.18</v>
+      </c>
+      <c r="F343">
+        <v>911656</v>
+      </c>
+      <c r="G343">
+        <v>3874989349.53</v>
+      </c>
+      <c r="H343">
+        <v>4.88</v>
+      </c>
+      <c r="I343">
+        <v>43.3</v>
+      </c>
+      <c r="J343">
+        <v>41.3</v>
+      </c>
+      <c r="K343">
+        <v>41.33</v>
+      </c>
+      <c r="L343">
+        <v>40.99</v>
+      </c>
+      <c r="M343">
+        <v>1.11</v>
+      </c>
+      <c r="N343">
+        <v>1.27</v>
+      </c>
+      <c r="O343">
+        <v>31.46</v>
+      </c>
+      <c r="P343">
+        <v>5.53</v>
+      </c>
+      <c r="Q343">
+        <v>310967136351</v>
+      </c>
+      <c r="R343">
+        <v>310295004058</v>
+      </c>
+      <c r="S343">
+        <v>0.02</v>
+      </c>
+      <c r="T343">
+        <v>0</v>
+      </c>
+      <c r="U343">
+        <v>60.01</v>
+      </c>
+      <c r="V343">
+        <v>26.41</v>
+      </c>
+      <c r="W343" s="2">
+        <v>45489</v>
+      </c>
+      <c r="X343">
+        <v>42.05</v>
+      </c>
+      <c r="Y343">
+        <v>-2.59</v>
+      </c>
+      <c r="Z343">
+        <v>43.17</v>
+      </c>
+      <c r="AA343">
+        <v>41.5</v>
+      </c>
+      <c r="AB343">
+        <v>43</v>
+      </c>
+      <c r="AC343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29">
+      <c r="A344" t="s">
+        <v>32</v>
+      </c>
+      <c r="B344" t="s">
+        <v>62</v>
+      </c>
+      <c r="C344">
+        <v>41.19</v>
+      </c>
+      <c r="D344">
+        <v>-3.15</v>
+      </c>
+      <c r="E344">
+        <v>-1.34</v>
+      </c>
+      <c r="F344">
+        <v>939985</v>
+      </c>
+      <c r="G344">
+        <v>3870524307</v>
+      </c>
+      <c r="H344">
+        <v>3.36</v>
+      </c>
+      <c r="I344">
+        <v>42.11</v>
+      </c>
+      <c r="J344">
+        <v>40.68</v>
+      </c>
+      <c r="K344">
+        <v>42</v>
+      </c>
+      <c r="L344">
+        <v>42.53</v>
+      </c>
+      <c r="M344">
+        <v>2.39</v>
+      </c>
+      <c r="N344">
+        <v>0.87</v>
+      </c>
+      <c r="O344">
+        <v>5.11</v>
+      </c>
+      <c r="P344">
+        <v>0.83</v>
+      </c>
+      <c r="Q344">
+        <v>750079563462</v>
+      </c>
+      <c r="R344">
+        <v>443313870457</v>
+      </c>
+      <c r="S344">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="T344">
+        <v>-0.02</v>
+      </c>
+      <c r="U344">
+        <v>5.75</v>
+      </c>
+      <c r="V344">
+        <v>2.21</v>
+      </c>
+      <c r="W344" s="2">
+        <v>45489</v>
+      </c>
+      <c r="X344">
+        <v>42.29</v>
+      </c>
+      <c r="Y344">
+        <v>2.67</v>
+      </c>
+      <c r="Z344">
+        <v>42.42</v>
+      </c>
+      <c r="AA344">
+        <v>41.25</v>
+      </c>
+      <c r="AB344">
+        <v>41.25</v>
+      </c>
+      <c r="AC344">
+        <v>2.986161689730527</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29">
+      <c r="A345" t="s">
+        <v>33</v>
+      </c>
+      <c r="B345" t="s">
+        <v>40</v>
+      </c>
+      <c r="C345">
+        <v>39.1</v>
+      </c>
+      <c r="D345">
+        <v>3.17</v>
+      </c>
+      <c r="E345">
+        <v>1.2</v>
+      </c>
+      <c r="F345">
+        <v>971618</v>
+      </c>
+      <c r="G345">
+        <v>3756673561.53</v>
+      </c>
+      <c r="H345">
+        <v>5.28</v>
+      </c>
+      <c r="I345">
+        <v>39.39</v>
+      </c>
+      <c r="J345">
+        <v>37.39</v>
+      </c>
+      <c r="K345">
+        <v>37.6</v>
+      </c>
+      <c r="L345">
+        <v>37.9</v>
+      </c>
+      <c r="M345">
+        <v>1.12</v>
+      </c>
+      <c r="N345">
+        <v>6.61</v>
+      </c>
+      <c r="O345">
+        <v>46.96</v>
+      </c>
+      <c r="P345">
+        <v>3.18</v>
+      </c>
+      <c r="Q345">
+        <v>57560483270</v>
+      </c>
+      <c r="R345">
+        <v>57486530547</v>
+      </c>
+      <c r="S345">
+        <v>0</v>
+      </c>
+      <c r="T345">
+        <v>0.05</v>
+      </c>
+      <c r="U345">
+        <v>2.57</v>
+      </c>
+      <c r="V345">
+        <v>18.23</v>
+      </c>
+      <c r="W345" s="2">
+        <v>45489</v>
+      </c>
+      <c r="X345">
+        <v>38.2</v>
+      </c>
+      <c r="Y345">
+        <v>-2.3</v>
+      </c>
+      <c r="Z345">
+        <v>39.25</v>
+      </c>
+      <c r="AA345">
+        <v>38.2</v>
+      </c>
+      <c r="AB345">
+        <v>38.79</v>
+      </c>
+      <c r="AC345">
+        <v>0.3836317135549836</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29">
+      <c r="A346" t="s">
+        <v>34</v>
+      </c>
+      <c r="B346" t="s">
+        <v>95</v>
+      </c>
+      <c r="C346">
+        <v>23.56</v>
+      </c>
+      <c r="D346">
+        <v>6.32</v>
+      </c>
+      <c r="E346">
+        <v>1.4</v>
+      </c>
+      <c r="F346">
+        <v>1583522</v>
+      </c>
+      <c r="G346">
+        <v>3688746435.05</v>
+      </c>
+      <c r="H346">
+        <v>8.57</v>
+      </c>
+      <c r="I346">
+        <v>24</v>
+      </c>
+      <c r="J346">
+        <v>22.1</v>
+      </c>
+      <c r="K346">
+        <v>22.1</v>
+      </c>
+      <c r="L346">
+        <v>22.16</v>
+      </c>
+      <c r="M346">
+        <v>1.27</v>
+      </c>
+      <c r="N346">
+        <v>5.26</v>
+      </c>
+      <c r="O346">
+        <v>53.03</v>
+      </c>
+      <c r="P346">
+        <v>2.65</v>
+      </c>
+      <c r="Q346">
+        <v>80507690917</v>
+      </c>
+      <c r="R346">
+        <v>70914981833</v>
+      </c>
+      <c r="S346">
+        <v>0.04</v>
+      </c>
+      <c r="T346">
+        <v>0.08</v>
+      </c>
+      <c r="U346">
+        <v>55.51</v>
+      </c>
+      <c r="V346">
+        <v>12.67</v>
+      </c>
+      <c r="W346" s="2">
+        <v>45489</v>
+      </c>
+      <c r="X346">
+        <v>23.08</v>
+      </c>
+      <c r="Y346">
+        <v>-2.04</v>
+      </c>
+      <c r="Z346">
+        <v>23.55</v>
+      </c>
+      <c r="AA346">
+        <v>22.86</v>
+      </c>
+      <c r="AB346">
+        <v>23.19</v>
+      </c>
+      <c r="AC346">
+        <v>-0.04244482173174029</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29">
+      <c r="A347" t="s">
+        <v>35</v>
+      </c>
+      <c r="B347" t="s">
+        <v>74</v>
+      </c>
+      <c r="C347">
+        <v>20.36</v>
+      </c>
+      <c r="D347">
+        <v>6.32</v>
+      </c>
+      <c r="E347">
+        <v>1.21</v>
+      </c>
+      <c r="F347">
+        <v>1738068</v>
+      </c>
+      <c r="G347">
+        <v>3452694972</v>
+      </c>
+      <c r="H347">
+        <v>8.56</v>
+      </c>
+      <c r="I347">
+        <v>20.66</v>
+      </c>
+      <c r="J347">
+        <v>19.02</v>
+      </c>
+      <c r="K347">
+        <v>19.2</v>
+      </c>
+      <c r="L347">
+        <v>19.15</v>
+      </c>
+      <c r="M347">
+        <v>1.18</v>
+      </c>
+      <c r="N347">
+        <v>7.96</v>
+      </c>
+      <c r="O347">
+        <v>105.38</v>
+      </c>
+      <c r="P347">
+        <v>3.33</v>
+      </c>
+      <c r="Q347">
+        <v>44466439345</v>
+      </c>
+      <c r="R347">
+        <v>44466439345</v>
+      </c>
+      <c r="S347">
+        <v>0</v>
+      </c>
+      <c r="T347">
+        <v>0</v>
+      </c>
+      <c r="U347">
+        <v>28.94</v>
+      </c>
+      <c r="V347">
+        <v>26.07</v>
+      </c>
+      <c r="W347" s="2">
+        <v>45489</v>
+      </c>
+      <c r="X347">
+        <v>21.28</v>
+      </c>
+      <c r="Y347">
+        <v>4.52</v>
+      </c>
+      <c r="Z347">
+        <v>21.7</v>
+      </c>
+      <c r="AA347">
+        <v>20.13</v>
+      </c>
+      <c r="AB347">
+        <v>20.33</v>
+      </c>
+      <c r="AC347">
+        <v>6.581532416502947</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29">
+      <c r="A348" t="s">
+        <v>36</v>
+      </c>
+      <c r="B348" t="s">
+        <v>42</v>
+      </c>
+      <c r="C348">
+        <v>27.46</v>
+      </c>
+      <c r="D348">
+        <v>1.85</v>
+      </c>
+      <c r="E348">
+        <v>0.5</v>
+      </c>
+      <c r="F348">
+        <v>1268270</v>
+      </c>
+      <c r="G348">
+        <v>3433207744</v>
+      </c>
+      <c r="H348">
+        <v>4.6</v>
+      </c>
+      <c r="I348">
+        <v>27.6</v>
+      </c>
+      <c r="J348">
+        <v>26.36</v>
+      </c>
+      <c r="K348">
+        <v>26.96</v>
+      </c>
+      <c r="L348">
+        <v>26.96</v>
+      </c>
+      <c r="M348">
+        <v>1.05</v>
+      </c>
+      <c r="N348">
+        <v>0.64</v>
+      </c>
+      <c r="O348">
+        <v>32.59</v>
+      </c>
+      <c r="P348">
+        <v>3.75</v>
+      </c>
+      <c r="Q348">
+        <v>545562747750</v>
+      </c>
+      <c r="R348">
+        <v>545411931828</v>
+      </c>
+      <c r="S348">
+        <v>-0.04</v>
+      </c>
+      <c r="T348">
+        <v>0</v>
+      </c>
+      <c r="U348">
+        <v>22.04</v>
+      </c>
+      <c r="V348">
+        <v>81.61</v>
+      </c>
+      <c r="W348" s="2">
+        <v>45489</v>
+      </c>
+      <c r="X348">
+        <v>25.95</v>
+      </c>
+      <c r="Y348">
+        <v>-5.5</v>
+      </c>
+      <c r="Z348">
+        <v>27.1</v>
+      </c>
+      <c r="AA348">
+        <v>25.84</v>
+      </c>
+      <c r="AB348">
+        <v>27.06</v>
+      </c>
+      <c r="AC348">
+        <v>-1.31099781500364</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29">
+      <c r="A349" t="s">
+        <v>37</v>
+      </c>
+      <c r="B349" t="s">
+        <v>84</v>
+      </c>
+      <c r="C349">
+        <v>28.82</v>
+      </c>
+      <c r="D349">
+        <v>9.33</v>
+      </c>
+      <c r="E349">
+        <v>2.46</v>
+      </c>
+      <c r="F349">
+        <v>1158231</v>
+      </c>
+      <c r="G349">
+        <v>3212314961.8</v>
+      </c>
+      <c r="H349">
+        <v>10.55</v>
+      </c>
+      <c r="I349">
+        <v>28.98</v>
+      </c>
+      <c r="J349">
+        <v>26.2</v>
+      </c>
+      <c r="K349">
+        <v>26.24</v>
+      </c>
+      <c r="L349">
+        <v>26.36</v>
+      </c>
+      <c r="M349">
+        <v>0.95</v>
+      </c>
+      <c r="N349">
+        <v>8.33</v>
+      </c>
+      <c r="O349">
+        <v>42.58</v>
+      </c>
+      <c r="P349">
+        <v>2.75</v>
+      </c>
+      <c r="Q349">
+        <v>49278376364</v>
+      </c>
+      <c r="R349">
+        <v>40067735299</v>
+      </c>
+      <c r="S349">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T349">
+        <v>1.16</v>
+      </c>
+      <c r="U349">
+        <v>113.01</v>
+      </c>
+      <c r="V349">
+        <v>60.74</v>
+      </c>
+      <c r="W349" s="2">
+        <v>45489</v>
+      </c>
+      <c r="X349">
+        <v>26.4</v>
+      </c>
+      <c r="Y349">
+        <v>-8.4</v>
+      </c>
+      <c r="Z349">
+        <v>28.13</v>
+      </c>
+      <c r="AA349">
+        <v>26.31</v>
+      </c>
+      <c r="AB349">
+        <v>28.13</v>
+      </c>
+      <c r="AC349">
+        <v>-2.394170714781406</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29">
+      <c r="A350" t="s">
+        <v>38</v>
+      </c>
+      <c r="B350" t="s">
+        <v>105</v>
+      </c>
+      <c r="C350">
+        <v>5.89</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>5035591</v>
+      </c>
+      <c r="G350">
+        <v>2966243649</v>
+      </c>
+      <c r="H350">
+        <v>2.38</v>
+      </c>
+      <c r="I350">
+        <v>5.97</v>
+      </c>
+      <c r="J350">
+        <v>5.83</v>
+      </c>
+      <c r="K350">
+        <v>5.92</v>
+      </c>
+      <c r="L350">
+        <v>5.89</v>
+      </c>
+      <c r="M350">
+        <v>1.41</v>
+      </c>
+      <c r="N350">
+        <v>0.19</v>
+      </c>
+      <c r="O350">
+        <v>5.99</v>
+      </c>
+      <c r="P350">
+        <v>0.61</v>
+      </c>
+      <c r="Q350">
+        <v>2099232854254</v>
+      </c>
+      <c r="R350">
+        <v>1588015931855</v>
+      </c>
+      <c r="S350">
+        <v>0.17</v>
+      </c>
+      <c r="T350">
+        <v>0</v>
+      </c>
+      <c r="U350">
+        <v>13.49</v>
+      </c>
+      <c r="V350">
+        <v>31.77</v>
+      </c>
+      <c r="W350" s="2">
+        <v>45489</v>
+      </c>
+      <c r="X350">
+        <v>5.91</v>
+      </c>
+      <c r="Y350">
+        <v>0.34</v>
+      </c>
+      <c r="Z350">
+        <v>5.94</v>
+      </c>
+      <c r="AA350">
+        <v>5.84</v>
+      </c>
+      <c r="AB350">
+        <v>5.88</v>
+      </c>
+      <c r="AC350">
+        <v>0.8488964346349868</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="107">
   <si>
     <t>代码</t>
   </si>
@@ -103,25 +103,19 @@
     <t>high_rate</t>
   </si>
   <si>
+    <t>000938</t>
+  </si>
+  <si>
+    <t>601899</t>
+  </si>
+  <si>
     <t>000625</t>
   </si>
   <si>
-    <t>600733</t>
+    <t>600418</t>
   </si>
   <si>
-    <t>002475</t>
-  </si>
-  <si>
-    <t>601318</t>
-  </si>
-  <si>
-    <t>000977</t>
-  </si>
-  <si>
-    <t>002241</t>
-  </si>
-  <si>
-    <t>600418</t>
+    <t>600733</t>
   </si>
   <si>
     <t>601138</t>
@@ -130,7 +124,13 @@
     <t>002384</t>
   </si>
   <si>
-    <t>601398</t>
+    <t>601318</t>
+  </si>
+  <si>
+    <t>002475</t>
+  </si>
+  <si>
+    <t>002463</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>XD工商银</t>
+  </si>
+  <si>
+    <t>沪电股份</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC350"/>
+  <dimension ref="A1:AC360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30960,8 +30963,8 @@
       </c>
     </row>
     <row r="341" spans="1:29">
-      <c r="A341" t="s">
-        <v>29</v>
+      <c r="A341">
+        <v>625</v>
       </c>
       <c r="B341" t="s">
         <v>39</v>
@@ -31049,8 +31052,8 @@
       </c>
     </row>
     <row r="342" spans="1:29">
-      <c r="A342" t="s">
-        <v>30</v>
+      <c r="A342">
+        <v>600733</v>
       </c>
       <c r="B342" t="s">
         <v>80</v>
@@ -31138,8 +31141,8 @@
       </c>
     </row>
     <row r="343" spans="1:29">
-      <c r="A343" t="s">
-        <v>31</v>
+      <c r="A343">
+        <v>2475</v>
       </c>
       <c r="B343" t="s">
         <v>55</v>
@@ -31227,8 +31230,8 @@
       </c>
     </row>
     <row r="344" spans="1:29">
-      <c r="A344" t="s">
-        <v>32</v>
+      <c r="A344">
+        <v>601318</v>
       </c>
       <c r="B344" t="s">
         <v>62</v>
@@ -31316,8 +31319,8 @@
       </c>
     </row>
     <row r="345" spans="1:29">
-      <c r="A345" t="s">
-        <v>33</v>
+      <c r="A345">
+        <v>977</v>
       </c>
       <c r="B345" t="s">
         <v>40</v>
@@ -31405,8 +31408,8 @@
       </c>
     </row>
     <row r="346" spans="1:29">
-      <c r="A346" t="s">
-        <v>34</v>
+      <c r="A346">
+        <v>2241</v>
       </c>
       <c r="B346" t="s">
         <v>95</v>
@@ -31494,8 +31497,8 @@
       </c>
     </row>
     <row r="347" spans="1:29">
-      <c r="A347" t="s">
-        <v>35</v>
+      <c r="A347">
+        <v>600418</v>
       </c>
       <c r="B347" t="s">
         <v>74</v>
@@ -31583,8 +31586,8 @@
       </c>
     </row>
     <row r="348" spans="1:29">
-      <c r="A348" t="s">
-        <v>36</v>
+      <c r="A348">
+        <v>601138</v>
       </c>
       <c r="B348" t="s">
         <v>42</v>
@@ -31672,8 +31675,8 @@
       </c>
     </row>
     <row r="349" spans="1:29">
-      <c r="A349" t="s">
-        <v>37</v>
+      <c r="A349">
+        <v>2384</v>
       </c>
       <c r="B349" t="s">
         <v>84</v>
@@ -31761,8 +31764,8 @@
       </c>
     </row>
     <row r="350" spans="1:29">
-      <c r="A350" t="s">
-        <v>38</v>
+      <c r="A350">
+        <v>601398</v>
       </c>
       <c r="B350" t="s">
         <v>105</v>
@@ -31847,6 +31850,896 @@
       </c>
       <c r="AC350">
         <v>0.8488964346349868</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29">
+      <c r="A351" t="s">
+        <v>29</v>
+      </c>
+      <c r="B351" t="s">
+        <v>69</v>
+      </c>
+      <c r="C351">
+        <v>24.65</v>
+      </c>
+      <c r="D351">
+        <v>1.9</v>
+      </c>
+      <c r="E351">
+        <v>0.46</v>
+      </c>
+      <c r="F351">
+        <v>1865454</v>
+      </c>
+      <c r="G351">
+        <v>4651171620.19</v>
+      </c>
+      <c r="H351">
+        <v>3.43</v>
+      </c>
+      <c r="I351">
+        <v>25.39</v>
+      </c>
+      <c r="J351">
+        <v>24.56</v>
+      </c>
+      <c r="K351">
+        <v>24.75</v>
+      </c>
+      <c r="L351">
+        <v>24.19</v>
+      </c>
+      <c r="M351">
+        <v>3.6</v>
+      </c>
+      <c r="N351">
+        <v>6.52</v>
+      </c>
+      <c r="O351">
+        <v>42.61</v>
+      </c>
+      <c r="P351">
+        <v>2.08</v>
+      </c>
+      <c r="Q351">
+        <v>70500968894</v>
+      </c>
+      <c r="R351">
+        <v>70500968894</v>
+      </c>
+      <c r="S351">
+        <v>0.24</v>
+      </c>
+      <c r="T351">
+        <v>0.2</v>
+      </c>
+      <c r="U351">
+        <v>22.39</v>
+      </c>
+      <c r="V351">
+        <v>28.32</v>
+      </c>
+      <c r="W351" s="2">
+        <v>45490</v>
+      </c>
+      <c r="X351">
+        <v>24.38</v>
+      </c>
+      <c r="Y351">
+        <v>-1.1</v>
+      </c>
+      <c r="Z351">
+        <v>24.93</v>
+      </c>
+      <c r="AA351">
+        <v>23.67</v>
+      </c>
+      <c r="AB351">
+        <v>24.6</v>
+      </c>
+      <c r="AC351">
+        <v>1.13590263691684</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29">
+      <c r="A352" t="s">
+        <v>30</v>
+      </c>
+      <c r="B352" t="s">
+        <v>58</v>
+      </c>
+      <c r="C352">
+        <v>18.47</v>
+      </c>
+      <c r="D352">
+        <v>-3.85</v>
+      </c>
+      <c r="E352">
+        <v>-0.74</v>
+      </c>
+      <c r="F352">
+        <v>2171674</v>
+      </c>
+      <c r="G352">
+        <v>4075167475</v>
+      </c>
+      <c r="H352">
+        <v>6.09</v>
+      </c>
+      <c r="I352">
+        <v>19.54</v>
+      </c>
+      <c r="J352">
+        <v>18.37</v>
+      </c>
+      <c r="K352">
+        <v>19.5</v>
+      </c>
+      <c r="L352">
+        <v>19.21</v>
+      </c>
+      <c r="M352">
+        <v>1.54</v>
+      </c>
+      <c r="N352">
+        <v>1.06</v>
+      </c>
+      <c r="O352">
+        <v>19.6</v>
+      </c>
+      <c r="P352">
+        <v>4.21</v>
+      </c>
+      <c r="Q352">
+        <v>490893608722</v>
+      </c>
+      <c r="R352">
+        <v>379674732375</v>
+      </c>
+      <c r="S352">
+        <v>-0.16</v>
+      </c>
+      <c r="T352">
+        <v>-0.16</v>
+      </c>
+      <c r="U352">
+        <v>1.09</v>
+      </c>
+      <c r="V352">
+        <v>50.65</v>
+      </c>
+      <c r="W352" s="2">
+        <v>45490</v>
+      </c>
+      <c r="X352">
+        <v>18.45</v>
+      </c>
+      <c r="Y352">
+        <v>-0.11</v>
+      </c>
+      <c r="Z352">
+        <v>18.49</v>
+      </c>
+      <c r="AA352">
+        <v>17.97</v>
+      </c>
+      <c r="AB352">
+        <v>18.24</v>
+      </c>
+      <c r="AC352">
+        <v>0.1082837033026507</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29">
+      <c r="A353" t="s">
+        <v>31</v>
+      </c>
+      <c r="B353" t="s">
+        <v>39</v>
+      </c>
+      <c r="C353">
+        <v>15.7</v>
+      </c>
+      <c r="D353">
+        <v>-1.63</v>
+      </c>
+      <c r="E353">
+        <v>-0.26</v>
+      </c>
+      <c r="F353">
+        <v>2404515</v>
+      </c>
+      <c r="G353">
+        <v>3804028468.08</v>
+      </c>
+      <c r="H353">
+        <v>2.32</v>
+      </c>
+      <c r="I353">
+        <v>16.03</v>
+      </c>
+      <c r="J353">
+        <v>15.66</v>
+      </c>
+      <c r="K353">
+        <v>15.81</v>
+      </c>
+      <c r="L353">
+        <v>15.96</v>
+      </c>
+      <c r="M353">
+        <v>0.78</v>
+      </c>
+      <c r="N353">
+        <v>2.93</v>
+      </c>
+      <c r="O353">
+        <v>33.61</v>
+      </c>
+      <c r="P353">
+        <v>2.23</v>
+      </c>
+      <c r="Q353">
+        <v>155701437818</v>
+      </c>
+      <c r="R353">
+        <v>128959873476</v>
+      </c>
+      <c r="S353">
+        <v>-0.06</v>
+      </c>
+      <c r="T353">
+        <v>-0.13</v>
+      </c>
+      <c r="U353">
+        <v>-6.38</v>
+      </c>
+      <c r="V353">
+        <v>-4.79</v>
+      </c>
+      <c r="W353" s="2">
+        <v>45490</v>
+      </c>
+      <c r="X353">
+        <v>15.78</v>
+      </c>
+      <c r="Y353">
+        <v>0.51</v>
+      </c>
+      <c r="Z353">
+        <v>16.06</v>
+      </c>
+      <c r="AA353">
+        <v>15.46</v>
+      </c>
+      <c r="AB353">
+        <v>15.61</v>
+      </c>
+      <c r="AC353">
+        <v>2.292993630573245</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29">
+      <c r="A354" t="s">
+        <v>32</v>
+      </c>
+      <c r="B354" t="s">
+        <v>74</v>
+      </c>
+      <c r="C354">
+        <v>21.28</v>
+      </c>
+      <c r="D354">
+        <v>4.52</v>
+      </c>
+      <c r="E354">
+        <v>0.92</v>
+      </c>
+      <c r="F354">
+        <v>1787146</v>
+      </c>
+      <c r="G354">
+        <v>3744118038</v>
+      </c>
+      <c r="H354">
+        <v>7.71</v>
+      </c>
+      <c r="I354">
+        <v>21.7</v>
+      </c>
+      <c r="J354">
+        <v>20.13</v>
+      </c>
+      <c r="K354">
+        <v>20.33</v>
+      </c>
+      <c r="L354">
+        <v>20.36</v>
+      </c>
+      <c r="M354">
+        <v>1.14</v>
+      </c>
+      <c r="N354">
+        <v>8.18</v>
+      </c>
+      <c r="O354">
+        <v>110.14</v>
+      </c>
+      <c r="P354">
+        <v>3.49</v>
+      </c>
+      <c r="Q354">
+        <v>46475728352</v>
+      </c>
+      <c r="R354">
+        <v>46475728352</v>
+      </c>
+      <c r="S354">
+        <v>0</v>
+      </c>
+      <c r="T354">
+        <v>0.05</v>
+      </c>
+      <c r="U354">
+        <v>33.5</v>
+      </c>
+      <c r="V354">
+        <v>31.76</v>
+      </c>
+      <c r="W354" s="2">
+        <v>45490</v>
+      </c>
+      <c r="X354">
+        <v>21.1</v>
+      </c>
+      <c r="Y354">
+        <v>-0.85</v>
+      </c>
+      <c r="Z354">
+        <v>21.18</v>
+      </c>
+      <c r="AA354">
+        <v>20.43</v>
+      </c>
+      <c r="AB354">
+        <v>20.8</v>
+      </c>
+      <c r="AC354">
+        <v>-0.4699248120300819</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29">
+      <c r="A355" t="s">
+        <v>33</v>
+      </c>
+      <c r="B355" t="s">
+        <v>80</v>
+      </c>
+      <c r="C355">
+        <v>10.43</v>
+      </c>
+      <c r="D355">
+        <v>0.38</v>
+      </c>
+      <c r="E355">
+        <v>0.04</v>
+      </c>
+      <c r="F355">
+        <v>3571773</v>
+      </c>
+      <c r="G355">
+        <v>3696978855</v>
+      </c>
+      <c r="H355">
+        <v>3.66</v>
+      </c>
+      <c r="I355">
+        <v>10.57</v>
+      </c>
+      <c r="J355">
+        <v>10.19</v>
+      </c>
+      <c r="K355">
+        <v>10.27</v>
+      </c>
+      <c r="L355">
+        <v>10.39</v>
+      </c>
+      <c r="M355">
+        <v>0.73</v>
+      </c>
+      <c r="N355">
+        <v>7.37</v>
+      </c>
+      <c r="O355">
+        <v>-14.31</v>
+      </c>
+      <c r="P355">
+        <v>11.03</v>
+      </c>
+      <c r="Q355">
+        <v>58131638053</v>
+      </c>
+      <c r="R355">
+        <v>50563786054</v>
+      </c>
+      <c r="S355">
+        <v>0.1</v>
+      </c>
+      <c r="T355">
+        <v>0.1</v>
+      </c>
+      <c r="U355">
+        <v>51.16</v>
+      </c>
+      <c r="V355">
+        <v>70.15000000000001</v>
+      </c>
+      <c r="W355" s="2">
+        <v>45490</v>
+      </c>
+      <c r="X355">
+        <v>10.23</v>
+      </c>
+      <c r="Y355">
+        <v>-1.92</v>
+      </c>
+      <c r="Z355">
+        <v>10.36</v>
+      </c>
+      <c r="AA355">
+        <v>10.01</v>
+      </c>
+      <c r="AB355">
+        <v>10.3</v>
+      </c>
+      <c r="AC355">
+        <v>-0.6711409395973182</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29">
+      <c r="A356" t="s">
+        <v>34</v>
+      </c>
+      <c r="B356" t="s">
+        <v>42</v>
+      </c>
+      <c r="C356">
+        <v>25.95</v>
+      </c>
+      <c r="D356">
+        <v>-5.5</v>
+      </c>
+      <c r="E356">
+        <v>-1.51</v>
+      </c>
+      <c r="F356">
+        <v>1360612</v>
+      </c>
+      <c r="G356">
+        <v>3579744021</v>
+      </c>
+      <c r="H356">
+        <v>4.59</v>
+      </c>
+      <c r="I356">
+        <v>27.1</v>
+      </c>
+      <c r="J356">
+        <v>25.84</v>
+      </c>
+      <c r="K356">
+        <v>27.06</v>
+      </c>
+      <c r="L356">
+        <v>27.46</v>
+      </c>
+      <c r="M356">
+        <v>1.19</v>
+      </c>
+      <c r="N356">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O356">
+        <v>30.8</v>
+      </c>
+      <c r="P356">
+        <v>3.54</v>
+      </c>
+      <c r="Q356">
+        <v>515562756887</v>
+      </c>
+      <c r="R356">
+        <v>515420234193</v>
+      </c>
+      <c r="S356">
+        <v>-0.19</v>
+      </c>
+      <c r="T356">
+        <v>-0.19</v>
+      </c>
+      <c r="U356">
+        <v>13.32</v>
+      </c>
+      <c r="V356">
+        <v>71.63</v>
+      </c>
+      <c r="W356" s="2">
+        <v>45490</v>
+      </c>
+      <c r="X356">
+        <v>25.41</v>
+      </c>
+      <c r="Y356">
+        <v>-2.08</v>
+      </c>
+      <c r="Z356">
+        <v>25.46</v>
+      </c>
+      <c r="AA356">
+        <v>24.33</v>
+      </c>
+      <c r="AB356">
+        <v>24.82</v>
+      </c>
+      <c r="AC356">
+        <v>-1.888246628131015</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29">
+      <c r="A357" t="s">
+        <v>35</v>
+      </c>
+      <c r="B357" t="s">
+        <v>84</v>
+      </c>
+      <c r="C357">
+        <v>26.4</v>
+      </c>
+      <c r="D357">
+        <v>-8.4</v>
+      </c>
+      <c r="E357">
+        <v>-2.42</v>
+      </c>
+      <c r="F357">
+        <v>1241567</v>
+      </c>
+      <c r="G357">
+        <v>3358958784.09</v>
+      </c>
+      <c r="H357">
+        <v>6.32</v>
+      </c>
+      <c r="I357">
+        <v>28.13</v>
+      </c>
+      <c r="J357">
+        <v>26.31</v>
+      </c>
+      <c r="K357">
+        <v>28.13</v>
+      </c>
+      <c r="L357">
+        <v>28.82</v>
+      </c>
+      <c r="M357">
+        <v>1.01</v>
+      </c>
+      <c r="N357">
+        <v>8.93</v>
+      </c>
+      <c r="O357">
+        <v>39</v>
+      </c>
+      <c r="P357">
+        <v>2.52</v>
+      </c>
+      <c r="Q357">
+        <v>45140497433</v>
+      </c>
+      <c r="R357">
+        <v>36703268976</v>
+      </c>
+      <c r="S357">
+        <v>0.27</v>
+      </c>
+      <c r="T357">
+        <v>0</v>
+      </c>
+      <c r="U357">
+        <v>88.70999999999999</v>
+      </c>
+      <c r="V357">
+        <v>47.24</v>
+      </c>
+      <c r="W357" s="2">
+        <v>45490</v>
+      </c>
+      <c r="X357">
+        <v>25.71</v>
+      </c>
+      <c r="Y357">
+        <v>-2.61</v>
+      </c>
+      <c r="Z357">
+        <v>26.79</v>
+      </c>
+      <c r="AA357">
+        <v>24.69</v>
+      </c>
+      <c r="AB357">
+        <v>25.5</v>
+      </c>
+      <c r="AC357">
+        <v>1.47727272727273</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29">
+      <c r="A358" t="s">
+        <v>36</v>
+      </c>
+      <c r="B358" t="s">
+        <v>62</v>
+      </c>
+      <c r="C358">
+        <v>42.29</v>
+      </c>
+      <c r="D358">
+        <v>2.67</v>
+      </c>
+      <c r="E358">
+        <v>1.1</v>
+      </c>
+      <c r="F358">
+        <v>778406</v>
+      </c>
+      <c r="G358">
+        <v>3268159911</v>
+      </c>
+      <c r="H358">
+        <v>2.84</v>
+      </c>
+      <c r="I358">
+        <v>42.42</v>
+      </c>
+      <c r="J358">
+        <v>41.25</v>
+      </c>
+      <c r="K358">
+        <v>41.25</v>
+      </c>
+      <c r="L358">
+        <v>41.19</v>
+      </c>
+      <c r="M358">
+        <v>1.54</v>
+      </c>
+      <c r="N358">
+        <v>0.72</v>
+      </c>
+      <c r="O358">
+        <v>5.24</v>
+      </c>
+      <c r="P358">
+        <v>0.85</v>
+      </c>
+      <c r="Q358">
+        <v>770110821530</v>
+      </c>
+      <c r="R358">
+        <v>455152793922</v>
+      </c>
+      <c r="S358">
+        <v>0.02</v>
+      </c>
+      <c r="T358">
+        <v>-0.02</v>
+      </c>
+      <c r="U358">
+        <v>6.52</v>
+      </c>
+      <c r="V358">
+        <v>4.94</v>
+      </c>
+      <c r="W358" s="2">
+        <v>45490</v>
+      </c>
+      <c r="X358">
+        <v>42.37</v>
+      </c>
+      <c r="Y358">
+        <v>0.19</v>
+      </c>
+      <c r="Z358">
+        <v>42.64</v>
+      </c>
+      <c r="AA358">
+        <v>41.96</v>
+      </c>
+      <c r="AB358">
+        <v>42.19</v>
+      </c>
+      <c r="AC358">
+        <v>0.8276188224166503</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29">
+      <c r="A359" t="s">
+        <v>37</v>
+      </c>
+      <c r="B359" t="s">
+        <v>55</v>
+      </c>
+      <c r="C359">
+        <v>42.05</v>
+      </c>
+      <c r="D359">
+        <v>-2.59</v>
+      </c>
+      <c r="E359">
+        <v>-1.12</v>
+      </c>
+      <c r="F359">
+        <v>707182</v>
+      </c>
+      <c r="G359">
+        <v>2996429461.7</v>
+      </c>
+      <c r="H359">
+        <v>3.87</v>
+      </c>
+      <c r="I359">
+        <v>43.17</v>
+      </c>
+      <c r="J359">
+        <v>41.5</v>
+      </c>
+      <c r="K359">
+        <v>43</v>
+      </c>
+      <c r="L359">
+        <v>43.17</v>
+      </c>
+      <c r="M359">
+        <v>0.91</v>
+      </c>
+      <c r="N359">
+        <v>0.98</v>
+      </c>
+      <c r="O359">
+        <v>30.65</v>
+      </c>
+      <c r="P359">
+        <v>5.38</v>
+      </c>
+      <c r="Q359">
+        <v>302899422830</v>
+      </c>
+      <c r="R359">
+        <v>302244728299</v>
+      </c>
+      <c r="S359">
+        <v>0</v>
+      </c>
+      <c r="T359">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U359">
+        <v>57.2</v>
+      </c>
+      <c r="V359">
+        <v>23.13</v>
+      </c>
+      <c r="W359" s="2">
+        <v>45490</v>
+      </c>
+      <c r="X359">
+        <v>40.95</v>
+      </c>
+      <c r="Y359">
+        <v>-2.62</v>
+      </c>
+      <c r="Z359">
+        <v>41.61</v>
+      </c>
+      <c r="AA359">
+        <v>39.64</v>
+      </c>
+      <c r="AB359">
+        <v>40.88</v>
+      </c>
+      <c r="AC359">
+        <v>-1.046373365041612</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29">
+      <c r="A360" t="s">
+        <v>38</v>
+      </c>
+      <c r="B360" t="s">
+        <v>106</v>
+      </c>
+      <c r="C360">
+        <v>35.96</v>
+      </c>
+      <c r="D360">
+        <v>-9.44</v>
+      </c>
+      <c r="E360">
+        <v>-3.75</v>
+      </c>
+      <c r="F360">
+        <v>765756</v>
+      </c>
+      <c r="G360">
+        <v>2842700372.32</v>
+      </c>
+      <c r="H360">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="I360">
+        <v>39.31</v>
+      </c>
+      <c r="J360">
+        <v>35.92</v>
+      </c>
+      <c r="K360">
+        <v>39.31</v>
+      </c>
+      <c r="L360">
+        <v>39.71</v>
+      </c>
+      <c r="M360">
+        <v>1.7</v>
+      </c>
+      <c r="N360">
+        <v>4</v>
+      </c>
+      <c r="O360">
+        <v>33.42</v>
+      </c>
+      <c r="P360">
+        <v>7.33</v>
+      </c>
+      <c r="Q360">
+        <v>68809956536</v>
+      </c>
+      <c r="R360">
+        <v>68766751279</v>
+      </c>
+      <c r="S360">
+        <v>0</v>
+      </c>
+      <c r="T360">
+        <v>-0.03</v>
+      </c>
+      <c r="U360">
+        <v>18.21</v>
+      </c>
+      <c r="V360">
+        <v>66.33</v>
+      </c>
+      <c r="W360" s="2">
+        <v>45490</v>
+      </c>
+      <c r="X360">
+        <v>36.24</v>
+      </c>
+      <c r="Y360">
+        <v>0.78</v>
+      </c>
+      <c r="Z360">
+        <v>36.3</v>
+      </c>
+      <c r="AA360">
+        <v>34.43</v>
+      </c>
+      <c r="AB360">
+        <v>35.43</v>
+      </c>
+      <c r="AC360">
+        <v>0.9454949944382545</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="107">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
-    <t>000938</t>
+    <t>002475</t>
   </si>
   <si>
-    <t>601899</t>
+    <t>601138</t>
   </si>
   <si>
     <t>000625</t>
   </si>
   <si>
-    <t>600418</t>
+    <t>600900</t>
+  </si>
+  <si>
+    <t>002241</t>
   </si>
   <si>
     <t>600733</t>
   </si>
   <si>
-    <t>601138</t>
-  </si>
-  <si>
     <t>002384</t>
   </si>
   <si>
-    <t>601318</t>
+    <t>000938</t>
   </si>
   <si>
-    <t>002475</t>
+    <t>600584</t>
   </si>
   <si>
-    <t>002463</t>
+    <t>601899</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -696,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC360"/>
+  <dimension ref="A1:AC370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31853,8 +31853,8 @@
       </c>
     </row>
     <row r="351" spans="1:29">
-      <c r="A351" t="s">
-        <v>29</v>
+      <c r="A351">
+        <v>938</v>
       </c>
       <c r="B351" t="s">
         <v>69</v>
@@ -31942,8 +31942,8 @@
       </c>
     </row>
     <row r="352" spans="1:29">
-      <c r="A352" t="s">
-        <v>30</v>
+      <c r="A352">
+        <v>601899</v>
       </c>
       <c r="B352" t="s">
         <v>58</v>
@@ -32031,8 +32031,8 @@
       </c>
     </row>
     <row r="353" spans="1:29">
-      <c r="A353" t="s">
-        <v>31</v>
+      <c r="A353">
+        <v>625</v>
       </c>
       <c r="B353" t="s">
         <v>39</v>
@@ -32120,8 +32120,8 @@
       </c>
     </row>
     <row r="354" spans="1:29">
-      <c r="A354" t="s">
-        <v>32</v>
+      <c r="A354">
+        <v>600418</v>
       </c>
       <c r="B354" t="s">
         <v>74</v>
@@ -32209,8 +32209,8 @@
       </c>
     </row>
     <row r="355" spans="1:29">
-      <c r="A355" t="s">
-        <v>33</v>
+      <c r="A355">
+        <v>600733</v>
       </c>
       <c r="B355" t="s">
         <v>80</v>
@@ -32298,8 +32298,8 @@
       </c>
     </row>
     <row r="356" spans="1:29">
-      <c r="A356" t="s">
-        <v>34</v>
+      <c r="A356">
+        <v>601138</v>
       </c>
       <c r="B356" t="s">
         <v>42</v>
@@ -32387,8 +32387,8 @@
       </c>
     </row>
     <row r="357" spans="1:29">
-      <c r="A357" t="s">
-        <v>35</v>
+      <c r="A357">
+        <v>2384</v>
       </c>
       <c r="B357" t="s">
         <v>84</v>
@@ -32476,8 +32476,8 @@
       </c>
     </row>
     <row r="358" spans="1:29">
-      <c r="A358" t="s">
-        <v>36</v>
+      <c r="A358">
+        <v>601318</v>
       </c>
       <c r="B358" t="s">
         <v>62</v>
@@ -32565,8 +32565,8 @@
       </c>
     </row>
     <row r="359" spans="1:29">
-      <c r="A359" t="s">
-        <v>37</v>
+      <c r="A359">
+        <v>2475</v>
       </c>
       <c r="B359" t="s">
         <v>55</v>
@@ -32654,8 +32654,8 @@
       </c>
     </row>
     <row r="360" spans="1:29">
-      <c r="A360" t="s">
-        <v>38</v>
+      <c r="A360">
+        <v>2463</v>
       </c>
       <c r="B360" t="s">
         <v>106</v>
@@ -32740,6 +32740,896 @@
       </c>
       <c r="AC360">
         <v>0.9454949944382545</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29">
+      <c r="A361" t="s">
+        <v>29</v>
+      </c>
+      <c r="B361" t="s">
+        <v>55</v>
+      </c>
+      <c r="C361">
+        <v>40.95</v>
+      </c>
+      <c r="D361">
+        <v>-2.62</v>
+      </c>
+      <c r="E361">
+        <v>-1.1</v>
+      </c>
+      <c r="F361">
+        <v>1040685</v>
+      </c>
+      <c r="G361">
+        <v>4211742715.58</v>
+      </c>
+      <c r="H361">
+        <v>4.68</v>
+      </c>
+      <c r="I361">
+        <v>41.61</v>
+      </c>
+      <c r="J361">
+        <v>39.64</v>
+      </c>
+      <c r="K361">
+        <v>40.88</v>
+      </c>
+      <c r="L361">
+        <v>42.05</v>
+      </c>
+      <c r="M361">
+        <v>1.36</v>
+      </c>
+      <c r="N361">
+        <v>1.45</v>
+      </c>
+      <c r="O361">
+        <v>29.84</v>
+      </c>
+      <c r="P361">
+        <v>5.24</v>
+      </c>
+      <c r="Q361">
+        <v>294975775622</v>
+      </c>
+      <c r="R361">
+        <v>294338207463</v>
+      </c>
+      <c r="S361">
+        <v>-0.05</v>
+      </c>
+      <c r="T361">
+        <v>0.02</v>
+      </c>
+      <c r="U361">
+        <v>56.96</v>
+      </c>
+      <c r="V361">
+        <v>19.91</v>
+      </c>
+      <c r="W361" s="2">
+        <v>45491</v>
+      </c>
+      <c r="X361">
+        <v>40.15</v>
+      </c>
+      <c r="Y361">
+        <v>-1.95</v>
+      </c>
+      <c r="Z361">
+        <v>40.96</v>
+      </c>
+      <c r="AA361">
+        <v>39.69</v>
+      </c>
+      <c r="AB361">
+        <v>39.72</v>
+      </c>
+      <c r="AC361">
+        <v>0.02442002442001956</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29">
+      <c r="A362" t="s">
+        <v>30</v>
+      </c>
+      <c r="B362" t="s">
+        <v>42</v>
+      </c>
+      <c r="C362">
+        <v>25.41</v>
+      </c>
+      <c r="D362">
+        <v>-2.08</v>
+      </c>
+      <c r="E362">
+        <v>-0.54</v>
+      </c>
+      <c r="F362">
+        <v>1603036</v>
+      </c>
+      <c r="G362">
+        <v>3987867399</v>
+      </c>
+      <c r="H362">
+        <v>4.35</v>
+      </c>
+      <c r="I362">
+        <v>25.46</v>
+      </c>
+      <c r="J362">
+        <v>24.33</v>
+      </c>
+      <c r="K362">
+        <v>24.82</v>
+      </c>
+      <c r="L362">
+        <v>25.95</v>
+      </c>
+      <c r="M362">
+        <v>1.32</v>
+      </c>
+      <c r="N362">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O362">
+        <v>30.16</v>
+      </c>
+      <c r="P362">
+        <v>3.47</v>
+      </c>
+      <c r="Q362">
+        <v>504834283333</v>
+      </c>
+      <c r="R362">
+        <v>504694726430</v>
+      </c>
+      <c r="S362">
+        <v>-0.08</v>
+      </c>
+      <c r="T362">
+        <v>-0.04</v>
+      </c>
+      <c r="U362">
+        <v>15.24</v>
+      </c>
+      <c r="V362">
+        <v>68.06</v>
+      </c>
+      <c r="W362" s="2">
+        <v>45491</v>
+      </c>
+      <c r="X362">
+        <v>24.66</v>
+      </c>
+      <c r="Y362">
+        <v>-2.95</v>
+      </c>
+      <c r="Z362">
+        <v>25.3</v>
+      </c>
+      <c r="AA362">
+        <v>24.55</v>
+      </c>
+      <c r="AB362">
+        <v>24.97</v>
+      </c>
+      <c r="AC362">
+        <v>-0.4329004329004306</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29">
+      <c r="A363" t="s">
+        <v>31</v>
+      </c>
+      <c r="B363" t="s">
+        <v>39</v>
+      </c>
+      <c r="C363">
+        <v>15.78</v>
+      </c>
+      <c r="D363">
+        <v>0.51</v>
+      </c>
+      <c r="E363">
+        <v>0.08</v>
+      </c>
+      <c r="F363">
+        <v>2209946</v>
+      </c>
+      <c r="G363">
+        <v>3492160990.31</v>
+      </c>
+      <c r="H363">
+        <v>3.82</v>
+      </c>
+      <c r="I363">
+        <v>16.06</v>
+      </c>
+      <c r="J363">
+        <v>15.46</v>
+      </c>
+      <c r="K363">
+        <v>15.61</v>
+      </c>
+      <c r="L363">
+        <v>15.7</v>
+      </c>
+      <c r="M363">
+        <v>0.7</v>
+      </c>
+      <c r="N363">
+        <v>2.69</v>
+      </c>
+      <c r="O363">
+        <v>33.78</v>
+      </c>
+      <c r="P363">
+        <v>2.24</v>
+      </c>
+      <c r="Q363">
+        <v>156494820941</v>
+      </c>
+      <c r="R363">
+        <v>129616993850</v>
+      </c>
+      <c r="S363">
+        <v>-0.06</v>
+      </c>
+      <c r="T363">
+        <v>0</v>
+      </c>
+      <c r="U363">
+        <v>-5.45</v>
+      </c>
+      <c r="V363">
+        <v>-4.31</v>
+      </c>
+      <c r="W363" s="2">
+        <v>45491</v>
+      </c>
+      <c r="X363">
+        <v>15.39</v>
+      </c>
+      <c r="Y363">
+        <v>-2.47</v>
+      </c>
+      <c r="Z363">
+        <v>16.12</v>
+      </c>
+      <c r="AA363">
+        <v>15.3</v>
+      </c>
+      <c r="AB363">
+        <v>15.8</v>
+      </c>
+      <c r="AC363">
+        <v>2.154626108998743</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29">
+      <c r="A364" t="s">
+        <v>32</v>
+      </c>
+      <c r="B364" t="s">
+        <v>88</v>
+      </c>
+      <c r="C364">
+        <v>31.36</v>
+      </c>
+      <c r="D364">
+        <v>1.82</v>
+      </c>
+      <c r="E364">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F364">
+        <v>999956</v>
+      </c>
+      <c r="G364">
+        <v>3111871551</v>
+      </c>
+      <c r="H364">
+        <v>2.34</v>
+      </c>
+      <c r="I364">
+        <v>31.44</v>
+      </c>
+      <c r="J364">
+        <v>30.72</v>
+      </c>
+      <c r="K364">
+        <v>30.75</v>
+      </c>
+      <c r="L364">
+        <v>30.8</v>
+      </c>
+      <c r="M364">
+        <v>1.37</v>
+      </c>
+      <c r="N364">
+        <v>0.42</v>
+      </c>
+      <c r="O364">
+        <v>48.36</v>
+      </c>
+      <c r="P364">
+        <v>4.14</v>
+      </c>
+      <c r="Q364">
+        <v>767323307574</v>
+      </c>
+      <c r="R364">
+        <v>752867563934</v>
+      </c>
+      <c r="S364">
+        <v>0.03</v>
+      </c>
+      <c r="T364">
+        <v>-0.1</v>
+      </c>
+      <c r="U364">
+        <v>20.62</v>
+      </c>
+      <c r="V364">
+        <v>34.36</v>
+      </c>
+      <c r="W364" s="2">
+        <v>45491</v>
+      </c>
+      <c r="X364">
+        <v>30.58</v>
+      </c>
+      <c r="Y364">
+        <v>0.13</v>
+      </c>
+      <c r="Z364">
+        <v>30.72</v>
+      </c>
+      <c r="AA364">
+        <v>30.28</v>
+      </c>
+      <c r="AB364">
+        <v>30.5</v>
+      </c>
+      <c r="AC364">
+        <v>-2.040816326530614</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29">
+      <c r="A365" t="s">
+        <v>33</v>
+      </c>
+      <c r="B365" t="s">
+        <v>95</v>
+      </c>
+      <c r="C365">
+        <v>22.83</v>
+      </c>
+      <c r="D365">
+        <v>-1.08</v>
+      </c>
+      <c r="E365">
+        <v>-0.25</v>
+      </c>
+      <c r="F365">
+        <v>1380749</v>
+      </c>
+      <c r="G365">
+        <v>3106878161.74</v>
+      </c>
+      <c r="H365">
+        <v>5.29</v>
+      </c>
+      <c r="I365">
+        <v>23.17</v>
+      </c>
+      <c r="J365">
+        <v>21.95</v>
+      </c>
+      <c r="K365">
+        <v>22.62</v>
+      </c>
+      <c r="L365">
+        <v>23.08</v>
+      </c>
+      <c r="M365">
+        <v>1.07</v>
+      </c>
+      <c r="N365">
+        <v>4.59</v>
+      </c>
+      <c r="O365">
+        <v>51.39</v>
+      </c>
+      <c r="P365">
+        <v>2.57</v>
+      </c>
+      <c r="Q365">
+        <v>78013182667</v>
+      </c>
+      <c r="R365">
+        <v>68717700986</v>
+      </c>
+      <c r="S365">
+        <v>-0.04</v>
+      </c>
+      <c r="T365">
+        <v>0.09</v>
+      </c>
+      <c r="U365">
+        <v>55.1</v>
+      </c>
+      <c r="V365">
+        <v>9.18</v>
+      </c>
+      <c r="W365" s="2">
+        <v>45491</v>
+      </c>
+      <c r="X365">
+        <v>23.05</v>
+      </c>
+      <c r="Y365">
+        <v>0.96</v>
+      </c>
+      <c r="Z365">
+        <v>23.99</v>
+      </c>
+      <c r="AA365">
+        <v>22.49</v>
+      </c>
+      <c r="AB365">
+        <v>22.62</v>
+      </c>
+      <c r="AC365">
+        <v>5.081033727551469</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29">
+      <c r="A366" t="s">
+        <v>34</v>
+      </c>
+      <c r="B366" t="s">
+        <v>80</v>
+      </c>
+      <c r="C366">
+        <v>10.23</v>
+      </c>
+      <c r="D366">
+        <v>-1.92</v>
+      </c>
+      <c r="E366">
+        <v>-0.2</v>
+      </c>
+      <c r="F366">
+        <v>3033123</v>
+      </c>
+      <c r="G366">
+        <v>3096978975</v>
+      </c>
+      <c r="H366">
+        <v>3.36</v>
+      </c>
+      <c r="I366">
+        <v>10.36</v>
+      </c>
+      <c r="J366">
+        <v>10.01</v>
+      </c>
+      <c r="K366">
+        <v>10.3</v>
+      </c>
+      <c r="L366">
+        <v>10.43</v>
+      </c>
+      <c r="M366">
+        <v>0.64</v>
+      </c>
+      <c r="N366">
+        <v>6.26</v>
+      </c>
+      <c r="O366">
+        <v>-14.03</v>
+      </c>
+      <c r="P366">
+        <v>10.82</v>
+      </c>
+      <c r="Q366">
+        <v>57016937419</v>
+      </c>
+      <c r="R366">
+        <v>49594202429</v>
+      </c>
+      <c r="S366">
+        <v>0.1</v>
+      </c>
+      <c r="T366">
+        <v>0</v>
+      </c>
+      <c r="U366">
+        <v>45.11</v>
+      </c>
+      <c r="V366">
+        <v>66.88</v>
+      </c>
+      <c r="W366" s="2">
+        <v>45491</v>
+      </c>
+      <c r="X366">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="Y366">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="Z366">
+        <v>10.46</v>
+      </c>
+      <c r="AA366">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="AB366">
+        <v>10.24</v>
+      </c>
+      <c r="AC366">
+        <v>2.248289345063542</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29">
+      <c r="A367" t="s">
+        <v>35</v>
+      </c>
+      <c r="B367" t="s">
+        <v>84</v>
+      </c>
+      <c r="C367">
+        <v>25.71</v>
+      </c>
+      <c r="D367">
+        <v>-2.61</v>
+      </c>
+      <c r="E367">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F367">
+        <v>1176563</v>
+      </c>
+      <c r="G367">
+        <v>2988381957.96</v>
+      </c>
+      <c r="H367">
+        <v>7.95</v>
+      </c>
+      <c r="I367">
+        <v>26.79</v>
+      </c>
+      <c r="J367">
+        <v>24.69</v>
+      </c>
+      <c r="K367">
+        <v>25.5</v>
+      </c>
+      <c r="L367">
+        <v>26.4</v>
+      </c>
+      <c r="M367">
+        <v>0.99</v>
+      </c>
+      <c r="N367">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="O367">
+        <v>37.98</v>
+      </c>
+      <c r="P367">
+        <v>2.45</v>
+      </c>
+      <c r="Q367">
+        <v>43960688977</v>
+      </c>
+      <c r="R367">
+        <v>35743978991</v>
+      </c>
+      <c r="S367">
+        <v>0.04</v>
+      </c>
+      <c r="T367">
+        <v>-0.12</v>
+      </c>
+      <c r="U367">
+        <v>84.3</v>
+      </c>
+      <c r="V367">
+        <v>43.39</v>
+      </c>
+      <c r="W367" s="2">
+        <v>45491</v>
+      </c>
+      <c r="X367">
+        <v>24.74</v>
+      </c>
+      <c r="Y367">
+        <v>-3.77</v>
+      </c>
+      <c r="Z367">
+        <v>25.62</v>
+      </c>
+      <c r="AA367">
+        <v>24.64</v>
+      </c>
+      <c r="AB367">
+        <v>24.81</v>
+      </c>
+      <c r="AC367">
+        <v>-0.3500583430571756</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29">
+      <c r="A368" t="s">
+        <v>36</v>
+      </c>
+      <c r="B368" t="s">
+        <v>69</v>
+      </c>
+      <c r="C368">
+        <v>24.38</v>
+      </c>
+      <c r="D368">
+        <v>-1.1</v>
+      </c>
+      <c r="E368">
+        <v>-0.27</v>
+      </c>
+      <c r="F368">
+        <v>1232065</v>
+      </c>
+      <c r="G368">
+        <v>2977087885.12</v>
+      </c>
+      <c r="H368">
+        <v>5.11</v>
+      </c>
+      <c r="I368">
+        <v>24.93</v>
+      </c>
+      <c r="J368">
+        <v>23.67</v>
+      </c>
+      <c r="K368">
+        <v>24.6</v>
+      </c>
+      <c r="L368">
+        <v>24.65</v>
+      </c>
+      <c r="M368">
+        <v>1.49</v>
+      </c>
+      <c r="N368">
+        <v>4.31</v>
+      </c>
+      <c r="O368">
+        <v>42.14</v>
+      </c>
+      <c r="P368">
+        <v>2.05</v>
+      </c>
+      <c r="Q368">
+        <v>69728747328</v>
+      </c>
+      <c r="R368">
+        <v>69728747328</v>
+      </c>
+      <c r="S368">
+        <v>0</v>
+      </c>
+      <c r="T368">
+        <v>-0.04</v>
+      </c>
+      <c r="U368">
+        <v>24.83</v>
+      </c>
+      <c r="V368">
+        <v>26.91</v>
+      </c>
+      <c r="W368" s="2">
+        <v>45491</v>
+      </c>
+      <c r="X368">
+        <v>24.6</v>
+      </c>
+      <c r="Y368">
+        <v>0.9</v>
+      </c>
+      <c r="Z368">
+        <v>25.29</v>
+      </c>
+      <c r="AA368">
+        <v>24.11</v>
+      </c>
+      <c r="AB368">
+        <v>24.25</v>
+      </c>
+      <c r="AC368">
+        <v>3.732567678424939</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29">
+      <c r="A369" t="s">
+        <v>37</v>
+      </c>
+      <c r="B369" t="s">
+        <v>83</v>
+      </c>
+      <c r="C369">
+        <v>35.3</v>
+      </c>
+      <c r="D369">
+        <v>1.82</v>
+      </c>
+      <c r="E369">
+        <v>0.63</v>
+      </c>
+      <c r="F369">
+        <v>807541</v>
+      </c>
+      <c r="G369">
+        <v>2757132683</v>
+      </c>
+      <c r="H369">
+        <v>7.93</v>
+      </c>
+      <c r="I369">
+        <v>35.68</v>
+      </c>
+      <c r="J369">
+        <v>32.93</v>
+      </c>
+      <c r="K369">
+        <v>34</v>
+      </c>
+      <c r="L369">
+        <v>34.67</v>
+      </c>
+      <c r="M369">
+        <v>1.48</v>
+      </c>
+      <c r="N369">
+        <v>4.51</v>
+      </c>
+      <c r="O369">
+        <v>116.78</v>
+      </c>
+      <c r="P369">
+        <v>2.42</v>
+      </c>
+      <c r="Q369">
+        <v>63166334321</v>
+      </c>
+      <c r="R369">
+        <v>63166334321</v>
+      </c>
+      <c r="S369">
+        <v>0</v>
+      </c>
+      <c r="T369">
+        <v>0.09</v>
+      </c>
+      <c r="U369">
+        <v>44.44</v>
+      </c>
+      <c r="V369">
+        <v>18.62</v>
+      </c>
+      <c r="W369" s="2">
+        <v>45491</v>
+      </c>
+      <c r="X369">
+        <v>35.11</v>
+      </c>
+      <c r="Y369">
+        <v>-0.54</v>
+      </c>
+      <c r="Z369">
+        <v>35.59</v>
+      </c>
+      <c r="AA369">
+        <v>33.3</v>
+      </c>
+      <c r="AB369">
+        <v>34.3</v>
+      </c>
+      <c r="AC369">
+        <v>0.8215297450425106</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29">
+      <c r="A370" t="s">
+        <v>38</v>
+      </c>
+      <c r="B370" t="s">
+        <v>58</v>
+      </c>
+      <c r="C370">
+        <v>18.45</v>
+      </c>
+      <c r="D370">
+        <v>-0.11</v>
+      </c>
+      <c r="E370">
+        <v>-0.02</v>
+      </c>
+      <c r="F370">
+        <v>1491777</v>
+      </c>
+      <c r="G370">
+        <v>2719754560</v>
+      </c>
+      <c r="H370">
+        <v>2.82</v>
+      </c>
+      <c r="I370">
+        <v>18.49</v>
+      </c>
+      <c r="J370">
+        <v>17.97</v>
+      </c>
+      <c r="K370">
+        <v>18.24</v>
+      </c>
+      <c r="L370">
+        <v>18.47</v>
+      </c>
+      <c r="M370">
+        <v>0.96</v>
+      </c>
+      <c r="N370">
+        <v>0.73</v>
+      </c>
+      <c r="O370">
+        <v>19.58</v>
+      </c>
+      <c r="P370">
+        <v>4.2</v>
+      </c>
+      <c r="Q370">
+        <v>490362050943</v>
+      </c>
+      <c r="R370">
+        <v>379263606514</v>
+      </c>
+      <c r="S370">
+        <v>-0.05</v>
+      </c>
+      <c r="T370">
+        <v>0.05</v>
+      </c>
+      <c r="U370">
+        <v>0.11</v>
+      </c>
+      <c r="V370">
+        <v>50.49</v>
+      </c>
+      <c r="W370" s="2">
+        <v>45491</v>
+      </c>
+      <c r="X370">
+        <v>17.94</v>
+      </c>
+      <c r="Y370">
+        <v>-2.76</v>
+      </c>
+      <c r="Z370">
+        <v>18.05</v>
+      </c>
+      <c r="AA370">
+        <v>17.11</v>
+      </c>
+      <c r="AB370">
+        <v>17.8</v>
+      </c>
+      <c r="AC370">
+        <v>-2.168021680216794</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="110">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
-    <t>002475</t>
-  </si>
-  <si>
-    <t>601138</t>
+    <t>600733</t>
   </si>
   <si>
     <t>000625</t>
   </si>
   <si>
+    <t>601899</t>
+  </si>
+  <si>
+    <t>603019</t>
+  </si>
+  <si>
+    <t>002475</t>
+  </si>
+  <si>
+    <t>600418</t>
+  </si>
+  <si>
     <t>600900</t>
+  </si>
+  <si>
+    <t>000938</t>
   </si>
   <si>
     <t>002241</t>
   </si>
   <si>
-    <t>600733</t>
-  </si>
-  <si>
-    <t>002384</t>
-  </si>
-  <si>
-    <t>000938</t>
-  </si>
-  <si>
-    <t>600584</t>
-  </si>
-  <si>
-    <t>601899</t>
+    <t>600030</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -335,6 +335,15 @@
   </si>
   <si>
     <t>沪电股份</t>
+  </si>
+  <si>
+    <t>XD江淮汽</t>
+  </si>
+  <si>
+    <t>XD长江电</t>
+  </si>
+  <si>
+    <t>中信证券</t>
   </si>
 </sst>
 </file>
@@ -696,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC370"/>
+  <dimension ref="A1:AC380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32743,8 +32752,8 @@
       </c>
     </row>
     <row r="361" spans="1:29">
-      <c r="A361" t="s">
-        <v>29</v>
+      <c r="A361">
+        <v>2475</v>
       </c>
       <c r="B361" t="s">
         <v>55</v>
@@ -32832,8 +32841,8 @@
       </c>
     </row>
     <row r="362" spans="1:29">
-      <c r="A362" t="s">
-        <v>30</v>
+      <c r="A362">
+        <v>601138</v>
       </c>
       <c r="B362" t="s">
         <v>42</v>
@@ -32921,8 +32930,8 @@
       </c>
     </row>
     <row r="363" spans="1:29">
-      <c r="A363" t="s">
-        <v>31</v>
+      <c r="A363">
+        <v>625</v>
       </c>
       <c r="B363" t="s">
         <v>39</v>
@@ -33010,8 +33019,8 @@
       </c>
     </row>
     <row r="364" spans="1:29">
-      <c r="A364" t="s">
-        <v>32</v>
+      <c r="A364">
+        <v>600900</v>
       </c>
       <c r="B364" t="s">
         <v>88</v>
@@ -33099,8 +33108,8 @@
       </c>
     </row>
     <row r="365" spans="1:29">
-      <c r="A365" t="s">
-        <v>33</v>
+      <c r="A365">
+        <v>2241</v>
       </c>
       <c r="B365" t="s">
         <v>95</v>
@@ -33188,8 +33197,8 @@
       </c>
     </row>
     <row r="366" spans="1:29">
-      <c r="A366" t="s">
-        <v>34</v>
+      <c r="A366">
+        <v>600733</v>
       </c>
       <c r="B366" t="s">
         <v>80</v>
@@ -33277,8 +33286,8 @@
       </c>
     </row>
     <row r="367" spans="1:29">
-      <c r="A367" t="s">
-        <v>35</v>
+      <c r="A367">
+        <v>2384</v>
       </c>
       <c r="B367" t="s">
         <v>84</v>
@@ -33366,8 +33375,8 @@
       </c>
     </row>
     <row r="368" spans="1:29">
-      <c r="A368" t="s">
-        <v>36</v>
+      <c r="A368">
+        <v>938</v>
       </c>
       <c r="B368" t="s">
         <v>69</v>
@@ -33455,8 +33464,8 @@
       </c>
     </row>
     <row r="369" spans="1:29">
-      <c r="A369" t="s">
-        <v>37</v>
+      <c r="A369">
+        <v>600584</v>
       </c>
       <c r="B369" t="s">
         <v>83</v>
@@ -33544,8 +33553,8 @@
       </c>
     </row>
     <row r="370" spans="1:29">
-      <c r="A370" t="s">
-        <v>38</v>
+      <c r="A370">
+        <v>601899</v>
       </c>
       <c r="B370" t="s">
         <v>58</v>
@@ -33630,6 +33639,896 @@
       </c>
       <c r="AC370">
         <v>-2.168021680216794</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29">
+      <c r="A371" t="s">
+        <v>29</v>
+      </c>
+      <c r="B371" t="s">
+        <v>80</v>
+      </c>
+      <c r="C371">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="D371">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="E371">
+        <v>-1.02</v>
+      </c>
+      <c r="F371">
+        <v>5431636</v>
+      </c>
+      <c r="G371">
+        <v>5327800276</v>
+      </c>
+      <c r="H371">
+        <v>12.22</v>
+      </c>
+      <c r="I371">
+        <v>10.46</v>
+      </c>
+      <c r="J371">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="K371">
+        <v>10.24</v>
+      </c>
+      <c r="L371">
+        <v>10.23</v>
+      </c>
+      <c r="M371">
+        <v>1.23</v>
+      </c>
+      <c r="N371">
+        <v>11.2</v>
+      </c>
+      <c r="O371">
+        <v>-12.63</v>
+      </c>
+      <c r="P371">
+        <v>9.74</v>
+      </c>
+      <c r="Q371">
+        <v>51331964186</v>
+      </c>
+      <c r="R371">
+        <v>44649325940</v>
+      </c>
+      <c r="S371">
+        <v>0</v>
+      </c>
+      <c r="T371">
+        <v>-0.65</v>
+      </c>
+      <c r="U371">
+        <v>31.38</v>
+      </c>
+      <c r="V371">
+        <v>50.24</v>
+      </c>
+      <c r="W371" s="2">
+        <v>45492</v>
+      </c>
+      <c r="X371">
+        <v>9.32</v>
+      </c>
+      <c r="Y371">
+        <v>1.19</v>
+      </c>
+      <c r="Z371">
+        <v>9.59</v>
+      </c>
+      <c r="AA371">
+        <v>8.94</v>
+      </c>
+      <c r="AB371">
+        <v>8.98</v>
+      </c>
+      <c r="AC371">
+        <v>4.125950054288805</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29">
+      <c r="A372" t="s">
+        <v>30</v>
+      </c>
+      <c r="B372" t="s">
+        <v>39</v>
+      </c>
+      <c r="C372">
+        <v>15.39</v>
+      </c>
+      <c r="D372">
+        <v>-2.47</v>
+      </c>
+      <c r="E372">
+        <v>-0.39</v>
+      </c>
+      <c r="F372">
+        <v>3010208</v>
+      </c>
+      <c r="G372">
+        <v>4736917416.71</v>
+      </c>
+      <c r="H372">
+        <v>5.2</v>
+      </c>
+      <c r="I372">
+        <v>16.12</v>
+      </c>
+      <c r="J372">
+        <v>15.3</v>
+      </c>
+      <c r="K372">
+        <v>15.8</v>
+      </c>
+      <c r="L372">
+        <v>15.78</v>
+      </c>
+      <c r="M372">
+        <v>1.1</v>
+      </c>
+      <c r="N372">
+        <v>3.66</v>
+      </c>
+      <c r="O372">
+        <v>32.95</v>
+      </c>
+      <c r="P372">
+        <v>2.19</v>
+      </c>
+      <c r="Q372">
+        <v>152627078218</v>
+      </c>
+      <c r="R372">
+        <v>126413532025</v>
+      </c>
+      <c r="S372">
+        <v>0</v>
+      </c>
+      <c r="T372">
+        <v>0.52</v>
+      </c>
+      <c r="U372">
+        <v>-5.81</v>
+      </c>
+      <c r="V372">
+        <v>-6.67</v>
+      </c>
+      <c r="W372" s="2">
+        <v>45492</v>
+      </c>
+      <c r="X372">
+        <v>15.72</v>
+      </c>
+      <c r="Y372">
+        <v>2.14</v>
+      </c>
+      <c r="Z372">
+        <v>15.96</v>
+      </c>
+      <c r="AA372">
+        <v>15.49</v>
+      </c>
+      <c r="AB372">
+        <v>15.49</v>
+      </c>
+      <c r="AC372">
+        <v>3.703703703703705</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29">
+      <c r="A373" t="s">
+        <v>31</v>
+      </c>
+      <c r="B373" t="s">
+        <v>58</v>
+      </c>
+      <c r="C373">
+        <v>17.94</v>
+      </c>
+      <c r="D373">
+        <v>-2.76</v>
+      </c>
+      <c r="E373">
+        <v>-0.51</v>
+      </c>
+      <c r="F373">
+        <v>2386172</v>
+      </c>
+      <c r="G373">
+        <v>4220560796</v>
+      </c>
+      <c r="H373">
+        <v>5.09</v>
+      </c>
+      <c r="I373">
+        <v>18.05</v>
+      </c>
+      <c r="J373">
+        <v>17.11</v>
+      </c>
+      <c r="K373">
+        <v>17.8</v>
+      </c>
+      <c r="L373">
+        <v>18.45</v>
+      </c>
+      <c r="M373">
+        <v>1.56</v>
+      </c>
+      <c r="N373">
+        <v>1.16</v>
+      </c>
+      <c r="O373">
+        <v>19.04</v>
+      </c>
+      <c r="P373">
+        <v>4.09</v>
+      </c>
+      <c r="Q373">
+        <v>476807327584</v>
+      </c>
+      <c r="R373">
+        <v>368779897066</v>
+      </c>
+      <c r="S373">
+        <v>-0.39</v>
+      </c>
+      <c r="T373">
+        <v>-0.33</v>
+      </c>
+      <c r="U373">
+        <v>1.93</v>
+      </c>
+      <c r="V373">
+        <v>46.33</v>
+      </c>
+      <c r="W373" s="2">
+        <v>45492</v>
+      </c>
+      <c r="X373">
+        <v>17.6</v>
+      </c>
+      <c r="Y373">
+        <v>-1.9</v>
+      </c>
+      <c r="Z373">
+        <v>17.84</v>
+      </c>
+      <c r="AA373">
+        <v>17.21</v>
+      </c>
+      <c r="AB373">
+        <v>17.75</v>
+      </c>
+      <c r="AC373">
+        <v>-0.5574136008918696</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29">
+      <c r="A374" t="s">
+        <v>32</v>
+      </c>
+      <c r="B374" t="s">
+        <v>47</v>
+      </c>
+      <c r="C374">
+        <v>43.52</v>
+      </c>
+      <c r="D374">
+        <v>5.55</v>
+      </c>
+      <c r="E374">
+        <v>2.29</v>
+      </c>
+      <c r="F374">
+        <v>884492</v>
+      </c>
+      <c r="G374">
+        <v>3823588925</v>
+      </c>
+      <c r="H374">
+        <v>7.69</v>
+      </c>
+      <c r="I374">
+        <v>44.18</v>
+      </c>
+      <c r="J374">
+        <v>41.01</v>
+      </c>
+      <c r="K374">
+        <v>41.01</v>
+      </c>
+      <c r="L374">
+        <v>41.23</v>
+      </c>
+      <c r="M374">
+        <v>2.04</v>
+      </c>
+      <c r="N374">
+        <v>6.06</v>
+      </c>
+      <c r="O374">
+        <v>111.66</v>
+      </c>
+      <c r="P374">
+        <v>3.43</v>
+      </c>
+      <c r="Q374">
+        <v>63681244232</v>
+      </c>
+      <c r="R374">
+        <v>63478780488</v>
+      </c>
+      <c r="S374">
+        <v>0</v>
+      </c>
+      <c r="T374">
+        <v>0</v>
+      </c>
+      <c r="U374">
+        <v>2.79</v>
+      </c>
+      <c r="V374">
+        <v>10.68</v>
+      </c>
+      <c r="W374" s="2">
+        <v>45492</v>
+      </c>
+      <c r="X374">
+        <v>44.43</v>
+      </c>
+      <c r="Y374">
+        <v>2.09</v>
+      </c>
+      <c r="Z374">
+        <v>45.51</v>
+      </c>
+      <c r="AA374">
+        <v>43.56</v>
+      </c>
+      <c r="AB374">
+        <v>44.16</v>
+      </c>
+      <c r="AC374">
+        <v>4.572610294117635</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29">
+      <c r="A375" t="s">
+        <v>33</v>
+      </c>
+      <c r="B375" t="s">
+        <v>55</v>
+      </c>
+      <c r="C375">
+        <v>40.15</v>
+      </c>
+      <c r="D375">
+        <v>-1.95</v>
+      </c>
+      <c r="E375">
+        <v>-0.8</v>
+      </c>
+      <c r="F375">
+        <v>918003</v>
+      </c>
+      <c r="G375">
+        <v>3684921261.35</v>
+      </c>
+      <c r="H375">
+        <v>3.1</v>
+      </c>
+      <c r="I375">
+        <v>40.96</v>
+      </c>
+      <c r="J375">
+        <v>39.69</v>
+      </c>
+      <c r="K375">
+        <v>39.72</v>
+      </c>
+      <c r="L375">
+        <v>40.95</v>
+      </c>
+      <c r="M375">
+        <v>1.2</v>
+      </c>
+      <c r="N375">
+        <v>1.28</v>
+      </c>
+      <c r="O375">
+        <v>29.26</v>
+      </c>
+      <c r="P375">
+        <v>5.14</v>
+      </c>
+      <c r="Q375">
+        <v>289213123107</v>
+      </c>
+      <c r="R375">
+        <v>288588010492</v>
+      </c>
+      <c r="S375">
+        <v>0.1</v>
+      </c>
+      <c r="T375">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="U375">
+        <v>48.98</v>
+      </c>
+      <c r="V375">
+        <v>17.57</v>
+      </c>
+      <c r="W375" s="2">
+        <v>45492</v>
+      </c>
+      <c r="X375">
+        <v>39.72</v>
+      </c>
+      <c r="Y375">
+        <v>-1.07</v>
+      </c>
+      <c r="Z375">
+        <v>40.06</v>
+      </c>
+      <c r="AA375">
+        <v>38.63</v>
+      </c>
+      <c r="AB375">
+        <v>40.06</v>
+      </c>
+      <c r="AC375">
+        <v>-0.2241594022415848</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29">
+      <c r="A376" t="s">
+        <v>34</v>
+      </c>
+      <c r="B376" t="s">
+        <v>107</v>
+      </c>
+      <c r="C376">
+        <v>19.59</v>
+      </c>
+      <c r="D376">
+        <v>-7.07</v>
+      </c>
+      <c r="E376">
+        <v>-1.49</v>
+      </c>
+      <c r="F376">
+        <v>1785678</v>
+      </c>
+      <c r="G376">
+        <v>3631230677</v>
+      </c>
+      <c r="H376">
+        <v>8.44</v>
+      </c>
+      <c r="I376">
+        <v>21.28</v>
+      </c>
+      <c r="J376">
+        <v>19.5</v>
+      </c>
+      <c r="K376">
+        <v>20.94</v>
+      </c>
+      <c r="L376">
+        <v>21.08</v>
+      </c>
+      <c r="M376">
+        <v>1.22</v>
+      </c>
+      <c r="N376">
+        <v>8.18</v>
+      </c>
+      <c r="O376">
+        <v>101.39</v>
+      </c>
+      <c r="P376">
+        <v>3.21</v>
+      </c>
+      <c r="Q376">
+        <v>42784751806</v>
+      </c>
+      <c r="R376">
+        <v>42784751806</v>
+      </c>
+      <c r="S376">
+        <v>0.26</v>
+      </c>
+      <c r="T376">
+        <v>-0.51</v>
+      </c>
+      <c r="U376">
+        <v>26.63</v>
+      </c>
+      <c r="V376">
+        <v>21.45</v>
+      </c>
+      <c r="W376" s="2">
+        <v>45492</v>
+      </c>
+      <c r="X376">
+        <v>21.2</v>
+      </c>
+      <c r="Y376">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="Z376">
+        <v>21.5</v>
+      </c>
+      <c r="AA376">
+        <v>20.01</v>
+      </c>
+      <c r="AB376">
+        <v>20.15</v>
+      </c>
+      <c r="AC376">
+        <v>9.749872383869322</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" t="s">
+        <v>35</v>
+      </c>
+      <c r="B377" t="s">
+        <v>108</v>
+      </c>
+      <c r="C377">
+        <v>30.58</v>
+      </c>
+      <c r="D377">
+        <v>0.13</v>
+      </c>
+      <c r="E377">
+        <v>0.04</v>
+      </c>
+      <c r="F377">
+        <v>1124175</v>
+      </c>
+      <c r="G377">
+        <v>3424215894</v>
+      </c>
+      <c r="H377">
+        <v>1.44</v>
+      </c>
+      <c r="I377">
+        <v>30.72</v>
+      </c>
+      <c r="J377">
+        <v>30.28</v>
+      </c>
+      <c r="K377">
+        <v>30.5</v>
+      </c>
+      <c r="L377">
+        <v>30.54</v>
+      </c>
+      <c r="M377">
+        <v>1.44</v>
+      </c>
+      <c r="N377">
+        <v>0.47</v>
+      </c>
+      <c r="O377">
+        <v>47.16</v>
+      </c>
+      <c r="P377">
+        <v>4.03</v>
+      </c>
+      <c r="Q377">
+        <v>748238097755</v>
+      </c>
+      <c r="R377">
+        <v>734141903862</v>
+      </c>
+      <c r="S377">
+        <v>-0.2</v>
+      </c>
+      <c r="T377">
+        <v>-0.16</v>
+      </c>
+      <c r="U377">
+        <v>22.12</v>
+      </c>
+      <c r="V377">
+        <v>35.79</v>
+      </c>
+      <c r="W377" s="2">
+        <v>45492</v>
+      </c>
+      <c r="X377">
+        <v>30.38</v>
+      </c>
+      <c r="Y377">
+        <v>-0.65</v>
+      </c>
+      <c r="Z377">
+        <v>30.6</v>
+      </c>
+      <c r="AA377">
+        <v>29.7</v>
+      </c>
+      <c r="AB377">
+        <v>30.58</v>
+      </c>
+      <c r="AC377">
+        <v>0.0654022236756152</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" t="s">
+        <v>36</v>
+      </c>
+      <c r="B378" t="s">
+        <v>69</v>
+      </c>
+      <c r="C378">
+        <v>24.6</v>
+      </c>
+      <c r="D378">
+        <v>0.9</v>
+      </c>
+      <c r="E378">
+        <v>0.22</v>
+      </c>
+      <c r="F378">
+        <v>1381169</v>
+      </c>
+      <c r="G378">
+        <v>3417919428.63</v>
+      </c>
+      <c r="H378">
+        <v>4.84</v>
+      </c>
+      <c r="I378">
+        <v>25.29</v>
+      </c>
+      <c r="J378">
+        <v>24.11</v>
+      </c>
+      <c r="K378">
+        <v>24.25</v>
+      </c>
+      <c r="L378">
+        <v>24.38</v>
+      </c>
+      <c r="M378">
+        <v>1.41</v>
+      </c>
+      <c r="N378">
+        <v>4.83</v>
+      </c>
+      <c r="O378">
+        <v>42.52</v>
+      </c>
+      <c r="P378">
+        <v>2.07</v>
+      </c>
+      <c r="Q378">
+        <v>70357964900</v>
+      </c>
+      <c r="R378">
+        <v>70357964900</v>
+      </c>
+      <c r="S378">
+        <v>-0.2</v>
+      </c>
+      <c r="T378">
+        <v>-0.2</v>
+      </c>
+      <c r="U378">
+        <v>28.53</v>
+      </c>
+      <c r="V378">
+        <v>28.06</v>
+      </c>
+      <c r="W378" s="2">
+        <v>45492</v>
+      </c>
+      <c r="X378">
+        <v>24.37</v>
+      </c>
+      <c r="Y378">
+        <v>-0.93</v>
+      </c>
+      <c r="Z378">
+        <v>24.93</v>
+      </c>
+      <c r="AA378">
+        <v>24.32</v>
+      </c>
+      <c r="AB378">
+        <v>24.5</v>
+      </c>
+      <c r="AC378">
+        <v>1.341463414634139</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" t="s">
+        <v>37</v>
+      </c>
+      <c r="B379" t="s">
+        <v>95</v>
+      </c>
+      <c r="C379">
+        <v>23.05</v>
+      </c>
+      <c r="D379">
+        <v>0.96</v>
+      </c>
+      <c r="E379">
+        <v>0.22</v>
+      </c>
+      <c r="F379">
+        <v>1340011</v>
+      </c>
+      <c r="G379">
+        <v>3115580749.7</v>
+      </c>
+      <c r="H379">
+        <v>6.57</v>
+      </c>
+      <c r="I379">
+        <v>23.99</v>
+      </c>
+      <c r="J379">
+        <v>22.49</v>
+      </c>
+      <c r="K379">
+        <v>22.62</v>
+      </c>
+      <c r="L379">
+        <v>22.83</v>
+      </c>
+      <c r="M379">
+        <v>1.03</v>
+      </c>
+      <c r="N379">
+        <v>4.45</v>
+      </c>
+      <c r="O379">
+        <v>51.88</v>
+      </c>
+      <c r="P379">
+        <v>2.59</v>
+      </c>
+      <c r="Q379">
+        <v>78764952276</v>
+      </c>
+      <c r="R379">
+        <v>69379895214</v>
+      </c>
+      <c r="S379">
+        <v>0.04</v>
+      </c>
+      <c r="T379">
+        <v>-0.3</v>
+      </c>
+      <c r="U379">
+        <v>55.74</v>
+      </c>
+      <c r="V379">
+        <v>10.23</v>
+      </c>
+      <c r="W379" s="2">
+        <v>45492</v>
+      </c>
+      <c r="X379">
+        <v>22.76</v>
+      </c>
+      <c r="Y379">
+        <v>-1.26</v>
+      </c>
+      <c r="Z379">
+        <v>22.99</v>
+      </c>
+      <c r="AA379">
+        <v>22.14</v>
+      </c>
+      <c r="AB379">
+        <v>22.9</v>
+      </c>
+      <c r="AC379">
+        <v>-0.2603036876355847</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29">
+      <c r="A380" t="s">
+        <v>38</v>
+      </c>
+      <c r="B380" t="s">
+        <v>109</v>
+      </c>
+      <c r="C380">
+        <v>19.39</v>
+      </c>
+      <c r="D380">
+        <v>2.21</v>
+      </c>
+      <c r="E380">
+        <v>0.42</v>
+      </c>
+      <c r="F380">
+        <v>1591096</v>
+      </c>
+      <c r="G380">
+        <v>3066945339</v>
+      </c>
+      <c r="H380">
+        <v>2.74</v>
+      </c>
+      <c r="I380">
+        <v>19.44</v>
+      </c>
+      <c r="J380">
+        <v>18.92</v>
+      </c>
+      <c r="K380">
+        <v>18.96</v>
+      </c>
+      <c r="L380">
+        <v>18.97</v>
+      </c>
+      <c r="M380">
+        <v>2.29</v>
+      </c>
+      <c r="N380">
+        <v>1.4</v>
+      </c>
+      <c r="O380">
+        <v>14.49</v>
+      </c>
+      <c r="P380">
+        <v>1.12</v>
+      </c>
+      <c r="Q380">
+        <v>287370403014</v>
+      </c>
+      <c r="R380">
+        <v>220399990060</v>
+      </c>
+      <c r="S380">
+        <v>-0.05</v>
+      </c>
+      <c r="T380">
+        <v>-0.1</v>
+      </c>
+      <c r="U380">
+        <v>6.07</v>
+      </c>
+      <c r="V380">
+        <v>-4.81</v>
+      </c>
+      <c r="W380" s="2">
+        <v>45492</v>
+      </c>
+      <c r="X380">
+        <v>20.19</v>
+      </c>
+      <c r="Y380">
+        <v>4.13</v>
+      </c>
+      <c r="Z380">
+        <v>20.24</v>
+      </c>
+      <c r="AA380">
+        <v>19.57</v>
+      </c>
+      <c r="AB380">
+        <v>19.99</v>
+      </c>
+      <c r="AC380">
+        <v>4.383702939659607</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="110">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
+    <t>600030</t>
+  </si>
+  <si>
     <t>600733</t>
+  </si>
+  <si>
+    <t>600171</t>
+  </si>
+  <si>
+    <t>600418</t>
+  </si>
+  <si>
+    <t>603019</t>
   </si>
   <si>
     <t>000625</t>
   </si>
   <si>
-    <t>601899</t>
+    <t>000977</t>
   </si>
   <si>
-    <t>603019</t>
+    <t>601899</t>
   </si>
   <si>
     <t>002475</t>
   </si>
   <si>
-    <t>600418</t>
-  </si>
-  <si>
     <t>600900</t>
-  </si>
-  <si>
-    <t>000938</t>
-  </si>
-  <si>
-    <t>002241</t>
-  </si>
-  <si>
-    <t>600030</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -705,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC380"/>
+  <dimension ref="A1:AC390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33642,8 +33642,8 @@
       </c>
     </row>
     <row r="371" spans="1:29">
-      <c r="A371" t="s">
-        <v>29</v>
+      <c r="A371">
+        <v>600733</v>
       </c>
       <c r="B371" t="s">
         <v>80</v>
@@ -33731,8 +33731,8 @@
       </c>
     </row>
     <row r="372" spans="1:29">
-      <c r="A372" t="s">
-        <v>30</v>
+      <c r="A372">
+        <v>625</v>
       </c>
       <c r="B372" t="s">
         <v>39</v>
@@ -33820,8 +33820,8 @@
       </c>
     </row>
     <row r="373" spans="1:29">
-      <c r="A373" t="s">
-        <v>31</v>
+      <c r="A373">
+        <v>601899</v>
       </c>
       <c r="B373" t="s">
         <v>58</v>
@@ -33909,8 +33909,8 @@
       </c>
     </row>
     <row r="374" spans="1:29">
-      <c r="A374" t="s">
-        <v>32</v>
+      <c r="A374">
+        <v>603019</v>
       </c>
       <c r="B374" t="s">
         <v>47</v>
@@ -33998,8 +33998,8 @@
       </c>
     </row>
     <row r="375" spans="1:29">
-      <c r="A375" t="s">
-        <v>33</v>
+      <c r="A375">
+        <v>2475</v>
       </c>
       <c r="B375" t="s">
         <v>55</v>
@@ -34087,8 +34087,8 @@
       </c>
     </row>
     <row r="376" spans="1:29">
-      <c r="A376" t="s">
-        <v>34</v>
+      <c r="A376">
+        <v>600418</v>
       </c>
       <c r="B376" t="s">
         <v>107</v>
@@ -34176,8 +34176,8 @@
       </c>
     </row>
     <row r="377" spans="1:29">
-      <c r="A377" t="s">
-        <v>35</v>
+      <c r="A377">
+        <v>600900</v>
       </c>
       <c r="B377" t="s">
         <v>108</v>
@@ -34265,8 +34265,8 @@
       </c>
     </row>
     <row r="378" spans="1:29">
-      <c r="A378" t="s">
-        <v>36</v>
+      <c r="A378">
+        <v>938</v>
       </c>
       <c r="B378" t="s">
         <v>69</v>
@@ -34354,8 +34354,8 @@
       </c>
     </row>
     <row r="379" spans="1:29">
-      <c r="A379" t="s">
-        <v>37</v>
+      <c r="A379">
+        <v>2241</v>
       </c>
       <c r="B379" t="s">
         <v>95</v>
@@ -34443,8 +34443,8 @@
       </c>
     </row>
     <row r="380" spans="1:29">
-      <c r="A380" t="s">
-        <v>38</v>
+      <c r="A380">
+        <v>600030</v>
       </c>
       <c r="B380" t="s">
         <v>109</v>
@@ -34529,6 +34529,896 @@
       </c>
       <c r="AC380">
         <v>4.383702939659607</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29">
+      <c r="A381" t="s">
+        <v>29</v>
+      </c>
+      <c r="B381" t="s">
+        <v>109</v>
+      </c>
+      <c r="C381">
+        <v>20.19</v>
+      </c>
+      <c r="D381">
+        <v>4.13</v>
+      </c>
+      <c r="E381">
+        <v>0.8</v>
+      </c>
+      <c r="F381">
+        <v>3704495</v>
+      </c>
+      <c r="G381">
+        <v>7364394033</v>
+      </c>
+      <c r="H381">
+        <v>3.46</v>
+      </c>
+      <c r="I381">
+        <v>20.24</v>
+      </c>
+      <c r="J381">
+        <v>19.57</v>
+      </c>
+      <c r="K381">
+        <v>19.99</v>
+      </c>
+      <c r="L381">
+        <v>19.39</v>
+      </c>
+      <c r="M381">
+        <v>3.94</v>
+      </c>
+      <c r="N381">
+        <v>3.26</v>
+      </c>
+      <c r="O381">
+        <v>15.09</v>
+      </c>
+      <c r="P381">
+        <v>1.16</v>
+      </c>
+      <c r="Q381">
+        <v>299226840478</v>
+      </c>
+      <c r="R381">
+        <v>229493336736</v>
+      </c>
+      <c r="S381">
+        <v>0.05</v>
+      </c>
+      <c r="T381">
+        <v>0.05</v>
+      </c>
+      <c r="U381">
+        <v>10.51</v>
+      </c>
+      <c r="V381">
+        <v>-0.88</v>
+      </c>
+      <c r="W381" s="2">
+        <v>45495</v>
+      </c>
+      <c r="X381">
+        <v>19.2</v>
+      </c>
+      <c r="Y381">
+        <v>-4.9</v>
+      </c>
+      <c r="Z381">
+        <v>19.87</v>
+      </c>
+      <c r="AA381">
+        <v>19.18</v>
+      </c>
+      <c r="AB381">
+        <v>19.85</v>
+      </c>
+      <c r="AC381">
+        <v>-1.584943041109461</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29">
+      <c r="A382" t="s">
+        <v>30</v>
+      </c>
+      <c r="B382" t="s">
+        <v>80</v>
+      </c>
+      <c r="C382">
+        <v>9.32</v>
+      </c>
+      <c r="D382">
+        <v>1.19</v>
+      </c>
+      <c r="E382">
+        <v>0.11</v>
+      </c>
+      <c r="F382">
+        <v>5575980</v>
+      </c>
+      <c r="G382">
+        <v>5215105289</v>
+      </c>
+      <c r="H382">
+        <v>7.06</v>
+      </c>
+      <c r="I382">
+        <v>9.59</v>
+      </c>
+      <c r="J382">
+        <v>8.94</v>
+      </c>
+      <c r="K382">
+        <v>8.98</v>
+      </c>
+      <c r="L382">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="M382">
+        <v>1.32</v>
+      </c>
+      <c r="N382">
+        <v>11.5</v>
+      </c>
+      <c r="O382">
+        <v>-12.78</v>
+      </c>
+      <c r="P382">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="Q382">
+        <v>51945049535</v>
+      </c>
+      <c r="R382">
+        <v>45182596934</v>
+      </c>
+      <c r="S382">
+        <v>0</v>
+      </c>
+      <c r="T382">
+        <v>0.22</v>
+      </c>
+      <c r="U382">
+        <v>34.68</v>
+      </c>
+      <c r="V382">
+        <v>52.04</v>
+      </c>
+      <c r="W382" s="2">
+        <v>45495</v>
+      </c>
+      <c r="X382">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="Y382">
+        <v>-4.94</v>
+      </c>
+      <c r="Z382">
+        <v>9.35</v>
+      </c>
+      <c r="AA382">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AB382">
+        <v>9.24</v>
+      </c>
+      <c r="AC382">
+        <v>0.3218884120171605</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29">
+      <c r="A383" t="s">
+        <v>31</v>
+      </c>
+      <c r="B383" t="s">
+        <v>82</v>
+      </c>
+      <c r="C383">
+        <v>24.56</v>
+      </c>
+      <c r="D383">
+        <v>8.91</v>
+      </c>
+      <c r="E383">
+        <v>2.01</v>
+      </c>
+      <c r="F383">
+        <v>1971208</v>
+      </c>
+      <c r="G383">
+        <v>4814301103</v>
+      </c>
+      <c r="H383">
+        <v>4.04</v>
+      </c>
+      <c r="I383">
+        <v>24.81</v>
+      </c>
+      <c r="J383">
+        <v>23.9</v>
+      </c>
+      <c r="K383">
+        <v>24</v>
+      </c>
+      <c r="L383">
+        <v>22.55</v>
+      </c>
+      <c r="M383">
+        <v>2.27</v>
+      </c>
+      <c r="N383">
+        <v>27.81</v>
+      </c>
+      <c r="O383">
+        <v>117.96</v>
+      </c>
+      <c r="P383">
+        <v>4.32</v>
+      </c>
+      <c r="Q383">
+        <v>17411156322</v>
+      </c>
+      <c r="R383">
+        <v>17411156322</v>
+      </c>
+      <c r="S383">
+        <v>-0.04</v>
+      </c>
+      <c r="T383">
+        <v>0.16</v>
+      </c>
+      <c r="U383">
+        <v>116.96</v>
+      </c>
+      <c r="V383">
+        <v>73.94</v>
+      </c>
+      <c r="W383" s="2">
+        <v>45495</v>
+      </c>
+      <c r="X383">
+        <v>23.85</v>
+      </c>
+      <c r="Y383">
+        <v>-2.89</v>
+      </c>
+      <c r="Z383">
+        <v>25.25</v>
+      </c>
+      <c r="AA383">
+        <v>23.55</v>
+      </c>
+      <c r="AB383">
+        <v>24.56</v>
+      </c>
+      <c r="AC383">
+        <v>2.809446254071667</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29">
+      <c r="A384" t="s">
+        <v>32</v>
+      </c>
+      <c r="B384" t="s">
+        <v>74</v>
+      </c>
+      <c r="C384">
+        <v>21.2</v>
+      </c>
+      <c r="D384">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E384">
+        <v>1.61</v>
+      </c>
+      <c r="F384">
+        <v>1955489</v>
+      </c>
+      <c r="G384">
+        <v>4091789273</v>
+      </c>
+      <c r="H384">
+        <v>7.61</v>
+      </c>
+      <c r="I384">
+        <v>21.5</v>
+      </c>
+      <c r="J384">
+        <v>20.01</v>
+      </c>
+      <c r="K384">
+        <v>20.15</v>
+      </c>
+      <c r="L384">
+        <v>19.59</v>
+      </c>
+      <c r="M384">
+        <v>1.24</v>
+      </c>
+      <c r="N384">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="O384">
+        <v>109.72</v>
+      </c>
+      <c r="P384">
+        <v>3.47</v>
+      </c>
+      <c r="Q384">
+        <v>46301007569</v>
+      </c>
+      <c r="R384">
+        <v>46301007569</v>
+      </c>
+      <c r="S384">
+        <v>-0.09</v>
+      </c>
+      <c r="T384">
+        <v>-0.14</v>
+      </c>
+      <c r="U384">
+        <v>37.57</v>
+      </c>
+      <c r="V384">
+        <v>31.43</v>
+      </c>
+      <c r="W384" s="2">
+        <v>45495</v>
+      </c>
+      <c r="X384">
+        <v>20.11</v>
+      </c>
+      <c r="Y384">
+        <v>-5.14</v>
+      </c>
+      <c r="Z384">
+        <v>21.18</v>
+      </c>
+      <c r="AA384">
+        <v>20</v>
+      </c>
+      <c r="AB384">
+        <v>21</v>
+      </c>
+      <c r="AC384">
+        <v>-0.09433962264150743</v>
+      </c>
+    </row>
+    <row r="385" spans="1:29">
+      <c r="A385" t="s">
+        <v>33</v>
+      </c>
+      <c r="B385" t="s">
+        <v>47</v>
+      </c>
+      <c r="C385">
+        <v>44.43</v>
+      </c>
+      <c r="D385">
+        <v>2.09</v>
+      </c>
+      <c r="E385">
+        <v>0.91</v>
+      </c>
+      <c r="F385">
+        <v>909672</v>
+      </c>
+      <c r="G385">
+        <v>4049871695</v>
+      </c>
+      <c r="H385">
+        <v>4.48</v>
+      </c>
+      <c r="I385">
+        <v>45.51</v>
+      </c>
+      <c r="J385">
+        <v>43.56</v>
+      </c>
+      <c r="K385">
+        <v>44.16</v>
+      </c>
+      <c r="L385">
+        <v>43.52</v>
+      </c>
+      <c r="M385">
+        <v>1.62</v>
+      </c>
+      <c r="N385">
+        <v>6.24</v>
+      </c>
+      <c r="O385">
+        <v>114</v>
+      </c>
+      <c r="P385">
+        <v>3.51</v>
+      </c>
+      <c r="Q385">
+        <v>65012814366</v>
+      </c>
+      <c r="R385">
+        <v>64806117120</v>
+      </c>
+      <c r="S385">
+        <v>-0.02</v>
+      </c>
+      <c r="T385">
+        <v>-0.02</v>
+      </c>
+      <c r="U385">
+        <v>6.52</v>
+      </c>
+      <c r="V385">
+        <v>13</v>
+      </c>
+      <c r="W385" s="2">
+        <v>45495</v>
+      </c>
+      <c r="X385">
+        <v>43.1</v>
+      </c>
+      <c r="Y385">
+        <v>-2.99</v>
+      </c>
+      <c r="Z385">
+        <v>45.19</v>
+      </c>
+      <c r="AA385">
+        <v>43</v>
+      </c>
+      <c r="AB385">
+        <v>44.63</v>
+      </c>
+      <c r="AC385">
+        <v>1.710555930677466</v>
+      </c>
+    </row>
+    <row r="386" spans="1:29">
+      <c r="A386" t="s">
+        <v>34</v>
+      </c>
+      <c r="B386" t="s">
+        <v>39</v>
+      </c>
+      <c r="C386">
+        <v>15.72</v>
+      </c>
+      <c r="D386">
+        <v>2.14</v>
+      </c>
+      <c r="E386">
+        <v>0.33</v>
+      </c>
+      <c r="F386">
+        <v>2393236</v>
+      </c>
+      <c r="G386">
+        <v>3761496643.98</v>
+      </c>
+      <c r="H386">
+        <v>3.05</v>
+      </c>
+      <c r="I386">
+        <v>15.96</v>
+      </c>
+      <c r="J386">
+        <v>15.49</v>
+      </c>
+      <c r="K386">
+        <v>15.49</v>
+      </c>
+      <c r="L386">
+        <v>15.39</v>
+      </c>
+      <c r="M386">
+        <v>0.85</v>
+      </c>
+      <c r="N386">
+        <v>2.91</v>
+      </c>
+      <c r="O386">
+        <v>33.66</v>
+      </c>
+      <c r="P386">
+        <v>2.23</v>
+      </c>
+      <c r="Q386">
+        <v>155899783599</v>
+      </c>
+      <c r="R386">
+        <v>129124153570</v>
+      </c>
+      <c r="S386">
+        <v>0</v>
+      </c>
+      <c r="T386">
+        <v>0.13</v>
+      </c>
+      <c r="U386">
+        <v>-2.06</v>
+      </c>
+      <c r="V386">
+        <v>-4.67</v>
+      </c>
+      <c r="W386" s="2">
+        <v>45495</v>
+      </c>
+      <c r="X386">
+        <v>15.14</v>
+      </c>
+      <c r="Y386">
+        <v>-3.69</v>
+      </c>
+      <c r="Z386">
+        <v>15.71</v>
+      </c>
+      <c r="AA386">
+        <v>15.07</v>
+      </c>
+      <c r="AB386">
+        <v>15.68</v>
+      </c>
+      <c r="AC386">
+        <v>-0.06361323155216149</v>
+      </c>
+    </row>
+    <row r="387" spans="1:29">
+      <c r="A387" t="s">
+        <v>35</v>
+      </c>
+      <c r="B387" t="s">
+        <v>40</v>
+      </c>
+      <c r="C387">
+        <v>39.06</v>
+      </c>
+      <c r="D387">
+        <v>2.17</v>
+      </c>
+      <c r="E387">
+        <v>0.83</v>
+      </c>
+      <c r="F387">
+        <v>912720</v>
+      </c>
+      <c r="G387">
+        <v>3553133067.53</v>
+      </c>
+      <c r="H387">
+        <v>5.1</v>
+      </c>
+      <c r="I387">
+        <v>39.86</v>
+      </c>
+      <c r="J387">
+        <v>37.91</v>
+      </c>
+      <c r="K387">
+        <v>38.38</v>
+      </c>
+      <c r="L387">
+        <v>38.23</v>
+      </c>
+      <c r="M387">
+        <v>1.35</v>
+      </c>
+      <c r="N387">
+        <v>6.21</v>
+      </c>
+      <c r="O387">
+        <v>46.91</v>
+      </c>
+      <c r="P387">
+        <v>3.18</v>
+      </c>
+      <c r="Q387">
+        <v>57501597865</v>
+      </c>
+      <c r="R387">
+        <v>57427720797</v>
+      </c>
+      <c r="S387">
+        <v>0</v>
+      </c>
+      <c r="T387">
+        <v>-0.03</v>
+      </c>
+      <c r="U387">
+        <v>12.24</v>
+      </c>
+      <c r="V387">
+        <v>18.11</v>
+      </c>
+      <c r="W387" s="2">
+        <v>45495</v>
+      </c>
+      <c r="X387">
+        <v>37.78</v>
+      </c>
+      <c r="Y387">
+        <v>-3.28</v>
+      </c>
+      <c r="Z387">
+        <v>38.96</v>
+      </c>
+      <c r="AA387">
+        <v>37.7</v>
+      </c>
+      <c r="AB387">
+        <v>38.35</v>
+      </c>
+      <c r="AC387">
+        <v>-0.2560163850486468</v>
+      </c>
+    </row>
+    <row r="388" spans="1:29">
+      <c r="A388" t="s">
+        <v>36</v>
+      </c>
+      <c r="B388" t="s">
+        <v>58</v>
+      </c>
+      <c r="C388">
+        <v>17.6</v>
+      </c>
+      <c r="D388">
+        <v>-1.9</v>
+      </c>
+      <c r="E388">
+        <v>-0.34</v>
+      </c>
+      <c r="F388">
+        <v>1929751</v>
+      </c>
+      <c r="G388">
+        <v>3373542743</v>
+      </c>
+      <c r="H388">
+        <v>3.51</v>
+      </c>
+      <c r="I388">
+        <v>17.84</v>
+      </c>
+      <c r="J388">
+        <v>17.21</v>
+      </c>
+      <c r="K388">
+        <v>17.75</v>
+      </c>
+      <c r="L388">
+        <v>17.94</v>
+      </c>
+      <c r="M388">
+        <v>1.11</v>
+      </c>
+      <c r="N388">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O388">
+        <v>18.68</v>
+      </c>
+      <c r="P388">
+        <v>4.01</v>
+      </c>
+      <c r="Q388">
+        <v>467770845344</v>
+      </c>
+      <c r="R388">
+        <v>361790757434</v>
+      </c>
+      <c r="S388">
+        <v>0.11</v>
+      </c>
+      <c r="T388">
+        <v>0.28</v>
+      </c>
+      <c r="U388">
+        <v>4.51</v>
+      </c>
+      <c r="V388">
+        <v>43.56</v>
+      </c>
+      <c r="W388" s="2">
+        <v>45495</v>
+      </c>
+      <c r="X388">
+        <v>16.52</v>
+      </c>
+      <c r="Y388">
+        <v>-6.14</v>
+      </c>
+      <c r="Z388">
+        <v>17.72</v>
+      </c>
+      <c r="AA388">
+        <v>16.5</v>
+      </c>
+      <c r="AB388">
+        <v>17.58</v>
+      </c>
+      <c r="AC388">
+        <v>0.6818181818181672</v>
+      </c>
+    </row>
+    <row r="389" spans="1:29">
+      <c r="A389" t="s">
+        <v>37</v>
+      </c>
+      <c r="B389" t="s">
+        <v>55</v>
+      </c>
+      <c r="C389">
+        <v>39.72</v>
+      </c>
+      <c r="D389">
+        <v>-1.07</v>
+      </c>
+      <c r="E389">
+        <v>-0.43</v>
+      </c>
+      <c r="F389">
+        <v>837781</v>
+      </c>
+      <c r="G389">
+        <v>3306643348.33</v>
+      </c>
+      <c r="H389">
+        <v>3.56</v>
+      </c>
+      <c r="I389">
+        <v>40.06</v>
+      </c>
+      <c r="J389">
+        <v>38.63</v>
+      </c>
+      <c r="K389">
+        <v>40.06</v>
+      </c>
+      <c r="L389">
+        <v>40.15</v>
+      </c>
+      <c r="M389">
+        <v>1.03</v>
+      </c>
+      <c r="N389">
+        <v>1.17</v>
+      </c>
+      <c r="O389">
+        <v>28.95</v>
+      </c>
+      <c r="P389">
+        <v>5.08</v>
+      </c>
+      <c r="Q389">
+        <v>286115697380</v>
+      </c>
+      <c r="R389">
+        <v>285497279620</v>
+      </c>
+      <c r="S389">
+        <v>0.18</v>
+      </c>
+      <c r="T389">
+        <v>0.1</v>
+      </c>
+      <c r="U389">
+        <v>45.55</v>
+      </c>
+      <c r="V389">
+        <v>16.31</v>
+      </c>
+      <c r="W389" s="2">
+        <v>45495</v>
+      </c>
+      <c r="X389">
+        <v>38.43</v>
+      </c>
+      <c r="Y389">
+        <v>-3.25</v>
+      </c>
+      <c r="Z389">
+        <v>39.88</v>
+      </c>
+      <c r="AA389">
+        <v>38.28</v>
+      </c>
+      <c r="AB389">
+        <v>39.74</v>
+      </c>
+      <c r="AC389">
+        <v>0.4028197381671795</v>
+      </c>
+    </row>
+    <row r="390" spans="1:29">
+      <c r="A390" t="s">
+        <v>38</v>
+      </c>
+      <c r="B390" t="s">
+        <v>88</v>
+      </c>
+      <c r="C390">
+        <v>30.38</v>
+      </c>
+      <c r="D390">
+        <v>-0.65</v>
+      </c>
+      <c r="E390">
+        <v>-0.2</v>
+      </c>
+      <c r="F390">
+        <v>974276</v>
+      </c>
+      <c r="G390">
+        <v>2935254009</v>
+      </c>
+      <c r="H390">
+        <v>2.94</v>
+      </c>
+      <c r="I390">
+        <v>30.6</v>
+      </c>
+      <c r="J390">
+        <v>29.7</v>
+      </c>
+      <c r="K390">
+        <v>30.58</v>
+      </c>
+      <c r="L390">
+        <v>30.58</v>
+      </c>
+      <c r="M390">
+        <v>1.12</v>
+      </c>
+      <c r="N390">
+        <v>0.41</v>
+      </c>
+      <c r="O390">
+        <v>46.85</v>
+      </c>
+      <c r="P390">
+        <v>4.01</v>
+      </c>
+      <c r="Q390">
+        <v>743344454212</v>
+      </c>
+      <c r="R390">
+        <v>729340452561</v>
+      </c>
+      <c r="S390">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="T390">
+        <v>-0.16</v>
+      </c>
+      <c r="U390">
+        <v>21.76</v>
+      </c>
+      <c r="V390">
+        <v>34.9</v>
+      </c>
+      <c r="W390" s="2">
+        <v>45495</v>
+      </c>
+      <c r="X390">
+        <v>30.67</v>
+      </c>
+      <c r="Y390">
+        <v>0.95</v>
+      </c>
+      <c r="Z390">
+        <v>30.8</v>
+      </c>
+      <c r="AA390">
+        <v>30.28</v>
+      </c>
+      <c r="AB390">
+        <v>30.4</v>
+      </c>
+      <c r="AC390">
+        <v>1.382488479262678</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="110">
   <si>
     <t>代码</t>
   </si>
@@ -109,7 +109,16 @@
     <t>600733</t>
   </si>
   <si>
+    <t>601899</t>
+  </si>
+  <si>
     <t>600171</t>
+  </si>
+  <si>
+    <t>000625</t>
+  </si>
+  <si>
+    <t>601398</t>
   </si>
   <si>
     <t>600418</t>
@@ -118,19 +127,10 @@
     <t>603019</t>
   </si>
   <si>
-    <t>000625</t>
-  </si>
-  <si>
-    <t>000977</t>
-  </si>
-  <si>
-    <t>601899</t>
+    <t>600900</t>
   </si>
   <si>
     <t>002475</t>
-  </si>
-  <si>
-    <t>600900</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -705,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC390"/>
+  <dimension ref="A1:AC400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34532,8 +34532,8 @@
       </c>
     </row>
     <row r="381" spans="1:29">
-      <c r="A381" t="s">
-        <v>29</v>
+      <c r="A381">
+        <v>600030</v>
       </c>
       <c r="B381" t="s">
         <v>109</v>
@@ -34621,8 +34621,8 @@
       </c>
     </row>
     <row r="382" spans="1:29">
-      <c r="A382" t="s">
-        <v>30</v>
+      <c r="A382">
+        <v>600733</v>
       </c>
       <c r="B382" t="s">
         <v>80</v>
@@ -34710,8 +34710,8 @@
       </c>
     </row>
     <row r="383" spans="1:29">
-      <c r="A383" t="s">
-        <v>31</v>
+      <c r="A383">
+        <v>600171</v>
       </c>
       <c r="B383" t="s">
         <v>82</v>
@@ -34799,8 +34799,8 @@
       </c>
     </row>
     <row r="384" spans="1:29">
-      <c r="A384" t="s">
-        <v>32</v>
+      <c r="A384">
+        <v>600418</v>
       </c>
       <c r="B384" t="s">
         <v>74</v>
@@ -34888,8 +34888,8 @@
       </c>
     </row>
     <row r="385" spans="1:29">
-      <c r="A385" t="s">
-        <v>33</v>
+      <c r="A385">
+        <v>603019</v>
       </c>
       <c r="B385" t="s">
         <v>47</v>
@@ -34977,8 +34977,8 @@
       </c>
     </row>
     <row r="386" spans="1:29">
-      <c r="A386" t="s">
-        <v>34</v>
+      <c r="A386">
+        <v>625</v>
       </c>
       <c r="B386" t="s">
         <v>39</v>
@@ -35066,8 +35066,8 @@
       </c>
     </row>
     <row r="387" spans="1:29">
-      <c r="A387" t="s">
-        <v>35</v>
+      <c r="A387">
+        <v>977</v>
       </c>
       <c r="B387" t="s">
         <v>40</v>
@@ -35155,8 +35155,8 @@
       </c>
     </row>
     <row r="388" spans="1:29">
-      <c r="A388" t="s">
-        <v>36</v>
+      <c r="A388">
+        <v>601899</v>
       </c>
       <c r="B388" t="s">
         <v>58</v>
@@ -35244,8 +35244,8 @@
       </c>
     </row>
     <row r="389" spans="1:29">
-      <c r="A389" t="s">
-        <v>37</v>
+      <c r="A389">
+        <v>2475</v>
       </c>
       <c r="B389" t="s">
         <v>55</v>
@@ -35333,8 +35333,8 @@
       </c>
     </row>
     <row r="390" spans="1:29">
-      <c r="A390" t="s">
-        <v>38</v>
+      <c r="A390">
+        <v>600900</v>
       </c>
       <c r="B390" t="s">
         <v>88</v>
@@ -35419,6 +35419,896 @@
       </c>
       <c r="AC390">
         <v>1.382488479262678</v>
+      </c>
+    </row>
+    <row r="391" spans="1:29">
+      <c r="A391" t="s">
+        <v>29</v>
+      </c>
+      <c r="B391" t="s">
+        <v>109</v>
+      </c>
+      <c r="C391">
+        <v>19.2</v>
+      </c>
+      <c r="D391">
+        <v>-4.9</v>
+      </c>
+      <c r="E391">
+        <v>-0.99</v>
+      </c>
+      <c r="F391">
+        <v>2571229</v>
+      </c>
+      <c r="G391">
+        <v>5022003950</v>
+      </c>
+      <c r="H391">
+        <v>3.42</v>
+      </c>
+      <c r="I391">
+        <v>19.87</v>
+      </c>
+      <c r="J391">
+        <v>19.18</v>
+      </c>
+      <c r="K391">
+        <v>19.85</v>
+      </c>
+      <c r="L391">
+        <v>20.19</v>
+      </c>
+      <c r="M391">
+        <v>1.63</v>
+      </c>
+      <c r="N391">
+        <v>2.26</v>
+      </c>
+      <c r="O391">
+        <v>14.35</v>
+      </c>
+      <c r="P391">
+        <v>1.11</v>
+      </c>
+      <c r="Q391">
+        <v>284554499117</v>
+      </c>
+      <c r="R391">
+        <v>218240320224</v>
+      </c>
+      <c r="S391">
+        <v>0</v>
+      </c>
+      <c r="T391">
+        <v>-0.1</v>
+      </c>
+      <c r="U391">
+        <v>5.09</v>
+      </c>
+      <c r="V391">
+        <v>-5.74</v>
+      </c>
+      <c r="W391" s="2">
+        <v>45496</v>
+      </c>
+      <c r="X391">
+        <v>18.88</v>
+      </c>
+      <c r="Y391">
+        <v>-1.67</v>
+      </c>
+      <c r="Z391">
+        <v>19.3</v>
+      </c>
+      <c r="AA391">
+        <v>18.76</v>
+      </c>
+      <c r="AB391">
+        <v>19.07</v>
+      </c>
+      <c r="AC391">
+        <v>0.5208333333333408</v>
+      </c>
+    </row>
+    <row r="392" spans="1:29">
+      <c r="A392" t="s">
+        <v>30</v>
+      </c>
+      <c r="B392" t="s">
+        <v>80</v>
+      </c>
+      <c r="C392">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D392">
+        <v>-4.94</v>
+      </c>
+      <c r="E392">
+        <v>-0.46</v>
+      </c>
+      <c r="F392">
+        <v>4676285</v>
+      </c>
+      <c r="G392">
+        <v>4220912139</v>
+      </c>
+      <c r="H392">
+        <v>6.01</v>
+      </c>
+      <c r="I392">
+        <v>9.35</v>
+      </c>
+      <c r="J392">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="K392">
+        <v>9.24</v>
+      </c>
+      <c r="L392">
+        <v>9.32</v>
+      </c>
+      <c r="M392">
+        <v>1.05</v>
+      </c>
+      <c r="N392">
+        <v>9.65</v>
+      </c>
+      <c r="O392">
+        <v>-12.15</v>
+      </c>
+      <c r="P392">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="Q392">
+        <v>49381238077</v>
+      </c>
+      <c r="R392">
+        <v>42952554596</v>
+      </c>
+      <c r="S392">
+        <v>0</v>
+      </c>
+      <c r="T392">
+        <v>0.11</v>
+      </c>
+      <c r="U392">
+        <v>25.85</v>
+      </c>
+      <c r="V392">
+        <v>44.54</v>
+      </c>
+      <c r="W392" s="2">
+        <v>45496</v>
+      </c>
+      <c r="X392">
+        <v>8.51</v>
+      </c>
+      <c r="Y392">
+        <v>-3.95</v>
+      </c>
+      <c r="Z392">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AA392">
+        <v>8.48</v>
+      </c>
+      <c r="AB392">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC392">
+        <v>0.3386004514672815</v>
+      </c>
+    </row>
+    <row r="393" spans="1:29">
+      <c r="A393" t="s">
+        <v>31</v>
+      </c>
+      <c r="B393" t="s">
+        <v>58</v>
+      </c>
+      <c r="C393">
+        <v>16.52</v>
+      </c>
+      <c r="D393">
+        <v>-6.14</v>
+      </c>
+      <c r="E393">
+        <v>-1.08</v>
+      </c>
+      <c r="F393">
+        <v>2354732</v>
+      </c>
+      <c r="G393">
+        <v>3978851947</v>
+      </c>
+      <c r="H393">
+        <v>6.93</v>
+      </c>
+      <c r="I393">
+        <v>17.72</v>
+      </c>
+      <c r="J393">
+        <v>16.5</v>
+      </c>
+      <c r="K393">
+        <v>17.58</v>
+      </c>
+      <c r="L393">
+        <v>17.6</v>
+      </c>
+      <c r="M393">
+        <v>1.26</v>
+      </c>
+      <c r="N393">
+        <v>1.15</v>
+      </c>
+      <c r="O393">
+        <v>17.53</v>
+      </c>
+      <c r="P393">
+        <v>3.76</v>
+      </c>
+      <c r="Q393">
+        <v>439066725289</v>
+      </c>
+      <c r="R393">
+        <v>339589960955</v>
+      </c>
+      <c r="S393">
+        <v>-0.12</v>
+      </c>
+      <c r="T393">
+        <v>0</v>
+      </c>
+      <c r="U393">
+        <v>-4.73</v>
+      </c>
+      <c r="V393">
+        <v>34.75</v>
+      </c>
+      <c r="W393" s="2">
+        <v>45496</v>
+      </c>
+      <c r="X393">
+        <v>16.53</v>
+      </c>
+      <c r="Y393">
+        <v>0.06</v>
+      </c>
+      <c r="Z393">
+        <v>16.75</v>
+      </c>
+      <c r="AA393">
+        <v>16.4</v>
+      </c>
+      <c r="AB393">
+        <v>16.45</v>
+      </c>
+      <c r="AC393">
+        <v>1.392251815980632</v>
+      </c>
+    </row>
+    <row r="394" spans="1:29">
+      <c r="A394" t="s">
+        <v>32</v>
+      </c>
+      <c r="B394" t="s">
+        <v>82</v>
+      </c>
+      <c r="C394">
+        <v>23.85</v>
+      </c>
+      <c r="D394">
+        <v>-2.89</v>
+      </c>
+      <c r="E394">
+        <v>-0.71</v>
+      </c>
+      <c r="F394">
+        <v>1637499</v>
+      </c>
+      <c r="G394">
+        <v>3944213165</v>
+      </c>
+      <c r="H394">
+        <v>6.92</v>
+      </c>
+      <c r="I394">
+        <v>25.25</v>
+      </c>
+      <c r="J394">
+        <v>23.55</v>
+      </c>
+      <c r="K394">
+        <v>24.56</v>
+      </c>
+      <c r="L394">
+        <v>24.56</v>
+      </c>
+      <c r="M394">
+        <v>1.51</v>
+      </c>
+      <c r="N394">
+        <v>23.1</v>
+      </c>
+      <c r="O394">
+        <v>114.55</v>
+      </c>
+      <c r="P394">
+        <v>4.2</v>
+      </c>
+      <c r="Q394">
+        <v>16907820777</v>
+      </c>
+      <c r="R394">
+        <v>16907820777</v>
+      </c>
+      <c r="S394">
+        <v>0.8</v>
+      </c>
+      <c r="T394">
+        <v>0.51</v>
+      </c>
+      <c r="U394">
+        <v>106.49</v>
+      </c>
+      <c r="V394">
+        <v>68.91</v>
+      </c>
+      <c r="W394" s="2">
+        <v>45496</v>
+      </c>
+      <c r="X394">
+        <v>21.72</v>
+      </c>
+      <c r="Y394">
+        <v>-8.93</v>
+      </c>
+      <c r="Z394">
+        <v>24.28</v>
+      </c>
+      <c r="AA394">
+        <v>21.5</v>
+      </c>
+      <c r="AB394">
+        <v>23.75</v>
+      </c>
+      <c r="AC394">
+        <v>1.802935010482179</v>
+      </c>
+    </row>
+    <row r="395" spans="1:29">
+      <c r="A395" t="s">
+        <v>33</v>
+      </c>
+      <c r="B395" t="s">
+        <v>39</v>
+      </c>
+      <c r="C395">
+        <v>15.14</v>
+      </c>
+      <c r="D395">
+        <v>-3.69</v>
+      </c>
+      <c r="E395">
+        <v>-0.58</v>
+      </c>
+      <c r="F395">
+        <v>2120840</v>
+      </c>
+      <c r="G395">
+        <v>3259747494.51</v>
+      </c>
+      <c r="H395">
+        <v>4.07</v>
+      </c>
+      <c r="I395">
+        <v>15.71</v>
+      </c>
+      <c r="J395">
+        <v>15.07</v>
+      </c>
+      <c r="K395">
+        <v>15.68</v>
+      </c>
+      <c r="L395">
+        <v>15.72</v>
+      </c>
+      <c r="M395">
+        <v>0.79</v>
+      </c>
+      <c r="N395">
+        <v>2.58</v>
+      </c>
+      <c r="O395">
+        <v>32.41</v>
+      </c>
+      <c r="P395">
+        <v>2.15</v>
+      </c>
+      <c r="Q395">
+        <v>150147755960</v>
+      </c>
+      <c r="R395">
+        <v>124360030855</v>
+      </c>
+      <c r="S395">
+        <v>0.2</v>
+      </c>
+      <c r="T395">
+        <v>0.26</v>
+      </c>
+      <c r="U395">
+        <v>-5.08</v>
+      </c>
+      <c r="V395">
+        <v>-8.19</v>
+      </c>
+      <c r="W395" s="2">
+        <v>45496</v>
+      </c>
+      <c r="X395">
+        <v>14.55</v>
+      </c>
+      <c r="Y395">
+        <v>-3.9</v>
+      </c>
+      <c r="Z395">
+        <v>15.15</v>
+      </c>
+      <c r="AA395">
+        <v>14.48</v>
+      </c>
+      <c r="AB395">
+        <v>15.07</v>
+      </c>
+      <c r="AC395">
+        <v>0.06605019815059304</v>
+      </c>
+    </row>
+    <row r="396" spans="1:29">
+      <c r="A396" t="s">
+        <v>34</v>
+      </c>
+      <c r="B396" t="s">
+        <v>99</v>
+      </c>
+      <c r="C396">
+        <v>6.01</v>
+      </c>
+      <c r="D396">
+        <v>2.91</v>
+      </c>
+      <c r="E396">
+        <v>0.17</v>
+      </c>
+      <c r="F396">
+        <v>5081438</v>
+      </c>
+      <c r="G396">
+        <v>3034821327</v>
+      </c>
+      <c r="H396">
+        <v>4.28</v>
+      </c>
+      <c r="I396">
+        <v>6.06</v>
+      </c>
+      <c r="J396">
+        <v>5.81</v>
+      </c>
+      <c r="K396">
+        <v>5.82</v>
+      </c>
+      <c r="L396">
+        <v>5.84</v>
+      </c>
+      <c r="M396">
+        <v>1.44</v>
+      </c>
+      <c r="N396">
+        <v>0.19</v>
+      </c>
+      <c r="O396">
+        <v>6.11</v>
+      </c>
+      <c r="P396">
+        <v>0.63</v>
+      </c>
+      <c r="Q396">
+        <v>2142001605105</v>
+      </c>
+      <c r="R396">
+        <v>1620369397359</v>
+      </c>
+      <c r="S396">
+        <v>-0.17</v>
+      </c>
+      <c r="T396">
+        <v>0</v>
+      </c>
+      <c r="U396">
+        <v>16.47</v>
+      </c>
+      <c r="V396">
+        <v>34.45</v>
+      </c>
+      <c r="W396" s="2">
+        <v>45496</v>
+      </c>
+      <c r="X396">
+        <v>6.06</v>
+      </c>
+      <c r="Y396">
+        <v>0.83</v>
+      </c>
+      <c r="Z396">
+        <v>6.11</v>
+      </c>
+      <c r="AA396">
+        <v>5.99</v>
+      </c>
+      <c r="AB396">
+        <v>6</v>
+      </c>
+      <c r="AC396">
+        <v>1.663893510815317</v>
+      </c>
+    </row>
+    <row r="397" spans="1:29">
+      <c r="A397" t="s">
+        <v>35</v>
+      </c>
+      <c r="B397" t="s">
+        <v>74</v>
+      </c>
+      <c r="C397">
+        <v>20.11</v>
+      </c>
+      <c r="D397">
+        <v>-5.14</v>
+      </c>
+      <c r="E397">
+        <v>-1.09</v>
+      </c>
+      <c r="F397">
+        <v>1427773</v>
+      </c>
+      <c r="G397">
+        <v>2935309268</v>
+      </c>
+      <c r="H397">
+        <v>5.57</v>
+      </c>
+      <c r="I397">
+        <v>21.18</v>
+      </c>
+      <c r="J397">
+        <v>20</v>
+      </c>
+      <c r="K397">
+        <v>21</v>
+      </c>
+      <c r="L397">
+        <v>21.2</v>
+      </c>
+      <c r="M397">
+        <v>0.84</v>
+      </c>
+      <c r="N397">
+        <v>6.54</v>
+      </c>
+      <c r="O397">
+        <v>104.08</v>
+      </c>
+      <c r="P397">
+        <v>3.29</v>
+      </c>
+      <c r="Q397">
+        <v>43920436897</v>
+      </c>
+      <c r="R397">
+        <v>43920436897</v>
+      </c>
+      <c r="S397">
+        <v>-0.2</v>
+      </c>
+      <c r="T397">
+        <v>0.1</v>
+      </c>
+      <c r="U397">
+        <v>26.24</v>
+      </c>
+      <c r="V397">
+        <v>24.67</v>
+      </c>
+      <c r="W397" s="2">
+        <v>45496</v>
+      </c>
+      <c r="X397">
+        <v>19.25</v>
+      </c>
+      <c r="Y397">
+        <v>-4.28</v>
+      </c>
+      <c r="Z397">
+        <v>20.24</v>
+      </c>
+      <c r="AA397">
+        <v>19.1</v>
+      </c>
+      <c r="AB397">
+        <v>19.99</v>
+      </c>
+      <c r="AC397">
+        <v>0.6464445549477823</v>
+      </c>
+    </row>
+    <row r="398" spans="1:29">
+      <c r="A398" t="s">
+        <v>36</v>
+      </c>
+      <c r="B398" t="s">
+        <v>47</v>
+      </c>
+      <c r="C398">
+        <v>43.1</v>
+      </c>
+      <c r="D398">
+        <v>-2.99</v>
+      </c>
+      <c r="E398">
+        <v>-1.33</v>
+      </c>
+      <c r="F398">
+        <v>646153</v>
+      </c>
+      <c r="G398">
+        <v>2848343264</v>
+      </c>
+      <c r="H398">
+        <v>4.93</v>
+      </c>
+      <c r="I398">
+        <v>45.19</v>
+      </c>
+      <c r="J398">
+        <v>43</v>
+      </c>
+      <c r="K398">
+        <v>44.63</v>
+      </c>
+      <c r="L398">
+        <v>44.43</v>
+      </c>
+      <c r="M398">
+        <v>0.92</v>
+      </c>
+      <c r="N398">
+        <v>4.43</v>
+      </c>
+      <c r="O398">
+        <v>110.58</v>
+      </c>
+      <c r="P398">
+        <v>3.4</v>
+      </c>
+      <c r="Q398">
+        <v>63066673400</v>
+      </c>
+      <c r="R398">
+        <v>62866163580</v>
+      </c>
+      <c r="S398">
+        <v>0.05</v>
+      </c>
+      <c r="T398">
+        <v>0.14</v>
+      </c>
+      <c r="U398">
+        <v>-2.13</v>
+      </c>
+      <c r="V398">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="W398" s="2">
+        <v>45496</v>
+      </c>
+      <c r="X398">
+        <v>43.49</v>
+      </c>
+      <c r="Y398">
+        <v>0.9</v>
+      </c>
+      <c r="Z398">
+        <v>44.56</v>
+      </c>
+      <c r="AA398">
+        <v>43.06</v>
+      </c>
+      <c r="AB398">
+        <v>43.06</v>
+      </c>
+      <c r="AC398">
+        <v>3.387470997679816</v>
+      </c>
+    </row>
+    <row r="399" spans="1:29">
+      <c r="A399" t="s">
+        <v>37</v>
+      </c>
+      <c r="B399" t="s">
+        <v>88</v>
+      </c>
+      <c r="C399">
+        <v>30.67</v>
+      </c>
+      <c r="D399">
+        <v>0.95</v>
+      </c>
+      <c r="E399">
+        <v>0.29</v>
+      </c>
+      <c r="F399">
+        <v>901448</v>
+      </c>
+      <c r="G399">
+        <v>2759644839</v>
+      </c>
+      <c r="H399">
+        <v>1.71</v>
+      </c>
+      <c r="I399">
+        <v>30.8</v>
+      </c>
+      <c r="J399">
+        <v>30.28</v>
+      </c>
+      <c r="K399">
+        <v>30.4</v>
+      </c>
+      <c r="L399">
+        <v>30.38</v>
+      </c>
+      <c r="M399">
+        <v>1</v>
+      </c>
+      <c r="N399">
+        <v>0.38</v>
+      </c>
+      <c r="O399">
+        <v>47.29</v>
+      </c>
+      <c r="P399">
+        <v>4.05</v>
+      </c>
+      <c r="Q399">
+        <v>750440237350</v>
+      </c>
+      <c r="R399">
+        <v>736302556947</v>
+      </c>
+      <c r="S399">
+        <v>-0.03</v>
+      </c>
+      <c r="T399">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="U399">
+        <v>22.93</v>
+      </c>
+      <c r="V399">
+        <v>36.19</v>
+      </c>
+      <c r="W399" s="2">
+        <v>45496</v>
+      </c>
+      <c r="X399">
+        <v>31.04</v>
+      </c>
+      <c r="Y399">
+        <v>1.21</v>
+      </c>
+      <c r="Z399">
+        <v>31.19</v>
+      </c>
+      <c r="AA399">
+        <v>30.54</v>
+      </c>
+      <c r="AB399">
+        <v>30.67</v>
+      </c>
+      <c r="AC399">
+        <v>1.695467883925659</v>
+      </c>
+    </row>
+    <row r="400" spans="1:29">
+      <c r="A400" t="s">
+        <v>38</v>
+      </c>
+      <c r="B400" t="s">
+        <v>55</v>
+      </c>
+      <c r="C400">
+        <v>38.43</v>
+      </c>
+      <c r="D400">
+        <v>-3.25</v>
+      </c>
+      <c r="E400">
+        <v>-1.29</v>
+      </c>
+      <c r="F400">
+        <v>703560</v>
+      </c>
+      <c r="G400">
+        <v>2726808397.11</v>
+      </c>
+      <c r="H400">
+        <v>4.03</v>
+      </c>
+      <c r="I400">
+        <v>39.88</v>
+      </c>
+      <c r="J400">
+        <v>38.28</v>
+      </c>
+      <c r="K400">
+        <v>39.74</v>
+      </c>
+      <c r="L400">
+        <v>39.72</v>
+      </c>
+      <c r="M400">
+        <v>0.8</v>
+      </c>
+      <c r="N400">
+        <v>0.98</v>
+      </c>
+      <c r="O400">
+        <v>28.01</v>
+      </c>
+      <c r="P400">
+        <v>4.92</v>
+      </c>
+      <c r="Q400">
+        <v>276823420199</v>
+      </c>
+      <c r="R400">
+        <v>276225087004</v>
+      </c>
+      <c r="S400">
+        <v>0.16</v>
+      </c>
+      <c r="T400">
+        <v>0.18</v>
+      </c>
+      <c r="U400">
+        <v>40.41</v>
+      </c>
+      <c r="V400">
+        <v>12.53</v>
+      </c>
+      <c r="W400" s="2">
+        <v>45496</v>
+      </c>
+      <c r="X400">
+        <v>37.88</v>
+      </c>
+      <c r="Y400">
+        <v>-1.43</v>
+      </c>
+      <c r="Z400">
+        <v>38.9</v>
+      </c>
+      <c r="AA400">
+        <v>37.41</v>
+      </c>
+      <c r="AB400">
+        <v>38.4</v>
+      </c>
+      <c r="AC400">
+        <v>1.223002862347122</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="111">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
-    <t>600030</t>
+    <t>600171</t>
+  </si>
+  <si>
+    <t>002130</t>
+  </si>
+  <si>
+    <t>000625</t>
   </si>
   <si>
     <t>600733</t>
   </si>
   <si>
-    <t>601899</t>
+    <t>600030</t>
   </si>
   <si>
-    <t>600171</t>
-  </si>
-  <si>
-    <t>000625</t>
-  </si>
-  <si>
-    <t>601398</t>
-  </si>
-  <si>
-    <t>600418</t>
-  </si>
-  <si>
-    <t>603019</t>
+    <t>600611</t>
   </si>
   <si>
     <t>600900</t>
   </si>
   <si>
     <t>002475</t>
+  </si>
+  <si>
+    <t>603019</t>
+  </si>
+  <si>
+    <t>600418</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>中信证券</t>
+  </si>
+  <si>
+    <t>大众交通</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC400"/>
+  <dimension ref="A1:AC410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35422,8 +35425,8 @@
       </c>
     </row>
     <row r="391" spans="1:29">
-      <c r="A391" t="s">
-        <v>29</v>
+      <c r="A391">
+        <v>600030</v>
       </c>
       <c r="B391" t="s">
         <v>109</v>
@@ -35511,8 +35514,8 @@
       </c>
     </row>
     <row r="392" spans="1:29">
-      <c r="A392" t="s">
-        <v>30</v>
+      <c r="A392">
+        <v>600733</v>
       </c>
       <c r="B392" t="s">
         <v>80</v>
@@ -35600,8 +35603,8 @@
       </c>
     </row>
     <row r="393" spans="1:29">
-      <c r="A393" t="s">
-        <v>31</v>
+      <c r="A393">
+        <v>601899</v>
       </c>
       <c r="B393" t="s">
         <v>58</v>
@@ -35689,8 +35692,8 @@
       </c>
     </row>
     <row r="394" spans="1:29">
-      <c r="A394" t="s">
-        <v>32</v>
+      <c r="A394">
+        <v>600171</v>
       </c>
       <c r="B394" t="s">
         <v>82</v>
@@ -35778,8 +35781,8 @@
       </c>
     </row>
     <row r="395" spans="1:29">
-      <c r="A395" t="s">
-        <v>33</v>
+      <c r="A395">
+        <v>625</v>
       </c>
       <c r="B395" t="s">
         <v>39</v>
@@ -35867,8 +35870,8 @@
       </c>
     </row>
     <row r="396" spans="1:29">
-      <c r="A396" t="s">
-        <v>34</v>
+      <c r="A396">
+        <v>601398</v>
       </c>
       <c r="B396" t="s">
         <v>99</v>
@@ -35956,8 +35959,8 @@
       </c>
     </row>
     <row r="397" spans="1:29">
-      <c r="A397" t="s">
-        <v>35</v>
+      <c r="A397">
+        <v>600418</v>
       </c>
       <c r="B397" t="s">
         <v>74</v>
@@ -36045,8 +36048,8 @@
       </c>
     </row>
     <row r="398" spans="1:29">
-      <c r="A398" t="s">
-        <v>36</v>
+      <c r="A398">
+        <v>603019</v>
       </c>
       <c r="B398" t="s">
         <v>47</v>
@@ -36134,8 +36137,8 @@
       </c>
     </row>
     <row r="399" spans="1:29">
-      <c r="A399" t="s">
-        <v>37</v>
+      <c r="A399">
+        <v>600900</v>
       </c>
       <c r="B399" t="s">
         <v>88</v>
@@ -36223,8 +36226,8 @@
       </c>
     </row>
     <row r="400" spans="1:29">
-      <c r="A400" t="s">
-        <v>38</v>
+      <c r="A400">
+        <v>2475</v>
       </c>
       <c r="B400" t="s">
         <v>55</v>
@@ -36309,6 +36312,896 @@
       </c>
       <c r="AC400">
         <v>1.223002862347122</v>
+      </c>
+    </row>
+    <row r="401" spans="1:29">
+      <c r="A401" t="s">
+        <v>29</v>
+      </c>
+      <c r="B401" t="s">
+        <v>82</v>
+      </c>
+      <c r="C401">
+        <v>21.72</v>
+      </c>
+      <c r="D401">
+        <v>-8.93</v>
+      </c>
+      <c r="E401">
+        <v>-2.13</v>
+      </c>
+      <c r="F401">
+        <v>1861914</v>
+      </c>
+      <c r="G401">
+        <v>4267114164</v>
+      </c>
+      <c r="H401">
+        <v>11.66</v>
+      </c>
+      <c r="I401">
+        <v>24.28</v>
+      </c>
+      <c r="J401">
+        <v>21.5</v>
+      </c>
+      <c r="K401">
+        <v>23.75</v>
+      </c>
+      <c r="L401">
+        <v>23.85</v>
+      </c>
+      <c r="M401">
+        <v>1.51</v>
+      </c>
+      <c r="N401">
+        <v>26.26</v>
+      </c>
+      <c r="O401">
+        <v>104.32</v>
+      </c>
+      <c r="P401">
+        <v>3.82</v>
+      </c>
+      <c r="Q401">
+        <v>15397814141</v>
+      </c>
+      <c r="R401">
+        <v>15397814141</v>
+      </c>
+      <c r="S401">
+        <v>-0.73</v>
+      </c>
+      <c r="T401">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="U401">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="V401">
+        <v>53.82</v>
+      </c>
+      <c r="W401" s="2">
+        <v>45497</v>
+      </c>
+      <c r="X401">
+        <v>21.4</v>
+      </c>
+      <c r="Y401">
+        <v>-1.47</v>
+      </c>
+      <c r="Z401">
+        <v>22.07</v>
+      </c>
+      <c r="AA401">
+        <v>21.03</v>
+      </c>
+      <c r="AB401">
+        <v>21.51</v>
+      </c>
+      <c r="AC401">
+        <v>1.611418047882143</v>
+      </c>
+    </row>
+    <row r="402" spans="1:29">
+      <c r="A402" t="s">
+        <v>30</v>
+      </c>
+      <c r="B402" t="s">
+        <v>91</v>
+      </c>
+      <c r="C402">
+        <v>16.39</v>
+      </c>
+      <c r="D402">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E402">
+        <v>1.22</v>
+      </c>
+      <c r="F402">
+        <v>2177205</v>
+      </c>
+      <c r="G402">
+        <v>3577258984.48</v>
+      </c>
+      <c r="H402">
+        <v>9.16</v>
+      </c>
+      <c r="I402">
+        <v>16.69</v>
+      </c>
+      <c r="J402">
+        <v>15.3</v>
+      </c>
+      <c r="K402">
+        <v>15.33</v>
+      </c>
+      <c r="L402">
+        <v>15.17</v>
+      </c>
+      <c r="M402">
+        <v>1.92</v>
+      </c>
+      <c r="N402">
+        <v>17.43</v>
+      </c>
+      <c r="O402">
+        <v>28.01</v>
+      </c>
+      <c r="P402">
+        <v>4.25</v>
+      </c>
+      <c r="Q402">
+        <v>20649737431</v>
+      </c>
+      <c r="R402">
+        <v>20473554224</v>
+      </c>
+      <c r="S402">
+        <v>0.06</v>
+      </c>
+      <c r="T402">
+        <v>0.18</v>
+      </c>
+      <c r="U402">
+        <v>33.8</v>
+      </c>
+      <c r="V402">
+        <v>122.09</v>
+      </c>
+      <c r="W402" s="2">
+        <v>45497</v>
+      </c>
+      <c r="X402">
+        <v>15.59</v>
+      </c>
+      <c r="Y402">
+        <v>-4.88</v>
+      </c>
+      <c r="Z402">
+        <v>16.03</v>
+      </c>
+      <c r="AA402">
+        <v>15.29</v>
+      </c>
+      <c r="AB402">
+        <v>15.56</v>
+      </c>
+      <c r="AC402">
+        <v>-2.196461256863938</v>
+      </c>
+    </row>
+    <row r="403" spans="1:29">
+      <c r="A403" t="s">
+        <v>31</v>
+      </c>
+      <c r="B403" t="s">
+        <v>39</v>
+      </c>
+      <c r="C403">
+        <v>14.55</v>
+      </c>
+      <c r="D403">
+        <v>-3.9</v>
+      </c>
+      <c r="E403">
+        <v>-0.59</v>
+      </c>
+      <c r="F403">
+        <v>2233791</v>
+      </c>
+      <c r="G403">
+        <v>3291561978.34</v>
+      </c>
+      <c r="H403">
+        <v>4.43</v>
+      </c>
+      <c r="I403">
+        <v>15.15</v>
+      </c>
+      <c r="J403">
+        <v>14.48</v>
+      </c>
+      <c r="K403">
+        <v>15.07</v>
+      </c>
+      <c r="L403">
+        <v>15.14</v>
+      </c>
+      <c r="M403">
+        <v>0.92</v>
+      </c>
+      <c r="N403">
+        <v>2.72</v>
+      </c>
+      <c r="O403">
+        <v>31.15</v>
+      </c>
+      <c r="P403">
+        <v>2.07</v>
+      </c>
+      <c r="Q403">
+        <v>144296555430</v>
+      </c>
+      <c r="R403">
+        <v>119513768094</v>
+      </c>
+      <c r="S403">
+        <v>0.14</v>
+      </c>
+      <c r="T403">
+        <v>0.21</v>
+      </c>
+      <c r="U403">
+        <v>-7.21</v>
+      </c>
+      <c r="V403">
+        <v>-11.76</v>
+      </c>
+      <c r="W403" s="2">
+        <v>45497</v>
+      </c>
+      <c r="X403">
+        <v>15.08</v>
+      </c>
+      <c r="Y403">
+        <v>3.64</v>
+      </c>
+      <c r="Z403">
+        <v>15.28</v>
+      </c>
+      <c r="AA403">
+        <v>14.41</v>
+      </c>
+      <c r="AB403">
+        <v>14.41</v>
+      </c>
+      <c r="AC403">
+        <v>5.017182130584183</v>
+      </c>
+    </row>
+    <row r="404" spans="1:29">
+      <c r="A404" t="s">
+        <v>32</v>
+      </c>
+      <c r="B404" t="s">
+        <v>80</v>
+      </c>
+      <c r="C404">
+        <v>8.51</v>
+      </c>
+      <c r="D404">
+        <v>-3.95</v>
+      </c>
+      <c r="E404">
+        <v>-0.35</v>
+      </c>
+      <c r="F404">
+        <v>3772005</v>
+      </c>
+      <c r="G404">
+        <v>3236061081</v>
+      </c>
+      <c r="H404">
+        <v>4.63</v>
+      </c>
+      <c r="I404">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="J404">
+        <v>8.48</v>
+      </c>
+      <c r="K404">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L404">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="M404">
+        <v>0.85</v>
+      </c>
+      <c r="N404">
+        <v>7.78</v>
+      </c>
+      <c r="O404">
+        <v>-11.67</v>
+      </c>
+      <c r="P404">
+        <v>9</v>
+      </c>
+      <c r="Q404">
+        <v>47430511968</v>
+      </c>
+      <c r="R404">
+        <v>41255783252</v>
+      </c>
+      <c r="S404">
+        <v>0</v>
+      </c>
+      <c r="T404">
+        <v>0.12</v>
+      </c>
+      <c r="U404">
+        <v>24.05</v>
+      </c>
+      <c r="V404">
+        <v>38.83</v>
+      </c>
+      <c r="W404" s="2">
+        <v>45497</v>
+      </c>
+      <c r="X404">
+        <v>8.51</v>
+      </c>
+      <c r="Y404">
+        <v>0</v>
+      </c>
+      <c r="Z404">
+        <v>8.73</v>
+      </c>
+      <c r="AA404">
+        <v>8.35</v>
+      </c>
+      <c r="AB404">
+        <v>8.5</v>
+      </c>
+      <c r="AC404">
+        <v>2.585193889541723</v>
+      </c>
+    </row>
+    <row r="405" spans="1:29">
+      <c r="A405" t="s">
+        <v>33</v>
+      </c>
+      <c r="B405" t="s">
+        <v>109</v>
+      </c>
+      <c r="C405">
+        <v>18.88</v>
+      </c>
+      <c r="D405">
+        <v>-1.67</v>
+      </c>
+      <c r="E405">
+        <v>-0.32</v>
+      </c>
+      <c r="F405">
+        <v>1687897</v>
+      </c>
+      <c r="G405">
+        <v>3198694067</v>
+      </c>
+      <c r="H405">
+        <v>2.81</v>
+      </c>
+      <c r="I405">
+        <v>19.3</v>
+      </c>
+      <c r="J405">
+        <v>18.76</v>
+      </c>
+      <c r="K405">
+        <v>19.07</v>
+      </c>
+      <c r="L405">
+        <v>19.2</v>
+      </c>
+      <c r="M405">
+        <v>0.88</v>
+      </c>
+      <c r="N405">
+        <v>1.48</v>
+      </c>
+      <c r="O405">
+        <v>14.11</v>
+      </c>
+      <c r="P405">
+        <v>1.09</v>
+      </c>
+      <c r="Q405">
+        <v>279811924132</v>
+      </c>
+      <c r="R405">
+        <v>214602981554</v>
+      </c>
+      <c r="S405">
+        <v>0</v>
+      </c>
+      <c r="T405">
+        <v>-0.11</v>
+      </c>
+      <c r="U405">
+        <v>3.85</v>
+      </c>
+      <c r="V405">
+        <v>-7.31</v>
+      </c>
+      <c r="W405" s="2">
+        <v>45497</v>
+      </c>
+      <c r="X405">
+        <v>19.02</v>
+      </c>
+      <c r="Y405">
+        <v>0.74</v>
+      </c>
+      <c r="Z405">
+        <v>19.34</v>
+      </c>
+      <c r="AA405">
+        <v>18.79</v>
+      </c>
+      <c r="AB405">
+        <v>18.84</v>
+      </c>
+      <c r="AC405">
+        <v>2.436440677966107</v>
+      </c>
+    </row>
+    <row r="406" spans="1:29">
+      <c r="A406" t="s">
+        <v>34</v>
+      </c>
+      <c r="B406" t="s">
+        <v>110</v>
+      </c>
+      <c r="C406">
+        <v>7.11</v>
+      </c>
+      <c r="D406">
+        <v>5.33</v>
+      </c>
+      <c r="E406">
+        <v>0.36</v>
+      </c>
+      <c r="F406">
+        <v>4223063</v>
+      </c>
+      <c r="G406">
+        <v>2923038935</v>
+      </c>
+      <c r="H406">
+        <v>11.26</v>
+      </c>
+      <c r="I406">
+        <v>7.27</v>
+      </c>
+      <c r="J406">
+        <v>6.51</v>
+      </c>
+      <c r="K406">
+        <v>6.98</v>
+      </c>
+      <c r="L406">
+        <v>6.75</v>
+      </c>
+      <c r="M406">
+        <v>1.15</v>
+      </c>
+      <c r="N406">
+        <v>27.01</v>
+      </c>
+      <c r="O406">
+        <v>229.1</v>
+      </c>
+      <c r="P406">
+        <v>1.77</v>
+      </c>
+      <c r="Q406">
+        <v>16808913563</v>
+      </c>
+      <c r="R406">
+        <v>11115179348</v>
+      </c>
+      <c r="S406">
+        <v>0.14</v>
+      </c>
+      <c r="T406">
+        <v>0.99</v>
+      </c>
+      <c r="U406">
+        <v>159.49</v>
+      </c>
+      <c r="V406">
+        <v>138.59</v>
+      </c>
+      <c r="W406" s="2">
+        <v>45497</v>
+      </c>
+      <c r="X406">
+        <v>7.82</v>
+      </c>
+      <c r="Y406">
+        <v>9.99</v>
+      </c>
+      <c r="Z406">
+        <v>7.82</v>
+      </c>
+      <c r="AA406">
+        <v>7.05</v>
+      </c>
+      <c r="AB406">
+        <v>7.05</v>
+      </c>
+      <c r="AC406">
+        <v>9.985935302390999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:29">
+      <c r="A407" t="s">
+        <v>35</v>
+      </c>
+      <c r="B407" t="s">
+        <v>88</v>
+      </c>
+      <c r="C407">
+        <v>31.04</v>
+      </c>
+      <c r="D407">
+        <v>1.21</v>
+      </c>
+      <c r="E407">
+        <v>0.37</v>
+      </c>
+      <c r="F407">
+        <v>882811</v>
+      </c>
+      <c r="G407">
+        <v>2734065269</v>
+      </c>
+      <c r="H407">
+        <v>2.12</v>
+      </c>
+      <c r="I407">
+        <v>31.19</v>
+      </c>
+      <c r="J407">
+        <v>30.54</v>
+      </c>
+      <c r="K407">
+        <v>30.67</v>
+      </c>
+      <c r="L407">
+        <v>30.67</v>
+      </c>
+      <c r="M407">
+        <v>0.93</v>
+      </c>
+      <c r="N407">
+        <v>0.37</v>
+      </c>
+      <c r="O407">
+        <v>47.87</v>
+      </c>
+      <c r="P407">
+        <v>4.09</v>
+      </c>
+      <c r="Q407">
+        <v>759493477905</v>
+      </c>
+      <c r="R407">
+        <v>745185241853</v>
+      </c>
+      <c r="S407">
+        <v>-0.03</v>
+      </c>
+      <c r="T407">
+        <v>-0.03</v>
+      </c>
+      <c r="U407">
+        <v>24.86</v>
+      </c>
+      <c r="V407">
+        <v>37.83</v>
+      </c>
+      <c r="W407" s="2">
+        <v>45497</v>
+      </c>
+      <c r="X407">
+        <v>30.83</v>
+      </c>
+      <c r="Y407">
+        <v>-0.68</v>
+      </c>
+      <c r="Z407">
+        <v>31.28</v>
+      </c>
+      <c r="AA407">
+        <v>30.37</v>
+      </c>
+      <c r="AB407">
+        <v>31.07</v>
+      </c>
+      <c r="AC407">
+        <v>0.7731958762886663</v>
+      </c>
+    </row>
+    <row r="408" spans="1:29">
+      <c r="A408" t="s">
+        <v>36</v>
+      </c>
+      <c r="B408" t="s">
+        <v>55</v>
+      </c>
+      <c r="C408">
+        <v>37.88</v>
+      </c>
+      <c r="D408">
+        <v>-1.43</v>
+      </c>
+      <c r="E408">
+        <v>-0.55</v>
+      </c>
+      <c r="F408">
+        <v>701532</v>
+      </c>
+      <c r="G408">
+        <v>2660422226.66</v>
+      </c>
+      <c r="H408">
+        <v>3.88</v>
+      </c>
+      <c r="I408">
+        <v>38.9</v>
+      </c>
+      <c r="J408">
+        <v>37.41</v>
+      </c>
+      <c r="K408">
+        <v>38.4</v>
+      </c>
+      <c r="L408">
+        <v>38.43</v>
+      </c>
+      <c r="M408">
+        <v>0.83</v>
+      </c>
+      <c r="N408">
+        <v>0.98</v>
+      </c>
+      <c r="O408">
+        <v>27.61</v>
+      </c>
+      <c r="P408">
+        <v>4.85</v>
+      </c>
+      <c r="Q408">
+        <v>272861596595</v>
+      </c>
+      <c r="R408">
+        <v>272271826586</v>
+      </c>
+      <c r="S408">
+        <v>0.24</v>
+      </c>
+      <c r="T408">
+        <v>0.34</v>
+      </c>
+      <c r="U408">
+        <v>34.14</v>
+      </c>
+      <c r="V408">
+        <v>10.92</v>
+      </c>
+      <c r="W408" s="2">
+        <v>45497</v>
+      </c>
+      <c r="X408">
+        <v>37.09</v>
+      </c>
+      <c r="Y408">
+        <v>-2.09</v>
+      </c>
+      <c r="Z408">
+        <v>37.76</v>
+      </c>
+      <c r="AA408">
+        <v>36.12</v>
+      </c>
+      <c r="AB408">
+        <v>37.3</v>
+      </c>
+      <c r="AC408">
+        <v>-0.3167898627244048</v>
+      </c>
+    </row>
+    <row r="409" spans="1:29">
+      <c r="A409" t="s">
+        <v>37</v>
+      </c>
+      <c r="B409" t="s">
+        <v>47</v>
+      </c>
+      <c r="C409">
+        <v>43.49</v>
+      </c>
+      <c r="D409">
+        <v>0.9</v>
+      </c>
+      <c r="E409">
+        <v>0.39</v>
+      </c>
+      <c r="F409">
+        <v>597545</v>
+      </c>
+      <c r="G409">
+        <v>2620415764</v>
+      </c>
+      <c r="H409">
+        <v>3.48</v>
+      </c>
+      <c r="I409">
+        <v>44.56</v>
+      </c>
+      <c r="J409">
+        <v>43.06</v>
+      </c>
+      <c r="K409">
+        <v>43.06</v>
+      </c>
+      <c r="L409">
+        <v>43.1</v>
+      </c>
+      <c r="M409">
+        <v>0.86</v>
+      </c>
+      <c r="N409">
+        <v>4.1</v>
+      </c>
+      <c r="O409">
+        <v>111.58</v>
+      </c>
+      <c r="P409">
+        <v>3.43</v>
+      </c>
+      <c r="Q409">
+        <v>63637346315</v>
+      </c>
+      <c r="R409">
+        <v>63435022137</v>
+      </c>
+      <c r="S409">
+        <v>0</v>
+      </c>
+      <c r="T409">
+        <v>0.16</v>
+      </c>
+      <c r="U409">
+        <v>-1.2</v>
+      </c>
+      <c r="V409">
+        <v>10.61</v>
+      </c>
+      <c r="W409" s="2">
+        <v>45497</v>
+      </c>
+      <c r="X409">
+        <v>43.54</v>
+      </c>
+      <c r="Y409">
+        <v>0.11</v>
+      </c>
+      <c r="Z409">
+        <v>44.28</v>
+      </c>
+      <c r="AA409">
+        <v>42.7</v>
+      </c>
+      <c r="AB409">
+        <v>42.81</v>
+      </c>
+      <c r="AC409">
+        <v>1.816509542423544</v>
+      </c>
+    </row>
+    <row r="410" spans="1:29">
+      <c r="A410" t="s">
+        <v>38</v>
+      </c>
+      <c r="B410" t="s">
+        <v>74</v>
+      </c>
+      <c r="C410">
+        <v>19.25</v>
+      </c>
+      <c r="D410">
+        <v>-4.28</v>
+      </c>
+      <c r="E410">
+        <v>-0.86</v>
+      </c>
+      <c r="F410">
+        <v>1283094</v>
+      </c>
+      <c r="G410">
+        <v>2502444584</v>
+      </c>
+      <c r="H410">
+        <v>5.67</v>
+      </c>
+      <c r="I410">
+        <v>20.24</v>
+      </c>
+      <c r="J410">
+        <v>19.1</v>
+      </c>
+      <c r="K410">
+        <v>19.99</v>
+      </c>
+      <c r="L410">
+        <v>20.11</v>
+      </c>
+      <c r="M410">
+        <v>0.78</v>
+      </c>
+      <c r="N410">
+        <v>5.87</v>
+      </c>
+      <c r="O410">
+        <v>99.63</v>
+      </c>
+      <c r="P410">
+        <v>3.15</v>
+      </c>
+      <c r="Q410">
+        <v>42042188477</v>
+      </c>
+      <c r="R410">
+        <v>42042188477</v>
+      </c>
+      <c r="S410">
+        <v>0.42</v>
+      </c>
+      <c r="T410">
+        <v>0.63</v>
+      </c>
+      <c r="U410">
+        <v>21.53</v>
+      </c>
+      <c r="V410">
+        <v>19.34</v>
+      </c>
+      <c r="W410" s="2">
+        <v>45497</v>
+      </c>
+      <c r="X410">
+        <v>19.34</v>
+      </c>
+      <c r="Y410">
+        <v>0.47</v>
+      </c>
+      <c r="Z410">
+        <v>19.64</v>
+      </c>
+      <c r="AA410">
+        <v>18.89</v>
+      </c>
+      <c r="AB410">
+        <v>19.11</v>
+      </c>
+      <c r="AC410">
+        <v>2.025974025974029</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="111">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
-    <t>600171</t>
-  </si>
-  <si>
-    <t>002130</t>
+    <t>601899</t>
   </si>
   <si>
     <t>000625</t>
   </si>
   <si>
-    <t>600733</t>
-  </si>
-  <si>
-    <t>600030</t>
-  </si>
-  <si>
-    <t>600611</t>
+    <t>601138</t>
   </si>
   <si>
     <t>600900</t>
   </si>
   <si>
+    <t>600171</t>
+  </si>
+  <si>
     <t>002475</t>
   </si>
   <si>
-    <t>603019</t>
+    <t>600733</t>
   </si>
   <si>
-    <t>600418</t>
+    <t>600150</t>
+  </si>
+  <si>
+    <t>600036</t>
+  </si>
+  <si>
+    <t>600030</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -708,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC410"/>
+  <dimension ref="A1:AC420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36315,8 +36315,8 @@
       </c>
     </row>
     <row r="401" spans="1:29">
-      <c r="A401" t="s">
-        <v>29</v>
+      <c r="A401">
+        <v>600171</v>
       </c>
       <c r="B401" t="s">
         <v>82</v>
@@ -36404,8 +36404,8 @@
       </c>
     </row>
     <row r="402" spans="1:29">
-      <c r="A402" t="s">
-        <v>30</v>
+      <c r="A402">
+        <v>2130</v>
       </c>
       <c r="B402" t="s">
         <v>91</v>
@@ -36493,8 +36493,8 @@
       </c>
     </row>
     <row r="403" spans="1:29">
-      <c r="A403" t="s">
-        <v>31</v>
+      <c r="A403">
+        <v>625</v>
       </c>
       <c r="B403" t="s">
         <v>39</v>
@@ -36582,8 +36582,8 @@
       </c>
     </row>
     <row r="404" spans="1:29">
-      <c r="A404" t="s">
-        <v>32</v>
+      <c r="A404">
+        <v>600733</v>
       </c>
       <c r="B404" t="s">
         <v>80</v>
@@ -36671,8 +36671,8 @@
       </c>
     </row>
     <row r="405" spans="1:29">
-      <c r="A405" t="s">
-        <v>33</v>
+      <c r="A405">
+        <v>600030</v>
       </c>
       <c r="B405" t="s">
         <v>109</v>
@@ -36760,8 +36760,8 @@
       </c>
     </row>
     <row r="406" spans="1:29">
-      <c r="A406" t="s">
-        <v>34</v>
+      <c r="A406">
+        <v>600611</v>
       </c>
       <c r="B406" t="s">
         <v>110</v>
@@ -36849,8 +36849,8 @@
       </c>
     </row>
     <row r="407" spans="1:29">
-      <c r="A407" t="s">
-        <v>35</v>
+      <c r="A407">
+        <v>600900</v>
       </c>
       <c r="B407" t="s">
         <v>88</v>
@@ -36938,8 +36938,8 @@
       </c>
     </row>
     <row r="408" spans="1:29">
-      <c r="A408" t="s">
-        <v>36</v>
+      <c r="A408">
+        <v>2475</v>
       </c>
       <c r="B408" t="s">
         <v>55</v>
@@ -37027,8 +37027,8 @@
       </c>
     </row>
     <row r="409" spans="1:29">
-      <c r="A409" t="s">
-        <v>37</v>
+      <c r="A409">
+        <v>603019</v>
       </c>
       <c r="B409" t="s">
         <v>47</v>
@@ -37116,8 +37116,8 @@
       </c>
     </row>
     <row r="410" spans="1:29">
-      <c r="A410" t="s">
-        <v>38</v>
+      <c r="A410">
+        <v>600418</v>
       </c>
       <c r="B410" t="s">
         <v>74</v>
@@ -37202,6 +37202,896 @@
       </c>
       <c r="AC410">
         <v>2.025974025974029</v>
+      </c>
+    </row>
+    <row r="411" spans="1:29">
+      <c r="A411" t="s">
+        <v>29</v>
+      </c>
+      <c r="B411" t="s">
+        <v>58</v>
+      </c>
+      <c r="C411">
+        <v>15.43</v>
+      </c>
+      <c r="D411">
+        <v>-6.65</v>
+      </c>
+      <c r="E411">
+        <v>-1.1</v>
+      </c>
+      <c r="F411">
+        <v>2882152</v>
+      </c>
+      <c r="G411">
+        <v>4506442225</v>
+      </c>
+      <c r="H411">
+        <v>5.2</v>
+      </c>
+      <c r="I411">
+        <v>16.24</v>
+      </c>
+      <c r="J411">
+        <v>15.38</v>
+      </c>
+      <c r="K411">
+        <v>16.08</v>
+      </c>
+      <c r="L411">
+        <v>16.53</v>
+      </c>
+      <c r="M411">
+        <v>1.51</v>
+      </c>
+      <c r="N411">
+        <v>1.4</v>
+      </c>
+      <c r="O411">
+        <v>16.38</v>
+      </c>
+      <c r="P411">
+        <v>3.51</v>
+      </c>
+      <c r="Q411">
+        <v>410096826344</v>
+      </c>
+      <c r="R411">
+        <v>317183601545</v>
+      </c>
+      <c r="S411">
+        <v>-0.06</v>
+      </c>
+      <c r="T411">
+        <v>-0.13</v>
+      </c>
+      <c r="U411">
+        <v>-14.61</v>
+      </c>
+      <c r="V411">
+        <v>25.86</v>
+      </c>
+      <c r="W411" s="2">
+        <v>45498</v>
+      </c>
+      <c r="X411">
+        <v>15.85</v>
+      </c>
+      <c r="Y411">
+        <v>2.72</v>
+      </c>
+      <c r="Z411">
+        <v>16.09</v>
+      </c>
+      <c r="AA411">
+        <v>15.51</v>
+      </c>
+      <c r="AB411">
+        <v>15.55</v>
+      </c>
+      <c r="AC411">
+        <v>4.277381723914454</v>
+      </c>
+    </row>
+    <row r="412" spans="1:29">
+      <c r="A412" t="s">
+        <v>30</v>
+      </c>
+      <c r="B412" t="s">
+        <v>39</v>
+      </c>
+      <c r="C412">
+        <v>15.08</v>
+      </c>
+      <c r="D412">
+        <v>3.64</v>
+      </c>
+      <c r="E412">
+        <v>0.53</v>
+      </c>
+      <c r="F412">
+        <v>2187295</v>
+      </c>
+      <c r="G412">
+        <v>3262311178.52</v>
+      </c>
+      <c r="H412">
+        <v>5.98</v>
+      </c>
+      <c r="I412">
+        <v>15.28</v>
+      </c>
+      <c r="J412">
+        <v>14.41</v>
+      </c>
+      <c r="K412">
+        <v>14.41</v>
+      </c>
+      <c r="L412">
+        <v>14.55</v>
+      </c>
+      <c r="M412">
+        <v>0.91</v>
+      </c>
+      <c r="N412">
+        <v>2.66</v>
+      </c>
+      <c r="O412">
+        <v>32.29</v>
+      </c>
+      <c r="P412">
+        <v>2.14</v>
+      </c>
+      <c r="Q412">
+        <v>149552718618</v>
+      </c>
+      <c r="R412">
+        <v>123867190574</v>
+      </c>
+      <c r="S412">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="T412">
+        <v>0</v>
+      </c>
+      <c r="U412">
+        <v>-7.09</v>
+      </c>
+      <c r="V412">
+        <v>-8.550000000000001</v>
+      </c>
+      <c r="W412" s="2">
+        <v>45498</v>
+      </c>
+      <c r="X412">
+        <v>15.13</v>
+      </c>
+      <c r="Y412">
+        <v>0.33</v>
+      </c>
+      <c r="Z412">
+        <v>15.37</v>
+      </c>
+      <c r="AA412">
+        <v>14.87</v>
+      </c>
+      <c r="AB412">
+        <v>15.15</v>
+      </c>
+      <c r="AC412">
+        <v>1.923076923076917</v>
+      </c>
+    </row>
+    <row r="413" spans="1:29">
+      <c r="A413" t="s">
+        <v>31</v>
+      </c>
+      <c r="B413" t="s">
+        <v>42</v>
+      </c>
+      <c r="C413">
+        <v>23.2</v>
+      </c>
+      <c r="D413">
+        <v>-4.53</v>
+      </c>
+      <c r="E413">
+        <v>-1.1</v>
+      </c>
+      <c r="F413">
+        <v>1346031</v>
+      </c>
+      <c r="G413">
+        <v>3140485430</v>
+      </c>
+      <c r="H413">
+        <v>3.05</v>
+      </c>
+      <c r="I413">
+        <v>23.74</v>
+      </c>
+      <c r="J413">
+        <v>23</v>
+      </c>
+      <c r="K413">
+        <v>23.5</v>
+      </c>
+      <c r="L413">
+        <v>24.3</v>
+      </c>
+      <c r="M413">
+        <v>1.19</v>
+      </c>
+      <c r="N413">
+        <v>0.68</v>
+      </c>
+      <c r="O413">
+        <v>27.54</v>
+      </c>
+      <c r="P413">
+        <v>3.17</v>
+      </c>
+      <c r="Q413">
+        <v>460927011938</v>
+      </c>
+      <c r="R413">
+        <v>460799592805</v>
+      </c>
+      <c r="S413">
+        <v>0</v>
+      </c>
+      <c r="T413">
+        <v>0</v>
+      </c>
+      <c r="U413">
+        <v>-4.96</v>
+      </c>
+      <c r="V413">
+        <v>53.44</v>
+      </c>
+      <c r="W413" s="2">
+        <v>45498</v>
+      </c>
+      <c r="X413">
+        <v>23.5</v>
+      </c>
+      <c r="Y413">
+        <v>1.29</v>
+      </c>
+      <c r="Z413">
+        <v>23.66</v>
+      </c>
+      <c r="AA413">
+        <v>22.95</v>
+      </c>
+      <c r="AB413">
+        <v>23.2</v>
+      </c>
+      <c r="AC413">
+        <v>1.982758620689659</v>
+      </c>
+    </row>
+    <row r="414" spans="1:29">
+      <c r="A414" t="s">
+        <v>32</v>
+      </c>
+      <c r="B414" t="s">
+        <v>88</v>
+      </c>
+      <c r="C414">
+        <v>30.83</v>
+      </c>
+      <c r="D414">
+        <v>-0.68</v>
+      </c>
+      <c r="E414">
+        <v>-0.21</v>
+      </c>
+      <c r="F414">
+        <v>977369</v>
+      </c>
+      <c r="G414">
+        <v>3005729069</v>
+      </c>
+      <c r="H414">
+        <v>2.93</v>
+      </c>
+      <c r="I414">
+        <v>31.28</v>
+      </c>
+      <c r="J414">
+        <v>30.37</v>
+      </c>
+      <c r="K414">
+        <v>31.07</v>
+      </c>
+      <c r="L414">
+        <v>31.04</v>
+      </c>
+      <c r="M414">
+        <v>1</v>
+      </c>
+      <c r="N414">
+        <v>0.41</v>
+      </c>
+      <c r="O414">
+        <v>47.54</v>
+      </c>
+      <c r="P414">
+        <v>4.07</v>
+      </c>
+      <c r="Q414">
+        <v>754355152184</v>
+      </c>
+      <c r="R414">
+        <v>740143717987</v>
+      </c>
+      <c r="S414">
+        <v>-0.19</v>
+      </c>
+      <c r="T414">
+        <v>0</v>
+      </c>
+      <c r="U414">
+        <v>24.57</v>
+      </c>
+      <c r="V414">
+        <v>36.9</v>
+      </c>
+      <c r="W414" s="2">
+        <v>45498</v>
+      </c>
+      <c r="X414">
+        <v>30.15</v>
+      </c>
+      <c r="Y414">
+        <v>-2.21</v>
+      </c>
+      <c r="Z414">
+        <v>30.71</v>
+      </c>
+      <c r="AA414">
+        <v>29.73</v>
+      </c>
+      <c r="AB414">
+        <v>30.71</v>
+      </c>
+      <c r="AC414">
+        <v>-0.3892312682452074</v>
+      </c>
+    </row>
+    <row r="415" spans="1:29">
+      <c r="A415" t="s">
+        <v>33</v>
+      </c>
+      <c r="B415" t="s">
+        <v>82</v>
+      </c>
+      <c r="C415">
+        <v>21.4</v>
+      </c>
+      <c r="D415">
+        <v>-1.47</v>
+      </c>
+      <c r="E415">
+        <v>-0.32</v>
+      </c>
+      <c r="F415">
+        <v>1354026</v>
+      </c>
+      <c r="G415">
+        <v>2912910132</v>
+      </c>
+      <c r="H415">
+        <v>4.79</v>
+      </c>
+      <c r="I415">
+        <v>22.07</v>
+      </c>
+      <c r="J415">
+        <v>21.03</v>
+      </c>
+      <c r="K415">
+        <v>21.51</v>
+      </c>
+      <c r="L415">
+        <v>21.72</v>
+      </c>
+      <c r="M415">
+        <v>0.93</v>
+      </c>
+      <c r="N415">
+        <v>19.1</v>
+      </c>
+      <c r="O415">
+        <v>102.79</v>
+      </c>
+      <c r="P415">
+        <v>3.77</v>
+      </c>
+      <c r="Q415">
+        <v>15170958684</v>
+      </c>
+      <c r="R415">
+        <v>15170958684</v>
+      </c>
+      <c r="S415">
+        <v>0</v>
+      </c>
+      <c r="T415">
+        <v>-0.23</v>
+      </c>
+      <c r="U415">
+        <v>78.63</v>
+      </c>
+      <c r="V415">
+        <v>51.56</v>
+      </c>
+      <c r="W415" s="2">
+        <v>45498</v>
+      </c>
+      <c r="X415">
+        <v>20.83</v>
+      </c>
+      <c r="Y415">
+        <v>-2.66</v>
+      </c>
+      <c r="Z415">
+        <v>21.49</v>
+      </c>
+      <c r="AA415">
+        <v>20.53</v>
+      </c>
+      <c r="AB415">
+        <v>21.37</v>
+      </c>
+      <c r="AC415">
+        <v>0.4205607476635508</v>
+      </c>
+    </row>
+    <row r="416" spans="1:29">
+      <c r="A416" t="s">
+        <v>34</v>
+      </c>
+      <c r="B416" t="s">
+        <v>55</v>
+      </c>
+      <c r="C416">
+        <v>37.09</v>
+      </c>
+      <c r="D416">
+        <v>-2.09</v>
+      </c>
+      <c r="E416">
+        <v>-0.79</v>
+      </c>
+      <c r="F416">
+        <v>761516</v>
+      </c>
+      <c r="G416">
+        <v>2803169140.25</v>
+      </c>
+      <c r="H416">
+        <v>4.33</v>
+      </c>
+      <c r="I416">
+        <v>37.76</v>
+      </c>
+      <c r="J416">
+        <v>36.12</v>
+      </c>
+      <c r="K416">
+        <v>37.3</v>
+      </c>
+      <c r="L416">
+        <v>37.88</v>
+      </c>
+      <c r="M416">
+        <v>0.91</v>
+      </c>
+      <c r="N416">
+        <v>1.06</v>
+      </c>
+      <c r="O416">
+        <v>27.03</v>
+      </c>
+      <c r="P416">
+        <v>4.75</v>
+      </c>
+      <c r="Q416">
+        <v>267170977236</v>
+      </c>
+      <c r="R416">
+        <v>266593507077</v>
+      </c>
+      <c r="S416">
+        <v>0.35</v>
+      </c>
+      <c r="T416">
+        <v>0.32</v>
+      </c>
+      <c r="U416">
+        <v>30.19</v>
+      </c>
+      <c r="V416">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="W416" s="2">
+        <v>45498</v>
+      </c>
+      <c r="X416">
+        <v>37.92</v>
+      </c>
+      <c r="Y416">
+        <v>2.24</v>
+      </c>
+      <c r="Z416">
+        <v>38.1</v>
+      </c>
+      <c r="AA416">
+        <v>36.6</v>
+      </c>
+      <c r="AB416">
+        <v>36.87</v>
+      </c>
+      <c r="AC416">
+        <v>2.723105958479369</v>
+      </c>
+    </row>
+    <row r="417" spans="1:29">
+      <c r="A417" t="s">
+        <v>35</v>
+      </c>
+      <c r="B417" t="s">
+        <v>80</v>
+      </c>
+      <c r="C417">
+        <v>8.51</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>3196141</v>
+      </c>
+      <c r="G417">
+        <v>2727289972</v>
+      </c>
+      <c r="H417">
+        <v>4.47</v>
+      </c>
+      <c r="I417">
+        <v>8.73</v>
+      </c>
+      <c r="J417">
+        <v>8.35</v>
+      </c>
+      <c r="K417">
+        <v>8.5</v>
+      </c>
+      <c r="L417">
+        <v>8.51</v>
+      </c>
+      <c r="M417">
+        <v>0.71</v>
+      </c>
+      <c r="N417">
+        <v>6.59</v>
+      </c>
+      <c r="O417">
+        <v>-11.67</v>
+      </c>
+      <c r="P417">
+        <v>9</v>
+      </c>
+      <c r="Q417">
+        <v>47430511968</v>
+      </c>
+      <c r="R417">
+        <v>41255783252</v>
+      </c>
+      <c r="S417">
+        <v>-0.23</v>
+      </c>
+      <c r="T417">
+        <v>-0.47</v>
+      </c>
+      <c r="U417">
+        <v>21.75</v>
+      </c>
+      <c r="V417">
+        <v>38.83</v>
+      </c>
+      <c r="W417" s="2">
+        <v>45498</v>
+      </c>
+      <c r="X417">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="Y417">
+        <v>6.35</v>
+      </c>
+      <c r="Z417">
+        <v>9.16</v>
+      </c>
+      <c r="AA417">
+        <v>8.31</v>
+      </c>
+      <c r="AB417">
+        <v>8.52</v>
+      </c>
+      <c r="AC417">
+        <v>7.638072855464165</v>
+      </c>
+    </row>
+    <row r="418" spans="1:29">
+      <c r="A418" t="s">
+        <v>36</v>
+      </c>
+      <c r="B418" t="s">
+        <v>96</v>
+      </c>
+      <c r="C418">
+        <v>40.01</v>
+      </c>
+      <c r="D418">
+        <v>-5.5</v>
+      </c>
+      <c r="E418">
+        <v>-2.33</v>
+      </c>
+      <c r="F418">
+        <v>663765</v>
+      </c>
+      <c r="G418">
+        <v>2688695022</v>
+      </c>
+      <c r="H418">
+        <v>5.64</v>
+      </c>
+      <c r="I418">
+        <v>42.09</v>
+      </c>
+      <c r="J418">
+        <v>39.7</v>
+      </c>
+      <c r="K418">
+        <v>42.02</v>
+      </c>
+      <c r="L418">
+        <v>42.34</v>
+      </c>
+      <c r="M418">
+        <v>1.65</v>
+      </c>
+      <c r="N418">
+        <v>1.48</v>
+      </c>
+      <c r="O418">
+        <v>111.55</v>
+      </c>
+      <c r="P418">
+        <v>3.69</v>
+      </c>
+      <c r="Q418">
+        <v>178941874608</v>
+      </c>
+      <c r="R418">
+        <v>178941874608</v>
+      </c>
+      <c r="S418">
+        <v>-0.12</v>
+      </c>
+      <c r="T418">
+        <v>-0.17</v>
+      </c>
+      <c r="U418">
+        <v>6.86</v>
+      </c>
+      <c r="V418">
+        <v>35.9</v>
+      </c>
+      <c r="W418" s="2">
+        <v>45498</v>
+      </c>
+      <c r="X418">
+        <v>40.53</v>
+      </c>
+      <c r="Y418">
+        <v>1.3</v>
+      </c>
+      <c r="Z418">
+        <v>40.92</v>
+      </c>
+      <c r="AA418">
+        <v>39.8</v>
+      </c>
+      <c r="AB418">
+        <v>40.01</v>
+      </c>
+      <c r="AC418">
+        <v>2.274431392151971</v>
+      </c>
+    </row>
+    <row r="419" spans="1:29">
+      <c r="A419" t="s">
+        <v>37</v>
+      </c>
+      <c r="B419" t="s">
+        <v>60</v>
+      </c>
+      <c r="C419">
+        <v>32.83</v>
+      </c>
+      <c r="D419">
+        <v>-1.05</v>
+      </c>
+      <c r="E419">
+        <v>-0.35</v>
+      </c>
+      <c r="F419">
+        <v>762079</v>
+      </c>
+      <c r="G419">
+        <v>2496804673</v>
+      </c>
+      <c r="H419">
+        <v>2.86</v>
+      </c>
+      <c r="I419">
+        <v>33.32</v>
+      </c>
+      <c r="J419">
+        <v>32.37</v>
+      </c>
+      <c r="K419">
+        <v>33.22</v>
+      </c>
+      <c r="L419">
+        <v>33.18</v>
+      </c>
+      <c r="M419">
+        <v>1.18</v>
+      </c>
+      <c r="N419">
+        <v>0.37</v>
+      </c>
+      <c r="O419">
+        <v>5.44</v>
+      </c>
+      <c r="P419">
+        <v>0.89</v>
+      </c>
+      <c r="Q419">
+        <v>827967531081</v>
+      </c>
+      <c r="R419">
+        <v>677248245604</v>
+      </c>
+      <c r="S419">
+        <v>-0.21</v>
+      </c>
+      <c r="T419">
+        <v>-0.09</v>
+      </c>
+      <c r="U419">
+        <v>0.98</v>
+      </c>
+      <c r="V419">
+        <v>27</v>
+      </c>
+      <c r="W419" s="2">
+        <v>45498</v>
+      </c>
+      <c r="X419">
+        <v>32.37</v>
+      </c>
+      <c r="Y419">
+        <v>-1.4</v>
+      </c>
+      <c r="Z419">
+        <v>33.04</v>
+      </c>
+      <c r="AA419">
+        <v>32.11</v>
+      </c>
+      <c r="AB419">
+        <v>32.8</v>
+      </c>
+      <c r="AC419">
+        <v>0.6396588486140751</v>
+      </c>
+    </row>
+    <row r="420" spans="1:29">
+      <c r="A420" t="s">
+        <v>38</v>
+      </c>
+      <c r="B420" t="s">
+        <v>109</v>
+      </c>
+      <c r="C420">
+        <v>19.02</v>
+      </c>
+      <c r="D420">
+        <v>0.74</v>
+      </c>
+      <c r="E420">
+        <v>0.14</v>
+      </c>
+      <c r="F420">
+        <v>1306207</v>
+      </c>
+      <c r="G420">
+        <v>2490783477</v>
+      </c>
+      <c r="H420">
+        <v>2.91</v>
+      </c>
+      <c r="I420">
+        <v>19.34</v>
+      </c>
+      <c r="J420">
+        <v>18.79</v>
+      </c>
+      <c r="K420">
+        <v>18.84</v>
+      </c>
+      <c r="L420">
+        <v>18.88</v>
+      </c>
+      <c r="M420">
+        <v>0.63</v>
+      </c>
+      <c r="N420">
+        <v>1.15</v>
+      </c>
+      <c r="O420">
+        <v>14.21</v>
+      </c>
+      <c r="P420">
+        <v>1.1</v>
+      </c>
+      <c r="Q420">
+        <v>281886800688</v>
+      </c>
+      <c r="R420">
+        <v>216194317222</v>
+      </c>
+      <c r="S420">
+        <v>-0.16</v>
+      </c>
+      <c r="T420">
+        <v>-0.16</v>
+      </c>
+      <c r="U420">
+        <v>-0.73</v>
+      </c>
+      <c r="V420">
+        <v>-6.63</v>
+      </c>
+      <c r="W420" s="2">
+        <v>45498</v>
+      </c>
+      <c r="X420">
+        <v>19.26</v>
+      </c>
+      <c r="Y420">
+        <v>1.26</v>
+      </c>
+      <c r="Z420">
+        <v>19.54</v>
+      </c>
+      <c r="AA420">
+        <v>18.87</v>
+      </c>
+      <c r="AB420">
+        <v>18.92</v>
+      </c>
+      <c r="AC420">
+        <v>2.73396424815983</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="113">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
-    <t>601899</t>
+    <t>600733</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>000651</t>
+  </si>
+  <si>
+    <t>600900</t>
   </si>
   <si>
     <t>000625</t>
   </si>
   <si>
-    <t>601138</t>
+    <t>601899</t>
   </si>
   <si>
-    <t>600900</t>
+    <t>600686</t>
+  </si>
+  <si>
+    <t>002475</t>
   </si>
   <si>
     <t>600171</t>
   </si>
   <si>
-    <t>002475</t>
-  </si>
-  <si>
-    <t>600733</t>
-  </si>
-  <si>
-    <t>600150</t>
-  </si>
-  <si>
-    <t>600036</t>
-  </si>
-  <si>
-    <t>600030</t>
+    <t>601985</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>大众交通</t>
+  </si>
+  <si>
+    <t>金龙汽车</t>
+  </si>
+  <si>
+    <t>中国核电</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC420"/>
+  <dimension ref="A1:AC430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37205,8 +37211,8 @@
       </c>
     </row>
     <row r="411" spans="1:29">
-      <c r="A411" t="s">
-        <v>29</v>
+      <c r="A411">
+        <v>601899</v>
       </c>
       <c r="B411" t="s">
         <v>58</v>
@@ -37294,8 +37300,8 @@
       </c>
     </row>
     <row r="412" spans="1:29">
-      <c r="A412" t="s">
-        <v>30</v>
+      <c r="A412">
+        <v>625</v>
       </c>
       <c r="B412" t="s">
         <v>39</v>
@@ -37383,8 +37389,8 @@
       </c>
     </row>
     <row r="413" spans="1:29">
-      <c r="A413" t="s">
-        <v>31</v>
+      <c r="A413">
+        <v>601138</v>
       </c>
       <c r="B413" t="s">
         <v>42</v>
@@ -37472,8 +37478,8 @@
       </c>
     </row>
     <row r="414" spans="1:29">
-      <c r="A414" t="s">
-        <v>32</v>
+      <c r="A414">
+        <v>600900</v>
       </c>
       <c r="B414" t="s">
         <v>88</v>
@@ -37561,8 +37567,8 @@
       </c>
     </row>
     <row r="415" spans="1:29">
-      <c r="A415" t="s">
-        <v>33</v>
+      <c r="A415">
+        <v>600171</v>
       </c>
       <c r="B415" t="s">
         <v>82</v>
@@ -37650,8 +37656,8 @@
       </c>
     </row>
     <row r="416" spans="1:29">
-      <c r="A416" t="s">
-        <v>34</v>
+      <c r="A416">
+        <v>2475</v>
       </c>
       <c r="B416" t="s">
         <v>55</v>
@@ -37739,8 +37745,8 @@
       </c>
     </row>
     <row r="417" spans="1:29">
-      <c r="A417" t="s">
-        <v>35</v>
+      <c r="A417">
+        <v>600733</v>
       </c>
       <c r="B417" t="s">
         <v>80</v>
@@ -37828,8 +37834,8 @@
       </c>
     </row>
     <row r="418" spans="1:29">
-      <c r="A418" t="s">
-        <v>36</v>
+      <c r="A418">
+        <v>600150</v>
       </c>
       <c r="B418" t="s">
         <v>96</v>
@@ -37917,8 +37923,8 @@
       </c>
     </row>
     <row r="419" spans="1:29">
-      <c r="A419" t="s">
-        <v>37</v>
+      <c r="A419">
+        <v>600036</v>
       </c>
       <c r="B419" t="s">
         <v>60</v>
@@ -38006,8 +38012,8 @@
       </c>
     </row>
     <row r="420" spans="1:29">
-      <c r="A420" t="s">
-        <v>38</v>
+      <c r="A420">
+        <v>600030</v>
       </c>
       <c r="B420" t="s">
         <v>109</v>
@@ -38092,6 +38098,896 @@
       </c>
       <c r="AC420">
         <v>2.73396424815983</v>
+      </c>
+    </row>
+    <row r="421" spans="1:29">
+      <c r="A421" t="s">
+        <v>29</v>
+      </c>
+      <c r="B421" t="s">
+        <v>80</v>
+      </c>
+      <c r="C421">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="D421">
+        <v>6.35</v>
+      </c>
+      <c r="E421">
+        <v>0.54</v>
+      </c>
+      <c r="F421">
+        <v>4958529</v>
+      </c>
+      <c r="G421">
+        <v>4335251553</v>
+      </c>
+      <c r="H421">
+        <v>9.99</v>
+      </c>
+      <c r="I421">
+        <v>9.16</v>
+      </c>
+      <c r="J421">
+        <v>8.31</v>
+      </c>
+      <c r="K421">
+        <v>8.52</v>
+      </c>
+      <c r="L421">
+        <v>8.51</v>
+      </c>
+      <c r="M421">
+        <v>1.09</v>
+      </c>
+      <c r="N421">
+        <v>10.23</v>
+      </c>
+      <c r="O421">
+        <v>-12.41</v>
+      </c>
+      <c r="P421">
+        <v>9.57</v>
+      </c>
+      <c r="Q421">
+        <v>50440203679</v>
+      </c>
+      <c r="R421">
+        <v>43873659040</v>
+      </c>
+      <c r="S421">
+        <v>-0.11</v>
+      </c>
+      <c r="T421">
+        <v>-0.11</v>
+      </c>
+      <c r="U421">
+        <v>32.5</v>
+      </c>
+      <c r="V421">
+        <v>47.63</v>
+      </c>
+      <c r="W421" s="2">
+        <v>45499</v>
+      </c>
+      <c r="X421">
+        <v>9.1</v>
+      </c>
+      <c r="Y421">
+        <v>0.55</v>
+      </c>
+      <c r="Z421">
+        <v>9.33</v>
+      </c>
+      <c r="AA421">
+        <v>8.98</v>
+      </c>
+      <c r="AB421">
+        <v>9.07</v>
+      </c>
+      <c r="AC421">
+        <v>3.093922651933695</v>
+      </c>
+    </row>
+    <row r="422" spans="1:29">
+      <c r="A422" t="s">
+        <v>30</v>
+      </c>
+      <c r="B422" t="s">
+        <v>110</v>
+      </c>
+      <c r="C422">
+        <v>8.43</v>
+      </c>
+      <c r="D422">
+        <v>7.8</v>
+      </c>
+      <c r="E422">
+        <v>0.61</v>
+      </c>
+      <c r="F422">
+        <v>4860823</v>
+      </c>
+      <c r="G422">
+        <v>4021033130</v>
+      </c>
+      <c r="H422">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="I422">
+        <v>8.6</v>
+      </c>
+      <c r="J422">
+        <v>7.82</v>
+      </c>
+      <c r="K422">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L422">
+        <v>7.82</v>
+      </c>
+      <c r="M422">
+        <v>1.4</v>
+      </c>
+      <c r="N422">
+        <v>31.09</v>
+      </c>
+      <c r="O422">
+        <v>271.63</v>
+      </c>
+      <c r="P422">
+        <v>2.1</v>
+      </c>
+      <c r="Q422">
+        <v>19929555744</v>
+      </c>
+      <c r="R422">
+        <v>13178756949</v>
+      </c>
+      <c r="S422">
+        <v>0.36</v>
+      </c>
+      <c r="T422">
+        <v>0</v>
+      </c>
+      <c r="U422">
+        <v>190.69</v>
+      </c>
+      <c r="V422">
+        <v>182.89</v>
+      </c>
+      <c r="W422" s="2">
+        <v>45499</v>
+      </c>
+      <c r="X422">
+        <v>9.27</v>
+      </c>
+      <c r="Y422">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="Z422">
+        <v>9.27</v>
+      </c>
+      <c r="AA422">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB422">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="AC422">
+        <v>9.964412811387898</v>
+      </c>
+    </row>
+    <row r="423" spans="1:29">
+      <c r="A423" t="s">
+        <v>31</v>
+      </c>
+      <c r="B423" t="s">
+        <v>44</v>
+      </c>
+      <c r="C423">
+        <v>39.83</v>
+      </c>
+      <c r="D423">
+        <v>6.53</v>
+      </c>
+      <c r="E423">
+        <v>2.44</v>
+      </c>
+      <c r="F423">
+        <v>938741</v>
+      </c>
+      <c r="G423">
+        <v>3707523769.09</v>
+      </c>
+      <c r="H423">
+        <v>2.75</v>
+      </c>
+      <c r="I423">
+        <v>39.93</v>
+      </c>
+      <c r="J423">
+        <v>38.9</v>
+      </c>
+      <c r="K423">
+        <v>38.99</v>
+      </c>
+      <c r="L423">
+        <v>37.39</v>
+      </c>
+      <c r="M423">
+        <v>3.43</v>
+      </c>
+      <c r="N423">
+        <v>1.68</v>
+      </c>
+      <c r="O423">
+        <v>11.99</v>
+      </c>
+      <c r="P423">
+        <v>1.85</v>
+      </c>
+      <c r="Q423">
+        <v>224298890664</v>
+      </c>
+      <c r="R423">
+        <v>222376849365</v>
+      </c>
+      <c r="S423">
+        <v>0.08</v>
+      </c>
+      <c r="T423">
+        <v>0.08</v>
+      </c>
+      <c r="U423">
+        <v>-1.68</v>
+      </c>
+      <c r="V423">
+        <v>23.81</v>
+      </c>
+      <c r="W423" s="2">
+        <v>45499</v>
+      </c>
+      <c r="X423">
+        <v>39.83</v>
+      </c>
+      <c r="Y423">
+        <v>0</v>
+      </c>
+      <c r="Z423">
+        <v>40.35</v>
+      </c>
+      <c r="AA423">
+        <v>39.5</v>
+      </c>
+      <c r="AB423">
+        <v>40.07</v>
+      </c>
+      <c r="AC423">
+        <v>1.305548581471261</v>
+      </c>
+    </row>
+    <row r="424" spans="1:29">
+      <c r="A424" t="s">
+        <v>32</v>
+      </c>
+      <c r="B424" t="s">
+        <v>88</v>
+      </c>
+      <c r="C424">
+        <v>30.15</v>
+      </c>
+      <c r="D424">
+        <v>-2.21</v>
+      </c>
+      <c r="E424">
+        <v>-0.68</v>
+      </c>
+      <c r="F424">
+        <v>1149553</v>
+      </c>
+      <c r="G424">
+        <v>3451737426</v>
+      </c>
+      <c r="H424">
+        <v>3.18</v>
+      </c>
+      <c r="I424">
+        <v>30.71</v>
+      </c>
+      <c r="J424">
+        <v>29.73</v>
+      </c>
+      <c r="K424">
+        <v>30.71</v>
+      </c>
+      <c r="L424">
+        <v>30.83</v>
+      </c>
+      <c r="M424">
+        <v>1.18</v>
+      </c>
+      <c r="N424">
+        <v>0.48</v>
+      </c>
+      <c r="O424">
+        <v>46.49</v>
+      </c>
+      <c r="P424">
+        <v>3.98</v>
+      </c>
+      <c r="Q424">
+        <v>737716764137</v>
+      </c>
+      <c r="R424">
+        <v>723818783565</v>
+      </c>
+      <c r="S424">
+        <v>0.03</v>
+      </c>
+      <c r="T424">
+        <v>0.17</v>
+      </c>
+      <c r="U424">
+        <v>22.26</v>
+      </c>
+      <c r="V424">
+        <v>33.88</v>
+      </c>
+      <c r="W424" s="2">
+        <v>45499</v>
+      </c>
+      <c r="X424">
+        <v>30.2</v>
+      </c>
+      <c r="Y424">
+        <v>0.17</v>
+      </c>
+      <c r="Z424">
+        <v>30.4</v>
+      </c>
+      <c r="AA424">
+        <v>29.51</v>
+      </c>
+      <c r="AB424">
+        <v>29.96</v>
+      </c>
+      <c r="AC424">
+        <v>0.8291873963515755</v>
+      </c>
+    </row>
+    <row r="425" spans="1:29">
+      <c r="A425" t="s">
+        <v>33</v>
+      </c>
+      <c r="B425" t="s">
+        <v>39</v>
+      </c>
+      <c r="C425">
+        <v>15.13</v>
+      </c>
+      <c r="D425">
+        <v>0.33</v>
+      </c>
+      <c r="E425">
+        <v>0.05</v>
+      </c>
+      <c r="F425">
+        <v>1870475</v>
+      </c>
+      <c r="G425">
+        <v>2826044078.3</v>
+      </c>
+      <c r="H425">
+        <v>3.32</v>
+      </c>
+      <c r="I425">
+        <v>15.37</v>
+      </c>
+      <c r="J425">
+        <v>14.87</v>
+      </c>
+      <c r="K425">
+        <v>15.15</v>
+      </c>
+      <c r="L425">
+        <v>15.08</v>
+      </c>
+      <c r="M425">
+        <v>0.78</v>
+      </c>
+      <c r="N425">
+        <v>2.28</v>
+      </c>
+      <c r="O425">
+        <v>32.39</v>
+      </c>
+      <c r="P425">
+        <v>2.15</v>
+      </c>
+      <c r="Q425">
+        <v>150048583069</v>
+      </c>
+      <c r="R425">
+        <v>124277890808</v>
+      </c>
+      <c r="S425">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="T425">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U425">
+        <v>-5.56</v>
+      </c>
+      <c r="V425">
+        <v>-8.25</v>
+      </c>
+      <c r="W425" s="2">
+        <v>45499</v>
+      </c>
+      <c r="X425">
+        <v>15.01</v>
+      </c>
+      <c r="Y425">
+        <v>-0.79</v>
+      </c>
+      <c r="Z425">
+        <v>15.38</v>
+      </c>
+      <c r="AA425">
+        <v>14.96</v>
+      </c>
+      <c r="AB425">
+        <v>15</v>
+      </c>
+      <c r="AC425">
+        <v>1.652346331791143</v>
+      </c>
+    </row>
+    <row r="426" spans="1:29">
+      <c r="A426" t="s">
+        <v>34</v>
+      </c>
+      <c r="B426" t="s">
+        <v>58</v>
+      </c>
+      <c r="C426">
+        <v>15.85</v>
+      </c>
+      <c r="D426">
+        <v>2.72</v>
+      </c>
+      <c r="E426">
+        <v>0.42</v>
+      </c>
+      <c r="F426">
+        <v>1753896</v>
+      </c>
+      <c r="G426">
+        <v>2781765969</v>
+      </c>
+      <c r="H426">
+        <v>3.76</v>
+      </c>
+      <c r="I426">
+        <v>16.09</v>
+      </c>
+      <c r="J426">
+        <v>15.51</v>
+      </c>
+      <c r="K426">
+        <v>15.55</v>
+      </c>
+      <c r="L426">
+        <v>15.43</v>
+      </c>
+      <c r="M426">
+        <v>0.8</v>
+      </c>
+      <c r="N426">
+        <v>0.85</v>
+      </c>
+      <c r="O426">
+        <v>16.82</v>
+      </c>
+      <c r="P426">
+        <v>3.61</v>
+      </c>
+      <c r="Q426">
+        <v>421259539699</v>
+      </c>
+      <c r="R426">
+        <v>325817244621</v>
+      </c>
+      <c r="S426">
+        <v>0.06</v>
+      </c>
+      <c r="T426">
+        <v>0.13</v>
+      </c>
+      <c r="U426">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="V426">
+        <v>29.28</v>
+      </c>
+      <c r="W426" s="2">
+        <v>45499</v>
+      </c>
+      <c r="X426">
+        <v>16.11</v>
+      </c>
+      <c r="Y426">
+        <v>1.64</v>
+      </c>
+      <c r="Z426">
+        <v>16.28</v>
+      </c>
+      <c r="AA426">
+        <v>15.76</v>
+      </c>
+      <c r="AB426">
+        <v>16</v>
+      </c>
+      <c r="AC426">
+        <v>2.712933753943227</v>
+      </c>
+    </row>
+    <row r="427" spans="1:29">
+      <c r="A427" t="s">
+        <v>35</v>
+      </c>
+      <c r="B427" t="s">
+        <v>111</v>
+      </c>
+      <c r="C427">
+        <v>14.11</v>
+      </c>
+      <c r="D427">
+        <v>9.98</v>
+      </c>
+      <c r="E427">
+        <v>1.28</v>
+      </c>
+      <c r="F427">
+        <v>2080059</v>
+      </c>
+      <c r="G427">
+        <v>2777002792</v>
+      </c>
+      <c r="H427">
+        <v>15.28</v>
+      </c>
+      <c r="I427">
+        <v>14.11</v>
+      </c>
+      <c r="J427">
+        <v>12.15</v>
+      </c>
+      <c r="K427">
+        <v>13.85</v>
+      </c>
+      <c r="L427">
+        <v>12.83</v>
+      </c>
+      <c r="M427">
+        <v>1.69</v>
+      </c>
+      <c r="N427">
+        <v>29.01</v>
+      </c>
+      <c r="O427">
+        <v>143.23</v>
+      </c>
+      <c r="P427">
+        <v>3.24</v>
+      </c>
+      <c r="Q427">
+        <v>10117539054</v>
+      </c>
+      <c r="R427">
+        <v>10117539054</v>
+      </c>
+      <c r="S427">
+        <v>0</v>
+      </c>
+      <c r="T427">
+        <v>0</v>
+      </c>
+      <c r="U427">
+        <v>73.77</v>
+      </c>
+      <c r="V427">
+        <v>87.14</v>
+      </c>
+      <c r="W427" s="2">
+        <v>45499</v>
+      </c>
+      <c r="X427">
+        <v>15.52</v>
+      </c>
+      <c r="Y427">
+        <v>9.99</v>
+      </c>
+      <c r="Z427">
+        <v>15.52</v>
+      </c>
+      <c r="AA427">
+        <v>14.79</v>
+      </c>
+      <c r="AB427">
+        <v>14.8</v>
+      </c>
+      <c r="AC427">
+        <v>9.992912827781716</v>
+      </c>
+    </row>
+    <row r="428" spans="1:29">
+      <c r="A428" t="s">
+        <v>36</v>
+      </c>
+      <c r="B428" t="s">
+        <v>55</v>
+      </c>
+      <c r="C428">
+        <v>37.92</v>
+      </c>
+      <c r="D428">
+        <v>2.24</v>
+      </c>
+      <c r="E428">
+        <v>0.83</v>
+      </c>
+      <c r="F428">
+        <v>734279</v>
+      </c>
+      <c r="G428">
+        <v>2758321201.03</v>
+      </c>
+      <c r="H428">
+        <v>4.04</v>
+      </c>
+      <c r="I428">
+        <v>38.1</v>
+      </c>
+      <c r="J428">
+        <v>36.6</v>
+      </c>
+      <c r="K428">
+        <v>36.87</v>
+      </c>
+      <c r="L428">
+        <v>37.09</v>
+      </c>
+      <c r="M428">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N428">
+        <v>1.02</v>
+      </c>
+      <c r="O428">
+        <v>27.64</v>
+      </c>
+      <c r="P428">
+        <v>4.85</v>
+      </c>
+      <c r="Q428">
+        <v>273149729220</v>
+      </c>
+      <c r="R428">
+        <v>272559336435</v>
+      </c>
+      <c r="S428">
+        <v>0.05</v>
+      </c>
+      <c r="T428">
+        <v>-0.05</v>
+      </c>
+      <c r="U428">
+        <v>28.41</v>
+      </c>
+      <c r="V428">
+        <v>11.04</v>
+      </c>
+      <c r="W428" s="2">
+        <v>45499</v>
+      </c>
+      <c r="X428">
+        <v>38.38</v>
+      </c>
+      <c r="Y428">
+        <v>1.21</v>
+      </c>
+      <c r="Z428">
+        <v>39.38</v>
+      </c>
+      <c r="AA428">
+        <v>37.44</v>
+      </c>
+      <c r="AB428">
+        <v>37.92</v>
+      </c>
+      <c r="AC428">
+        <v>3.850210970464137</v>
+      </c>
+    </row>
+    <row r="429" spans="1:29">
+      <c r="A429" t="s">
+        <v>37</v>
+      </c>
+      <c r="B429" t="s">
+        <v>82</v>
+      </c>
+      <c r="C429">
+        <v>20.83</v>
+      </c>
+      <c r="D429">
+        <v>-2.66</v>
+      </c>
+      <c r="E429">
+        <v>-0.57</v>
+      </c>
+      <c r="F429">
+        <v>1262253</v>
+      </c>
+      <c r="G429">
+        <v>2645365550</v>
+      </c>
+      <c r="H429">
+        <v>4.49</v>
+      </c>
+      <c r="I429">
+        <v>21.49</v>
+      </c>
+      <c r="J429">
+        <v>20.53</v>
+      </c>
+      <c r="K429">
+        <v>21.37</v>
+      </c>
+      <c r="L429">
+        <v>21.4</v>
+      </c>
+      <c r="M429">
+        <v>0.82</v>
+      </c>
+      <c r="N429">
+        <v>17.81</v>
+      </c>
+      <c r="O429">
+        <v>100.05</v>
+      </c>
+      <c r="P429">
+        <v>3.67</v>
+      </c>
+      <c r="Q429">
+        <v>14766872401</v>
+      </c>
+      <c r="R429">
+        <v>14766872401</v>
+      </c>
+      <c r="S429">
+        <v>0.19</v>
+      </c>
+      <c r="T429">
+        <v>-0.05</v>
+      </c>
+      <c r="U429">
+        <v>65.06</v>
+      </c>
+      <c r="V429">
+        <v>47.52</v>
+      </c>
+      <c r="W429" s="2">
+        <v>45499</v>
+      </c>
+      <c r="X429">
+        <v>22.46</v>
+      </c>
+      <c r="Y429">
+        <v>7.83</v>
+      </c>
+      <c r="Z429">
+        <v>22.83</v>
+      </c>
+      <c r="AA429">
+        <v>21.09</v>
+      </c>
+      <c r="AB429">
+        <v>21.1</v>
+      </c>
+      <c r="AC429">
+        <v>9.601536245799329</v>
+      </c>
+    </row>
+    <row r="430" spans="1:29">
+      <c r="A430" t="s">
+        <v>38</v>
+      </c>
+      <c r="B430" t="s">
+        <v>112</v>
+      </c>
+      <c r="C430">
+        <v>12.01</v>
+      </c>
+      <c r="D430">
+        <v>-1.72</v>
+      </c>
+      <c r="E430">
+        <v>-0.21</v>
+      </c>
+      <c r="F430">
+        <v>2069709</v>
+      </c>
+      <c r="G430">
+        <v>2476398141</v>
+      </c>
+      <c r="H430">
+        <v>2.7</v>
+      </c>
+      <c r="I430">
+        <v>12.17</v>
+      </c>
+      <c r="J430">
+        <v>11.84</v>
+      </c>
+      <c r="K430">
+        <v>12.15</v>
+      </c>
+      <c r="L430">
+        <v>12.22</v>
+      </c>
+      <c r="M430">
+        <v>1.35</v>
+      </c>
+      <c r="N430">
+        <v>1.1</v>
+      </c>
+      <c r="O430">
+        <v>18.54</v>
+      </c>
+      <c r="P430">
+        <v>2.54</v>
+      </c>
+      <c r="Q430">
+        <v>226788251253</v>
+      </c>
+      <c r="R430">
+        <v>226788251253</v>
+      </c>
+      <c r="S430">
+        <v>-0.08</v>
+      </c>
+      <c r="T430">
+        <v>0.08</v>
+      </c>
+      <c r="U430">
+        <v>34.79</v>
+      </c>
+      <c r="V430">
+        <v>64.3</v>
+      </c>
+      <c r="W430" s="2">
+        <v>45499</v>
+      </c>
+      <c r="X430">
+        <v>11.9</v>
+      </c>
+      <c r="Y430">
+        <v>-0.92</v>
+      </c>
+      <c r="Z430">
+        <v>12.03</v>
+      </c>
+      <c r="AA430">
+        <v>11.78</v>
+      </c>
+      <c r="AB430">
+        <v>11.91</v>
+      </c>
+      <c r="AC430">
+        <v>0.1665278934221447</v>
       </c>
     </row>
   </sheetData>

--- a/dailymarket/dailymarketmerge.xlsx
+++ b/dailymarket/dailymarketmerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="113">
   <si>
     <t>代码</t>
   </si>
@@ -103,34 +103,34 @@
     <t>high_rate</t>
   </si>
   <si>
+    <t>600171</t>
+  </si>
+  <si>
     <t>600733</t>
   </si>
   <si>
-    <t>600611</t>
+    <t>002085</t>
   </si>
   <si>
-    <t>000651</t>
+    <t>002475</t>
   </si>
   <si>
-    <t>600900</t>
+    <t>002130</t>
   </si>
   <si>
     <t>000625</t>
   </si>
   <si>
+    <t>601138</t>
+  </si>
+  <si>
     <t>601899</t>
   </si>
   <si>
-    <t>600686</t>
+    <t>001696</t>
   </si>
   <si>
-    <t>002475</t>
-  </si>
-  <si>
-    <t>600171</t>
-  </si>
-  <si>
-    <t>601985</t>
+    <t>600900</t>
   </si>
   <si>
     <t>长安汽车</t>
@@ -714,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC430"/>
+  <dimension ref="A1:AC440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38101,8 +38101,8 @@
       </c>
     </row>
     <row r="421" spans="1:29">
-      <c r="A421" t="s">
-        <v>29</v>
+      <c r="A421">
+        <v>600733</v>
       </c>
       <c r="B421" t="s">
         <v>80</v>
@@ -38190,8 +38190,8 @@
       </c>
     </row>
     <row r="422" spans="1:29">
-      <c r="A422" t="s">
-        <v>30</v>
+      <c r="A422">
+        <v>600611</v>
       </c>
       <c r="B422" t="s">
         <v>110</v>
@@ -38279,8 +38279,8 @@
       </c>
     </row>
     <row r="423" spans="1:29">
-      <c r="A423" t="s">
-        <v>31</v>
+      <c r="A423">
+        <v>651</v>
       </c>
       <c r="B423" t="s">
         <v>44</v>
@@ -38368,8 +38368,8 @@
       </c>
     </row>
     <row r="424" spans="1:29">
-      <c r="A424" t="s">
-        <v>32</v>
+      <c r="A424">
+        <v>600900</v>
       </c>
       <c r="B424" t="s">
         <v>88</v>
@@ -38457,8 +38457,8 @@
       </c>
     </row>
     <row r="425" spans="1:29">
-      <c r="A425" t="s">
-        <v>33</v>
+      <c r="A425">
+        <v>625</v>
       </c>
       <c r="B425" t="s">
         <v>39</v>
@@ -38546,8 +38546,8 @@
       </c>
     </row>
     <row r="426" spans="1:29">
-      <c r="A426" t="s">
-        <v>34</v>
+      <c r="A426">
+        <v>601899</v>
       </c>
       <c r="B426" t="s">
         <v>58</v>
@@ -38635,8 +38635,8 @@
       </c>
     </row>
     <row r="427" spans="1:29">
-      <c r="A427" t="s">
-        <v>35</v>
+      <c r="A427">
+        <v>600686</v>
       </c>
       <c r="B427" t="s">
         <v>111</v>
@@ -38724,8 +38724,8 @@
       </c>
     </row>
     <row r="428" spans="1:29">
-      <c r="A428" t="s">
-        <v>36</v>
+      <c r="A428">
+        <v>2475</v>
       </c>
       <c r="B428" t="s">
         <v>55</v>
@@ -38813,8 +38813,8 @@
       </c>
     </row>
     <row r="429" spans="1:29">
-      <c r="A429" t="s">
-        <v>37</v>
+      <c r="A429">
+        <v>600171</v>
       </c>
       <c r="B429" t="s">
         <v>82</v>
@@ -38902,8 +38902,8 @@
       </c>
     </row>
     <row r="430" spans="1:29">
-      <c r="A430" t="s">
-        <v>38</v>
+      <c r="A430">
+        <v>601985</v>
       </c>
       <c r="B430" t="s">
         <v>112</v>
@@ -38988,6 +38988,896 @@
       </c>
       <c r="AC430">
         <v>0.1665278934221447</v>
+      </c>
+    </row>
+    <row r="431" spans="1:29">
+      <c r="A431" t="s">
+        <v>29</v>
+      </c>
+      <c r="B431" t="s">
+        <v>82</v>
+      </c>
+      <c r="C431">
+        <v>22.46</v>
+      </c>
+      <c r="D431">
+        <v>7.83</v>
+      </c>
+      <c r="E431">
+        <v>1.63</v>
+      </c>
+      <c r="F431">
+        <v>1553042</v>
+      </c>
+      <c r="G431">
+        <v>3440899074</v>
+      </c>
+      <c r="H431">
+        <v>8.35</v>
+      </c>
+      <c r="I431">
+        <v>22.83</v>
+      </c>
+      <c r="J431">
+        <v>21.09</v>
+      </c>
+      <c r="K431">
+        <v>21.1</v>
+      </c>
+      <c r="L431">
+        <v>20.83</v>
+      </c>
+      <c r="M431">
+        <v>0.96</v>
+      </c>
+      <c r="N431">
+        <v>21.91</v>
+      </c>
+      <c r="O431">
+        <v>107.88</v>
+      </c>
+      <c r="P431">
+        <v>3.95</v>
+      </c>
+      <c r="Q431">
+        <v>15922417385</v>
+      </c>
+      <c r="R431">
+        <v>15922417385</v>
+      </c>
+      <c r="S431">
+        <v>0</v>
+      </c>
+      <c r="T431">
+        <v>0.49</v>
+      </c>
+      <c r="U431">
+        <v>79.25</v>
+      </c>
+      <c r="V431">
+        <v>59.07</v>
+      </c>
+      <c r="W431" s="2">
+        <v>45502</v>
+      </c>
+      <c r="X431">
+        <v>24.71</v>
+      </c>
+      <c r="Y431">
+        <v>10.02</v>
+      </c>
+      <c r="Z431">
+        <v>24.71</v>
+      </c>
+      <c r="AA431">
+        <v>21.38</v>
+      </c>
+      <c r="AB431">
+        <v>21.95</v>
+      </c>
+      <c r="AC431">
+        <v>10.01780943900267</v>
+      </c>
+    </row>
+    <row r="432" spans="1:29">
+      <c r="A432" t="s">
+        <v>30</v>
+      </c>
+      <c r="B432" t="s">
+        <v>80</v>
+      </c>
+      <c r="C432">
+        <v>9.1</v>
+      </c>
+      <c r="D432">
+        <v>0.55</v>
+      </c>
+      <c r="E432">
+        <v>0.05</v>
+      </c>
+      <c r="F432">
+        <v>3681277</v>
+      </c>
+      <c r="G432">
+        <v>3363508403</v>
+      </c>
+      <c r="H432">
+        <v>3.87</v>
+      </c>
+      <c r="I432">
+        <v>9.33</v>
+      </c>
+      <c r="J432">
+        <v>8.98</v>
+      </c>
+      <c r="K432">
+        <v>9.07</v>
+      </c>
+      <c r="L432">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="M432">
+        <v>0.83</v>
+      </c>
+      <c r="N432">
+        <v>7.59</v>
+      </c>
+      <c r="O432">
+        <v>-12.48</v>
+      </c>
+      <c r="P432">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q432">
+        <v>50718878838</v>
+      </c>
+      <c r="R432">
+        <v>44116054947</v>
+      </c>
+      <c r="S432">
+        <v>0.11</v>
+      </c>
+      <c r="T432">
+        <v>-0.11</v>
+      </c>
+      <c r="U432">
+        <v>33.43</v>
+      </c>
+      <c r="V432">
+        <v>48.45</v>
+      </c>
+      <c r="W432" s="2">
+        <v>45502</v>
+      </c>
+      <c r="X432">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="Y432">
+        <v>-4.18</v>
+      </c>
+      <c r="Z432">
+        <v>9.08</v>
+      </c>
+      <c r="AA432">
+        <v>8.68</v>
+      </c>
+      <c r="AB432">
+        <v>9.06</v>
+      </c>
+      <c r="AC432">
+        <v>-0.2197802197802151</v>
+      </c>
+    </row>
+    <row r="433" spans="1:29">
+      <c r="A433" t="s">
+        <v>31</v>
+      </c>
+      <c r="B433" t="s">
+        <v>41</v>
+      </c>
+      <c r="C433">
+        <v>12.84</v>
+      </c>
+      <c r="D433">
+        <v>10.03</v>
+      </c>
+      <c r="E433">
+        <v>1.17</v>
+      </c>
+      <c r="F433">
+        <v>2386528</v>
+      </c>
+      <c r="G433">
+        <v>2950064389.58</v>
+      </c>
+      <c r="H433">
+        <v>11.65</v>
+      </c>
+      <c r="I433">
+        <v>12.84</v>
+      </c>
+      <c r="J433">
+        <v>11.48</v>
+      </c>
+      <c r="K433">
+        <v>11.66</v>
+      </c>
+      <c r="L433">
+        <v>11.67</v>
+      </c>
+      <c r="M433">
+        <v>2.45</v>
+      </c>
+      <c r="N433">
+        <v>11.24</v>
+      </c>
+      <c r="O433">
+        <v>30.05</v>
+      </c>
+      <c r="P433">
+        <v>4.17</v>
+      </c>
+      <c r="Q433">
+        <v>27263140157</v>
+      </c>
+      <c r="R433">
+        <v>27263140157</v>
+      </c>
+      <c r="S433">
+        <v>0</v>
+      </c>
+      <c r="T433">
+        <v>0</v>
+      </c>
+      <c r="U433">
+        <v>-20.25</v>
+      </c>
+      <c r="V433">
+        <v>168.06</v>
+      </c>
+      <c r="W433" s="2">
+        <v>45502</v>
+      </c>
+      <c r="X433">
+        <v>13.64</v>
+      </c>
+      <c r="Y433">
+        <v>6.23</v>
+      </c>
+      <c r="Z433">
+        <v>13.84</v>
+      </c>
+      <c r="AA433">
+        <v>12.7</v>
+      </c>
+      <c r="AB433">
+        <v>12.86</v>
+      </c>
+      <c r="AC433">
+        <v>7.78816199376947</v>
+      </c>
+    </row>
+    <row r="434" spans="1:29">
+      <c r="A434" t="s">
+        <v>32</v>
+      </c>
+      <c r="B434" t="s">
+        <v>55</v>
+      </c>
+      <c r="C434">
+        <v>38.38</v>
+      </c>
+      <c r="D434">
+        <v>1.21</v>
+      </c>
+      <c r="E434">
+        <v>0.46</v>
+      </c>
+      <c r="F434">
+        <v>740614</v>
+      </c>
+      <c r="G434">
+        <v>2851512370.11</v>
+      </c>
+      <c r="H434">
+        <v>5.12</v>
+      </c>
+      <c r="I434">
+        <v>39.38</v>
+      </c>
+      <c r="J434">
+        <v>37.44</v>
+      </c>
+      <c r="K434">
+        <v>37.92</v>
+      </c>
+      <c r="L434">
+        <v>37.92</v>
+      </c>
+      <c r="M434">
+        <v>0.99</v>
+      </c>
+      <c r="N434">
+        <v>1.03</v>
+      </c>
+      <c r="O434">
+        <v>27.97</v>
+      </c>
+      <c r="P434">
+        <v>4.91</v>
+      </c>
+      <c r="Q434">
+        <v>276463254417</v>
+      </c>
+      <c r="R434">
+        <v>275865699693</v>
+      </c>
+      <c r="S434">
+        <v>0</v>
+      </c>
+      <c r="T434">
+        <v>0.08</v>
+      </c>
+      <c r="U434">
+        <v>32.8</v>
+      </c>
+      <c r="V434">
+        <v>12.39</v>
+      </c>
+      <c r="W434" s="2">
+        <v>45502</v>
+      </c>
+      <c r="X434">
+        <v>37.46</v>
+      </c>
+      <c r="Y434">
+        <v>-2.4</v>
+      </c>
+      <c r="Z434">
+        <v>38.37</v>
+      </c>
+      <c r="AA434">
+        <v>37.13</v>
+      </c>
+      <c r="AB434">
+        <v>38.14</v>
+      </c>
+      <c r="AC434">
+        <v>-0.02605523710267096</v>
+      </c>
+    </row>
+    <row r="435" spans="1:29">
+      <c r="A435" t="s">
+        <v>33</v>
+      </c>
+      <c r="B435" t="s">
+        <v>91</v>
+      </c>
+      <c r="C435">
+        <v>16.58</v>
+      </c>
+      <c r="D435">
+        <v>3.82</v>
+      </c>
+      <c r="E435">
+        <v>0.61</v>
+      </c>
+      <c r="F435">
+        <v>1626671</v>
+      </c>
+      <c r="G435">
+        <v>2665298544.21</v>
+      </c>
+      <c r="H435">
+        <v>10.27</v>
+      </c>
+      <c r="I435">
+        <v>17.3</v>
+      </c>
+      <c r="J435">
+        <v>15.66</v>
+      </c>
+      <c r="K435">
+        <v>15.9</v>
+      </c>
+      <c r="L435">
+        <v>15.97</v>
+      </c>
+      <c r="M435">
+        <v>1.12</v>
+      </c>
+      <c r="N435">
+        <v>13.02</v>
+      </c>
+      <c r="O435">
+        <v>28.34</v>
+      </c>
+      <c r="P435">
+        <v>4.3</v>
+      </c>
+      <c r="Q435">
+        <v>20889118158</v>
+      </c>
+      <c r="R435">
+        <v>20710892559</v>
+      </c>
+      <c r="S435">
+        <v>0.18</v>
+      </c>
+      <c r="T435">
+        <v>0.67</v>
+      </c>
+      <c r="U435">
+        <v>16.93</v>
+      </c>
+      <c r="V435">
+        <v>124.66</v>
+      </c>
+      <c r="W435" s="2">
+        <v>45502</v>
+      </c>
+      <c r="X435">
+        <v>16.9</v>
+      </c>
+      <c r="Y435">
+        <v>1.93</v>
+      </c>
+      <c r="Z435">
+        <v>17.89</v>
+      </c>
+      <c r="AA435">
+        <v>16.18</v>
+      </c>
+      <c r="AB435">
+        <v>16.39</v>
+      </c>
+      <c r="AC435">
+        <v>7.901085645355865</v>
+      </c>
+    </row>
+    <row r="436" spans="1:29">
+      <c r="A436" t="s">
+        <v>34</v>
+      </c>
+      <c r="B436" t="s">
+        <v>39</v>
+      </c>
+      <c r="C436">
+        <v>15.01</v>
+      </c>
+      <c r="D436">
+        <v>-0.79</v>
+      </c>
+      <c r="E436">
+        <v>-0.12</v>
+      </c>
+      <c r="F436">
+        <v>1603035</v>
+      </c>
+      <c r="G436">
+        <v>2430408476.77</v>
+      </c>
+      <c r="H436">
+        <v>2.78</v>
+      </c>
+      <c r="I436">
+        <v>15.38</v>
+      </c>
+      <c r="J436">
+        <v>14.96</v>
+      </c>
+      <c r="K436">
+        <v>15</v>
+      </c>
+      <c r="L436">
+        <v>15.13</v>
+      </c>
+      <c r="M436">
+        <v>0.74</v>
+      </c>
+      <c r="N436">
+        <v>1.95</v>
+      </c>
+      <c r="O436">
+        <v>32.14</v>
+      </c>
+      <c r="P436">
+        <v>2.13</v>
+      </c>
+      <c r="Q436">
+        <v>148858508385</v>
+      </c>
+      <c r="R436">
+        <v>123292210247</v>
+      </c>
+      <c r="S436">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="T436">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U436">
+        <v>4.38</v>
+      </c>
+      <c r="V436">
+        <v>-8.98</v>
+      </c>
+      <c r="W436" s="2">
+        <v>45502</v>
+      </c>
+      <c r="X436">
+        <v>14.45</v>
+      </c>
+      <c r="Y436">
+        <v>-3.73</v>
+      </c>
+      <c r="Z436">
+        <v>14.9</v>
+      </c>
+      <c r="AA436">
+        <v>14.38</v>
+      </c>
+      <c r="AB436">
+        <v>14.88</v>
+      </c>
+      <c r="AC436">
+        <v>-0.7328447701532275</v>
+      </c>
+    </row>
+    <row r="437" spans="1:29">
+      <c r="A437" t="s">
+        <v>35</v>
+      </c>
+      <c r="B437" t="s">
+        <v>42</v>
+      </c>
+      <c r="C437">
+        <v>23.8</v>
+      </c>
+      <c r="D437">
+        <v>1.28</v>
+      </c>
+      <c r="E437">
+        <v>0.3</v>
+      </c>
+      <c r="F437">
+        <v>976987</v>
+      </c>
+      <c r="G437">
+        <v>2316856734</v>
+      </c>
+      <c r="H437">
+        <v>3.91</v>
+      </c>
+      <c r="I437">
+        <v>24.09</v>
+      </c>
+      <c r="J437">
+        <v>23.17</v>
+      </c>
+      <c r="K437">
+        <v>23.4</v>
+      </c>
+      <c r="L437">
+        <v>23.5</v>
+      </c>
+      <c r="M437">
+        <v>0.95</v>
+      </c>
+      <c r="N437">
+        <v>0.49</v>
+      </c>
+      <c r="O437">
+        <v>28.25</v>
+      </c>
+      <c r="P437">
+        <v>3.25</v>
+      </c>
+      <c r="Q437">
+        <v>472847538108</v>
+      </c>
+      <c r="R437">
+        <v>472716823653</v>
+      </c>
+      <c r="S437">
+        <v>0.04</v>
+      </c>
+      <c r="T437">
+        <v>0.08</v>
+      </c>
+      <c r="U437">
+        <v>-2.86</v>
+      </c>
+      <c r="V437">
+        <v>57.41</v>
+      </c>
+      <c r="W437" s="2">
+        <v>45502</v>
+      </c>
+      <c r="X437">
+        <v>22.85</v>
+      </c>
+      <c r="Y437">
+        <v>-3.99</v>
+      </c>
+      <c r="Z437">
+        <v>23.6</v>
+      </c>
+      <c r="AA437">
+        <v>22.63</v>
+      </c>
+      <c r="AB437">
+        <v>23.49</v>
+      </c>
+      <c r="AC437">
+        <v>-0.8403361344537785</v>
+      </c>
+    </row>
+    <row r="438" spans="1:29">
+      <c r="A438" t="s">
+        <v>36</v>
+      </c>
+      <c r="B438" t="s">
+        <v>58</v>
+      </c>
+      <c r="C438">
+        <v>16.11</v>
+      </c>
+      <c r="D438">
+        <v>1.64</v>
+      </c>
+      <c r="E438">
+        <v>0.26</v>
+      </c>
+      <c r="F438">
+        <v>1439936</v>
+      </c>
+      <c r="G438">
+        <v>2311428227</v>
+      </c>
+      <c r="H438">
+        <v>3.28</v>
+      </c>
+      <c r="I438">
+        <v>16.28</v>
+      </c>
+      <c r="J438">
+        <v>15.76</v>
+      </c>
+      <c r="K438">
+        <v>16</v>
+      </c>
+      <c r="L438">
+        <v>15.85</v>
+      </c>
+      <c r="M438">
+        <v>0.7</v>
+      </c>
+      <c r="N438">
+        <v>0.7</v>
+      </c>
+      <c r="O438">
+        <v>17.1</v>
+      </c>
+      <c r="P438">
+        <v>3.67</v>
+      </c>
+      <c r="Q438">
+        <v>428169790823</v>
+      </c>
+      <c r="R438">
+        <v>331161880810</v>
+      </c>
+      <c r="S438">
+        <v>0.06</v>
+      </c>
+      <c r="T438">
+        <v>0</v>
+      </c>
+      <c r="U438">
+        <v>-7.47</v>
+      </c>
+      <c r="V438">
+        <v>31.4</v>
+      </c>
+      <c r="W438" s="2">
+        <v>45502</v>
+      </c>
+      <c r="X438">
+        <v>15.91</v>
+      </c>
+      <c r="Y438">
+        <v>-1.24</v>
+      </c>
+      <c r="Z438">
+        <v>16.01</v>
+      </c>
+      <c r="AA438">
+        <v>15.73</v>
+      </c>
+      <c r="AB438">
+        <v>15.97</v>
+      </c>
+      <c r="AC438">
+        <v>-0.6207324643078701</v>
+      </c>
+    </row>
+    <row r="439" spans="1:29">
+      <c r="A439" t="s">
+        <v>37</v>
+      </c>
+      <c r="B439" t="s">
+        <v>52</v>
+      </c>
+      <c r="C439">
+        <v>12</v>
+      </c>
+      <c r="D439">
+        <v>7.62</v>
+      </c>
+      <c r="E439">
+        <v>0.85</v>
+      </c>
+      <c r="F439">
+        <v>1990539</v>
+      </c>
+      <c r="G439">
+        <v>2287853536.78</v>
+      </c>
+      <c r="H439">
+        <v>13</v>
+      </c>
+      <c r="I439">
+        <v>12.26</v>
+      </c>
+      <c r="J439">
+        <v>10.81</v>
+      </c>
+      <c r="K439">
+        <v>10.91</v>
+      </c>
+      <c r="L439">
+        <v>11.15</v>
+      </c>
+      <c r="M439">
+        <v>1.67</v>
+      </c>
+      <c r="N439">
+        <v>22.33</v>
+      </c>
+      <c r="O439">
+        <v>28.57</v>
+      </c>
+      <c r="P439">
+        <v>2.95</v>
+      </c>
+      <c r="Q439">
+        <v>13740323040</v>
+      </c>
+      <c r="R439">
+        <v>10696076700</v>
+      </c>
+      <c r="S439">
+        <v>0</v>
+      </c>
+      <c r="T439">
+        <v>-0.08</v>
+      </c>
+      <c r="U439">
+        <v>4.53</v>
+      </c>
+      <c r="V439">
+        <v>88.09</v>
+      </c>
+      <c r="W439" s="2">
+        <v>45502</v>
+      </c>
+      <c r="X439">
+        <v>11.78</v>
+      </c>
+      <c r="Y439">
+        <v>-1.83</v>
+      </c>
+      <c r="Z439">
+        <v>12.62</v>
+      </c>
+      <c r="AA439">
+        <v>11.58</v>
+      </c>
+      <c r="AB439">
+        <v>11.76</v>
+      </c>
+      <c r="AC439">
+        <v>5.166666666666661</v>
+      </c>
+    </row>
+    <row r="440" spans="1:29">
+      <c r="A440" t="s">
+        <v>38</v>
+      </c>
+      <c r="B440" t="s">
+        <v>88</v>
+      </c>
+      <c r="C440">
+        <v>30.2</v>
+      </c>
+      <c r="D440">
+        <v>0.17</v>
+      </c>
+      <c r="E440">
+        <v>0.05</v>
+      </c>
+      <c r="F440">
+        <v>751623</v>
+      </c>
+      <c r="G440">
+        <v>2258829166</v>
+      </c>
+      <c r="H440">
+        <v>2.95</v>
+      </c>
+      <c r="I440">
+        <v>30.4</v>
+      </c>
+      <c r="J440">
+        <v>29.51</v>
+      </c>
+      <c r="K440">
+        <v>29.96</v>
+      </c>
+      <c r="L440">
+        <v>30.15</v>
+      </c>
+      <c r="M440">
+        <v>0.77</v>
+      </c>
+      <c r="N440">
+        <v>0.31</v>
+      </c>
+      <c r="O440">
+        <v>46.57</v>
+      </c>
+      <c r="P440">
+        <v>3.98</v>
+      </c>
+      <c r="Q440">
+        <v>738940175023</v>
+      </c>
+      <c r="R440">
+        <v>725019146391</v>
+      </c>
+      <c r="S440">
+        <v>0</v>
+      </c>
+      <c r="T440">
+        <v>0.03</v>
+      </c>
+      <c r="U440">
+        <v>20.95</v>
+      </c>
+      <c r="V440">
+        <v>34.1</v>
+      </c>
+      <c r="W440" s="2">
+        <v>45502</v>
+      </c>
+      <c r="X440">
+        <v>30.11</v>
+      </c>
+      <c r="Y440">
+        <v>-0.3</v>
+      </c>
+      <c r="Z440">
+        <v>30.46</v>
+      </c>
+      <c r="AA440">
+        <v>29.88</v>
+      </c>
+      <c r="AB440">
+        <v>30.17</v>
+      </c>
+      <c r="AC440">
+        <v>0.860927152317886</v>
       </c>
     </row>
   </sheetData>
